--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="345">
   <si>
     <t>visit_reason_a3_c_1</t>
   </si>
@@ -1056,6 +1056,9 @@
   </si>
   <si>
     <t>visits</t>
+  </si>
+  <si>
+    <t>sys_submit_id</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1461,7 @@
   <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1559,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="508">
   <si>
     <t>visit_reason_a3_c_1</t>
   </si>
@@ -1059,6 +1059,495 @@
   </si>
   <si>
     <t>sys_submit_id</t>
+  </si>
+  <si>
+    <t>dobk</t>
+  </si>
+  <si>
+    <t>a3_a_7</t>
+  </si>
+  <si>
+    <t>a3_a_4</t>
+  </si>
+  <si>
+    <t>a3_a_3</t>
+  </si>
+  <si>
+    <t>a3_a_5</t>
+  </si>
+  <si>
+    <t>a3_a_6</t>
+  </si>
+  <si>
+    <t>a3_a_8</t>
+  </si>
+  <si>
+    <t>incl1</t>
+  </si>
+  <si>
+    <t>excl1</t>
+  </si>
+  <si>
+    <t>is_young_infant</t>
+  </si>
+  <si>
+    <t>a3_c_1</t>
+  </si>
+  <si>
+    <t>a3_c_1o</t>
+  </si>
+  <si>
+    <t>main_cg_name</t>
+  </si>
+  <si>
+    <t>a3_c_3a</t>
+  </si>
+  <si>
+    <t>a3_c_3b</t>
+  </si>
+  <si>
+    <t>a3_c_3c</t>
+  </si>
+  <si>
+    <t>a3_a_10</t>
+  </si>
+  <si>
+    <t>excl3</t>
+  </si>
+  <si>
+    <t>a3_a_11</t>
+  </si>
+  <si>
+    <t>incl2</t>
+  </si>
+  <si>
+    <t>odk_ref</t>
+  </si>
+  <si>
+    <t>a3_b_1</t>
+  </si>
+  <si>
+    <t>former_timci_id</t>
+  </si>
+  <si>
+    <t>a3_b_2</t>
+  </si>
+  <si>
+    <t>a3_b_4</t>
+  </si>
+  <si>
+    <t>a3_b_2a</t>
+  </si>
+  <si>
+    <t>a3_b_3</t>
+  </si>
+  <si>
+    <t>a3_b_5</t>
+  </si>
+  <si>
+    <t>a3_b_3_1</t>
+  </si>
+  <si>
+    <t>repeat_visit</t>
+  </si>
+  <si>
+    <t>consent_signed</t>
+  </si>
+  <si>
+    <t>enrolment</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>a4_c_1</t>
+  </si>
+  <si>
+    <t>a4_c_2</t>
+  </si>
+  <si>
+    <t>a4_a_6</t>
+  </si>
+  <si>
+    <t>a4_a_10</t>
+  </si>
+  <si>
+    <t>a4_a_11</t>
+  </si>
+  <si>
+    <t>a4_a_1</t>
+  </si>
+  <si>
+    <t>c3_6o</t>
+  </si>
+  <si>
+    <t>c3_6</t>
+  </si>
+  <si>
+    <t>a4_a_3</t>
+  </si>
+  <si>
+    <t>a4_a_8_2</t>
+  </si>
+  <si>
+    <t>a4_a_9_2</t>
+  </si>
+  <si>
+    <t>a4_c_4</t>
+  </si>
+  <si>
+    <t>a4_c_7</t>
+  </si>
+  <si>
+    <t>location_type</t>
+  </si>
+  <si>
+    <t>m2_2</t>
+  </si>
+  <si>
+    <t>m1_1</t>
+  </si>
+  <si>
+    <t>m1_1o</t>
+  </si>
+  <si>
+    <t>m1_2</t>
+  </si>
+  <si>
+    <t>m1_3</t>
+  </si>
+  <si>
+    <t>m2_3</t>
+  </si>
+  <si>
+    <t>m2_4</t>
+  </si>
+  <si>
+    <t>m2_5</t>
+  </si>
+  <si>
+    <t>illnessduration</t>
+  </si>
+  <si>
+    <t>sym_convulsion</t>
+  </si>
+  <si>
+    <t>sym_lethargy</t>
+  </si>
+  <si>
+    <t>c1_a_10</t>
+  </si>
+  <si>
+    <t>c1_a_10a</t>
+  </si>
+  <si>
+    <t>sym_less_appetite</t>
+  </si>
+  <si>
+    <t>sym_no_appetite</t>
+  </si>
+  <si>
+    <t>c1_a_1</t>
+  </si>
+  <si>
+    <t>c1_a_2</t>
+  </si>
+  <si>
+    <t>c1_a_3</t>
+  </si>
+  <si>
+    <t>c1_a_4</t>
+  </si>
+  <si>
+    <t>c1_a_6</t>
+  </si>
+  <si>
+    <t>m2_6</t>
+  </si>
+  <si>
+    <t>m2_6a</t>
+  </si>
+  <si>
+    <t>m2_6b</t>
+  </si>
+  <si>
+    <t>m2_7</t>
+  </si>
+  <si>
+    <t>m2_7a</t>
+  </si>
+  <si>
+    <t>m2_7b</t>
+  </si>
+  <si>
+    <t>m2_8a</t>
+  </si>
+  <si>
+    <t>m2_8</t>
+  </si>
+  <si>
+    <t>m2_9</t>
+  </si>
+  <si>
+    <t>b1_6</t>
+  </si>
+  <si>
+    <t>m3_1b</t>
+  </si>
+  <si>
+    <t>m3_2</t>
+  </si>
+  <si>
+    <t>m3_3</t>
+  </si>
+  <si>
+    <t>m3_3o</t>
+  </si>
+  <si>
+    <t>m3_4</t>
+  </si>
+  <si>
+    <t>m3_5</t>
+  </si>
+  <si>
+    <t>m3_5o</t>
+  </si>
+  <si>
+    <t>m3_6</t>
+  </si>
+  <si>
+    <t>m3_7</t>
+  </si>
+  <si>
+    <t>m3_8a</t>
+  </si>
+  <si>
+    <t>m3_9a</t>
+  </si>
+  <si>
+    <t>c1_a_7</t>
+  </si>
+  <si>
+    <t>c1_a_8</t>
+  </si>
+  <si>
+    <t>c1_a_9</t>
+  </si>
+  <si>
+    <t>c1_a_11</t>
+  </si>
+  <si>
+    <t>c1_a_11o</t>
+  </si>
+  <si>
+    <t>b1_2</t>
+  </si>
+  <si>
+    <t>b1_3</t>
+  </si>
+  <si>
+    <t>b1_2a</t>
+  </si>
+  <si>
+    <t>b2_2a_o</t>
+  </si>
+  <si>
+    <t>b1_1</t>
+  </si>
+  <si>
+    <t>b1_5</t>
+  </si>
+  <si>
+    <t>b1_2b</t>
+  </si>
+  <si>
+    <t>b2_2b_o</t>
+  </si>
+  <si>
+    <t>b1_4</t>
+  </si>
+  <si>
+    <t>b1_4o</t>
+  </si>
+  <si>
+    <t>b2_1</t>
+  </si>
+  <si>
+    <t>b2_1o</t>
+  </si>
+  <si>
+    <t>b2_2</t>
+  </si>
+  <si>
+    <t>b2_3</t>
+  </si>
+  <si>
+    <t>m2_1</t>
+  </si>
+  <si>
+    <t>m2_1o</t>
+  </si>
+  <si>
+    <t>referral</t>
+  </si>
+  <si>
+    <t>fu</t>
+  </si>
+  <si>
+    <t>injection</t>
+  </si>
+  <si>
+    <t>injection_types</t>
+  </si>
+  <si>
+    <t>injection_typeso</t>
+  </si>
+  <si>
+    <t>h2_1a</t>
+  </si>
+  <si>
+    <t>h2_2</t>
+  </si>
+  <si>
+    <t>h2_2o</t>
+  </si>
+  <si>
+    <t>b1_9</t>
+  </si>
+  <si>
+    <t>g3_1</t>
+  </si>
+  <si>
+    <t>g3_1o</t>
+  </si>
+  <si>
+    <t>i2_1</t>
+  </si>
+  <si>
+    <t>i2_1a</t>
+  </si>
+  <si>
+    <t>j2_1</t>
+  </si>
+  <si>
+    <t>j2_1c</t>
+  </si>
+  <si>
+    <t>h2_2a</t>
+  </si>
+  <si>
+    <t>h2_2ao</t>
+  </si>
+  <si>
+    <t>e2_1</t>
+  </si>
+  <si>
+    <t>e2_1a</t>
+  </si>
+  <si>
+    <t>e2_2</t>
+  </si>
+  <si>
+    <t>e2_2a</t>
+  </si>
+  <si>
+    <t>e2_3</t>
+  </si>
+  <si>
+    <t>e2_3a</t>
+  </si>
+  <si>
+    <t>e2_4</t>
+  </si>
+  <si>
+    <t>e2_4a</t>
+  </si>
+  <si>
+    <t>d2_6</t>
+  </si>
+  <si>
+    <t>d2_6b</t>
+  </si>
+  <si>
+    <t>d2_1</t>
+  </si>
+  <si>
+    <t>d2_1a</t>
+  </si>
+  <si>
+    <t>d2_4</t>
+  </si>
+  <si>
+    <t>d2_4a</t>
+  </si>
+  <si>
+    <t>d2_5</t>
+  </si>
+  <si>
+    <t>d2_5a</t>
+  </si>
+  <si>
+    <t>d2_2</t>
+  </si>
+  <si>
+    <t>d2_2b</t>
+  </si>
+  <si>
+    <t>d2_3</t>
+  </si>
+  <si>
+    <t>d2_3b</t>
+  </si>
+  <si>
+    <t>f2_1</t>
+  </si>
+  <si>
+    <t>f2_1o</t>
+  </si>
+  <si>
+    <t>f2_2</t>
+  </si>
+  <si>
+    <t>f2_3</t>
+  </si>
+  <si>
+    <t>f2_4</t>
+  </si>
+  <si>
+    <t>f2_5</t>
+  </si>
+  <si>
+    <t>f2_10a</t>
+  </si>
+  <si>
+    <t>f2_6</t>
+  </si>
+  <si>
+    <t>f2_7</t>
+  </si>
+  <si>
+    <t>f2_8</t>
+  </si>
+  <si>
+    <t>f2_9</t>
+  </si>
+  <si>
+    <t>c3_1</t>
+  </si>
+  <si>
+    <t>c3_2</t>
+  </si>
+  <si>
+    <t>c3_3</t>
+  </si>
+  <si>
+    <t>c3_3a</t>
+  </si>
+  <si>
+    <t>c3_4</t>
+  </si>
+  <si>
+    <t>c3_6a</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1472,9 +1961,10 @@
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1493,8 +1983,11 @@
       <c r="F1" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1513,8 +2006,11 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -1533,8 +2029,11 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -1553,8 +2052,11 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1573,8 +2075,11 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +2098,11 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
@@ -1613,8 +2121,11 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>65</v>
       </c>
@@ -1633,8 +2144,11 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>67</v>
       </c>
@@ -1653,8 +2167,11 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -1673,8 +2190,11 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -1693,8 +2213,11 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1713,8 +2236,11 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
@@ -1733,8 +2259,11 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +2282,11 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -1773,8 +2305,11 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -1793,8 +2328,11 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
@@ -1813,8 +2351,11 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>52</v>
       </c>
@@ -1833,8 +2374,11 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
@@ -1853,8 +2397,11 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>69</v>
       </c>
@@ -1873,8 +2420,11 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
@@ -1893,8 +2443,11 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
@@ -1913,8 +2466,11 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
@@ -1933,8 +2489,11 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
@@ -1953,8 +2512,11 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
@@ -1973,8 +2535,11 @@
       <c r="F25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
@@ -1993,8 +2558,11 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>14</v>
       </c>
@@ -2013,8 +2581,11 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
@@ -2033,8 +2604,11 @@
       <c r="F28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>89</v>
       </c>
@@ -2053,8 +2627,11 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>91</v>
       </c>
@@ -2073,8 +2650,11 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>93</v>
       </c>
@@ -2093,8 +2673,11 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
@@ -2113,8 +2696,11 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>97</v>
       </c>
@@ -2133,8 +2719,11 @@
       <c r="F33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -2153,8 +2742,11 @@
       <c r="F34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
@@ -2173,8 +2765,11 @@
       <c r="F35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -2193,8 +2788,11 @@
       <c r="F36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>4</v>
       </c>
@@ -2213,8 +2811,11 @@
       <c r="F37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
@@ -2233,8 +2834,11 @@
       <c r="F38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>57</v>
       </c>
@@ -2253,8 +2857,11 @@
       <c r="F39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
@@ -2273,8 +2880,11 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>61</v>
       </c>
@@ -2293,8 +2903,11 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>79</v>
       </c>
@@ -2313,8 +2926,11 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>71</v>
       </c>
@@ -2333,8 +2949,11 @@
       <c r="F43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>73</v>
       </c>
@@ -2353,8 +2972,11 @@
       <c r="F44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>75</v>
       </c>
@@ -2373,8 +2995,11 @@
       <c r="F45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>77</v>
       </c>
@@ -2393,8 +3018,11 @@
       <c r="F46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>81</v>
       </c>
@@ -2413,8 +3041,11 @@
       <c r="F47" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
@@ -2433,8 +3064,11 @@
       <c r="F48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>85</v>
       </c>
@@ -2453,8 +3087,11 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>100</v>
       </c>
@@ -2473,8 +3110,11 @@
       <c r="F50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>87</v>
       </c>
@@ -2493,8 +3133,11 @@
       <c r="F51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>102</v>
       </c>
@@ -2513,8 +3156,11 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>104</v>
       </c>
@@ -2533,8 +3179,11 @@
       <c r="F53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>106</v>
       </c>
@@ -2553,8 +3202,11 @@
       <c r="F54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>108</v>
       </c>
@@ -2573,8 +3225,11 @@
       <c r="F55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>110</v>
       </c>
@@ -2593,8 +3248,11 @@
       <c r="F56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>112</v>
       </c>
@@ -2613,8 +3271,11 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>114</v>
       </c>
@@ -2633,8 +3294,11 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>116</v>
       </c>
@@ -2653,8 +3317,11 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>118</v>
       </c>
@@ -2673,8 +3340,11 @@
       <c r="F60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>120</v>
       </c>
@@ -2693,8 +3363,11 @@
       <c r="F61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>122</v>
       </c>
@@ -2713,8 +3386,11 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>124</v>
       </c>
@@ -2733,8 +3409,11 @@
       <c r="F63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>126</v>
       </c>
@@ -2753,8 +3432,11 @@
       <c r="F64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>128</v>
       </c>
@@ -2773,8 +3455,11 @@
       <c r="F65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>130</v>
       </c>
@@ -2793,8 +3478,11 @@
       <c r="F66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>132</v>
       </c>
@@ -2813,8 +3501,11 @@
       <c r="F67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>134</v>
       </c>
@@ -2833,8 +3524,11 @@
       <c r="F68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>136</v>
       </c>
@@ -2853,8 +3547,11 @@
       <c r="F69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>138</v>
       </c>
@@ -2873,8 +3570,11 @@
       <c r="F70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>140</v>
       </c>
@@ -2893,8 +3593,11 @@
       <c r="F71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>142</v>
       </c>
@@ -2913,8 +3616,11 @@
       <c r="F72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>144</v>
       </c>
@@ -2933,8 +3639,11 @@
       <c r="F73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>146</v>
       </c>
@@ -2953,8 +3662,11 @@
       <c r="F74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>148</v>
       </c>
@@ -2973,8 +3685,11 @@
       <c r="F75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>150</v>
       </c>
@@ -2993,8 +3708,11 @@
       <c r="F76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>152</v>
       </c>
@@ -3013,8 +3731,11 @@
       <c r="F77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>154</v>
       </c>
@@ -3033,8 +3754,11 @@
       <c r="F78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>156</v>
       </c>
@@ -3053,8 +3777,11 @@
       <c r="F79" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>158</v>
       </c>
@@ -3073,8 +3800,11 @@
       <c r="F80" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>160</v>
       </c>
@@ -3093,8 +3823,11 @@
       <c r="F81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>162</v>
       </c>
@@ -3113,8 +3846,11 @@
       <c r="F82" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>164</v>
       </c>
@@ -3133,8 +3869,11 @@
       <c r="F83" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>166</v>
       </c>
@@ -3153,8 +3892,11 @@
       <c r="F84" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>168</v>
       </c>
@@ -3173,8 +3915,11 @@
       <c r="F85" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>170</v>
       </c>
@@ -3193,8 +3938,11 @@
       <c r="F86" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>172</v>
       </c>
@@ -3213,8 +3961,11 @@
       <c r="F87" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>174</v>
       </c>
@@ -3233,8 +3984,11 @@
       <c r="F88" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>176</v>
       </c>
@@ -3253,8 +4007,11 @@
       <c r="F89" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>178</v>
       </c>
@@ -3273,8 +4030,11 @@
       <c r="F90" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>180</v>
       </c>
@@ -3293,8 +4053,11 @@
       <c r="F91" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>182</v>
       </c>
@@ -3313,8 +4076,11 @@
       <c r="F92" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>184</v>
       </c>
@@ -3333,8 +4099,11 @@
       <c r="F93" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>186</v>
       </c>
@@ -3353,8 +4122,11 @@
       <c r="F94" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>188</v>
       </c>
@@ -3373,8 +4145,11 @@
       <c r="F95" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>190</v>
       </c>
@@ -3393,8 +4168,11 @@
       <c r="F96" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>192</v>
       </c>
@@ -3413,8 +4191,11 @@
       <c r="F97" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>194</v>
       </c>
@@ -3433,8 +4214,11 @@
       <c r="F98" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>196</v>
       </c>
@@ -3453,8 +4237,11 @@
       <c r="F99" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>198</v>
       </c>
@@ -3473,8 +4260,11 @@
       <c r="F100" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>200</v>
       </c>
@@ -3493,8 +4283,11 @@
       <c r="F101" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>202</v>
       </c>
@@ -3513,8 +4306,11 @@
       <c r="F102" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>204</v>
       </c>
@@ -3533,8 +4329,11 @@
       <c r="F103" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>206</v>
       </c>
@@ -3553,8 +4352,11 @@
       <c r="F104" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>208</v>
       </c>
@@ -3573,8 +4375,11 @@
       <c r="F105" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>210</v>
       </c>
@@ -3593,8 +4398,11 @@
       <c r="F106" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>212</v>
       </c>
@@ -3613,8 +4421,11 @@
       <c r="F107" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>214</v>
       </c>
@@ -3633,8 +4444,11 @@
       <c r="F108" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>216</v>
       </c>
@@ -3653,8 +4467,11 @@
       <c r="F109" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>218</v>
       </c>
@@ -3673,8 +4490,11 @@
       <c r="F110" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>220</v>
       </c>
@@ -3693,8 +4513,11 @@
       <c r="F111" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>222</v>
       </c>
@@ -3713,8 +4536,11 @@
       <c r="F112" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>224</v>
       </c>
@@ -3733,8 +4559,11 @@
       <c r="F113" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
         <v>226</v>
       </c>
@@ -3753,8 +4582,11 @@
       <c r="F114" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>228</v>
       </c>
@@ -3773,8 +4605,11 @@
       <c r="F115" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
         <v>230</v>
       </c>
@@ -3793,8 +4628,11 @@
       <c r="F116" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>232</v>
       </c>
@@ -3813,8 +4651,11 @@
       <c r="F117" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>234</v>
       </c>
@@ -3833,8 +4674,11 @@
       <c r="F118" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>236</v>
       </c>
@@ -3853,8 +4697,11 @@
       <c r="F119" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
         <v>238</v>
       </c>
@@ -3873,8 +4720,11 @@
       <c r="F120" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>240</v>
       </c>
@@ -3893,8 +4743,11 @@
       <c r="F121" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
         <v>242</v>
       </c>
@@ -3913,8 +4766,11 @@
       <c r="F122" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>244</v>
       </c>
@@ -3933,8 +4789,11 @@
       <c r="F123" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>246</v>
       </c>
@@ -3953,8 +4812,11 @@
       <c r="F124" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>248</v>
       </c>
@@ -3973,8 +4835,11 @@
       <c r="F125" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>250</v>
       </c>
@@ -3993,8 +4858,11 @@
       <c r="F126" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>252</v>
       </c>
@@ -4013,8 +4881,11 @@
       <c r="F127" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
         <v>254</v>
       </c>
@@ -4033,8 +4904,11 @@
       <c r="F128" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
         <v>256</v>
       </c>
@@ -4053,8 +4927,11 @@
       <c r="F129" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" s="14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
         <v>258</v>
       </c>
@@ -4073,8 +4950,11 @@
       <c r="F130" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>260</v>
       </c>
@@ -4093,8 +4973,11 @@
       <c r="F131" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131" s="14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>262</v>
       </c>
@@ -4113,8 +4996,11 @@
       <c r="F132" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
         <v>264</v>
       </c>
@@ -4133,8 +5019,11 @@
       <c r="F133" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>266</v>
       </c>
@@ -4153,8 +5042,11 @@
       <c r="F134" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>268</v>
       </c>
@@ -4173,8 +5065,11 @@
       <c r="F135" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
         <v>270</v>
       </c>
@@ -4193,8 +5088,11 @@
       <c r="F136" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
         <v>272</v>
       </c>
@@ -4213,8 +5111,11 @@
       <c r="F137" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
         <v>274</v>
       </c>
@@ -4233,8 +5134,11 @@
       <c r="F138" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
         <v>276</v>
       </c>
@@ -4253,8 +5157,11 @@
       <c r="F139" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
         <v>278</v>
       </c>
@@ -4273,8 +5180,11 @@
       <c r="F140" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
         <v>280</v>
       </c>
@@ -4293,8 +5203,11 @@
       <c r="F141" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
         <v>282</v>
       </c>
@@ -4313,8 +5226,11 @@
       <c r="F142" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
         <v>284</v>
       </c>
@@ -4333,8 +5249,11 @@
       <c r="F143" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>286</v>
       </c>
@@ -4353,8 +5272,11 @@
       <c r="F144" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
         <v>288</v>
       </c>
@@ -4373,8 +5295,11 @@
       <c r="F145" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>290</v>
       </c>
@@ -4393,8 +5318,11 @@
       <c r="F146" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>292</v>
       </c>
@@ -4413,8 +5341,11 @@
       <c r="F147" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>294</v>
       </c>
@@ -4433,8 +5364,11 @@
       <c r="F148" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>296</v>
       </c>
@@ -4453,8 +5387,11 @@
       <c r="F149" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>298</v>
       </c>
@@ -4473,8 +5410,11 @@
       <c r="F150" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>300</v>
       </c>
@@ -4493,8 +5433,11 @@
       <c r="F151" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
         <v>302</v>
       </c>
@@ -4513,8 +5456,11 @@
       <c r="F152" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152" s="14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
         <v>304</v>
       </c>
@@ -4533,8 +5479,11 @@
       <c r="F153" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>306</v>
       </c>
@@ -4553,8 +5502,11 @@
       <c r="F154" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
         <v>308</v>
       </c>
@@ -4573,8 +5525,11 @@
       <c r="F155" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
         <v>310</v>
       </c>
@@ -4593,8 +5548,11 @@
       <c r="F156" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
         <v>312</v>
       </c>
@@ -4613,8 +5571,11 @@
       <c r="F157" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
         <v>314</v>
       </c>
@@ -4633,8 +5594,11 @@
       <c r="F158" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
         <v>316</v>
       </c>
@@ -4653,8 +5617,11 @@
       <c r="F159" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>318</v>
       </c>
@@ -4673,8 +5640,11 @@
       <c r="F160" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
         <v>320</v>
       </c>
@@ -4693,8 +5663,11 @@
       <c r="F161" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G161" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
         <v>322</v>
       </c>
@@ -4713,8 +5686,11 @@
       <c r="F162" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
         <v>324</v>
       </c>
@@ -4733,8 +5709,11 @@
       <c r="F163" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
         <v>326</v>
       </c>
@@ -4753,8 +5732,11 @@
       <c r="F164" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164" s="16" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
         <v>328</v>
       </c>
@@ -4773,8 +5755,11 @@
       <c r="F165" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
         <v>330</v>
       </c>
@@ -4793,8 +5778,11 @@
       <c r="F166" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G166" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="16" t="s">
         <v>332</v>
       </c>
@@ -4813,8 +5801,11 @@
       <c r="F167" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G167" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
         <v>334</v>
       </c>
@@ -4833,8 +5824,11 @@
       <c r="F168" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G168" s="16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="16" t="s">
         <v>336</v>
       </c>
@@ -4853,8 +5847,11 @@
       <c r="F169" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G169" s="16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
         <v>338</v>
       </c>
@@ -4873,8 +5870,11 @@
       <c r="F170" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
         <v>340</v>
       </c>
@@ -4892,6 +5892,9 @@
       </c>
       <c r="F171" s="3">
         <v>1</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="510">
   <si>
     <t>visit_reason_a3_c_1</t>
   </si>
@@ -1548,6 +1548,12 @@
   </si>
   <si>
     <t>c3_6a</t>
+  </si>
+  <si>
+    <t>consent_fid</t>
+  </si>
+  <si>
+    <t>fid</t>
   </si>
 </sst>
 </file>
@@ -1947,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2862,103 +2868,103 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>60</v>
+      <c r="A40" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>509</v>
       </c>
       <c r="C40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>378</v>
+      <c r="G40" s="7" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2973,15 +2979,15 @@
         <v>0</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2996,15 +3002,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -3019,15 +3025,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -3042,61 +3048,61 @@
         <v>0</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3111,15 +3117,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3134,15 +3140,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>88</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3157,21 +3163,21 @@
         <v>0</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>391</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -3180,15 +3186,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3203,15 +3209,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3226,15 +3232,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3249,15 +3255,15 @@
         <v>0</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3272,15 +3278,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3295,15 +3301,15 @@
         <v>0</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3318,15 +3324,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3341,15 +3347,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3364,15 +3370,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3387,15 +3393,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3410,15 +3416,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3433,15 +3439,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3456,15 +3462,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3479,15 +3485,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3502,15 +3508,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3525,15 +3531,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3548,15 +3554,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3571,15 +3577,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3594,15 +3600,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3617,15 +3623,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3640,15 +3646,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3663,15 +3669,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3686,15 +3692,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3709,15 +3715,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3732,15 +3738,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -3755,15 +3761,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3778,15 +3784,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3801,61 +3807,61 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B82" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="13" t="s">
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="13" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -3870,15 +3876,15 @@
         <v>1</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3893,15 +3899,15 @@
         <v>1</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3916,15 +3922,15 @@
         <v>1</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -3939,15 +3945,15 @@
         <v>1</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -3962,15 +3968,15 @@
         <v>1</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -3985,15 +3991,15 @@
         <v>1</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4008,15 +4014,15 @@
         <v>1</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4031,15 +4037,15 @@
         <v>1</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4054,15 +4060,15 @@
         <v>1</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4077,15 +4083,15 @@
         <v>1</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4100,15 +4106,15 @@
         <v>1</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4123,15 +4129,15 @@
         <v>1</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4146,15 +4152,15 @@
         <v>1</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4169,15 +4175,15 @@
         <v>1</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4192,15 +4198,15 @@
         <v>1</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4215,15 +4221,15 @@
         <v>1</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4238,15 +4244,15 @@
         <v>1</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4261,15 +4267,15 @@
         <v>1</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4284,15 +4290,15 @@
         <v>1</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4307,15 +4313,15 @@
         <v>1</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4330,15 +4336,15 @@
         <v>1</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4353,15 +4359,15 @@
         <v>1</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4376,15 +4382,15 @@
         <v>1</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4399,15 +4405,15 @@
         <v>1</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4422,15 +4428,15 @@
         <v>1</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4445,15 +4451,15 @@
         <v>1</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4468,15 +4474,15 @@
         <v>1</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4491,15 +4497,15 @@
         <v>1</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4514,15 +4520,15 @@
         <v>1</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4537,15 +4543,15 @@
         <v>1</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4560,15 +4566,15 @@
         <v>1</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4583,15 +4589,15 @@
         <v>1</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -4606,15 +4612,15 @@
         <v>1</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -4629,15 +4635,15 @@
         <v>1</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>231</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -4652,15 +4658,15 @@
         <v>1</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>455</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -4675,15 +4681,15 @@
         <v>1</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -4698,15 +4704,15 @@
         <v>1</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -4721,15 +4727,15 @@
         <v>1</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -4744,15 +4750,15 @@
         <v>1</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -4767,15 +4773,15 @@
         <v>1</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -4790,15 +4796,15 @@
         <v>1</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -4813,15 +4819,15 @@
         <v>1</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -4836,15 +4842,15 @@
         <v>1</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -4859,15 +4865,15 @@
         <v>1</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -4882,15 +4888,15 @@
         <v>1</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -4905,15 +4911,15 @@
         <v>1</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -4928,15 +4934,15 @@
         <v>1</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -4951,15 +4957,15 @@
         <v>1</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -4974,15 +4980,15 @@
         <v>1</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -4997,15 +5003,15 @@
         <v>1</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5020,15 +5026,15 @@
         <v>1</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5043,15 +5049,15 @@
         <v>1</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5066,15 +5072,15 @@
         <v>1</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5089,15 +5095,15 @@
         <v>1</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5112,15 +5118,15 @@
         <v>1</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5135,15 +5141,15 @@
         <v>1</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5158,15 +5164,15 @@
         <v>1</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5181,15 +5187,15 @@
         <v>1</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5204,15 +5210,15 @@
         <v>1</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5227,15 +5233,15 @@
         <v>1</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5250,15 +5256,15 @@
         <v>1</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5273,15 +5279,15 @@
         <v>1</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5296,15 +5302,15 @@
         <v>1</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5319,15 +5325,15 @@
         <v>1</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5342,15 +5348,15 @@
         <v>1</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5365,15 +5371,15 @@
         <v>1</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5388,15 +5394,15 @@
         <v>1</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5411,15 +5417,15 @@
         <v>1</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5434,15 +5440,15 @@
         <v>1</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5457,15 +5463,15 @@
         <v>1</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -5480,15 +5486,15 @@
         <v>1</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -5503,15 +5509,15 @@
         <v>1</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -5526,15 +5532,15 @@
         <v>1</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -5549,15 +5555,15 @@
         <v>1</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -5572,15 +5578,15 @@
         <v>1</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -5595,15 +5601,15 @@
         <v>1</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -5618,15 +5624,15 @@
         <v>1</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -5641,15 +5647,15 @@
         <v>1</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -5664,15 +5670,15 @@
         <v>1</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -5687,61 +5693,61 @@
         <v>1</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B164" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-      <c r="F163" s="3">
-        <v>1</v>
-      </c>
-      <c r="G163" s="14" t="s">
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="14" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-      <c r="F164" s="3">
-        <v>1</v>
-      </c>
-      <c r="G164" s="16" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -5756,15 +5762,15 @@
         <v>1</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -5779,15 +5785,15 @@
         <v>1</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -5802,15 +5808,15 @@
         <v>1</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -5825,15 +5831,15 @@
         <v>1</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -5848,15 +5854,15 @@
         <v>1</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -5871,29 +5877,52 @@
         <v>1</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3">
+        <v>1</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B172" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="2">
-        <v>1</v>
-      </c>
-      <c r="F171" s="3">
-        <v>1</v>
-      </c>
-      <c r="G171" s="16" t="s">
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="16" t="s">
         <v>384</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="510">
   <si>
-    <t>visit_reason_a3_c_1</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
@@ -38,39 +35,12 @@
     <t>age_mo</t>
   </si>
   <si>
-    <t>consent_consent_signed</t>
-  </si>
-  <si>
     <t>consent</t>
   </si>
   <si>
-    <t>visit_reason_a3_a_10</t>
-  </si>
-  <si>
     <t>consult_reason</t>
   </si>
   <si>
-    <t>a3_a3_a_3</t>
-  </si>
-  <si>
-    <t>a3_a3_a_6</t>
-  </si>
-  <si>
-    <t>visit_reason_a3_a_11</t>
-  </si>
-  <si>
-    <t>a3_a3_a_8</t>
-  </si>
-  <si>
-    <t>visit_reason_main_cg</t>
-  </si>
-  <si>
-    <t>visit_reason_excl3</t>
-  </si>
-  <si>
-    <t>visit_reason_incl2</t>
-  </si>
-  <si>
     <t>sickness</t>
   </si>
   <si>
@@ -83,72 +53,39 @@
     <t>main_cg</t>
   </si>
   <si>
-    <t>a3_dobk</t>
-  </si>
-  <si>
     <t>age_yr</t>
   </si>
   <si>
-    <t>a3_is_young_infant</t>
-  </si>
-  <si>
     <t>yg_infant</t>
   </si>
   <si>
-    <t>a3_incl1</t>
-  </si>
-  <si>
     <t>age_incl</t>
   </si>
   <si>
-    <t>a3_excl1</t>
-  </si>
-  <si>
     <t>age_excl</t>
   </si>
   <si>
-    <t>visit_reason_a3_c_3a</t>
-  </si>
-  <si>
-    <t>visit_reason_a3_c_3b</t>
-  </si>
-  <si>
     <t>cg_age_yr</t>
   </si>
   <si>
     <t>yg_age_ctg</t>
   </si>
   <si>
-    <t>visit_reason_a3_c_3c</t>
-  </si>
-  <si>
     <t>cg_age_ctg</t>
   </si>
   <si>
     <t>oth_sickness</t>
   </si>
   <si>
-    <t>previous_enrolment_a3_b_1</t>
-  </si>
-  <si>
     <t>prev_enrl</t>
   </si>
   <si>
-    <t>previous_enrolment_a3_b_5</t>
-  </si>
-  <si>
-    <t>previous_enrolment_a3_b_3_1</t>
-  </si>
-  <si>
     <t>enrl_days_cg</t>
   </si>
   <si>
     <t>enrl_days_card</t>
   </si>
   <si>
-    <t>previous_enrolment_repeat_visit</t>
-  </si>
-  <si>
     <t>repeat_consult</t>
   </si>
   <si>
@@ -176,879 +113,441 @@
     <t>duration</t>
   </si>
   <si>
-    <t>a3_a3_a_5</t>
-  </si>
-  <si>
     <t>age_mo_knwn</t>
   </si>
   <si>
-    <t>visit_reason_a3_c_1o</t>
-  </si>
-  <si>
-    <t>consent_enrolment</t>
-  </si>
-  <si>
     <t>enrolled</t>
   </si>
   <si>
-    <t>system_submitter_id</t>
-  </si>
-  <si>
     <t>screening</t>
   </si>
   <si>
-    <t>consent_pid</t>
-  </si>
-  <si>
     <t>child_id</t>
   </si>
   <si>
-    <t>crfs_t02b_a4_c_1</t>
-  </si>
-  <si>
     <t>cg_fs_name</t>
   </si>
   <si>
-    <t>crfs_t02b_a4_c_2</t>
-  </si>
-  <si>
     <t>cg_ls_name</t>
   </si>
   <si>
-    <t>a3_a3_a_7</t>
-  </si>
-  <si>
     <t>dob</t>
   </si>
   <si>
-    <t>a3_a3_a_4</t>
-  </si>
-  <si>
     <t>ymob</t>
   </si>
   <si>
-    <t>a3_yob</t>
-  </si>
-  <si>
     <t>yob</t>
   </si>
   <si>
-    <t>visit_reason_main_cg_name</t>
-  </si>
-  <si>
     <t>main_cg_lbl</t>
   </si>
   <si>
-    <t>crfs_t02b_a4_a_10</t>
-  </si>
-  <si>
     <t>phone_nb</t>
   </si>
   <si>
-    <t>crfs_t02b_a4_a_11</t>
-  </si>
-  <si>
     <t>phone_owner</t>
   </si>
   <si>
-    <t>crfs_t02a_a4_a_1</t>
-  </si>
-  <si>
     <t>fs_name</t>
   </si>
   <si>
-    <t>crfs_t02a_a4_a_3</t>
-  </si>
-  <si>
     <t>ls_name</t>
   </si>
   <si>
-    <t>crfs_t02a_a4_a_6</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>crfs_t02a_a4_a_8_2</t>
-  </si>
-  <si>
     <t>mother_fs_name</t>
   </si>
   <si>
-    <t>crfs_t02a_a4_a_9_2</t>
-  </si>
-  <si>
     <t>mother_ls_name</t>
   </si>
   <si>
-    <t>crfs_t02b_a4_c_4</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
-    <t>crfs_t02b_location_name</t>
-  </si>
-  <si>
     <t>location_name</t>
   </si>
   <si>
-    <t>previous_enrolment_former_timci_id</t>
-  </si>
-  <si>
     <t>prev_id</t>
   </si>
   <si>
-    <t>previous_enrolment_a3_b_2</t>
-  </si>
-  <si>
     <t>prev_hf_name_card</t>
   </si>
   <si>
-    <t>previous_enrolment_a3_b_4</t>
-  </si>
-  <si>
     <t>prev_hf_id_cg</t>
   </si>
   <si>
-    <t>previous_enrolment_a3_b_2a</t>
-  </si>
-  <si>
     <t>prev_hf_name_cg</t>
   </si>
   <si>
-    <t>previous_enrolment_a3_b_3</t>
-  </si>
-  <si>
     <t>date_prev</t>
   </si>
   <si>
     <t>contact</t>
   </si>
   <si>
-    <t>crfs_t02b_a4_c_7</t>
-  </si>
-  <si>
     <t>location_oth</t>
   </si>
   <si>
-    <t>crfs_t02b_location_type</t>
-  </si>
-  <si>
     <t>urban_rural</t>
   </si>
   <si>
-    <t>crfs_t03_m2_2</t>
-  </si>
-  <si>
     <t>living_with_cg</t>
   </si>
   <si>
-    <t>crfs_t03_m1_1</t>
-  </si>
-  <si>
     <t>mother_education</t>
   </si>
   <si>
-    <t>crfs_t03_m1_1o</t>
-  </si>
-  <si>
     <t>mother_oth_education</t>
   </si>
   <si>
-    <t>crfs_t03_m1_2</t>
-  </si>
-  <si>
     <t>mother_civ_status</t>
   </si>
   <si>
-    <t>crfs_t03_m1_3</t>
-  </si>
-  <si>
     <t>mother_profession</t>
   </si>
   <si>
-    <t>crfs_t03_m2_3</t>
-  </si>
-  <si>
     <t>twin</t>
   </si>
   <si>
-    <t>crfs_t03_m2_4</t>
-  </si>
-  <si>
     <t>birth_location</t>
   </si>
   <si>
-    <t>crfs_t03_m2_5</t>
-  </si>
-  <si>
     <t>birth_type</t>
   </si>
   <si>
-    <t>crfs_t03_m2_6</t>
-  </si>
-  <si>
     <t>birth_wt_knwn</t>
   </si>
   <si>
-    <t>crfs_t03_m2_6a</t>
-  </si>
-  <si>
     <t>birth_wt</t>
   </si>
   <si>
-    <t>crfs_t03_m2_6b</t>
-  </si>
-  <si>
     <t>birth_size</t>
   </si>
   <si>
-    <t>crfs_t03_m2_7</t>
-  </si>
-  <si>
     <t>birth_weeks_knwn</t>
   </si>
   <si>
-    <t>crfs_t03_m2_7a</t>
-  </si>
-  <si>
     <t>birth_weeks</t>
   </si>
   <si>
-    <t>crfs_t03_m2_7b</t>
-  </si>
-  <si>
     <t>early_birth</t>
   </si>
   <si>
-    <t>crfs_t03_m2_8a</t>
-  </si>
-  <si>
     <t>bfeed</t>
   </si>
   <si>
-    <t>crfs_t03_m2_8</t>
-  </si>
-  <si>
     <t>excl_bfeed</t>
   </si>
   <si>
-    <t>crfs_t03_m2_9</t>
-  </si>
-  <si>
     <t>mix_bfeed</t>
   </si>
   <si>
-    <t>crfs_t03_b1_6</t>
-  </si>
-  <si>
     <t>hospit</t>
   </si>
   <si>
-    <t>crfs_t03_m3_1b</t>
-  </si>
-  <si>
     <t>hh_head</t>
   </si>
   <si>
-    <t>crfs_t03_m3_2</t>
-  </si>
-  <si>
     <t>hh_u5</t>
   </si>
   <si>
-    <t>crfs_t03_m3_3</t>
-  </si>
-  <si>
     <t>toilet_type</t>
   </si>
   <si>
-    <t>crfs_t03_m3_3o</t>
-  </si>
-  <si>
     <t>toilet_othtype</t>
   </si>
   <si>
-    <t>crfs_t03_m3_4</t>
-  </si>
-  <si>
     <t>shared_toilet</t>
   </si>
   <si>
-    <t>crfs_t03_m3_5</t>
-  </si>
-  <si>
     <t>stove_type</t>
   </si>
   <si>
-    <t>crfs_t03_m3_5o</t>
-  </si>
-  <si>
     <t>stove_othtype</t>
   </si>
   <si>
-    <t>crfs_t03_m3_6</t>
-  </si>
-  <si>
     <t>water_source</t>
   </si>
   <si>
-    <t>crfs_t03_m3_7</t>
-  </si>
-  <si>
     <t>water_source_time</t>
   </si>
   <si>
-    <t>crfs_t03_m3_8a</t>
-  </si>
-  <si>
     <t>floor_type</t>
   </si>
   <si>
-    <t>crfs_t03_m3_9a</t>
-  </si>
-  <si>
     <t>roof_type</t>
   </si>
   <si>
-    <t>crfs_t05a_illnessduration</t>
-  </si>
-  <si>
     <t>sick_duration</t>
   </si>
   <si>
-    <t>crfs_t05a_tt05a_sym_convulsion</t>
-  </si>
-  <si>
     <t>sx_convulsions</t>
   </si>
   <si>
-    <t>crfs_t05a_tt05a_sym_lethargy</t>
-  </si>
-  <si>
     <t>sx_lethargy</t>
   </si>
   <si>
-    <t>crfs_t05a_tt05a_c1_a_10</t>
-  </si>
-  <si>
     <t>sx_vomit</t>
   </si>
   <si>
-    <t>crfs_t05a_tt05a_c1_a_10a</t>
-  </si>
-  <si>
     <t>sx_vomit_evthing</t>
   </si>
   <si>
-    <t>crfs_t05a_tt05a_sym_less_appetite</t>
-  </si>
-  <si>
     <t>sx_less_feed</t>
   </si>
   <si>
-    <t>crfs_t05a_tt05a_sym_no_appetite</t>
-  </si>
-  <si>
     <t>sx_unable_feed</t>
   </si>
   <si>
-    <t>crfs_t05a_ttt05a_c1_a_1</t>
-  </si>
-  <si>
     <t>sx_cough</t>
   </si>
   <si>
-    <t>crfs_t05a_ttt05a_c1_a_2</t>
-  </si>
-  <si>
     <t>sx_cough_onset</t>
   </si>
   <si>
-    <t>crfs_t05a_ttt05a_c1_a_3</t>
-  </si>
-  <si>
     <t>sx_difficulty_breath</t>
   </si>
   <si>
-    <t>crfs_t05a_ttt05a_c1_a_4</t>
-  </si>
-  <si>
     <t>sx_difficulty_breath_onset</t>
   </si>
   <si>
-    <t>crfs_t05a_ttt05a_c1_a_6</t>
-  </si>
-  <si>
     <t>sx_diarrhoea</t>
   </si>
   <si>
-    <t>crfs_t05a_ttt05a_c1_a_7</t>
-  </si>
-  <si>
     <t>sx_diarrhoea_onset</t>
   </si>
   <si>
-    <t>crfs_t05a_ttt05a_c1_a_8</t>
-  </si>
-  <si>
     <t>sx_fever</t>
   </si>
   <si>
-    <t>crfs_t05a_ttt05a_c1_a_9</t>
-  </si>
-  <si>
     <t>sx_fever_onset</t>
   </si>
   <si>
-    <t>crfs_t05a_c1_a_11</t>
-  </si>
-  <si>
     <t>sx_var</t>
   </si>
   <si>
-    <t>crfs_t05a_c1_a_11o</t>
-  </si>
-  <si>
     <t>sx_varoth</t>
   </si>
   <si>
-    <t>crfs_t04a_b1_2</t>
-  </si>
-  <si>
     <t>journey</t>
   </si>
   <si>
-    <t>crfs_t04a_b1_3</t>
-  </si>
-  <si>
     <t>prev_chf</t>
   </si>
   <si>
-    <t>crfs_t04a_b1_2a</t>
-  </si>
-  <si>
     <t>prev_hf_type</t>
   </si>
   <si>
-    <t>crfs_t04a_b2_2a_o</t>
-  </si>
-  <si>
     <t>prev_hf_typeoth</t>
   </si>
   <si>
-    <t>crfs_t04a_b1_1</t>
-  </si>
-  <si>
     <t>prev_referral</t>
   </si>
   <si>
-    <t>crfs_t04a_b1_5</t>
-  </si>
-  <si>
     <t>prev_hosp</t>
   </si>
   <si>
-    <t>crfs_t04a_b1_2b</t>
-  </si>
-  <si>
     <t>prev_nonhf</t>
   </si>
   <si>
-    <t>crfs_t04a_b2_2b_o</t>
-  </si>
-  <si>
     <t>prev_nonhfoth</t>
   </si>
   <si>
-    <t>crfs_t04a_b1_4</t>
-  </si>
-  <si>
     <t>prev_rx</t>
   </si>
   <si>
-    <t>crfs_t04a_b1_4o</t>
-  </si>
-  <si>
     <t>prev_rxoth</t>
   </si>
   <si>
-    <t>crfs_t04a_b2_1</t>
-  </si>
-  <si>
     <t>trans_type</t>
   </si>
   <si>
-    <t>crfs_t04a_b2_1o</t>
-  </si>
-  <si>
     <t>trans_oth</t>
   </si>
   <si>
-    <t>crfs_t04a_b2_2</t>
-  </si>
-  <si>
     <t>trans_time</t>
   </si>
   <si>
-    <t>crfs_t04a_b2_3</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
-    <t>crfs_t03_m2_1</t>
-  </si>
-  <si>
     <t>mother_absence</t>
   </si>
   <si>
-    <t>crfs_t03_m2_1o</t>
-  </si>
-  <si>
     <t>mother_oth_absence</t>
   </si>
   <si>
-    <t>crfs_t09a1_referral</t>
-  </si>
-  <si>
     <t>referral_cg</t>
   </si>
   <si>
-    <t>crfs_t09a1_referral_note</t>
-  </si>
-  <si>
     <t>referral_note</t>
   </si>
   <si>
-    <t>crfs_t09a1_fu</t>
-  </si>
-  <si>
     <t>fu_advice</t>
   </si>
   <si>
-    <t>crfs_t09a1_injection</t>
-  </si>
-  <si>
     <t>inj</t>
   </si>
   <si>
-    <t>crfs_t09a1_injection_types</t>
-  </si>
-  <si>
     <t>inj_type</t>
   </si>
   <si>
-    <t>crfs_t09a1_injection_typeso</t>
-  </si>
-  <si>
     <t>inj_othtype</t>
   </si>
   <si>
-    <t>crfs_t09a1_h2_1a</t>
-  </si>
-  <si>
     <t>rx_cg</t>
   </si>
   <si>
-    <t>crfs_t09a1_h2_2</t>
-  </si>
-  <si>
     <t>rx_type</t>
   </si>
   <si>
-    <t>crfs_t09a1_h2_2o</t>
-  </si>
-  <si>
     <t>rx_othtype</t>
   </si>
   <si>
-    <t>crfs_t09a2_b1_9</t>
-  </si>
-  <si>
     <t>consult_type</t>
   </si>
   <si>
-    <t>crfs_t09a2_g3_1</t>
-  </si>
-  <si>
     <t>dx</t>
   </si>
   <si>
-    <t>crfs_t09a2_g3_1o</t>
-  </si>
-  <si>
     <t>dx_oth</t>
   </si>
   <si>
-    <t>crfs_t09a2_i2_1</t>
-  </si>
-  <si>
     <t>referral_hf</t>
   </si>
   <si>
-    <t>crfs_t09a2_i2_1a</t>
-  </si>
-  <si>
     <t>urg_referral_hf</t>
   </si>
   <si>
-    <t>crfs_t09a2_j2_1</t>
-  </si>
-  <si>
     <t>fu_advice_hf</t>
   </si>
   <si>
-    <t>crfs_t09a2_j2_1c</t>
-  </si>
-  <si>
     <t>fu_days</t>
   </si>
   <si>
-    <t>crfs_t09a2_h2_2a</t>
-  </si>
-  <si>
     <t>rx_type_hf</t>
   </si>
   <si>
-    <t>crfs_t09a2_h2_2ao</t>
-  </si>
-  <si>
     <t>rx_othtype_hf</t>
   </si>
   <si>
-    <t>crfs_t07a_tt07a_e2_1</t>
-  </si>
-  <si>
     <t>rr</t>
   </si>
   <si>
-    <t>crfs_t07a_tt07a_e2_1a</t>
-  </si>
-  <si>
     <t>rr_meas</t>
   </si>
   <si>
-    <t>crfs_t07a_tt07a_e2_2</t>
-  </si>
-  <si>
     <t>spo2</t>
   </si>
   <si>
-    <t>crfs_t07a_tt07a_e2_2a</t>
-  </si>
-  <si>
     <t>spo2_meas1</t>
   </si>
   <si>
-    <t>crfs_t07a_tt07a_e2_3</t>
-  </si>
-  <si>
     <t>spo2_rpt2</t>
   </si>
   <si>
-    <t>crfs_t07a_tt07a_e2_3a</t>
-  </si>
-  <si>
     <t>spo2_meas2</t>
   </si>
   <si>
-    <t>crfs_t07a_tt07a_e2_4</t>
-  </si>
-  <si>
     <t>spo2_rept3</t>
   </si>
   <si>
-    <t>crfs_t07a_tt07a_e2_4a</t>
-  </si>
-  <si>
     <t>spo2_meas3</t>
   </si>
   <si>
-    <t>crfs_t06a_tt06a_d2_6</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
-    <t>crfs_t06a_d2_6b</t>
-  </si>
-  <si>
     <t>temp_meas</t>
   </si>
   <si>
-    <t>crfs_t06a_tt06a_d2_1</t>
-  </si>
-  <si>
     <t>muac</t>
   </si>
   <si>
-    <t>crfs_t06a_d2_1a</t>
-  </si>
-  <si>
     <t>muac_meas</t>
   </si>
   <si>
-    <t>crfs_t06a_tt06a_d2_4</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
-    <t>crfs_t06a_d2_4a</t>
-  </si>
-  <si>
     <t>wt_meas</t>
   </si>
   <si>
-    <t>crfs_t06a_tt06a_d2_5</t>
-  </si>
-  <si>
     <t>ht</t>
   </si>
   <si>
-    <t>crfs_t06a_d2_5a</t>
-  </si>
-  <si>
     <t>ht_meas</t>
   </si>
   <si>
-    <t>crfs_t06a_tt06a_d2_2</t>
-  </si>
-  <si>
     <t>wfh</t>
   </si>
   <si>
-    <t>crfs_t06a_d2_2b</t>
-  </si>
-  <si>
     <t>wfh_meas</t>
   </si>
   <si>
-    <t>crfs_t06a_tt06a_d2_3</t>
-  </si>
-  <si>
     <t>wfa</t>
   </si>
   <si>
-    <t>crfs_t06a_d2_3b</t>
-  </si>
-  <si>
     <t>wfa_meas</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_1</t>
-  </si>
-  <si>
     <t>tests</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_1o</t>
-  </si>
-  <si>
     <t>tests_oth</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_2</t>
-  </si>
-  <si>
     <t>malaria_ttype</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_3</t>
-  </si>
-  <si>
     <t>malaria_res</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_4</t>
-  </si>
-  <si>
     <t>hb_ttype</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_5</t>
-  </si>
-  <si>
     <t>hb_res</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_10a</t>
-  </si>
-  <si>
     <t>bg_res</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_6</t>
-  </si>
-  <si>
     <t>urine_res</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_7</t>
-  </si>
-  <si>
     <t>stool_res</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_8</t>
-  </si>
-  <si>
     <t>hiv_res</t>
   </si>
   <si>
-    <t>crfs_t08a_f2_9</t>
-  </si>
-  <si>
     <t>tb_res</t>
   </si>
   <si>
-    <t>crfs_t05b_c3_1</t>
-  </si>
-  <si>
     <t>hiv</t>
   </si>
   <si>
-    <t>crfs_t05b_c3_2</t>
-  </si>
-  <si>
     <t>mother_hiv</t>
   </si>
   <si>
-    <t>crfs_t05b_c3_3</t>
-  </si>
-  <si>
     <t>tb_ppx</t>
   </si>
   <si>
-    <t>crfs_t05b_c3_3a</t>
-  </si>
-  <si>
     <t>tb</t>
   </si>
   <si>
-    <t>crfs_t05b_c3_4</t>
-  </si>
-  <si>
     <t>scd</t>
   </si>
   <si>
-    <t>crfs_t05b_c3_6a</t>
-  </si>
-  <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>crfs_t05b_c3_6</t>
-  </si>
-  <si>
     <t>pwd_type</t>
   </si>
   <si>
-    <t>crfs_t05b_c3_6o</t>
-  </si>
-  <si>
     <t>pwd_othtype</t>
   </si>
   <si>
@@ -1550,10 +1049,511 @@
     <t>c3_6a</t>
   </si>
   <si>
-    <t>consent_fid</t>
-  </si>
-  <si>
     <t>fid</t>
+  </si>
+  <si>
+    <t>a3-dobk</t>
+  </si>
+  <si>
+    <t>a3-a3_a_7</t>
+  </si>
+  <si>
+    <t>a3-a3_a_4</t>
+  </si>
+  <si>
+    <t>a3-yob</t>
+  </si>
+  <si>
+    <t>a3-a3_a_3</t>
+  </si>
+  <si>
+    <t>a3-a3_a_5</t>
+  </si>
+  <si>
+    <t>a3-a3_a_6</t>
+  </si>
+  <si>
+    <t>a3-a3_a_8</t>
+  </si>
+  <si>
+    <t>a3-incl1</t>
+  </si>
+  <si>
+    <t>a3-excl1</t>
+  </si>
+  <si>
+    <t>a3-is_young_infant</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_1</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_1o</t>
+  </si>
+  <si>
+    <t>visit_reason-main_cg</t>
+  </si>
+  <si>
+    <t>visit_reason-main_cg_name</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_3a</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_3b</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_3c</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_a_10</t>
+  </si>
+  <si>
+    <t>visit_reason-excl3</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_a_11</t>
+  </si>
+  <si>
+    <t>visit_reason-incl2</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_1</t>
+  </si>
+  <si>
+    <t>previous_enrolment-former_timci_id</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_2</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_4</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_2a</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_3</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_5</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_3_1</t>
+  </si>
+  <si>
+    <t>previous_enrolment-repeat_visit</t>
+  </si>
+  <si>
+    <t>consent-consent_signed</t>
+  </si>
+  <si>
+    <t>consent-enrolment</t>
+  </si>
+  <si>
+    <t>consent-pid</t>
+  </si>
+  <si>
+    <t>consent-fid</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_1</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_2</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_6</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_a_10</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_a_11</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_1</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_3</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_8_2</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_9_2</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_4</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_7</t>
+  </si>
+  <si>
+    <t>crfs-t02b-location_name</t>
+  </si>
+  <si>
+    <t>crfs-t02b-location_type</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_2</t>
+  </si>
+  <si>
+    <t>crfs-t03-m1_1</t>
+  </si>
+  <si>
+    <t>crfs-t03-m1_1o</t>
+  </si>
+  <si>
+    <t>crfs-t03-m1_2</t>
+  </si>
+  <si>
+    <t>crfs-t03-m1_3</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_3</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_4</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_5</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_6</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_6a</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_6b</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_7</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_7a</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_7b</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_8a</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_8</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_9</t>
+  </si>
+  <si>
+    <t>crfs-t03-b1_6</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_1b</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_2</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_3</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_3o</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_4</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_5</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_5o</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_6</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_7</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_8a</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_9a</t>
+  </si>
+  <si>
+    <t>crfs-t05a-illnessduration</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-sym_convulsion</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-sym_lethargy</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-c1_a_10</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-c1_a_10a</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-sym_less_appetite</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-sym_no_appetite</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_1</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_2</t>
+  </si>
+  <si>
+    <t>crfs-t09a2_g3_1o</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_3</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_4</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_6</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_7</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_8</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_9</t>
+  </si>
+  <si>
+    <t>crfs-t05a-c1_a_11</t>
+  </si>
+  <si>
+    <t>crfs-t05a-c1_a_11o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_2</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_3</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_2a</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_2a_o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_1</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_5</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_2b</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_2b_o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_4</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_4o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_1</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_2</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_3</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_1</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-referral</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-referral_note</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-fu</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-injection</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-injection_types</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-injection_typeso</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-h2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-h2_2</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-h2_2o</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-b1_9</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-g3_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-j2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-j2_1c</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-h2_2a</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-h2_2ao</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_1</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_2</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_2a</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_3</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_3a</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_4</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_4a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_6</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_6b</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_1</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_4</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_4a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_5</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_5a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_2</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_2b</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_3</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_3b</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_1</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_2</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_3</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_4</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_5</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_10a</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_6</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_7</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_8</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_9</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_1</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_2</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_3</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_3a</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_4</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_6a</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_6</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_6o</t>
+  </si>
+  <si>
+    <t>SubmitterID</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1673,6 +1673,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1955,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1972,33 +1978,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>342</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>365</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2013,15 +2019,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2036,15 +2042,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2059,15 +2065,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>509</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2082,15 +2088,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>55</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2105,15 +2111,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>345</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -2128,15 +2134,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>346</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>344</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -2151,15 +2157,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>347</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>67</v>
+        <v>345</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -2174,15 +2180,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>8</v>
+        <v>346</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2197,15 +2203,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>348</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>50</v>
+        <v>347</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2220,15 +2226,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>349</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2243,15 +2249,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>350</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2266,15 +2272,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2289,15 +2295,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>352</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2312,15 +2318,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>353</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2335,15 +2341,15 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>354</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2358,15 +2364,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>355</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>52</v>
+        <v>354</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2381,15 +2387,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2404,15 +2410,15 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>69</v>
+        <v>356</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -2427,15 +2433,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>357</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -2450,15 +2456,15 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>358</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>358</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -2473,15 +2479,15 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>359</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -2496,15 +2502,15 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>360</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -2519,15 +2525,15 @@
         <v>1</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>361</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2542,15 +2548,15 @@
         <v>1</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>362</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -2565,15 +2571,15 @@
         <v>1</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>363</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -2588,15 +2594,15 @@
         <v>1</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>364</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>34</v>
+        <v>364</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -2611,15 +2617,15 @@
         <v>1</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>366</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>89</v>
+        <v>365</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -2634,15 +2640,15 @@
         <v>1</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>367</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>91</v>
+        <v>366</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -2657,15 +2663,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>368</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>93</v>
+        <v>367</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2680,15 +2686,15 @@
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>369</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>95</v>
+        <v>368</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -2703,15 +2709,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>370</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -2726,15 +2732,15 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>371</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -2749,15 +2755,15 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>372</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>371</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -2772,15 +2778,15 @@
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>373</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -2795,15 +2801,15 @@
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>374</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>4</v>
+        <v>373</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -2818,15 +2824,15 @@
         <v>1</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>375</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>53</v>
+        <v>374</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -2841,15 +2847,15 @@
         <v>1</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>376</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -2864,15 +2870,15 @@
         <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>377</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>508</v>
+        <v>376</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -2887,15 +2893,15 @@
         <v>0</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>59</v>
+        <v>377</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -2910,15 +2916,15 @@
         <v>0</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>378</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>61</v>
+        <v>378</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -2933,15 +2939,15 @@
         <v>0</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>379</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -2956,15 +2962,15 @@
         <v>0</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>380</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2979,15 +2985,15 @@
         <v>0</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>381</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>73</v>
+        <v>381</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -3002,15 +3008,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>382</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -3025,15 +3031,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>383</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -3048,15 +3054,15 @@
         <v>0</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>386</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -3071,15 +3077,15 @@
         <v>0</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>387</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -3094,15 +3100,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>388</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3117,15 +3123,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>389</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3140,15 +3146,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>390</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3163,15 +3169,15 @@
         <v>0</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3186,15 +3192,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>391</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>104</v>
+        <v>390</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3209,15 +3215,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>392</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>106</v>
+        <v>391</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3232,15 +3238,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>393</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3255,15 +3261,15 @@
         <v>0</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>394</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>110</v>
+        <v>393</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3278,15 +3284,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>395</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>112</v>
+        <v>394</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3301,15 +3307,15 @@
         <v>0</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>396</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3324,15 +3330,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>397</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3347,15 +3353,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>118</v>
+        <v>397</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3370,15 +3376,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>399</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>120</v>
+        <v>398</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3393,15 +3399,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>412</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>122</v>
+        <v>399</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3416,15 +3422,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>413</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>124</v>
+        <v>400</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3439,15 +3445,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>414</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3462,15 +3468,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>415</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>128</v>
+        <v>402</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3485,15 +3491,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>416</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3508,15 +3514,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>417</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3531,15 +3537,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>418</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>134</v>
+        <v>405</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3554,15 +3560,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>419</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>136</v>
+        <v>406</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3577,15 +3583,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>420</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>138</v>
+        <v>407</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3600,15 +3606,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>421</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3623,15 +3629,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>422</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>142</v>
+        <v>409</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3646,15 +3652,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>423</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>144</v>
+        <v>410</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3669,15 +3675,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>424</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>146</v>
+        <v>411</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3692,15 +3698,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>425</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>148</v>
+        <v>412</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3715,15 +3721,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>426</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3738,15 +3744,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>427</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>152</v>
+        <v>414</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -3761,15 +3767,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>428</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>154</v>
+        <v>415</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3784,15 +3790,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>429</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>156</v>
+        <v>416</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3807,15 +3813,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>430</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>158</v>
+        <v>417</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3830,2100 +3836,2100 @@
         <v>0</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>431</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3">
+        <v>1</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+      <c r="E154" s="2">
+        <v>1</v>
+      </c>
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3">
+        <v>1</v>
+      </c>
+      <c r="G157" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B158" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B159" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B160" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B161" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
+        <v>1</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B162" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B163" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="2">
-        <v>0</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B164" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="B165" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G165" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="B166" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="B167" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="B169" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B171" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3">
+        <v>1</v>
+      </c>
+      <c r="G171" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="B172" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="2">
-        <v>0</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="2">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C97" s="2">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="2">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="2">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="2">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="2">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="2">
-        <v>0</v>
-      </c>
-      <c r="D105" s="2">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105" s="3">
-        <v>1</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" s="2">
-        <v>0</v>
-      </c>
-      <c r="D107" s="2">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C108" s="2">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="2">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" s="15" t="s">
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="C110" s="2">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111" s="2">
-        <v>0</v>
-      </c>
-      <c r="D111" s="2">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3">
-        <v>1</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C112" s="2">
-        <v>0</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C113" s="2">
-        <v>0</v>
-      </c>
-      <c r="D113" s="2">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3">
-        <v>1</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C114" s="2">
-        <v>0</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C116" s="2">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C117" s="2">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3">
-        <v>1</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C118" s="2">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C120" s="2">
-        <v>0</v>
-      </c>
-      <c r="D120" s="2">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3">
-        <v>1</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C122" s="2">
-        <v>0</v>
-      </c>
-      <c r="D122" s="2">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="3">
-        <v>1</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C123" s="2">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2">
-        <v>1</v>
-      </c>
-      <c r="F123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C124" s="2">
-        <v>0</v>
-      </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1</v>
-      </c>
-      <c r="F124" s="3">
-        <v>1</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C125" s="2">
-        <v>0</v>
-      </c>
-      <c r="D125" s="2">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3">
-        <v>1</v>
-      </c>
-      <c r="G125" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C126" s="2">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2">
-        <v>1</v>
-      </c>
-      <c r="F126" s="3">
-        <v>1</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-      <c r="E127" s="2">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C128" s="2">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2">
-        <v>1</v>
-      </c>
-      <c r="F128" s="3">
-        <v>1</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="2">
-        <v>1</v>
-      </c>
-      <c r="F129" s="3">
-        <v>1</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="2">
-        <v>1</v>
-      </c>
-      <c r="F130" s="3">
-        <v>1</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2">
-        <v>1</v>
-      </c>
-      <c r="F131" s="3">
-        <v>1</v>
-      </c>
-      <c r="G131" s="14" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="2">
-        <v>1</v>
-      </c>
-      <c r="F132" s="3">
-        <v>1</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="2">
-        <v>1</v>
-      </c>
-      <c r="F133" s="3">
-        <v>1</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="2">
-        <v>1</v>
-      </c>
-      <c r="F134" s="3">
-        <v>1</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-      <c r="F135" s="3">
-        <v>1</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2">
-        <v>1</v>
-      </c>
-      <c r="F136" s="3">
-        <v>1</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="2">
-        <v>1</v>
-      </c>
-      <c r="F137" s="3">
-        <v>1</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="2">
-        <v>1</v>
-      </c>
-      <c r="F138" s="3">
-        <v>1</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="2">
-        <v>1</v>
-      </c>
-      <c r="F139" s="3">
-        <v>1</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2">
-        <v>1</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="2">
-        <v>1</v>
-      </c>
-      <c r="F141" s="3">
-        <v>1</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="2">
-        <v>1</v>
-      </c>
-      <c r="F142" s="3">
-        <v>1</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="2">
-        <v>1</v>
-      </c>
-      <c r="F143" s="3">
-        <v>1</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="2">
-        <v>1</v>
-      </c>
-      <c r="F144" s="3">
-        <v>1</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="2">
-        <v>1</v>
-      </c>
-      <c r="F145" s="3">
-        <v>1</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="2">
-        <v>1</v>
-      </c>
-      <c r="F146" s="3">
-        <v>1</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="2">
-        <v>1</v>
-      </c>
-      <c r="F147" s="3">
-        <v>1</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="2">
-        <v>1</v>
-      </c>
-      <c r="F148" s="3">
-        <v>1</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="2">
-        <v>1</v>
-      </c>
-      <c r="F149" s="3">
-        <v>1</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="2">
-        <v>1</v>
-      </c>
-      <c r="F150" s="3">
-        <v>1</v>
-      </c>
-      <c r="G150" s="14" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2">
-        <v>1</v>
-      </c>
-      <c r="F151" s="3">
-        <v>1</v>
-      </c>
-      <c r="G151" s="14" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="2">
-        <v>1</v>
-      </c>
-      <c r="F152" s="3">
-        <v>1</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="2">
-        <v>1</v>
-      </c>
-      <c r="F153" s="3">
-        <v>1</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-      <c r="E154" s="2">
-        <v>1</v>
-      </c>
-      <c r="F154" s="3">
-        <v>1</v>
-      </c>
-      <c r="G154" s="14" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C155" s="2">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2">
-        <v>0</v>
-      </c>
-      <c r="E155" s="2">
-        <v>1</v>
-      </c>
-      <c r="F155" s="3">
-        <v>1</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C156" s="2">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0</v>
-      </c>
-      <c r="E156" s="2">
-        <v>1</v>
-      </c>
-      <c r="F156" s="3">
-        <v>1</v>
-      </c>
-      <c r="G156" s="14" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C157" s="2">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>0</v>
-      </c>
-      <c r="E157" s="2">
-        <v>1</v>
-      </c>
-      <c r="F157" s="3">
-        <v>1</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C158" s="2">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-      <c r="E158" s="2">
-        <v>1</v>
-      </c>
-      <c r="F158" s="3">
-        <v>1</v>
-      </c>
-      <c r="G158" s="14" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-      <c r="E159" s="2">
-        <v>1</v>
-      </c>
-      <c r="F159" s="3">
-        <v>1</v>
-      </c>
-      <c r="G159" s="14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="2">
-        <v>1</v>
-      </c>
-      <c r="F160" s="3">
-        <v>1</v>
-      </c>
-      <c r="G160" s="14" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>0</v>
-      </c>
-      <c r="E161" s="2">
-        <v>1</v>
-      </c>
-      <c r="F161" s="3">
-        <v>1</v>
-      </c>
-      <c r="G161" s="14" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C162" s="2">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-      <c r="E162" s="2">
-        <v>1</v>
-      </c>
-      <c r="F162" s="3">
-        <v>1</v>
-      </c>
-      <c r="G162" s="14" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-      <c r="F163" s="3">
-        <v>1</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-      <c r="F164" s="3">
-        <v>1</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-      <c r="E165" s="2">
-        <v>1</v>
-      </c>
-      <c r="F165" s="3">
-        <v>1</v>
-      </c>
-      <c r="G165" s="16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C166" s="2">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="2">
-        <v>1</v>
-      </c>
-      <c r="F166" s="3">
-        <v>1</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="2">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3">
-        <v>1</v>
-      </c>
-      <c r="G167" s="16" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3">
-        <v>1</v>
-      </c>
-      <c r="G168" s="16" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3">
-        <v>1</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="2">
-        <v>1</v>
-      </c>
-      <c r="F170" s="3">
-        <v>1</v>
-      </c>
-      <c r="G170" s="16" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="2">
-        <v>1</v>
-      </c>
-      <c r="F171" s="3">
-        <v>1</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="2">
-        <v>1</v>
-      </c>
-      <c r="F172" s="3">
-        <v>1</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="511">
   <si>
     <t>old</t>
   </si>
@@ -1554,6 +1554,9 @@
   </si>
   <si>
     <t>SubmitterID</t>
+  </si>
+  <si>
+    <t>ymdob</t>
   </si>
 </sst>
 </file>
@@ -1959,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2139,79 +2142,79 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>344</v>
+        <v>510</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>510</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>180</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2226,15 +2229,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2249,15 +2252,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2272,15 +2275,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2295,15 +2298,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2318,15 +2321,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2341,15 +2344,15 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2364,15 +2367,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2387,21 +2390,21 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2410,15 +2413,15 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -2433,21 +2436,21 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -2456,21 +2459,21 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2479,61 +2482,61 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2548,15 +2551,15 @@
         <v>1</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -2571,176 +2574,176 @@
         <v>1</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -2755,15 +2758,15 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -2778,222 +2781,222 @@
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -3008,15 +3011,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -3031,15 +3034,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -3054,15 +3057,15 @@
         <v>0</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -3077,61 +3080,61 @@
         <v>0</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3146,15 +3149,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3169,15 +3172,15 @@
         <v>0</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3192,21 +3195,21 @@
         <v>0</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
@@ -3215,15 +3218,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3238,15 +3241,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3261,15 +3264,15 @@
         <v>0</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3284,15 +3287,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3307,15 +3310,15 @@
         <v>0</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3330,15 +3333,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3353,15 +3356,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3376,15 +3379,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3399,15 +3402,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3422,15 +3425,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3445,15 +3448,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3468,15 +3471,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3491,15 +3494,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3514,15 +3517,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3537,15 +3540,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3560,15 +3563,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3583,15 +3586,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3606,15 +3609,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3629,15 +3632,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3652,15 +3655,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3675,15 +3678,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3698,15 +3701,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3721,15 +3724,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3744,15 +3747,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -3767,15 +3770,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3790,15 +3793,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3813,15 +3816,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3836,61 +3839,61 @@
         <v>0</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B83" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="13" t="s">
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="13" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3905,15 +3908,15 @@
         <v>1</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3928,15 +3931,15 @@
         <v>1</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -3951,15 +3954,15 @@
         <v>1</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -3974,15 +3977,15 @@
         <v>1</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -3997,15 +4000,15 @@
         <v>1</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4020,15 +4023,15 @@
         <v>1</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4043,15 +4046,15 @@
         <v>1</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4066,15 +4069,15 @@
         <v>1</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4089,15 +4092,15 @@
         <v>1</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4112,15 +4115,15 @@
         <v>1</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4135,15 +4138,15 @@
         <v>1</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4158,15 +4161,15 @@
         <v>1</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4181,15 +4184,15 @@
         <v>1</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4204,15 +4207,15 @@
         <v>1</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4227,15 +4230,15 @@
         <v>1</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4250,15 +4253,15 @@
         <v>1</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4273,15 +4276,15 @@
         <v>1</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>103</v>
+        <v>437</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4296,15 +4299,15 @@
         <v>1</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4319,15 +4322,15 @@
         <v>1</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4342,15 +4345,15 @@
         <v>1</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4365,15 +4368,15 @@
         <v>1</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4388,15 +4391,15 @@
         <v>1</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4411,15 +4414,15 @@
         <v>1</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4434,15 +4437,15 @@
         <v>1</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4457,15 +4460,15 @@
         <v>1</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4480,15 +4483,15 @@
         <v>1</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4503,15 +4506,15 @@
         <v>1</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4526,15 +4529,15 @@
         <v>1</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4549,15 +4552,15 @@
         <v>1</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4572,15 +4575,15 @@
         <v>1</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4595,15 +4598,15 @@
         <v>1</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -4618,15 +4621,15 @@
         <v>1</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>118</v>
+        <v>452</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -4641,15 +4644,15 @@
         <v>1</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -4664,15 +4667,15 @@
         <v>1</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>119</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -4687,15 +4690,15 @@
         <v>1</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -4710,15 +4713,15 @@
         <v>1</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -4733,15 +4736,15 @@
         <v>1</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -4756,15 +4759,15 @@
         <v>1</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -4779,15 +4782,15 @@
         <v>1</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -4802,15 +4805,15 @@
         <v>1</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -4825,15 +4828,15 @@
         <v>1</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -4848,15 +4851,15 @@
         <v>1</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -4871,15 +4874,15 @@
         <v>1</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -4894,15 +4897,15 @@
         <v>1</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -4917,15 +4920,15 @@
         <v>1</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -4940,15 +4943,15 @@
         <v>1</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>132</v>
+        <v>465</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -4963,15 +4966,15 @@
         <v>1</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -4986,15 +4989,15 @@
         <v>1</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>134</v>
+        <v>467</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5009,15 +5012,15 @@
         <v>1</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5032,15 +5035,15 @@
         <v>1</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5055,15 +5058,15 @@
         <v>1</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5078,15 +5081,15 @@
         <v>1</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5101,15 +5104,15 @@
         <v>1</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5124,15 +5127,15 @@
         <v>1</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5147,15 +5150,15 @@
         <v>1</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5170,15 +5173,15 @@
         <v>1</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5193,15 +5196,15 @@
         <v>1</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5216,15 +5219,15 @@
         <v>1</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5239,15 +5242,15 @@
         <v>1</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5262,15 +5265,15 @@
         <v>1</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5285,15 +5288,15 @@
         <v>1</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5308,15 +5311,15 @@
         <v>1</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5331,15 +5334,15 @@
         <v>1</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5354,15 +5357,15 @@
         <v>1</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5377,15 +5380,15 @@
         <v>1</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5400,15 +5403,15 @@
         <v>1</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5423,15 +5426,15 @@
         <v>1</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5446,15 +5449,15 @@
         <v>1</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5469,15 +5472,15 @@
         <v>1</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -5492,15 +5495,15 @@
         <v>1</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -5515,15 +5518,15 @@
         <v>1</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -5538,15 +5541,15 @@
         <v>1</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -5561,15 +5564,15 @@
         <v>1</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -5584,15 +5587,15 @@
         <v>1</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -5607,15 +5610,15 @@
         <v>1</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -5630,15 +5633,15 @@
         <v>1</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -5653,15 +5656,15 @@
         <v>1</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -5676,15 +5679,15 @@
         <v>1</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -5699,15 +5702,15 @@
         <v>1</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -5722,61 +5725,61 @@
         <v>1</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B165" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-      <c r="F164" s="3">
-        <v>1</v>
-      </c>
-      <c r="G164" s="17" t="s">
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G165" s="17" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-      <c r="E165" s="2">
-        <v>1</v>
-      </c>
-      <c r="F165" s="3">
-        <v>1</v>
-      </c>
-      <c r="G165" s="18" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -5791,15 +5794,15 @@
         <v>1</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -5814,15 +5817,15 @@
         <v>1</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -5837,15 +5840,15 @@
         <v>1</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -5860,15 +5863,15 @@
         <v>1</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -5883,15 +5886,15 @@
         <v>1</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -5906,29 +5909,52 @@
         <v>1</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B173" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="2">
-        <v>1</v>
-      </c>
-      <c r="F172" s="3">
-        <v>1</v>
-      </c>
-      <c r="G172" s="18" t="s">
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3">
+        <v>1</v>
+      </c>
+      <c r="G173" s="18" t="s">
         <v>217</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="525">
   <si>
     <t>old</t>
   </si>
@@ -1557,6 +1557,48 @@
   </si>
   <si>
     <t>ymdob</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_10</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_10a</t>
+  </si>
+  <si>
+    <t>a4_c_10</t>
+  </si>
+  <si>
+    <t>a4_c_10a</t>
+  </si>
+  <si>
+    <t>phone_nb2</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>a3-quarter</t>
+  </si>
+  <si>
+    <t>a3-a3_a_2</t>
+  </si>
+  <si>
+    <t>a3_a_2</t>
+  </si>
+  <si>
+    <t>age_yr_ctg</t>
+  </si>
+  <si>
+    <t>phone_nb3</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_9</t>
+  </si>
+  <si>
+    <t>cmty_contact</t>
+  </si>
+  <si>
+    <t>a4_c_9</t>
   </si>
 </sst>
 </file>
@@ -1962,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2234,10 +2276,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>347</v>
+        <v>518</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>29</v>
+        <v>520</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2252,15 +2294,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>182</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2275,15 +2317,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2298,15 +2340,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2321,15 +2363,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>351</v>
+        <v>517</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>12</v>
+        <v>516</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2344,15 +2386,15 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>186</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2367,15 +2409,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2390,15 +2432,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2413,21 +2455,21 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2436,21 +2478,21 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -2459,21 +2501,21 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2482,15 +2524,15 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -2505,84 +2547,84 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -2597,107 +2639,107 @@
         <v>1</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>50</v>
+      <c r="A32" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2711,16 +2753,16 @@
       <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>202</v>
+      <c r="G32" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -2735,15 +2777,15 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -2758,38 +2800,38 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -2804,38 +2846,38 @@
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -2850,153 +2892,153 @@
         <v>1</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>30</v>
+      <c r="A39" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>209</v>
+      <c r="G39" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -3007,19 +3049,19 @@
       <c r="E45" s="4">
         <v>0</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>40</v>
+      <c r="A46" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -3028,21 +3070,21 @@
         <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>215</v>
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -3057,15 +3099,15 @@
         <v>0</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -3080,15 +3122,15 @@
         <v>0</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>384</v>
+        <v>511</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -3103,159 +3145,159 @@
         <v>0</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>220</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9" t="s">
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
@@ -3264,21 +3306,21 @@
         <v>0</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
       </c>
       <c r="D57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -3287,21 +3329,21 @@
         <v>0</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -3310,21 +3352,21 @@
         <v>0</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
       </c>
       <c r="D59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -3333,15 +3375,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3356,15 +3398,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3379,15 +3421,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3402,15 +3444,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3425,15 +3467,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3448,15 +3490,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3471,15 +3513,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3494,15 +3536,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3517,15 +3559,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3540,15 +3582,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3563,15 +3605,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3586,15 +3628,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3609,15 +3651,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3632,15 +3674,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3655,15 +3697,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3678,15 +3720,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3701,15 +3743,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3724,15 +3766,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3747,15 +3789,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -3770,15 +3812,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3793,15 +3835,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3816,15 +3858,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3839,15 +3881,15 @@
         <v>0</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -3862,153 +3904,153 @@
         <v>0</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B88" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="13" t="s">
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="13" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="2">
-        <v>0</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4023,15 +4065,15 @@
         <v>1</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4046,15 +4088,15 @@
         <v>1</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4069,15 +4111,15 @@
         <v>1</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4092,15 +4134,15 @@
         <v>1</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4115,15 +4157,15 @@
         <v>1</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4138,15 +4180,15 @@
         <v>1</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4161,15 +4203,15 @@
         <v>1</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4184,15 +4226,15 @@
         <v>1</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4207,15 +4249,15 @@
         <v>1</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4230,15 +4272,15 @@
         <v>1</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4253,15 +4295,15 @@
         <v>1</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4276,15 +4318,15 @@
         <v>1</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4299,15 +4341,15 @@
         <v>1</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>103</v>
+        <v>433</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4322,15 +4364,15 @@
         <v>1</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>104</v>
+        <v>434</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4345,15 +4387,15 @@
         <v>1</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>105</v>
+        <v>435</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4368,15 +4410,15 @@
         <v>1</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>106</v>
+        <v>436</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4391,15 +4433,15 @@
         <v>1</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>107</v>
+        <v>437</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4414,15 +4456,15 @@
         <v>1</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4437,15 +4479,15 @@
         <v>1</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4460,15 +4502,15 @@
         <v>1</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4483,15 +4525,15 @@
         <v>1</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4506,15 +4548,15 @@
         <v>1</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4529,15 +4571,15 @@
         <v>1</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4552,15 +4594,15 @@
         <v>1</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4575,15 +4617,15 @@
         <v>1</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4598,15 +4640,15 @@
         <v>1</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -4621,15 +4663,15 @@
         <v>1</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -4644,15 +4686,15 @@
         <v>1</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>118</v>
+        <v>448</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -4667,15 +4709,15 @@
         <v>1</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>119</v>
+        <v>449</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -4690,15 +4732,15 @@
         <v>1</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>120</v>
+        <v>450</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -4713,15 +4755,15 @@
         <v>1</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>121</v>
+        <v>451</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -4736,15 +4778,15 @@
         <v>1</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>122</v>
+        <v>452</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -4759,15 +4801,15 @@
         <v>1</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -4782,15 +4824,15 @@
         <v>1</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -4805,15 +4847,15 @@
         <v>1</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -4828,15 +4870,15 @@
         <v>1</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -4851,15 +4893,15 @@
         <v>1</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -4874,15 +4916,15 @@
         <v>1</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -4897,15 +4939,15 @@
         <v>1</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -4920,15 +4962,15 @@
         <v>1</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -4943,15 +4985,15 @@
         <v>1</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -4966,15 +5008,15 @@
         <v>1</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>132</v>
+        <v>462</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -4989,15 +5031,15 @@
         <v>1</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>133</v>
+        <v>463</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5012,15 +5054,15 @@
         <v>1</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5035,15 +5077,15 @@
         <v>1</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5058,15 +5100,15 @@
         <v>1</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5081,15 +5123,15 @@
         <v>1</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>137</v>
+        <v>466</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5104,15 +5146,15 @@
         <v>1</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>138</v>
+        <v>467</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5127,15 +5169,15 @@
         <v>1</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5150,15 +5192,15 @@
         <v>1</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5173,15 +5215,15 @@
         <v>1</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5196,15 +5238,15 @@
         <v>1</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5219,15 +5261,15 @@
         <v>1</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5242,15 +5284,15 @@
         <v>1</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5265,15 +5307,15 @@
         <v>1</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5288,15 +5330,15 @@
         <v>1</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5311,15 +5353,15 @@
         <v>1</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5334,15 +5376,15 @@
         <v>1</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5357,15 +5399,15 @@
         <v>1</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5380,15 +5422,15 @@
         <v>1</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5403,15 +5445,15 @@
         <v>1</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5426,15 +5468,15 @@
         <v>1</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5449,15 +5491,15 @@
         <v>1</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5472,15 +5514,15 @@
         <v>1</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -5495,15 +5537,15 @@
         <v>1</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -5518,15 +5560,15 @@
         <v>1</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -5541,15 +5583,15 @@
         <v>1</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -5564,15 +5606,15 @@
         <v>1</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -5587,15 +5629,15 @@
         <v>1</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -5610,15 +5652,15 @@
         <v>1</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -5633,15 +5675,15 @@
         <v>1</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -5656,15 +5698,15 @@
         <v>1</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -5679,15 +5721,15 @@
         <v>1</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -5702,15 +5744,15 @@
         <v>1</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -5725,15 +5767,15 @@
         <v>1</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -5748,153 +5790,153 @@
         <v>1</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B170" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-      <c r="E165" s="2">
-        <v>1</v>
-      </c>
-      <c r="F165" s="3">
-        <v>1</v>
-      </c>
-      <c r="G165" s="17" t="s">
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="17" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" s="2">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="2">
-        <v>1</v>
-      </c>
-      <c r="F166" s="3">
-        <v>1</v>
-      </c>
-      <c r="G166" s="18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="2">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3">
-        <v>1</v>
-      </c>
-      <c r="G167" s="18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3">
-        <v>1</v>
-      </c>
-      <c r="G168" s="18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3">
-        <v>1</v>
-      </c>
-      <c r="G169" s="18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="2">
-        <v>1</v>
-      </c>
-      <c r="F170" s="3">
-        <v>1</v>
-      </c>
-      <c r="G170" s="18" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -5909,15 +5951,15 @@
         <v>1</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -5932,29 +5974,144 @@
         <v>1</v>
       </c>
       <c r="G172" s="18" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3">
+        <v>1</v>
+      </c>
+      <c r="G173" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3">
+        <v>1</v>
+      </c>
+      <c r="G174" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
+        <v>1</v>
+      </c>
+      <c r="G175" s="18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
+        <v>1</v>
+      </c>
+      <c r="G176" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <v>1</v>
+      </c>
+      <c r="G177" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B178" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C173" s="2">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-      <c r="E173" s="2">
-        <v>1</v>
-      </c>
-      <c r="F173" s="3">
-        <v>1</v>
-      </c>
-      <c r="G173" s="18" t="s">
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="18" t="s">
         <v>217</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -2006,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="517">
   <si>
     <t>old</t>
   </si>
@@ -164,1441 +164,1417 @@
     <t>mother_ls_name</t>
   </si>
   <si>
+    <t>prev_id</t>
+  </si>
+  <si>
+    <t>prev_hf_name_card</t>
+  </si>
+  <si>
+    <t>prev_hf_id_cg</t>
+  </si>
+  <si>
+    <t>prev_hf_name_cg</t>
+  </si>
+  <si>
+    <t>date_prev</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>living_with_cg</t>
+  </si>
+  <si>
+    <t>mother_education</t>
+  </si>
+  <si>
+    <t>mother_oth_education</t>
+  </si>
+  <si>
+    <t>mother_civ_status</t>
+  </si>
+  <si>
+    <t>mother_profession</t>
+  </si>
+  <si>
+    <t>twin</t>
+  </si>
+  <si>
+    <t>birth_location</t>
+  </si>
+  <si>
+    <t>birth_type</t>
+  </si>
+  <si>
+    <t>birth_wt_knwn</t>
+  </si>
+  <si>
+    <t>birth_wt</t>
+  </si>
+  <si>
+    <t>birth_size</t>
+  </si>
+  <si>
+    <t>birth_weeks_knwn</t>
+  </si>
+  <si>
+    <t>birth_weeks</t>
+  </si>
+  <si>
+    <t>early_birth</t>
+  </si>
+  <si>
+    <t>bfeed</t>
+  </si>
+  <si>
+    <t>excl_bfeed</t>
+  </si>
+  <si>
+    <t>mix_bfeed</t>
+  </si>
+  <si>
+    <t>hospit</t>
+  </si>
+  <si>
+    <t>hh_head</t>
+  </si>
+  <si>
+    <t>hh_u5</t>
+  </si>
+  <si>
+    <t>toilet_type</t>
+  </si>
+  <si>
+    <t>toilet_othtype</t>
+  </si>
+  <si>
+    <t>shared_toilet</t>
+  </si>
+  <si>
+    <t>stove_type</t>
+  </si>
+  <si>
+    <t>stove_othtype</t>
+  </si>
+  <si>
+    <t>water_source</t>
+  </si>
+  <si>
+    <t>water_source_time</t>
+  </si>
+  <si>
+    <t>floor_type</t>
+  </si>
+  <si>
+    <t>roof_type</t>
+  </si>
+  <si>
+    <t>sick_duration</t>
+  </si>
+  <si>
+    <t>sx_convulsions</t>
+  </si>
+  <si>
+    <t>sx_lethargy</t>
+  </si>
+  <si>
+    <t>sx_vomit</t>
+  </si>
+  <si>
+    <t>sx_vomit_evthing</t>
+  </si>
+  <si>
+    <t>sx_less_feed</t>
+  </si>
+  <si>
+    <t>sx_unable_feed</t>
+  </si>
+  <si>
+    <t>sx_cough</t>
+  </si>
+  <si>
+    <t>sx_cough_onset</t>
+  </si>
+  <si>
+    <t>sx_difficulty_breath</t>
+  </si>
+  <si>
+    <t>sx_difficulty_breath_onset</t>
+  </si>
+  <si>
+    <t>sx_diarrhoea</t>
+  </si>
+  <si>
+    <t>sx_diarrhoea_onset</t>
+  </si>
+  <si>
+    <t>sx_fever</t>
+  </si>
+  <si>
+    <t>sx_fever_onset</t>
+  </si>
+  <si>
+    <t>sx_var</t>
+  </si>
+  <si>
+    <t>sx_varoth</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>prev_chf</t>
+  </si>
+  <si>
+    <t>prev_hf_type</t>
+  </si>
+  <si>
+    <t>prev_hf_typeoth</t>
+  </si>
+  <si>
+    <t>prev_referral</t>
+  </si>
+  <si>
+    <t>prev_hosp</t>
+  </si>
+  <si>
+    <t>prev_nonhf</t>
+  </si>
+  <si>
+    <t>prev_nonhfoth</t>
+  </si>
+  <si>
+    <t>prev_rx</t>
+  </si>
+  <si>
+    <t>prev_rxoth</t>
+  </si>
+  <si>
+    <t>trans_type</t>
+  </si>
+  <si>
+    <t>trans_oth</t>
+  </si>
+  <si>
+    <t>trans_time</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>mother_absence</t>
+  </si>
+  <si>
+    <t>mother_oth_absence</t>
+  </si>
+  <si>
+    <t>referral_cg</t>
+  </si>
+  <si>
+    <t>referral_note</t>
+  </si>
+  <si>
+    <t>fu_advice</t>
+  </si>
+  <si>
+    <t>inj</t>
+  </si>
+  <si>
+    <t>inj_type</t>
+  </si>
+  <si>
+    <t>inj_othtype</t>
+  </si>
+  <si>
+    <t>rx_cg</t>
+  </si>
+  <si>
+    <t>rx_type</t>
+  </si>
+  <si>
+    <t>rx_othtype</t>
+  </si>
+  <si>
+    <t>consult_type</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dx_oth</t>
+  </si>
+  <si>
+    <t>referral_hf</t>
+  </si>
+  <si>
+    <t>urg_referral_hf</t>
+  </si>
+  <si>
+    <t>fu_advice_hf</t>
+  </si>
+  <si>
+    <t>fu_days</t>
+  </si>
+  <si>
+    <t>rx_type_hf</t>
+  </si>
+  <si>
+    <t>rx_othtype_hf</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rr_meas</t>
+  </si>
+  <si>
+    <t>spo2</t>
+  </si>
+  <si>
+    <t>spo2_meas1</t>
+  </si>
+  <si>
+    <t>spo2_rpt2</t>
+  </si>
+  <si>
+    <t>spo2_meas2</t>
+  </si>
+  <si>
+    <t>spo2_rept3</t>
+  </si>
+  <si>
+    <t>spo2_meas3</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>temp_meas</t>
+  </si>
+  <si>
+    <t>muac</t>
+  </si>
+  <si>
+    <t>muac_meas</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>wt_meas</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>ht_meas</t>
+  </si>
+  <si>
+    <t>wfh</t>
+  </si>
+  <si>
+    <t>wfh_meas</t>
+  </si>
+  <si>
+    <t>wfa</t>
+  </si>
+  <si>
+    <t>wfa_meas</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>tests_oth</t>
+  </si>
+  <si>
+    <t>malaria_ttype</t>
+  </si>
+  <si>
+    <t>malaria_res</t>
+  </si>
+  <si>
+    <t>hb_ttype</t>
+  </si>
+  <si>
+    <t>hb_res</t>
+  </si>
+  <si>
+    <t>bg_res</t>
+  </si>
+  <si>
+    <t>urine_res</t>
+  </si>
+  <si>
+    <t>stool_res</t>
+  </si>
+  <si>
+    <t>hiv_res</t>
+  </si>
+  <si>
+    <t>tb_res</t>
+  </si>
+  <si>
+    <t>hiv</t>
+  </si>
+  <si>
+    <t>mother_hiv</t>
+  </si>
+  <si>
+    <t>tb_ppx</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>scd</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>pwd_type</t>
+  </si>
+  <si>
+    <t>pwd_othtype</t>
+  </si>
+  <si>
+    <t>day0</t>
+  </si>
+  <si>
+    <t>visits</t>
+  </si>
+  <si>
+    <t>sys_submit_id</t>
+  </si>
+  <si>
+    <t>dobk</t>
+  </si>
+  <si>
+    <t>a3_a_7</t>
+  </si>
+  <si>
+    <t>a3_a_4</t>
+  </si>
+  <si>
+    <t>a3_a_3</t>
+  </si>
+  <si>
+    <t>a3_a_5</t>
+  </si>
+  <si>
+    <t>a3_a_6</t>
+  </si>
+  <si>
+    <t>a3_a_8</t>
+  </si>
+  <si>
+    <t>incl1</t>
+  </si>
+  <si>
+    <t>excl1</t>
+  </si>
+  <si>
+    <t>is_young_infant</t>
+  </si>
+  <si>
+    <t>a3_c_1</t>
+  </si>
+  <si>
+    <t>a3_c_1o</t>
+  </si>
+  <si>
+    <t>main_cg_name</t>
+  </si>
+  <si>
+    <t>a3_c_3a</t>
+  </si>
+  <si>
+    <t>a3_c_3b</t>
+  </si>
+  <si>
+    <t>a3_c_3c</t>
+  </si>
+  <si>
+    <t>a3_a_10</t>
+  </si>
+  <si>
+    <t>excl3</t>
+  </si>
+  <si>
+    <t>a3_a_11</t>
+  </si>
+  <si>
+    <t>incl2</t>
+  </si>
+  <si>
+    <t>odk_ref</t>
+  </si>
+  <si>
+    <t>a3_b_1</t>
+  </si>
+  <si>
+    <t>former_timci_id</t>
+  </si>
+  <si>
+    <t>a3_b_2</t>
+  </si>
+  <si>
+    <t>a3_b_4</t>
+  </si>
+  <si>
+    <t>a3_b_2a</t>
+  </si>
+  <si>
+    <t>a3_b_3</t>
+  </si>
+  <si>
+    <t>a3_b_5</t>
+  </si>
+  <si>
+    <t>a3_b_3_1</t>
+  </si>
+  <si>
+    <t>repeat_visit</t>
+  </si>
+  <si>
+    <t>consent_signed</t>
+  </si>
+  <si>
+    <t>enrolment</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>a4_c_1</t>
+  </si>
+  <si>
+    <t>a4_c_2</t>
+  </si>
+  <si>
+    <t>a4_a_6</t>
+  </si>
+  <si>
+    <t>a4_a_10</t>
+  </si>
+  <si>
+    <t>a4_a_11</t>
+  </si>
+  <si>
+    <t>a4_a_1</t>
+  </si>
+  <si>
+    <t>c3_6o</t>
+  </si>
+  <si>
+    <t>c3_6</t>
+  </si>
+  <si>
+    <t>a4_a_3</t>
+  </si>
+  <si>
+    <t>a4_a_8_2</t>
+  </si>
+  <si>
+    <t>a4_a_9_2</t>
+  </si>
+  <si>
+    <t>m2_2</t>
+  </si>
+  <si>
+    <t>m1_1</t>
+  </si>
+  <si>
+    <t>m1_1o</t>
+  </si>
+  <si>
+    <t>m1_2</t>
+  </si>
+  <si>
+    <t>m1_3</t>
+  </si>
+  <si>
+    <t>m2_3</t>
+  </si>
+  <si>
+    <t>m2_4</t>
+  </si>
+  <si>
+    <t>m2_5</t>
+  </si>
+  <si>
+    <t>illnessduration</t>
+  </si>
+  <si>
+    <t>sym_convulsion</t>
+  </si>
+  <si>
+    <t>sym_lethargy</t>
+  </si>
+  <si>
+    <t>c1_a_10</t>
+  </si>
+  <si>
+    <t>c1_a_10a</t>
+  </si>
+  <si>
+    <t>sym_less_appetite</t>
+  </si>
+  <si>
+    <t>sym_no_appetite</t>
+  </si>
+  <si>
+    <t>c1_a_1</t>
+  </si>
+  <si>
+    <t>c1_a_2</t>
+  </si>
+  <si>
+    <t>c1_a_3</t>
+  </si>
+  <si>
+    <t>c1_a_4</t>
+  </si>
+  <si>
+    <t>c1_a_6</t>
+  </si>
+  <si>
+    <t>m2_6</t>
+  </si>
+  <si>
+    <t>m2_6a</t>
+  </si>
+  <si>
+    <t>m2_6b</t>
+  </si>
+  <si>
+    <t>m2_7</t>
+  </si>
+  <si>
+    <t>m2_7a</t>
+  </si>
+  <si>
+    <t>m2_7b</t>
+  </si>
+  <si>
+    <t>m2_8a</t>
+  </si>
+  <si>
+    <t>m2_8</t>
+  </si>
+  <si>
+    <t>m2_9</t>
+  </si>
+  <si>
+    <t>b1_6</t>
+  </si>
+  <si>
+    <t>m3_1b</t>
+  </si>
+  <si>
+    <t>m3_2</t>
+  </si>
+  <si>
+    <t>m3_3</t>
+  </si>
+  <si>
+    <t>m3_3o</t>
+  </si>
+  <si>
+    <t>m3_4</t>
+  </si>
+  <si>
+    <t>m3_5</t>
+  </si>
+  <si>
+    <t>m3_5o</t>
+  </si>
+  <si>
+    <t>m3_6</t>
+  </si>
+  <si>
+    <t>m3_7</t>
+  </si>
+  <si>
+    <t>m3_8a</t>
+  </si>
+  <si>
+    <t>m3_9a</t>
+  </si>
+  <si>
+    <t>c1_a_7</t>
+  </si>
+  <si>
+    <t>c1_a_8</t>
+  </si>
+  <si>
+    <t>c1_a_9</t>
+  </si>
+  <si>
+    <t>c1_a_11</t>
+  </si>
+  <si>
+    <t>c1_a_11o</t>
+  </si>
+  <si>
+    <t>b1_2</t>
+  </si>
+  <si>
+    <t>b1_3</t>
+  </si>
+  <si>
+    <t>b1_2a</t>
+  </si>
+  <si>
+    <t>b2_2a_o</t>
+  </si>
+  <si>
+    <t>b1_1</t>
+  </si>
+  <si>
+    <t>b1_5</t>
+  </si>
+  <si>
+    <t>b1_2b</t>
+  </si>
+  <si>
+    <t>b2_2b_o</t>
+  </si>
+  <si>
+    <t>b1_4</t>
+  </si>
+  <si>
+    <t>b1_4o</t>
+  </si>
+  <si>
+    <t>b2_1</t>
+  </si>
+  <si>
+    <t>b2_1o</t>
+  </si>
+  <si>
+    <t>b2_2</t>
+  </si>
+  <si>
+    <t>b2_3</t>
+  </si>
+  <si>
+    <t>m2_1</t>
+  </si>
+  <si>
+    <t>m2_1o</t>
+  </si>
+  <si>
+    <t>referral</t>
+  </si>
+  <si>
+    <t>fu</t>
+  </si>
+  <si>
+    <t>injection</t>
+  </si>
+  <si>
+    <t>injection_types</t>
+  </si>
+  <si>
+    <t>injection_typeso</t>
+  </si>
+  <si>
+    <t>h2_1a</t>
+  </si>
+  <si>
+    <t>h2_2</t>
+  </si>
+  <si>
+    <t>h2_2o</t>
+  </si>
+  <si>
+    <t>b1_9</t>
+  </si>
+  <si>
+    <t>g3_1</t>
+  </si>
+  <si>
+    <t>g3_1o</t>
+  </si>
+  <si>
+    <t>i2_1</t>
+  </si>
+  <si>
+    <t>i2_1a</t>
+  </si>
+  <si>
+    <t>j2_1</t>
+  </si>
+  <si>
+    <t>j2_1c</t>
+  </si>
+  <si>
+    <t>h2_2a</t>
+  </si>
+  <si>
+    <t>h2_2ao</t>
+  </si>
+  <si>
+    <t>e2_1</t>
+  </si>
+  <si>
+    <t>e2_1a</t>
+  </si>
+  <si>
+    <t>e2_2</t>
+  </si>
+  <si>
+    <t>e2_2a</t>
+  </si>
+  <si>
+    <t>e2_3</t>
+  </si>
+  <si>
+    <t>e2_3a</t>
+  </si>
+  <si>
+    <t>e2_4</t>
+  </si>
+  <si>
+    <t>e2_4a</t>
+  </si>
+  <si>
+    <t>d2_6</t>
+  </si>
+  <si>
+    <t>d2_6b</t>
+  </si>
+  <si>
+    <t>d2_1</t>
+  </si>
+  <si>
+    <t>d2_1a</t>
+  </si>
+  <si>
+    <t>d2_4</t>
+  </si>
+  <si>
+    <t>d2_4a</t>
+  </si>
+  <si>
+    <t>d2_5</t>
+  </si>
+  <si>
+    <t>d2_5a</t>
+  </si>
+  <si>
+    <t>d2_2</t>
+  </si>
+  <si>
+    <t>d2_2b</t>
+  </si>
+  <si>
+    <t>d2_3</t>
+  </si>
+  <si>
+    <t>d2_3b</t>
+  </si>
+  <si>
+    <t>f2_1</t>
+  </si>
+  <si>
+    <t>f2_1o</t>
+  </si>
+  <si>
+    <t>f2_2</t>
+  </si>
+  <si>
+    <t>f2_3</t>
+  </si>
+  <si>
+    <t>f2_4</t>
+  </si>
+  <si>
+    <t>f2_5</t>
+  </si>
+  <si>
+    <t>f2_10a</t>
+  </si>
+  <si>
+    <t>f2_6</t>
+  </si>
+  <si>
+    <t>f2_7</t>
+  </si>
+  <si>
+    <t>f2_8</t>
+  </si>
+  <si>
+    <t>f2_9</t>
+  </si>
+  <si>
+    <t>c3_1</t>
+  </si>
+  <si>
+    <t>c3_2</t>
+  </si>
+  <si>
+    <t>c3_3</t>
+  </si>
+  <si>
+    <t>c3_3a</t>
+  </si>
+  <si>
+    <t>c3_4</t>
+  </si>
+  <si>
+    <t>c3_6a</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>a3-dobk</t>
+  </si>
+  <si>
+    <t>a3-a3_a_7</t>
+  </si>
+  <si>
+    <t>a3-a3_a_4</t>
+  </si>
+  <si>
+    <t>a3-yob</t>
+  </si>
+  <si>
+    <t>a3-a3_a_3</t>
+  </si>
+  <si>
+    <t>a3-a3_a_5</t>
+  </si>
+  <si>
+    <t>a3-a3_a_6</t>
+  </si>
+  <si>
+    <t>a3-a3_a_8</t>
+  </si>
+  <si>
+    <t>a3-incl1</t>
+  </si>
+  <si>
+    <t>a3-excl1</t>
+  </si>
+  <si>
+    <t>a3-is_young_infant</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_1</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_1o</t>
+  </si>
+  <si>
+    <t>visit_reason-main_cg</t>
+  </si>
+  <si>
+    <t>visit_reason-main_cg_name</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_3a</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_3b</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_c_3c</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_a_10</t>
+  </si>
+  <si>
+    <t>visit_reason-excl3</t>
+  </si>
+  <si>
+    <t>visit_reason-a3_a_11</t>
+  </si>
+  <si>
+    <t>visit_reason-incl2</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_1</t>
+  </si>
+  <si>
+    <t>previous_enrolment-former_timci_id</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_2</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_4</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_2a</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_3</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_5</t>
+  </si>
+  <si>
+    <t>previous_enrolment-a3_b_3_1</t>
+  </si>
+  <si>
+    <t>previous_enrolment-repeat_visit</t>
+  </si>
+  <si>
+    <t>consent-consent_signed</t>
+  </si>
+  <si>
+    <t>consent-enrolment</t>
+  </si>
+  <si>
+    <t>consent-pid</t>
+  </si>
+  <si>
+    <t>consent-fid</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_1</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_2</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_6</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_a_10</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_a_11</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_1</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_3</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_8_2</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_9_2</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_2</t>
+  </si>
+  <si>
+    <t>crfs-t03-m1_1</t>
+  </si>
+  <si>
+    <t>crfs-t03-m1_1o</t>
+  </si>
+  <si>
+    <t>crfs-t03-m1_2</t>
+  </si>
+  <si>
+    <t>crfs-t03-m1_3</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_3</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_4</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_5</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_6</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_6a</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_6b</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_7</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_7a</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_7b</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_8a</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_8</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_9</t>
+  </si>
+  <si>
+    <t>crfs-t03-b1_6</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_1b</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_2</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_3</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_3o</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_4</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_5</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_5o</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_6</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_7</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_8a</t>
+  </si>
+  <si>
+    <t>crfs-t03-m3_9a</t>
+  </si>
+  <si>
+    <t>crfs-t05a-illnessduration</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-sym_convulsion</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-sym_lethargy</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-c1_a_10</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-c1_a_10a</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-sym_less_appetite</t>
+  </si>
+  <si>
+    <t>crfs-t05a-tt05a-sym_no_appetite</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_1</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_2</t>
+  </si>
+  <si>
+    <t>crfs-t09a2_g3_1o</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_3</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_4</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_6</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_7</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_8</t>
+  </si>
+  <si>
+    <t>crfs-t05a-ttt05a-c1_a_9</t>
+  </si>
+  <si>
+    <t>crfs-t05a-c1_a_11</t>
+  </si>
+  <si>
+    <t>crfs-t05a-c1_a_11o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_2</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_3</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_2a</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_2a_o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_1</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_5</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_2b</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_2b_o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_4</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b1_4o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_1</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_2</t>
+  </si>
+  <si>
+    <t>crfs-t04a-b2_3</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_1</t>
+  </si>
+  <si>
+    <t>crfs-t03-m2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-referral</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-referral_note</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-fu</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-injection</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-injection_types</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-injection_typeso</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-h2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-h2_2</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-h2_2o</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-b1_9</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-g3_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-j2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-j2_1c</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-h2_2a</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-h2_2ao</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_1</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_2</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_2a</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_3</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_3a</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_4</t>
+  </si>
+  <si>
+    <t>crfs-t07a-tt07a-e2_4a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_6</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_6b</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_1</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_4</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_4a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_5</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_5a</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_2</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_2b</t>
+  </si>
+  <si>
+    <t>crfs-t06a-tt06a-d2_3</t>
+  </si>
+  <si>
+    <t>crfs-t06a-d2_3b</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_1</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_2</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_3</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_4</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_5</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_10a</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_6</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_7</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_8</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_9</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_1</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_2</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_3</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_3a</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_4</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_6a</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_6</t>
+  </si>
+  <si>
+    <t>crfs-t05b-c3_6o</t>
+  </si>
+  <si>
+    <t>SubmitterID</t>
+  </si>
+  <si>
+    <t>ymdob</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_10</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_10a</t>
+  </si>
+  <si>
+    <t>a4_c_10</t>
+  </si>
+  <si>
+    <t>a4_c_10a</t>
+  </si>
+  <si>
+    <t>phone_nb2</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>a3-quarter</t>
+  </si>
+  <si>
+    <t>a3-a3_a_2</t>
+  </si>
+  <si>
+    <t>a3_a_2</t>
+  </si>
+  <si>
+    <t>age_yr_ctg</t>
+  </si>
+  <si>
+    <t>phone_nb3</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_9</t>
+  </si>
+  <si>
+    <t>cmty_contact</t>
+  </si>
+  <si>
+    <t>a4_c_9</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_4</t>
+  </si>
+  <si>
+    <t>a4_c_4</t>
+  </si>
+  <si>
     <t>location</t>
-  </si>
-  <si>
-    <t>location_name</t>
-  </si>
-  <si>
-    <t>prev_id</t>
-  </si>
-  <si>
-    <t>prev_hf_name_card</t>
-  </si>
-  <si>
-    <t>prev_hf_id_cg</t>
-  </si>
-  <si>
-    <t>prev_hf_name_cg</t>
-  </si>
-  <si>
-    <t>date_prev</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>location_oth</t>
-  </si>
-  <si>
-    <t>urban_rural</t>
-  </si>
-  <si>
-    <t>living_with_cg</t>
-  </si>
-  <si>
-    <t>mother_education</t>
-  </si>
-  <si>
-    <t>mother_oth_education</t>
-  </si>
-  <si>
-    <t>mother_civ_status</t>
-  </si>
-  <si>
-    <t>mother_profession</t>
-  </si>
-  <si>
-    <t>twin</t>
-  </si>
-  <si>
-    <t>birth_location</t>
-  </si>
-  <si>
-    <t>birth_type</t>
-  </si>
-  <si>
-    <t>birth_wt_knwn</t>
-  </si>
-  <si>
-    <t>birth_wt</t>
-  </si>
-  <si>
-    <t>birth_size</t>
-  </si>
-  <si>
-    <t>birth_weeks_knwn</t>
-  </si>
-  <si>
-    <t>birth_weeks</t>
-  </si>
-  <si>
-    <t>early_birth</t>
-  </si>
-  <si>
-    <t>bfeed</t>
-  </si>
-  <si>
-    <t>excl_bfeed</t>
-  </si>
-  <si>
-    <t>mix_bfeed</t>
-  </si>
-  <si>
-    <t>hospit</t>
-  </si>
-  <si>
-    <t>hh_head</t>
-  </si>
-  <si>
-    <t>hh_u5</t>
-  </si>
-  <si>
-    <t>toilet_type</t>
-  </si>
-  <si>
-    <t>toilet_othtype</t>
-  </si>
-  <si>
-    <t>shared_toilet</t>
-  </si>
-  <si>
-    <t>stove_type</t>
-  </si>
-  <si>
-    <t>stove_othtype</t>
-  </si>
-  <si>
-    <t>water_source</t>
-  </si>
-  <si>
-    <t>water_source_time</t>
-  </si>
-  <si>
-    <t>floor_type</t>
-  </si>
-  <si>
-    <t>roof_type</t>
-  </si>
-  <si>
-    <t>sick_duration</t>
-  </si>
-  <si>
-    <t>sx_convulsions</t>
-  </si>
-  <si>
-    <t>sx_lethargy</t>
-  </si>
-  <si>
-    <t>sx_vomit</t>
-  </si>
-  <si>
-    <t>sx_vomit_evthing</t>
-  </si>
-  <si>
-    <t>sx_less_feed</t>
-  </si>
-  <si>
-    <t>sx_unable_feed</t>
-  </si>
-  <si>
-    <t>sx_cough</t>
-  </si>
-  <si>
-    <t>sx_cough_onset</t>
-  </si>
-  <si>
-    <t>sx_difficulty_breath</t>
-  </si>
-  <si>
-    <t>sx_difficulty_breath_onset</t>
-  </si>
-  <si>
-    <t>sx_diarrhoea</t>
-  </si>
-  <si>
-    <t>sx_diarrhoea_onset</t>
-  </si>
-  <si>
-    <t>sx_fever</t>
-  </si>
-  <si>
-    <t>sx_fever_onset</t>
-  </si>
-  <si>
-    <t>sx_var</t>
-  </si>
-  <si>
-    <t>sx_varoth</t>
-  </si>
-  <si>
-    <t>journey</t>
-  </si>
-  <si>
-    <t>prev_chf</t>
-  </si>
-  <si>
-    <t>prev_hf_type</t>
-  </si>
-  <si>
-    <t>prev_hf_typeoth</t>
-  </si>
-  <si>
-    <t>prev_referral</t>
-  </si>
-  <si>
-    <t>prev_hosp</t>
-  </si>
-  <si>
-    <t>prev_nonhf</t>
-  </si>
-  <si>
-    <t>prev_nonhfoth</t>
-  </si>
-  <si>
-    <t>prev_rx</t>
-  </si>
-  <si>
-    <t>prev_rxoth</t>
-  </si>
-  <si>
-    <t>trans_type</t>
-  </si>
-  <si>
-    <t>trans_oth</t>
-  </si>
-  <si>
-    <t>trans_time</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>mother_absence</t>
-  </si>
-  <si>
-    <t>mother_oth_absence</t>
-  </si>
-  <si>
-    <t>referral_cg</t>
-  </si>
-  <si>
-    <t>referral_note</t>
-  </si>
-  <si>
-    <t>fu_advice</t>
-  </si>
-  <si>
-    <t>inj</t>
-  </si>
-  <si>
-    <t>inj_type</t>
-  </si>
-  <si>
-    <t>inj_othtype</t>
-  </si>
-  <si>
-    <t>rx_cg</t>
-  </si>
-  <si>
-    <t>rx_type</t>
-  </si>
-  <si>
-    <t>rx_othtype</t>
-  </si>
-  <si>
-    <t>consult_type</t>
-  </si>
-  <si>
-    <t>dx</t>
-  </si>
-  <si>
-    <t>dx_oth</t>
-  </si>
-  <si>
-    <t>referral_hf</t>
-  </si>
-  <si>
-    <t>urg_referral_hf</t>
-  </si>
-  <si>
-    <t>fu_advice_hf</t>
-  </si>
-  <si>
-    <t>fu_days</t>
-  </si>
-  <si>
-    <t>rx_type_hf</t>
-  </si>
-  <si>
-    <t>rx_othtype_hf</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>rr_meas</t>
-  </si>
-  <si>
-    <t>spo2</t>
-  </si>
-  <si>
-    <t>spo2_meas1</t>
-  </si>
-  <si>
-    <t>spo2_rpt2</t>
-  </si>
-  <si>
-    <t>spo2_meas2</t>
-  </si>
-  <si>
-    <t>spo2_rept3</t>
-  </si>
-  <si>
-    <t>spo2_meas3</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
-    <t>temp_meas</t>
-  </si>
-  <si>
-    <t>muac</t>
-  </si>
-  <si>
-    <t>muac_meas</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-  <si>
-    <t>wt_meas</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>ht_meas</t>
-  </si>
-  <si>
-    <t>wfh</t>
-  </si>
-  <si>
-    <t>wfh_meas</t>
-  </si>
-  <si>
-    <t>wfa</t>
-  </si>
-  <si>
-    <t>wfa_meas</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>tests_oth</t>
-  </si>
-  <si>
-    <t>malaria_ttype</t>
-  </si>
-  <si>
-    <t>malaria_res</t>
-  </si>
-  <si>
-    <t>hb_ttype</t>
-  </si>
-  <si>
-    <t>hb_res</t>
-  </si>
-  <si>
-    <t>bg_res</t>
-  </si>
-  <si>
-    <t>urine_res</t>
-  </si>
-  <si>
-    <t>stool_res</t>
-  </si>
-  <si>
-    <t>hiv_res</t>
-  </si>
-  <si>
-    <t>tb_res</t>
-  </si>
-  <si>
-    <t>hiv</t>
-  </si>
-  <si>
-    <t>mother_hiv</t>
-  </si>
-  <si>
-    <t>tb_ppx</t>
-  </si>
-  <si>
-    <t>tb</t>
-  </si>
-  <si>
-    <t>scd</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>pwd_type</t>
-  </si>
-  <si>
-    <t>pwd_othtype</t>
-  </si>
-  <si>
-    <t>day0</t>
-  </si>
-  <si>
-    <t>visits</t>
-  </si>
-  <si>
-    <t>sys_submit_id</t>
-  </si>
-  <si>
-    <t>dobk</t>
-  </si>
-  <si>
-    <t>a3_a_7</t>
-  </si>
-  <si>
-    <t>a3_a_4</t>
-  </si>
-  <si>
-    <t>a3_a_3</t>
-  </si>
-  <si>
-    <t>a3_a_5</t>
-  </si>
-  <si>
-    <t>a3_a_6</t>
-  </si>
-  <si>
-    <t>a3_a_8</t>
-  </si>
-  <si>
-    <t>incl1</t>
-  </si>
-  <si>
-    <t>excl1</t>
-  </si>
-  <si>
-    <t>is_young_infant</t>
-  </si>
-  <si>
-    <t>a3_c_1</t>
-  </si>
-  <si>
-    <t>a3_c_1o</t>
-  </si>
-  <si>
-    <t>main_cg_name</t>
-  </si>
-  <si>
-    <t>a3_c_3a</t>
-  </si>
-  <si>
-    <t>a3_c_3b</t>
-  </si>
-  <si>
-    <t>a3_c_3c</t>
-  </si>
-  <si>
-    <t>a3_a_10</t>
-  </si>
-  <si>
-    <t>excl3</t>
-  </si>
-  <si>
-    <t>a3_a_11</t>
-  </si>
-  <si>
-    <t>incl2</t>
-  </si>
-  <si>
-    <t>odk_ref</t>
-  </si>
-  <si>
-    <t>a3_b_1</t>
-  </si>
-  <si>
-    <t>former_timci_id</t>
-  </si>
-  <si>
-    <t>a3_b_2</t>
-  </si>
-  <si>
-    <t>a3_b_4</t>
-  </si>
-  <si>
-    <t>a3_b_2a</t>
-  </si>
-  <si>
-    <t>a3_b_3</t>
-  </si>
-  <si>
-    <t>a3_b_5</t>
-  </si>
-  <si>
-    <t>a3_b_3_1</t>
-  </si>
-  <si>
-    <t>repeat_visit</t>
-  </si>
-  <si>
-    <t>consent_signed</t>
-  </si>
-  <si>
-    <t>enrolment</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>a4_c_1</t>
-  </si>
-  <si>
-    <t>a4_c_2</t>
-  </si>
-  <si>
-    <t>a4_a_6</t>
-  </si>
-  <si>
-    <t>a4_a_10</t>
-  </si>
-  <si>
-    <t>a4_a_11</t>
-  </si>
-  <si>
-    <t>a4_a_1</t>
-  </si>
-  <si>
-    <t>c3_6o</t>
-  </si>
-  <si>
-    <t>c3_6</t>
-  </si>
-  <si>
-    <t>a4_a_3</t>
-  </si>
-  <si>
-    <t>a4_a_8_2</t>
-  </si>
-  <si>
-    <t>a4_a_9_2</t>
-  </si>
-  <si>
-    <t>a4_c_4</t>
-  </si>
-  <si>
-    <t>a4_c_7</t>
-  </si>
-  <si>
-    <t>location_type</t>
-  </si>
-  <si>
-    <t>m2_2</t>
-  </si>
-  <si>
-    <t>m1_1</t>
-  </si>
-  <si>
-    <t>m1_1o</t>
-  </si>
-  <si>
-    <t>m1_2</t>
-  </si>
-  <si>
-    <t>m1_3</t>
-  </si>
-  <si>
-    <t>m2_3</t>
-  </si>
-  <si>
-    <t>m2_4</t>
-  </si>
-  <si>
-    <t>m2_5</t>
-  </si>
-  <si>
-    <t>illnessduration</t>
-  </si>
-  <si>
-    <t>sym_convulsion</t>
-  </si>
-  <si>
-    <t>sym_lethargy</t>
-  </si>
-  <si>
-    <t>c1_a_10</t>
-  </si>
-  <si>
-    <t>c1_a_10a</t>
-  </si>
-  <si>
-    <t>sym_less_appetite</t>
-  </si>
-  <si>
-    <t>sym_no_appetite</t>
-  </si>
-  <si>
-    <t>c1_a_1</t>
-  </si>
-  <si>
-    <t>c1_a_2</t>
-  </si>
-  <si>
-    <t>c1_a_3</t>
-  </si>
-  <si>
-    <t>c1_a_4</t>
-  </si>
-  <si>
-    <t>c1_a_6</t>
-  </si>
-  <si>
-    <t>m2_6</t>
-  </si>
-  <si>
-    <t>m2_6a</t>
-  </si>
-  <si>
-    <t>m2_6b</t>
-  </si>
-  <si>
-    <t>m2_7</t>
-  </si>
-  <si>
-    <t>m2_7a</t>
-  </si>
-  <si>
-    <t>m2_7b</t>
-  </si>
-  <si>
-    <t>m2_8a</t>
-  </si>
-  <si>
-    <t>m2_8</t>
-  </si>
-  <si>
-    <t>m2_9</t>
-  </si>
-  <si>
-    <t>b1_6</t>
-  </si>
-  <si>
-    <t>m3_1b</t>
-  </si>
-  <si>
-    <t>m3_2</t>
-  </si>
-  <si>
-    <t>m3_3</t>
-  </si>
-  <si>
-    <t>m3_3o</t>
-  </si>
-  <si>
-    <t>m3_4</t>
-  </si>
-  <si>
-    <t>m3_5</t>
-  </si>
-  <si>
-    <t>m3_5o</t>
-  </si>
-  <si>
-    <t>m3_6</t>
-  </si>
-  <si>
-    <t>m3_7</t>
-  </si>
-  <si>
-    <t>m3_8a</t>
-  </si>
-  <si>
-    <t>m3_9a</t>
-  </si>
-  <si>
-    <t>c1_a_7</t>
-  </si>
-  <si>
-    <t>c1_a_8</t>
-  </si>
-  <si>
-    <t>c1_a_9</t>
-  </si>
-  <si>
-    <t>c1_a_11</t>
-  </si>
-  <si>
-    <t>c1_a_11o</t>
-  </si>
-  <si>
-    <t>b1_2</t>
-  </si>
-  <si>
-    <t>b1_3</t>
-  </si>
-  <si>
-    <t>b1_2a</t>
-  </si>
-  <si>
-    <t>b2_2a_o</t>
-  </si>
-  <si>
-    <t>b1_1</t>
-  </si>
-  <si>
-    <t>b1_5</t>
-  </si>
-  <si>
-    <t>b1_2b</t>
-  </si>
-  <si>
-    <t>b2_2b_o</t>
-  </si>
-  <si>
-    <t>b1_4</t>
-  </si>
-  <si>
-    <t>b1_4o</t>
-  </si>
-  <si>
-    <t>b2_1</t>
-  </si>
-  <si>
-    <t>b2_1o</t>
-  </si>
-  <si>
-    <t>b2_2</t>
-  </si>
-  <si>
-    <t>b2_3</t>
-  </si>
-  <si>
-    <t>m2_1</t>
-  </si>
-  <si>
-    <t>m2_1o</t>
-  </si>
-  <si>
-    <t>referral</t>
-  </si>
-  <si>
-    <t>fu</t>
-  </si>
-  <si>
-    <t>injection</t>
-  </si>
-  <si>
-    <t>injection_types</t>
-  </si>
-  <si>
-    <t>injection_typeso</t>
-  </si>
-  <si>
-    <t>h2_1a</t>
-  </si>
-  <si>
-    <t>h2_2</t>
-  </si>
-  <si>
-    <t>h2_2o</t>
-  </si>
-  <si>
-    <t>b1_9</t>
-  </si>
-  <si>
-    <t>g3_1</t>
-  </si>
-  <si>
-    <t>g3_1o</t>
-  </si>
-  <si>
-    <t>i2_1</t>
-  </si>
-  <si>
-    <t>i2_1a</t>
-  </si>
-  <si>
-    <t>j2_1</t>
-  </si>
-  <si>
-    <t>j2_1c</t>
-  </si>
-  <si>
-    <t>h2_2a</t>
-  </si>
-  <si>
-    <t>h2_2ao</t>
-  </si>
-  <si>
-    <t>e2_1</t>
-  </si>
-  <si>
-    <t>e2_1a</t>
-  </si>
-  <si>
-    <t>e2_2</t>
-  </si>
-  <si>
-    <t>e2_2a</t>
-  </si>
-  <si>
-    <t>e2_3</t>
-  </si>
-  <si>
-    <t>e2_3a</t>
-  </si>
-  <si>
-    <t>e2_4</t>
-  </si>
-  <si>
-    <t>e2_4a</t>
-  </si>
-  <si>
-    <t>d2_6</t>
-  </si>
-  <si>
-    <t>d2_6b</t>
-  </si>
-  <si>
-    <t>d2_1</t>
-  </si>
-  <si>
-    <t>d2_1a</t>
-  </si>
-  <si>
-    <t>d2_4</t>
-  </si>
-  <si>
-    <t>d2_4a</t>
-  </si>
-  <si>
-    <t>d2_5</t>
-  </si>
-  <si>
-    <t>d2_5a</t>
-  </si>
-  <si>
-    <t>d2_2</t>
-  </si>
-  <si>
-    <t>d2_2b</t>
-  </si>
-  <si>
-    <t>d2_3</t>
-  </si>
-  <si>
-    <t>d2_3b</t>
-  </si>
-  <si>
-    <t>f2_1</t>
-  </si>
-  <si>
-    <t>f2_1o</t>
-  </si>
-  <si>
-    <t>f2_2</t>
-  </si>
-  <si>
-    <t>f2_3</t>
-  </si>
-  <si>
-    <t>f2_4</t>
-  </si>
-  <si>
-    <t>f2_5</t>
-  </si>
-  <si>
-    <t>f2_10a</t>
-  </si>
-  <si>
-    <t>f2_6</t>
-  </si>
-  <si>
-    <t>f2_7</t>
-  </si>
-  <si>
-    <t>f2_8</t>
-  </si>
-  <si>
-    <t>f2_9</t>
-  </si>
-  <si>
-    <t>c3_1</t>
-  </si>
-  <si>
-    <t>c3_2</t>
-  </si>
-  <si>
-    <t>c3_3</t>
-  </si>
-  <si>
-    <t>c3_3a</t>
-  </si>
-  <si>
-    <t>c3_4</t>
-  </si>
-  <si>
-    <t>c3_6a</t>
-  </si>
-  <si>
-    <t>fid</t>
-  </si>
-  <si>
-    <t>a3-dobk</t>
-  </si>
-  <si>
-    <t>a3-a3_a_7</t>
-  </si>
-  <si>
-    <t>a3-a3_a_4</t>
-  </si>
-  <si>
-    <t>a3-yob</t>
-  </si>
-  <si>
-    <t>a3-a3_a_3</t>
-  </si>
-  <si>
-    <t>a3-a3_a_5</t>
-  </si>
-  <si>
-    <t>a3-a3_a_6</t>
-  </si>
-  <si>
-    <t>a3-a3_a_8</t>
-  </si>
-  <si>
-    <t>a3-incl1</t>
-  </si>
-  <si>
-    <t>a3-excl1</t>
-  </si>
-  <si>
-    <t>a3-is_young_infant</t>
-  </si>
-  <si>
-    <t>visit_reason-a3_c_1</t>
-  </si>
-  <si>
-    <t>visit_reason-a3_c_1o</t>
-  </si>
-  <si>
-    <t>visit_reason-main_cg</t>
-  </si>
-  <si>
-    <t>visit_reason-main_cg_name</t>
-  </si>
-  <si>
-    <t>visit_reason-a3_c_3a</t>
-  </si>
-  <si>
-    <t>visit_reason-a3_c_3b</t>
-  </si>
-  <si>
-    <t>visit_reason-a3_c_3c</t>
-  </si>
-  <si>
-    <t>visit_reason-a3_a_10</t>
-  </si>
-  <si>
-    <t>visit_reason-excl3</t>
-  </si>
-  <si>
-    <t>visit_reason-a3_a_11</t>
-  </si>
-  <si>
-    <t>visit_reason-incl2</t>
-  </si>
-  <si>
-    <t>previous_enrolment-a3_b_1</t>
-  </si>
-  <si>
-    <t>previous_enrolment-former_timci_id</t>
-  </si>
-  <si>
-    <t>previous_enrolment-a3_b_2</t>
-  </si>
-  <si>
-    <t>previous_enrolment-a3_b_4</t>
-  </si>
-  <si>
-    <t>previous_enrolment-a3_b_2a</t>
-  </si>
-  <si>
-    <t>previous_enrolment-a3_b_3</t>
-  </si>
-  <si>
-    <t>previous_enrolment-a3_b_5</t>
-  </si>
-  <si>
-    <t>previous_enrolment-a3_b_3_1</t>
-  </si>
-  <si>
-    <t>previous_enrolment-repeat_visit</t>
-  </si>
-  <si>
-    <t>consent-consent_signed</t>
-  </si>
-  <si>
-    <t>consent-enrolment</t>
-  </si>
-  <si>
-    <t>consent-pid</t>
-  </si>
-  <si>
-    <t>consent-fid</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_c_1</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_c_2</t>
-  </si>
-  <si>
-    <t>crfs-t02a-a4_a_6</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_a_10</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_a_11</t>
-  </si>
-  <si>
-    <t>crfs-t02a-a4_a_1</t>
-  </si>
-  <si>
-    <t>crfs-t02a-a4_a_3</t>
-  </si>
-  <si>
-    <t>crfs-t02a-a4_a_8_2</t>
-  </si>
-  <si>
-    <t>crfs-t02a-a4_a_9_2</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_c_4</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_c_7</t>
-  </si>
-  <si>
-    <t>crfs-t02b-location_name</t>
-  </si>
-  <si>
-    <t>crfs-t02b-location_type</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_2</t>
-  </si>
-  <si>
-    <t>crfs-t03-m1_1</t>
-  </si>
-  <si>
-    <t>crfs-t03-m1_1o</t>
-  </si>
-  <si>
-    <t>crfs-t03-m1_2</t>
-  </si>
-  <si>
-    <t>crfs-t03-m1_3</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_3</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_4</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_5</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_6</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_6a</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_6b</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_7</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_7a</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_7b</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_8a</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_8</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_9</t>
-  </si>
-  <si>
-    <t>crfs-t03-b1_6</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_1b</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_2</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_3</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_3o</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_4</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_5</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_5o</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_6</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_7</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_8a</t>
-  </si>
-  <si>
-    <t>crfs-t03-m3_9a</t>
-  </si>
-  <si>
-    <t>crfs-t05a-illnessduration</t>
-  </si>
-  <si>
-    <t>crfs-t05a-tt05a-sym_convulsion</t>
-  </si>
-  <si>
-    <t>crfs-t05a-tt05a-sym_lethargy</t>
-  </si>
-  <si>
-    <t>crfs-t05a-tt05a-c1_a_10</t>
-  </si>
-  <si>
-    <t>crfs-t05a-tt05a-c1_a_10a</t>
-  </si>
-  <si>
-    <t>crfs-t05a-tt05a-sym_less_appetite</t>
-  </si>
-  <si>
-    <t>crfs-t05a-tt05a-sym_no_appetite</t>
-  </si>
-  <si>
-    <t>crfs-t05a-ttt05a-c1_a_1</t>
-  </si>
-  <si>
-    <t>crfs-t05a-ttt05a-c1_a_2</t>
-  </si>
-  <si>
-    <t>crfs-t09a2_g3_1o</t>
-  </si>
-  <si>
-    <t>crfs-t05a-ttt05a-c1_a_3</t>
-  </si>
-  <si>
-    <t>crfs-t05a-ttt05a-c1_a_4</t>
-  </si>
-  <si>
-    <t>crfs-t05a-ttt05a-c1_a_6</t>
-  </si>
-  <si>
-    <t>crfs-t05a-ttt05a-c1_a_7</t>
-  </si>
-  <si>
-    <t>crfs-t05a-ttt05a-c1_a_8</t>
-  </si>
-  <si>
-    <t>crfs-t05a-ttt05a-c1_a_9</t>
-  </si>
-  <si>
-    <t>crfs-t05a-c1_a_11</t>
-  </si>
-  <si>
-    <t>crfs-t05a-c1_a_11o</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b1_2</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b1_3</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b1_2a</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b2_2a_o</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b1_1</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b1_5</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b1_2b</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b2_2b_o</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b1_4</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b1_4o</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b2_1</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b2_1o</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b2_2</t>
-  </si>
-  <si>
-    <t>crfs-t04a-b2_3</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_1</t>
-  </si>
-  <si>
-    <t>crfs-t03-m2_1o</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-referral</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-referral_note</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-fu</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-injection</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-injection_types</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-injection_typeso</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-h2_1a</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-h2_2</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-h2_2o</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-b1_9</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-g3_1</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-i2_1</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-i2_1a</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-j2_1</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-j2_1c</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-h2_2a</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-h2_2ao</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_1</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_1a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_2</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_2a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_3</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_3a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_4</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_4a</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_6</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_6b</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_1</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_1a</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_4</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_4a</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_5</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_5a</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_2</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_2b</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_3</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_3b</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_1</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_1o</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_2</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_3</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_4</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_5</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_10a</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_6</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_7</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_8</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_9</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_1</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_2</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_3</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_3a</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_4</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6a</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6o</t>
-  </si>
-  <si>
-    <t>SubmitterID</t>
-  </si>
-  <si>
-    <t>ymdob</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_c_10</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_c_10a</t>
-  </si>
-  <si>
-    <t>a4_c_10</t>
-  </si>
-  <si>
-    <t>a4_c_10a</t>
-  </si>
-  <si>
-    <t>phone_nb2</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>a3-quarter</t>
-  </si>
-  <si>
-    <t>a3-a3_a_2</t>
-  </si>
-  <si>
-    <t>a3_a_2</t>
-  </si>
-  <si>
-    <t>age_yr_ctg</t>
-  </si>
-  <si>
-    <t>phone_nb3</t>
-  </si>
-  <si>
-    <t>crfs-t02b-a4_c_9</t>
-  </si>
-  <si>
-    <t>cmty_contact</t>
-  </si>
-  <si>
-    <t>a4_c_9</t>
   </si>
 </sst>
 </file>
@@ -2004,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2032,16 +2008,16 @@
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2115,10 +2091,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2133,12 +2109,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -2156,12 +2132,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -2179,15 +2155,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2202,12 +2178,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>36</v>
@@ -2225,12 +2201,12 @@
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>37</v>
@@ -2253,7 +2229,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>9</v>
@@ -2271,15 +2247,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2294,12 +2270,12 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>29</v>
@@ -2317,12 +2293,12 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>2</v>
@@ -2340,12 +2316,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>14</v>
@@ -2363,15 +2339,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2386,12 +2362,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>11</v>
@@ -2409,12 +2385,12 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>12</v>
@@ -2432,12 +2408,12 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>10</v>
@@ -2455,12 +2431,12 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>23</v>
@@ -2478,12 +2454,12 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>24</v>
@@ -2501,12 +2477,12 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>8</v>
@@ -2529,7 +2505,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>38</v>
@@ -2547,12 +2523,12 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>22</v>
@@ -2570,12 +2546,12 @@
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>13</v>
@@ -2593,12 +2569,12 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>15</v>
@@ -2616,12 +2592,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>4</v>
@@ -2639,12 +2615,12 @@
         <v>1</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>6</v>
@@ -2662,12 +2638,12 @@
         <v>1</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>16</v>
@@ -2685,12 +2661,12 @@
         <v>1</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>5</v>
@@ -2708,12 +2684,12 @@
         <v>1</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>17</v>
@@ -2731,15 +2707,15 @@
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2754,15 +2730,15 @@
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -2777,15 +2753,15 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -2800,15 +2776,15 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -2823,15 +2799,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -2846,12 +2822,12 @@
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>18</v>
@@ -2869,12 +2845,12 @@
         <v>1</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>19</v>
@@ -2892,12 +2868,12 @@
         <v>1</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>20</v>
@@ -2915,12 +2891,12 @@
         <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>3</v>
@@ -2938,12 +2914,12 @@
         <v>1</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>30</v>
@@ -2961,12 +2937,12 @@
         <v>1</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>32</v>
@@ -2984,15 +2960,15 @@
         <v>1</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3007,12 +2983,12 @@
         <v>0</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>33</v>
@@ -3030,12 +3006,12 @@
         <v>0</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>34</v>
@@ -3053,12 +3029,12 @@
         <v>0</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>43</v>
@@ -3076,12 +3052,12 @@
         <v>0</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>39</v>
@@ -3099,12 +3075,12 @@
         <v>0</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>40</v>
@@ -3122,15 +3098,15 @@
         <v>0</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -3145,15 +3121,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3168,15 +3144,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3191,12 +3167,12 @@
         <v>0</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>41</v>
@@ -3214,12 +3190,12 @@
         <v>0</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>42</v>
@@ -3237,12 +3213,12 @@
         <v>0</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>44</v>
@@ -3260,12 +3236,12 @@
         <v>0</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>45</v>
@@ -3283,18 +3259,18 @@
         <v>0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>46</v>
+      <c r="A56" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>516</v>
       </c>
       <c r="C56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -3302,25 +3278,25 @@
       <c r="E56" s="4">
         <v>1</v>
       </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>222</v>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
@@ -3329,21 +3305,21 @@
         <v>0</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
       </c>
       <c r="D58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -3352,21 +3328,21 @@
         <v>0</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
       </c>
       <c r="D59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -3375,15 +3351,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3398,15 +3374,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3421,15 +3397,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3444,15 +3420,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3467,15 +3443,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3490,15 +3466,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3513,15 +3489,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3536,15 +3512,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3559,15 +3535,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3582,15 +3558,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3605,15 +3581,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3628,15 +3604,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3651,15 +3627,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3674,15 +3650,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3697,15 +3673,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3720,15 +3696,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3743,15 +3719,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3766,15 +3742,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3789,15 +3765,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -3812,15 +3788,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3835,15 +3811,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3858,15 +3834,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3881,15 +3857,15 @@
         <v>0</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -3904,15 +3880,15 @@
         <v>0</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -3927,15 +3903,15 @@
         <v>0</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3950,107 +3926,107 @@
         <v>0</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B85" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B86" s="13" t="s">
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B87" s="13" t="s">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="2">
         <v>1</v>
       </c>
       <c r="F88" s="3">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>265</v>
+        <v>1</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4065,15 +4041,15 @@
         <v>1</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4088,15 +4064,15 @@
         <v>1</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4111,15 +4087,15 @@
         <v>1</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4134,15 +4110,15 @@
         <v>1</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4157,15 +4133,15 @@
         <v>1</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4180,15 +4156,15 @@
         <v>1</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4203,15 +4179,15 @@
         <v>1</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4226,15 +4202,15 @@
         <v>1</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4249,15 +4225,15 @@
         <v>1</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4272,15 +4248,15 @@
         <v>1</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4295,15 +4271,15 @@
         <v>1</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4318,15 +4294,15 @@
         <v>1</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4341,15 +4317,15 @@
         <v>1</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4364,15 +4340,15 @@
         <v>1</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4387,15 +4363,15 @@
         <v>1</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>100</v>
+        <v>427</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4410,15 +4386,15 @@
         <v>1</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>101</v>
+        <v>428</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4433,15 +4409,15 @@
         <v>1</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>102</v>
+        <v>429</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4456,15 +4432,15 @@
         <v>1</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4479,15 +4455,15 @@
         <v>1</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4502,15 +4478,15 @@
         <v>1</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4525,15 +4501,15 @@
         <v>1</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4548,15 +4524,15 @@
         <v>1</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4571,15 +4547,15 @@
         <v>1</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4594,15 +4570,15 @@
         <v>1</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4617,15 +4593,15 @@
         <v>1</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4640,15 +4616,15 @@
         <v>1</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -4663,15 +4639,15 @@
         <v>1</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -4686,15 +4662,15 @@
         <v>1</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -4709,15 +4685,15 @@
         <v>1</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -4732,15 +4708,15 @@
         <v>1</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>115</v>
+        <v>442</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -4755,15 +4731,15 @@
         <v>1</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>116</v>
+        <v>443</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -4778,15 +4754,15 @@
         <v>1</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>285</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>117</v>
+        <v>444</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -4801,15 +4777,15 @@
         <v>1</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -4824,15 +4800,15 @@
         <v>1</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -4847,15 +4823,15 @@
         <v>1</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -4870,15 +4846,15 @@
         <v>1</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -4893,15 +4869,15 @@
         <v>1</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -4916,15 +4892,15 @@
         <v>1</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -4939,15 +4915,15 @@
         <v>1</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -4962,15 +4938,15 @@
         <v>1</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -4985,15 +4961,15 @@
         <v>1</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5008,15 +4984,15 @@
         <v>1</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5031,15 +5007,15 @@
         <v>1</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5054,15 +5030,15 @@
         <v>1</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>129</v>
+        <v>455</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5077,15 +5053,15 @@
         <v>1</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>130</v>
+        <v>456</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5100,15 +5076,15 @@
         <v>1</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5123,15 +5099,15 @@
         <v>1</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>132</v>
+        <v>458</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5146,15 +5122,15 @@
         <v>1</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>133</v>
+        <v>459</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5169,15 +5145,15 @@
         <v>1</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5192,15 +5168,15 @@
         <v>1</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5215,15 +5191,15 @@
         <v>1</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5238,15 +5214,15 @@
         <v>1</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5261,15 +5237,15 @@
         <v>1</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5284,15 +5260,15 @@
         <v>1</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5307,15 +5283,15 @@
         <v>1</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5330,15 +5306,15 @@
         <v>1</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5353,15 +5329,15 @@
         <v>1</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5376,15 +5352,15 @@
         <v>1</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5399,15 +5375,15 @@
         <v>1</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5422,15 +5398,15 @@
         <v>1</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5445,15 +5421,15 @@
         <v>1</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5468,15 +5444,15 @@
         <v>1</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5491,15 +5467,15 @@
         <v>1</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5514,15 +5490,15 @@
         <v>1</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -5537,15 +5513,15 @@
         <v>1</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -5560,15 +5536,15 @@
         <v>1</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -5583,15 +5559,15 @@
         <v>1</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -5606,15 +5582,15 @@
         <v>1</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -5629,15 +5605,15 @@
         <v>1</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -5652,15 +5628,15 @@
         <v>1</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -5675,15 +5651,15 @@
         <v>1</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -5698,15 +5674,15 @@
         <v>1</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -5721,15 +5697,15 @@
         <v>1</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -5744,15 +5720,15 @@
         <v>1</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -5767,15 +5743,15 @@
         <v>1</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -5790,15 +5766,15 @@
         <v>1</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -5813,15 +5789,15 @@
         <v>1</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -5836,85 +5812,85 @@
         <v>1</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="2">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3">
-        <v>1</v>
-      </c>
-      <c r="G167" s="17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="B168" s="14" t="s">
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B169" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3">
-        <v>1</v>
-      </c>
-      <c r="G168" s="17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="B169" s="14" t="s">
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="B170" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3">
-        <v>1</v>
-      </c>
-      <c r="G169" s="17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>166</v>
-      </c>
       <c r="C170" s="2">
         <v>0</v>
       </c>
@@ -5927,16 +5903,16 @@
       <c r="F170" s="3">
         <v>1</v>
       </c>
-      <c r="G170" s="17" t="s">
-        <v>334</v>
+      <c r="G170" s="18" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -5951,15 +5927,15 @@
         <v>1</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -5974,15 +5950,15 @@
         <v>1</v>
       </c>
       <c r="G172" s="18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -5997,15 +5973,15 @@
         <v>1</v>
       </c>
       <c r="G173" s="18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6020,15 +5996,15 @@
         <v>1</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6043,76 +6019,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="2">
-        <v>1</v>
-      </c>
-      <c r="F176" s="3">
-        <v>1</v>
-      </c>
-      <c r="G176" s="18" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="2">
-        <v>1</v>
-      </c>
-      <c r="F177" s="3">
-        <v>1</v>
-      </c>
-      <c r="G177" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="2">
-        <v>1</v>
-      </c>
-      <c r="F178" s="3">
-        <v>1</v>
-      </c>
-      <c r="G178" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="521">
   <si>
     <t>old</t>
   </si>
@@ -1575,6 +1575,18 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>consent-district</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>consent-facility</t>
+  </si>
+  <si>
+    <t>facility</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1699,6 +1711,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1980,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3263,80 +3278,80 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3351,15 +3366,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3374,15 +3389,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3397,15 +3412,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3420,15 +3435,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3443,15 +3458,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3466,15 +3481,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3489,15 +3504,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3512,15 +3527,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3535,15 +3550,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3558,15 +3573,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3581,15 +3596,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3604,15 +3619,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3627,15 +3642,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3650,15 +3665,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3673,15 +3688,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3696,15 +3711,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3719,15 +3734,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3742,15 +3757,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3765,15 +3780,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -3788,15 +3803,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3811,15 +3826,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3834,15 +3849,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3857,15 +3872,15 @@
         <v>0</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -3880,15 +3895,15 @@
         <v>0</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -3903,15 +3918,15 @@
         <v>0</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3926,84 +3941,84 @@
         <v>0</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B87" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="13" t="s">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4018,15 +4033,15 @@
         <v>1</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4041,15 +4056,15 @@
         <v>1</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4064,15 +4079,15 @@
         <v>1</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4087,15 +4102,15 @@
         <v>1</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4110,15 +4125,15 @@
         <v>1</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4133,15 +4148,15 @@
         <v>1</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4156,15 +4171,15 @@
         <v>1</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4179,15 +4194,15 @@
         <v>1</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4202,15 +4217,15 @@
         <v>1</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4225,15 +4240,15 @@
         <v>1</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4248,15 +4263,15 @@
         <v>1</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4271,15 +4286,15 @@
         <v>1</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4294,15 +4309,15 @@
         <v>1</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4317,15 +4332,15 @@
         <v>1</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4340,15 +4355,15 @@
         <v>1</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4363,15 +4378,15 @@
         <v>1</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>99</v>
+        <v>425</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4386,15 +4401,15 @@
         <v>1</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>100</v>
+        <v>426</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4409,15 +4424,15 @@
         <v>1</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4432,15 +4447,15 @@
         <v>1</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4455,15 +4470,15 @@
         <v>1</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4478,15 +4493,15 @@
         <v>1</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4501,15 +4516,15 @@
         <v>1</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4524,15 +4539,15 @@
         <v>1</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4547,15 +4562,15 @@
         <v>1</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4570,15 +4585,15 @@
         <v>1</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4593,15 +4608,15 @@
         <v>1</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4616,15 +4631,15 @@
         <v>1</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -4639,15 +4654,15 @@
         <v>1</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -4662,15 +4677,15 @@
         <v>1</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -4685,15 +4700,15 @@
         <v>1</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -4708,15 +4723,15 @@
         <v>1</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>114</v>
+        <v>440</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -4731,15 +4746,15 @@
         <v>1</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>115</v>
+        <v>441</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -4754,15 +4769,15 @@
         <v>1</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -4777,15 +4792,15 @@
         <v>1</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -4800,15 +4815,15 @@
         <v>1</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>282</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -4823,15 +4838,15 @@
         <v>1</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -4846,15 +4861,15 @@
         <v>1</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -4869,15 +4884,15 @@
         <v>1</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -4892,15 +4907,15 @@
         <v>1</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -4915,15 +4930,15 @@
         <v>1</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -4938,15 +4953,15 @@
         <v>1</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -4961,15 +4976,15 @@
         <v>1</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -4984,15 +4999,15 @@
         <v>1</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5007,15 +5022,15 @@
         <v>1</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5030,15 +5045,15 @@
         <v>1</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>128</v>
+        <v>453</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5053,15 +5068,15 @@
         <v>1</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>129</v>
+        <v>454</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5076,15 +5091,15 @@
         <v>1</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>130</v>
+        <v>455</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5099,15 +5114,15 @@
         <v>1</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>131</v>
+        <v>456</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5122,15 +5137,15 @@
         <v>1</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5145,15 +5160,15 @@
         <v>1</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5168,15 +5183,15 @@
         <v>1</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5191,15 +5206,15 @@
         <v>1</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5214,15 +5229,15 @@
         <v>1</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5237,15 +5252,15 @@
         <v>1</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5260,15 +5275,15 @@
         <v>1</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5283,15 +5298,15 @@
         <v>1</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5306,15 +5321,15 @@
         <v>1</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5329,15 +5344,15 @@
         <v>1</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5352,15 +5367,15 @@
         <v>1</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5375,15 +5390,15 @@
         <v>1</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5398,15 +5413,15 @@
         <v>1</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5421,15 +5436,15 @@
         <v>1</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5444,15 +5459,15 @@
         <v>1</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5467,15 +5482,15 @@
         <v>1</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5490,15 +5505,15 @@
         <v>1</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -5513,15 +5528,15 @@
         <v>1</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -5536,15 +5551,15 @@
         <v>1</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -5559,15 +5574,15 @@
         <v>1</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -5582,15 +5597,15 @@
         <v>1</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -5605,15 +5620,15 @@
         <v>1</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -5628,15 +5643,15 @@
         <v>1</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -5651,15 +5666,15 @@
         <v>1</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -5674,15 +5689,15 @@
         <v>1</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -5697,15 +5712,15 @@
         <v>1</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -5720,15 +5735,15 @@
         <v>1</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -5743,15 +5758,15 @@
         <v>1</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -5766,15 +5781,15 @@
         <v>1</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -5789,15 +5804,15 @@
         <v>1</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -5812,84 +5827,84 @@
         <v>1</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B169" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="2">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3">
-        <v>1</v>
-      </c>
-      <c r="G167" s="17" t="s">
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3">
-        <v>1</v>
-      </c>
-      <c r="G168" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3">
-        <v>1</v>
-      </c>
-      <c r="G169" s="18" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -5904,15 +5919,15 @@
         <v>1</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -5927,15 +5942,15 @@
         <v>1</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -5950,15 +5965,15 @@
         <v>1</v>
       </c>
       <c r="G172" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -5973,15 +5988,15 @@
         <v>1</v>
       </c>
       <c r="G173" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -5996,29 +6011,75 @@
         <v>1</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
+        <v>1</v>
+      </c>
+      <c r="G175" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
+        <v>1</v>
+      </c>
+      <c r="G176" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B177" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="2">
-        <v>1</v>
-      </c>
-      <c r="F175" s="3">
-        <v>1</v>
-      </c>
-      <c r="G175" s="18" t="s">
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <v>1</v>
+      </c>
+      <c r="G177" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="527">
   <si>
     <t>old</t>
   </si>
@@ -1587,6 +1587,24 @@
   </si>
   <si>
     <t>facility</t>
+  </si>
+  <si>
+    <t>visit_reason-ado_mother</t>
+  </si>
+  <si>
+    <t>underaged_mother</t>
+  </si>
+  <si>
+    <t>ado_mother</t>
+  </si>
+  <si>
+    <t>consent_eligibility</t>
+  </si>
+  <si>
+    <t>visit_reason-consent_eligibility</t>
+  </si>
+  <si>
+    <t>cg_eligibility</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2703,17 +2721,17 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>17</v>
+      <c r="A31" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>522</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2721,62 +2739,62 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>195</v>
+      <c r="G31" s="12" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>46</v>
+      <c r="A32" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>526</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>196</v>
+        <v>0</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>48</v>
+      <c r="A34" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -2790,16 +2808,16 @@
       <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>198</v>
+      <c r="G34" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -2814,15 +2832,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -2837,38 +2855,38 @@
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -2883,38 +2901,38 @@
         <v>1</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -2929,153 +2947,153 @@
         <v>1</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>30</v>
+      <c r="A41" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>205</v>
+      <c r="G41" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -3086,19 +3104,19 @@
       <c r="E47" s="4">
         <v>0</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>40</v>
+      <c r="A48" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -3107,21 +3125,21 @@
         <v>1</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>504</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -3136,15 +3154,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>502</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>501</v>
+        <v>374</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>510</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3159,15 +3177,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>503</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3182,15 +3200,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>41</v>
+        <v>510</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3205,15 +3223,15 @@
         <v>0</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>212</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>376</v>
+        <v>511</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>42</v>
+        <v>512</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3228,15 +3246,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>215</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3251,153 +3269,153 @@
         <v>0</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9" t="s">
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B58" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B59" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="11" t="s">
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="11" t="s">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3412,15 +3430,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3435,15 +3453,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3458,15 +3476,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3481,15 +3499,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3504,15 +3522,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3527,15 +3545,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3550,15 +3568,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3573,15 +3591,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3596,15 +3614,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3619,15 +3637,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3642,15 +3660,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3665,15 +3683,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3688,15 +3706,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3711,15 +3729,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3734,15 +3752,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3757,15 +3775,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3780,15 +3798,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -3803,15 +3821,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3826,15 +3844,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3849,15 +3867,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3872,15 +3890,15 @@
         <v>0</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -3895,15 +3913,15 @@
         <v>0</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -3918,15 +3936,15 @@
         <v>0</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3941,15 +3959,15 @@
         <v>0</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3964,15 +3982,15 @@
         <v>0</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -3987,84 +4005,84 @@
         <v>0</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B89" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="13" t="s">
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="13" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4079,15 +4097,15 @@
         <v>1</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4102,15 +4120,15 @@
         <v>1</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4125,15 +4143,15 @@
         <v>1</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4148,15 +4166,15 @@
         <v>1</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4171,15 +4189,15 @@
         <v>1</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4194,15 +4212,15 @@
         <v>1</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4217,15 +4235,15 @@
         <v>1</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4240,15 +4258,15 @@
         <v>1</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4263,15 +4281,15 @@
         <v>1</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4286,15 +4304,15 @@
         <v>1</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4309,15 +4327,15 @@
         <v>1</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4332,15 +4350,15 @@
         <v>1</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4355,15 +4373,15 @@
         <v>1</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4378,15 +4396,15 @@
         <v>1</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4401,15 +4419,15 @@
         <v>1</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4424,15 +4442,15 @@
         <v>1</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>99</v>
+        <v>425</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4447,15 +4465,15 @@
         <v>1</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>100</v>
+        <v>426</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4470,15 +4488,15 @@
         <v>1</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4493,15 +4511,15 @@
         <v>1</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4516,15 +4534,15 @@
         <v>1</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4539,15 +4557,15 @@
         <v>1</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4562,15 +4580,15 @@
         <v>1</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4585,15 +4603,15 @@
         <v>1</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4608,15 +4626,15 @@
         <v>1</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4631,15 +4649,15 @@
         <v>1</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -4654,15 +4672,15 @@
         <v>1</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -4677,15 +4695,15 @@
         <v>1</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -4700,15 +4718,15 @@
         <v>1</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -4723,15 +4741,15 @@
         <v>1</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -4746,15 +4764,15 @@
         <v>1</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -4769,15 +4787,15 @@
         <v>1</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>114</v>
+        <v>440</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -4792,15 +4810,15 @@
         <v>1</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>115</v>
+        <v>441</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -4815,15 +4833,15 @@
         <v>1</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -4838,15 +4856,15 @@
         <v>1</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -4861,15 +4879,15 @@
         <v>1</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>282</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -4884,15 +4902,15 @@
         <v>1</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -4907,15 +4925,15 @@
         <v>1</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -4930,15 +4948,15 @@
         <v>1</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -4953,15 +4971,15 @@
         <v>1</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -4976,15 +4994,15 @@
         <v>1</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -4999,15 +5017,15 @@
         <v>1</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5022,15 +5040,15 @@
         <v>1</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5045,15 +5063,15 @@
         <v>1</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5068,15 +5086,15 @@
         <v>1</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5091,15 +5109,15 @@
         <v>1</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>128</v>
+        <v>453</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5114,15 +5132,15 @@
         <v>1</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>129</v>
+        <v>454</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5137,15 +5155,15 @@
         <v>1</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>130</v>
+        <v>455</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5160,15 +5178,15 @@
         <v>1</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>131</v>
+        <v>456</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5183,15 +5201,15 @@
         <v>1</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5206,15 +5224,15 @@
         <v>1</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5229,15 +5247,15 @@
         <v>1</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5252,15 +5270,15 @@
         <v>1</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5275,15 +5293,15 @@
         <v>1</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5298,15 +5316,15 @@
         <v>1</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5321,15 +5339,15 @@
         <v>1</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5344,15 +5362,15 @@
         <v>1</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5367,15 +5385,15 @@
         <v>1</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5390,15 +5408,15 @@
         <v>1</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5413,15 +5431,15 @@
         <v>1</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5436,15 +5454,15 @@
         <v>1</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5459,15 +5477,15 @@
         <v>1</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5482,15 +5500,15 @@
         <v>1</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5505,15 +5523,15 @@
         <v>1</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -5528,15 +5546,15 @@
         <v>1</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -5551,15 +5569,15 @@
         <v>1</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -5574,15 +5592,15 @@
         <v>1</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -5597,15 +5615,15 @@
         <v>1</v>
       </c>
       <c r="G156" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -5620,15 +5638,15 @@
         <v>1</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -5643,15 +5661,15 @@
         <v>1</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -5666,15 +5684,15 @@
         <v>1</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -5689,15 +5707,15 @@
         <v>1</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -5712,15 +5730,15 @@
         <v>1</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -5735,15 +5753,15 @@
         <v>1</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -5758,15 +5776,15 @@
         <v>1</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -5781,15 +5799,15 @@
         <v>1</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -5804,15 +5822,15 @@
         <v>1</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -5827,15 +5845,15 @@
         <v>1</v>
       </c>
       <c r="G166" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -5850,15 +5868,15 @@
         <v>1</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -5873,84 +5891,84 @@
         <v>1</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B171" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3">
-        <v>1</v>
-      </c>
-      <c r="G169" s="17" t="s">
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3">
+        <v>1</v>
+      </c>
+      <c r="G171" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="2">
-        <v>1</v>
-      </c>
-      <c r="F170" s="3">
-        <v>1</v>
-      </c>
-      <c r="G170" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="2">
-        <v>1</v>
-      </c>
-      <c r="F171" s="3">
-        <v>1</v>
-      </c>
-      <c r="G171" s="18" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -5965,15 +5983,15 @@
         <v>1</v>
       </c>
       <c r="G172" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -5988,15 +6006,15 @@
         <v>1</v>
       </c>
       <c r="G173" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6011,15 +6029,15 @@
         <v>1</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6034,15 +6052,15 @@
         <v>1</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6057,29 +6075,75 @@
         <v>1</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <v>1</v>
+      </c>
+      <c r="G177" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B179" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="2">
-        <v>1</v>
-      </c>
-      <c r="F177" s="3">
-        <v>1</v>
-      </c>
-      <c r="G177" s="18" t="s">
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
+      <c r="F179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="528">
   <si>
     <t>old</t>
   </si>
@@ -1605,6 +1605,9 @@
   </si>
   <si>
     <t>cg_eligibility</t>
+  </si>
+  <si>
+    <t>qual</t>
   </si>
 </sst>
 </file>
@@ -2013,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2026,11 +2029,11 @@
     <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,10 +2053,13 @@
         <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2072,11 +2078,14 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -2095,11 +2104,14 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -2118,11 +2130,14 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>498</v>
       </c>
@@ -2141,11 +2156,14 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>335</v>
       </c>
@@ -2164,11 +2182,14 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>336</v>
       </c>
@@ -2187,11 +2208,14 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>499</v>
       </c>
@@ -2210,11 +2234,14 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>337</v>
       </c>
@@ -2233,11 +2260,14 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>338</v>
       </c>
@@ -2256,11 +2286,14 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>339</v>
       </c>
@@ -2279,11 +2312,14 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>507</v>
       </c>
@@ -2302,11 +2338,14 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>340</v>
       </c>
@@ -2325,11 +2364,14 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>341</v>
       </c>
@@ -2348,11 +2390,14 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>342</v>
       </c>
@@ -2371,11 +2416,14 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>506</v>
       </c>
@@ -2394,11 +2442,14 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>343</v>
       </c>
@@ -2417,11 +2468,14 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>344</v>
       </c>
@@ -2440,11 +2494,14 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>345</v>
       </c>
@@ -2463,11 +2520,14 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>346</v>
       </c>
@@ -2486,11 +2546,14 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>347</v>
       </c>
@@ -2509,11 +2572,14 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>348</v>
       </c>
@@ -2532,11 +2598,14 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>349</v>
       </c>
@@ -2555,11 +2624,14 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>350</v>
       </c>
@@ -2578,11 +2650,14 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>351</v>
       </c>
@@ -2601,11 +2676,14 @@
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>352</v>
       </c>
@@ -2624,11 +2702,14 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>353</v>
       </c>
@@ -2647,11 +2728,14 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>354</v>
       </c>
@@ -2670,11 +2754,14 @@
       <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>355</v>
       </c>
@@ -2693,11 +2780,14 @@
       <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>356</v>
       </c>
@@ -2716,11 +2806,14 @@
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>521</v>
       </c>
@@ -2739,11 +2832,14 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>525</v>
       </c>
@@ -2762,11 +2858,14 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>357</v>
       </c>
@@ -2785,11 +2884,14 @@
       <c r="F33" s="3">
         <v>1</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>358</v>
       </c>
@@ -2808,11 +2910,14 @@
       <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>359</v>
       </c>
@@ -2820,22 +2925,25 @@
         <v>47</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>360</v>
       </c>
@@ -2854,11 +2962,14 @@
       <c r="F36" s="3">
         <v>1</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>361</v>
       </c>
@@ -2866,22 +2977,25 @@
         <v>49</v>
       </c>
       <c r="C37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>362</v>
       </c>
@@ -2900,11 +3014,14 @@
       <c r="F38" s="3">
         <v>1</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>363</v>
       </c>
@@ -2923,11 +3040,14 @@
       <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>364</v>
       </c>
@@ -2946,11 +3066,14 @@
       <c r="F40" s="3">
         <v>1</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>365</v>
       </c>
@@ -2969,11 +3092,14 @@
       <c r="F41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>366</v>
       </c>
@@ -2992,11 +3118,14 @@
       <c r="F42" s="3">
         <v>1</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>367</v>
       </c>
@@ -3015,11 +3144,14 @@
       <c r="F43" s="3">
         <v>1</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>368</v>
       </c>
@@ -3038,11 +3170,14 @@
       <c r="F44" s="3">
         <v>1</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>369</v>
       </c>
@@ -3059,13 +3194,16 @@
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>370</v>
       </c>
@@ -3084,11 +3222,14 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>371</v>
       </c>
@@ -3107,11 +3248,14 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>372</v>
       </c>
@@ -3130,11 +3274,14 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>373</v>
       </c>
@@ -3153,11 +3300,14 @@
       <c r="F49" s="4">
         <v>0</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>374</v>
       </c>
@@ -3176,11 +3326,14 @@
       <c r="F50" s="4">
         <v>0</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>500</v>
       </c>
@@ -3199,11 +3352,14 @@
       <c r="F51" s="4">
         <v>0</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>501</v>
       </c>
@@ -3222,11 +3378,14 @@
       <c r="F52" s="4">
         <v>0</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>511</v>
       </c>
@@ -3245,11 +3404,14 @@
       <c r="F53" s="4">
         <v>0</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>375</v>
       </c>
@@ -3268,11 +3430,14 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>376</v>
       </c>
@@ -3291,11 +3456,14 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>377</v>
       </c>
@@ -3314,11 +3482,14 @@
       <c r="F56" s="4">
         <v>0</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>378</v>
       </c>
@@ -3337,11 +3508,14 @@
       <c r="F57" s="4">
         <v>0</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>517</v>
       </c>
@@ -3360,11 +3534,14 @@
       <c r="F58" s="4">
         <v>1</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>519</v>
       </c>
@@ -3383,11 +3560,14 @@
       <c r="F59" s="4">
         <v>1</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>514</v>
       </c>
@@ -3406,11 +3586,14 @@
       <c r="F60" s="4">
         <v>0</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>379</v>
       </c>
@@ -3429,11 +3612,14 @@
       <c r="F61" s="3">
         <v>0</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>380</v>
       </c>
@@ -3452,11 +3638,14 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>381</v>
       </c>
@@ -3475,11 +3664,14 @@
       <c r="F63" s="3">
         <v>0</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>382</v>
       </c>
@@ -3498,11 +3690,14 @@
       <c r="F64" s="3">
         <v>0</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>383</v>
       </c>
@@ -3521,11 +3716,14 @@
       <c r="F65" s="3">
         <v>0</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>384</v>
       </c>
@@ -3544,11 +3742,14 @@
       <c r="F66" s="3">
         <v>0</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>385</v>
       </c>
@@ -3567,11 +3768,14 @@
       <c r="F67" s="3">
         <v>0</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>386</v>
       </c>
@@ -3590,11 +3794,14 @@
       <c r="F68" s="3">
         <v>0</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>387</v>
       </c>
@@ -3613,11 +3820,14 @@
       <c r="F69" s="3">
         <v>0</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>388</v>
       </c>
@@ -3636,11 +3846,14 @@
       <c r="F70" s="3">
         <v>0</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>389</v>
       </c>
@@ -3659,11 +3872,14 @@
       <c r="F71" s="3">
         <v>0</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>390</v>
       </c>
@@ -3682,11 +3898,14 @@
       <c r="F72" s="3">
         <v>0</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>391</v>
       </c>
@@ -3705,11 +3924,14 @@
       <c r="F73" s="3">
         <v>0</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>392</v>
       </c>
@@ -3728,11 +3950,14 @@
       <c r="F74" s="3">
         <v>0</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>393</v>
       </c>
@@ -3751,11 +3976,14 @@
       <c r="F75" s="3">
         <v>0</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>394</v>
       </c>
@@ -3774,11 +4002,14 @@
       <c r="F76" s="3">
         <v>0</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>395</v>
       </c>
@@ -3797,11 +4028,14 @@
       <c r="F77" s="3">
         <v>0</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>396</v>
       </c>
@@ -3820,11 +4054,14 @@
       <c r="F78" s="3">
         <v>0</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>397</v>
       </c>
@@ -3843,11 +4080,14 @@
       <c r="F79" s="3">
         <v>0</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>398</v>
       </c>
@@ -3866,11 +4106,14 @@
       <c r="F80" s="3">
         <v>0</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>399</v>
       </c>
@@ -3889,11 +4132,14 @@
       <c r="F81" s="3">
         <v>0</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>400</v>
       </c>
@@ -3912,11 +4158,14 @@
       <c r="F82" s="3">
         <v>0</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>401</v>
       </c>
@@ -3935,11 +4184,14 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>402</v>
       </c>
@@ -3958,11 +4210,14 @@
       <c r="F84" s="3">
         <v>0</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>403</v>
       </c>
@@ -3981,11 +4236,14 @@
       <c r="F85" s="3">
         <v>0</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>404</v>
       </c>
@@ -4004,11 +4262,14 @@
       <c r="F86" s="3">
         <v>0</v>
       </c>
-      <c r="G86" s="13" t="s">
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>405</v>
       </c>
@@ -4027,11 +4288,14 @@
       <c r="F87" s="3">
         <v>0</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>406</v>
       </c>
@@ -4050,11 +4314,14 @@
       <c r="F88" s="3">
         <v>0</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>407</v>
       </c>
@@ -4073,11 +4340,14 @@
       <c r="F89" s="3">
         <v>0</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
         <v>408</v>
       </c>
@@ -4096,11 +4366,14 @@
       <c r="F90" s="3">
         <v>1</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
         <v>409</v>
       </c>
@@ -4119,11 +4392,14 @@
       <c r="F91" s="3">
         <v>1</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>410</v>
       </c>
@@ -4142,11 +4418,14 @@
       <c r="F92" s="3">
         <v>1</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
         <v>411</v>
       </c>
@@ -4165,11 +4444,14 @@
       <c r="F93" s="3">
         <v>1</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
         <v>412</v>
       </c>
@@ -4188,11 +4470,14 @@
       <c r="F94" s="3">
         <v>1</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
         <v>413</v>
       </c>
@@ -4211,11 +4496,14 @@
       <c r="F95" s="3">
         <v>1</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
         <v>414</v>
       </c>
@@ -4234,11 +4522,14 @@
       <c r="F96" s="3">
         <v>1</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
         <v>415</v>
       </c>
@@ -4257,11 +4548,14 @@
       <c r="F97" s="3">
         <v>1</v>
       </c>
-      <c r="G97" s="17" t="s">
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="17" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
         <v>416</v>
       </c>
@@ -4280,11 +4574,14 @@
       <c r="F98" s="3">
         <v>1</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>418</v>
       </c>
@@ -4303,11 +4600,14 @@
       <c r="F99" s="3">
         <v>1</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
         <v>419</v>
       </c>
@@ -4326,11 +4626,14 @@
       <c r="F100" s="3">
         <v>1</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="17" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>420</v>
       </c>
@@ -4349,11 +4652,14 @@
       <c r="F101" s="3">
         <v>1</v>
       </c>
-      <c r="G101" s="17" t="s">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
         <v>421</v>
       </c>
@@ -4372,11 +4678,14 @@
       <c r="F102" s="3">
         <v>1</v>
       </c>
-      <c r="G102" s="17" t="s">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="17" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>422</v>
       </c>
@@ -4395,11 +4704,14 @@
       <c r="F103" s="3">
         <v>1</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
         <v>423</v>
       </c>
@@ -4418,11 +4730,14 @@
       <c r="F104" s="3">
         <v>1</v>
       </c>
-      <c r="G104" s="17" t="s">
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
         <v>424</v>
       </c>
@@ -4441,11 +4756,14 @@
       <c r="F105" s="3">
         <v>1</v>
       </c>
-      <c r="G105" s="17" t="s">
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
         <v>425</v>
       </c>
@@ -4464,11 +4782,14 @@
       <c r="F106" s="3">
         <v>1</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
         <v>426</v>
       </c>
@@ -4487,11 +4808,14 @@
       <c r="F107" s="3">
         <v>1</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G107" s="3">
+        <v>1</v>
+      </c>
+      <c r="H107" s="17" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
         <v>427</v>
       </c>
@@ -4510,11 +4834,14 @@
       <c r="F108" s="3">
         <v>1</v>
       </c>
-      <c r="G108" s="17" t="s">
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108" s="17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>428</v>
       </c>
@@ -4533,11 +4860,14 @@
       <c r="F109" s="3">
         <v>1</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>429</v>
       </c>
@@ -4556,11 +4886,14 @@
       <c r="F110" s="3">
         <v>1</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+      <c r="H110" s="17" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>430</v>
       </c>
@@ -4579,11 +4912,14 @@
       <c r="F111" s="3">
         <v>1</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
         <v>431</v>
       </c>
@@ -4602,11 +4938,14 @@
       <c r="F112" s="3">
         <v>1</v>
       </c>
-      <c r="G112" s="17" t="s">
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
         <v>432</v>
       </c>
@@ -4625,11 +4964,14 @@
       <c r="F113" s="3">
         <v>1</v>
       </c>
-      <c r="G113" s="17" t="s">
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
         <v>433</v>
       </c>
@@ -4648,11 +4990,14 @@
       <c r="F114" s="3">
         <v>1</v>
       </c>
-      <c r="G114" s="17" t="s">
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
         <v>434</v>
       </c>
@@ -4671,11 +5016,14 @@
       <c r="F115" s="3">
         <v>1</v>
       </c>
-      <c r="G115" s="17" t="s">
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="17" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
         <v>435</v>
       </c>
@@ -4694,11 +5042,14 @@
       <c r="F116" s="3">
         <v>1</v>
       </c>
-      <c r="G116" s="17" t="s">
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
         <v>436</v>
       </c>
@@ -4717,11 +5068,14 @@
       <c r="F117" s="3">
         <v>1</v>
       </c>
-      <c r="G117" s="17" t="s">
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+      <c r="H117" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
         <v>437</v>
       </c>
@@ -4740,11 +5094,14 @@
       <c r="F118" s="3">
         <v>1</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G118" s="3">
+        <v>1</v>
+      </c>
+      <c r="H118" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
         <v>438</v>
       </c>
@@ -4763,11 +5120,14 @@
       <c r="F119" s="3">
         <v>1</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119" s="17" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
         <v>439</v>
       </c>
@@ -4786,11 +5146,14 @@
       <c r="F120" s="3">
         <v>1</v>
       </c>
-      <c r="G120" s="17" t="s">
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+      <c r="H120" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
         <v>440</v>
       </c>
@@ -4809,11 +5172,14 @@
       <c r="F121" s="3">
         <v>1</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+      <c r="H121" s="17" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
         <v>441</v>
       </c>
@@ -4832,11 +5198,14 @@
       <c r="F122" s="3">
         <v>1</v>
       </c>
-      <c r="G122" s="17" t="s">
+      <c r="G122" s="3">
+        <v>1</v>
+      </c>
+      <c r="H122" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
         <v>442</v>
       </c>
@@ -4855,11 +5224,14 @@
       <c r="F123" s="3">
         <v>1</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+      <c r="H123" s="17" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
         <v>443</v>
       </c>
@@ -4878,11 +5250,14 @@
       <c r="F124" s="3">
         <v>1</v>
       </c>
-      <c r="G124" s="17" t="s">
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
         <v>444</v>
       </c>
@@ -4901,11 +5276,14 @@
       <c r="F125" s="3">
         <v>1</v>
       </c>
-      <c r="G125" s="17" t="s">
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="17" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
         <v>445</v>
       </c>
@@ -4924,11 +5302,14 @@
       <c r="F126" s="3">
         <v>1</v>
       </c>
-      <c r="G126" s="17" t="s">
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="17" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
         <v>446</v>
       </c>
@@ -4947,11 +5328,14 @@
       <c r="F127" s="3">
         <v>1</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
         <v>447</v>
       </c>
@@ -4970,11 +5354,14 @@
       <c r="F128" s="3">
         <v>1</v>
       </c>
-      <c r="G128" s="17" t="s">
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="17" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
         <v>448</v>
       </c>
@@ -4993,11 +5380,14 @@
       <c r="F129" s="3">
         <v>1</v>
       </c>
-      <c r="G129" s="17" t="s">
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>449</v>
       </c>
@@ -5016,11 +5406,14 @@
       <c r="F130" s="3">
         <v>1</v>
       </c>
-      <c r="G130" s="17" t="s">
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
         <v>450</v>
       </c>
@@ -5039,11 +5432,14 @@
       <c r="F131" s="3">
         <v>1</v>
       </c>
-      <c r="G131" s="17" t="s">
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
         <v>451</v>
       </c>
@@ -5062,11 +5458,14 @@
       <c r="F132" s="3">
         <v>1</v>
       </c>
-      <c r="G132" s="17" t="s">
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="17" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
         <v>452</v>
       </c>
@@ -5085,11 +5484,14 @@
       <c r="F133" s="3">
         <v>1</v>
       </c>
-      <c r="G133" s="17" t="s">
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
         <v>417</v>
       </c>
@@ -5108,11 +5510,14 @@
       <c r="F134" s="3">
         <v>1</v>
       </c>
-      <c r="G134" s="17" t="s">
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="17" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
         <v>453</v>
       </c>
@@ -5131,11 +5536,14 @@
       <c r="F135" s="3">
         <v>1</v>
       </c>
-      <c r="G135" s="17" t="s">
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
         <v>454</v>
       </c>
@@ -5154,11 +5562,14 @@
       <c r="F136" s="3">
         <v>1</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="17" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
         <v>455</v>
       </c>
@@ -5177,11 +5588,14 @@
       <c r="F137" s="3">
         <v>1</v>
       </c>
-      <c r="G137" s="17" t="s">
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
         <v>456</v>
       </c>
@@ -5200,11 +5614,14 @@
       <c r="F138" s="3">
         <v>1</v>
       </c>
-      <c r="G138" s="17" t="s">
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
         <v>457</v>
       </c>
@@ -5223,11 +5640,14 @@
       <c r="F139" s="3">
         <v>1</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
         <v>458</v>
       </c>
@@ -5246,11 +5666,14 @@
       <c r="F140" s="3">
         <v>1</v>
       </c>
-      <c r="G140" s="17" t="s">
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="17" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
         <v>459</v>
       </c>
@@ -5269,11 +5692,14 @@
       <c r="F141" s="3">
         <v>1</v>
       </c>
-      <c r="G141" s="17" t="s">
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="17" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
         <v>460</v>
       </c>
@@ -5292,11 +5718,14 @@
       <c r="F142" s="3">
         <v>1</v>
       </c>
-      <c r="G142" s="17" t="s">
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
         <v>461</v>
       </c>
@@ -5315,11 +5744,14 @@
       <c r="F143" s="3">
         <v>1</v>
       </c>
-      <c r="G143" s="17" t="s">
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="17" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
         <v>462</v>
       </c>
@@ -5338,11 +5770,14 @@
       <c r="F144" s="3">
         <v>1</v>
       </c>
-      <c r="G144" s="17" t="s">
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="17" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>463</v>
       </c>
@@ -5361,11 +5796,14 @@
       <c r="F145" s="3">
         <v>1</v>
       </c>
-      <c r="G145" s="17" t="s">
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="17" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
         <v>464</v>
       </c>
@@ -5384,11 +5822,14 @@
       <c r="F146" s="3">
         <v>1</v>
       </c>
-      <c r="G146" s="17" t="s">
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
         <v>465</v>
       </c>
@@ -5407,11 +5848,14 @@
       <c r="F147" s="3">
         <v>1</v>
       </c>
-      <c r="G147" s="17" t="s">
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
         <v>466</v>
       </c>
@@ -5430,11 +5874,14 @@
       <c r="F148" s="3">
         <v>1</v>
       </c>
-      <c r="G148" s="17" t="s">
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="17" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
         <v>467</v>
       </c>
@@ -5453,11 +5900,14 @@
       <c r="F149" s="3">
         <v>1</v>
       </c>
-      <c r="G149" s="17" t="s">
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
         <v>468</v>
       </c>
@@ -5476,11 +5926,14 @@
       <c r="F150" s="3">
         <v>1</v>
       </c>
-      <c r="G150" s="17" t="s">
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
         <v>469</v>
       </c>
@@ -5499,11 +5952,14 @@
       <c r="F151" s="3">
         <v>1</v>
       </c>
-      <c r="G151" s="17" t="s">
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="17" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
         <v>470</v>
       </c>
@@ -5522,11 +5978,14 @@
       <c r="F152" s="3">
         <v>1</v>
       </c>
-      <c r="G152" s="17" t="s">
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
         <v>471</v>
       </c>
@@ -5545,11 +6004,14 @@
       <c r="F153" s="3">
         <v>1</v>
       </c>
-      <c r="G153" s="17" t="s">
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="17" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
         <v>472</v>
       </c>
@@ -5568,11 +6030,14 @@
       <c r="F154" s="3">
         <v>1</v>
       </c>
-      <c r="G154" s="17" t="s">
+      <c r="G154" s="3">
+        <v>0</v>
+      </c>
+      <c r="H154" s="17" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
         <v>473</v>
       </c>
@@ -5591,11 +6056,14 @@
       <c r="F155" s="3">
         <v>1</v>
       </c>
-      <c r="G155" s="17" t="s">
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="17" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
         <v>474</v>
       </c>
@@ -5614,11 +6082,14 @@
       <c r="F156" s="3">
         <v>1</v>
       </c>
-      <c r="G156" s="17" t="s">
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="17" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
         <v>475</v>
       </c>
@@ -5637,11 +6108,14 @@
       <c r="F157" s="3">
         <v>1</v>
       </c>
-      <c r="G157" s="17" t="s">
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
         <v>476</v>
       </c>
@@ -5660,11 +6134,14 @@
       <c r="F158" s="3">
         <v>1</v>
       </c>
-      <c r="G158" s="17" t="s">
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="17" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
         <v>477</v>
       </c>
@@ -5683,11 +6160,14 @@
       <c r="F159" s="3">
         <v>1</v>
       </c>
-      <c r="G159" s="17" t="s">
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
         <v>478</v>
       </c>
@@ -5706,11 +6186,14 @@
       <c r="F160" s="3">
         <v>1</v>
       </c>
-      <c r="G160" s="17" t="s">
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="17" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
         <v>479</v>
       </c>
@@ -5729,11 +6212,14 @@
       <c r="F161" s="3">
         <v>1</v>
       </c>
-      <c r="G161" s="17" t="s">
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
         <v>480</v>
       </c>
@@ -5752,11 +6238,14 @@
       <c r="F162" s="3">
         <v>1</v>
       </c>
-      <c r="G162" s="17" t="s">
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="17" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
         <v>481</v>
       </c>
@@ -5775,11 +6264,14 @@
       <c r="F163" s="3">
         <v>1</v>
       </c>
-      <c r="G163" s="17" t="s">
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="17" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
         <v>482</v>
       </c>
@@ -5798,11 +6290,14 @@
       <c r="F164" s="3">
         <v>1</v>
       </c>
-      <c r="G164" s="17" t="s">
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="17" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
         <v>483</v>
       </c>
@@ -5821,11 +6316,14 @@
       <c r="F165" s="3">
         <v>1</v>
       </c>
-      <c r="G165" s="17" t="s">
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="17" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
         <v>484</v>
       </c>
@@ -5844,11 +6342,14 @@
       <c r="F166" s="3">
         <v>1</v>
       </c>
-      <c r="G166" s="17" t="s">
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="17" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
         <v>485</v>
       </c>
@@ -5867,11 +6368,14 @@
       <c r="F167" s="3">
         <v>1</v>
       </c>
-      <c r="G167" s="17" t="s">
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="17" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
         <v>486</v>
       </c>
@@ -5890,11 +6394,14 @@
       <c r="F168" s="3">
         <v>1</v>
       </c>
-      <c r="G168" s="17" t="s">
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="17" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
         <v>487</v>
       </c>
@@ -5913,11 +6420,14 @@
       <c r="F169" s="3">
         <v>1</v>
       </c>
-      <c r="G169" s="17" t="s">
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
         <v>488</v>
       </c>
@@ -5936,11 +6446,14 @@
       <c r="F170" s="3">
         <v>1</v>
       </c>
-      <c r="G170" s="17" t="s">
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="17" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
         <v>489</v>
       </c>
@@ -5959,11 +6472,14 @@
       <c r="F171" s="3">
         <v>1</v>
       </c>
-      <c r="G171" s="17" t="s">
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
         <v>490</v>
       </c>
@@ -5982,11 +6498,14 @@
       <c r="F172" s="3">
         <v>1</v>
       </c>
-      <c r="G172" s="18" t="s">
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="18" t="s">
         <v>491</v>
       </c>
@@ -6005,11 +6524,14 @@
       <c r="F173" s="3">
         <v>1</v>
       </c>
-      <c r="G173" s="18" t="s">
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="18" t="s">
         <v>492</v>
       </c>
@@ -6028,11 +6550,14 @@
       <c r="F174" s="3">
         <v>1</v>
       </c>
-      <c r="G174" s="18" t="s">
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="18" t="s">
         <v>493</v>
       </c>
@@ -6051,11 +6576,14 @@
       <c r="F175" s="3">
         <v>1</v>
       </c>
-      <c r="G175" s="18" t="s">
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="18" t="s">
         <v>494</v>
       </c>
@@ -6074,11 +6602,14 @@
       <c r="F176" s="3">
         <v>1</v>
       </c>
-      <c r="G176" s="18" t="s">
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="18" t="s">
         <v>495</v>
       </c>
@@ -6097,11 +6628,14 @@
       <c r="F177" s="3">
         <v>1</v>
       </c>
-      <c r="G177" s="18" t="s">
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="18" t="s">
         <v>496</v>
       </c>
@@ -6120,11 +6654,14 @@
       <c r="F178" s="3">
         <v>1</v>
       </c>
-      <c r="G178" s="18" t="s">
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="18" t="s">
         <v>497</v>
       </c>
@@ -6143,7 +6680,10 @@
       <c r="F179" s="3">
         <v>1</v>
       </c>
-      <c r="G179" s="18" t="s">
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -1683,7 +1683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1735,6 +1735,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2018,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2534,19 +2543,19 @@
       <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="C20" s="20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -2560,19 +2569,19 @@
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -2586,19 +2595,19 @@
       <c r="B22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -3626,13 +3635,13 @@
       <c r="B62" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="21">
         <v>1</v>
       </c>
       <c r="F62" s="3">
@@ -3652,13 +3661,13 @@
       <c r="B63" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="C63" s="20">
+        <v>0</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="20">
         <v>1</v>
       </c>
       <c r="F63" s="3">
@@ -3678,13 +3687,13 @@
       <c r="B64" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="C64" s="20">
+        <v>0</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0</v>
+      </c>
+      <c r="E64" s="21">
         <v>1</v>
       </c>
       <c r="F64" s="3">
@@ -3704,13 +3713,13 @@
       <c r="B65" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="C65" s="20">
+        <v>0</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0</v>
+      </c>
+      <c r="E65" s="21">
         <v>1</v>
       </c>
       <c r="F65" s="3">
@@ -4120,13 +4129,13 @@
       <c r="B81" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="20">
         <v>0</v>
       </c>
       <c r="D81" s="2">
         <v>0</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="21">
         <v>1</v>
       </c>
       <c r="F81" s="3">
@@ -4146,13 +4155,13 @@
       <c r="B82" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="20">
         <v>0</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="20">
         <v>1</v>
       </c>
       <c r="F82" s="3">
@@ -4172,13 +4181,13 @@
       <c r="B83" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="20">
         <v>0</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="21">
         <v>1</v>
       </c>
       <c r="F83" s="3">
@@ -4198,13 +4207,13 @@
       <c r="B84" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="20">
         <v>0</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="21">
         <v>1</v>
       </c>
       <c r="F84" s="3">
@@ -4224,13 +4233,13 @@
       <c r="B85" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="20">
         <v>0</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="20">
         <v>1</v>
       </c>
       <c r="F85" s="3">
@@ -4250,7 +4259,7 @@
       <c r="B86" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="20">
         <v>0</v>
       </c>
       <c r="D86" s="2">
@@ -4276,7 +4285,7 @@
       <c r="B87" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="20">
         <v>0</v>
       </c>
       <c r="D87" s="2">
@@ -5010,10 +5019,10 @@
       <c r="D115" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
+      <c r="E115" s="20">
+        <v>1</v>
+      </c>
+      <c r="F115" s="22">
         <v>1</v>
       </c>
       <c r="G115" s="3">
@@ -5036,10 +5045,10 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3">
+      <c r="E116" s="20">
+        <v>1</v>
+      </c>
+      <c r="F116" s="22">
         <v>1</v>
       </c>
       <c r="G116" s="3">
@@ -5062,10 +5071,10 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3">
+      <c r="E117" s="20">
+        <v>1</v>
+      </c>
+      <c r="F117" s="22">
         <v>1</v>
       </c>
       <c r="G117" s="3">
@@ -5088,10 +5097,10 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3">
+      <c r="E118" s="20">
+        <v>1</v>
+      </c>
+      <c r="F118" s="20">
         <v>1</v>
       </c>
       <c r="G118" s="3">
@@ -5114,10 +5123,10 @@
       <c r="D119" s="2">
         <v>0</v>
       </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
+      <c r="E119" s="20">
+        <v>1</v>
+      </c>
+      <c r="F119" s="22">
         <v>1</v>
       </c>
       <c r="G119" s="3">
@@ -5140,10 +5149,10 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
+      <c r="E120" s="20">
+        <v>1</v>
+      </c>
+      <c r="F120" s="22">
         <v>1</v>
       </c>
       <c r="G120" s="3">
@@ -5166,10 +5175,10 @@
       <c r="D121" s="2">
         <v>0</v>
       </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3">
+      <c r="E121" s="20">
+        <v>1</v>
+      </c>
+      <c r="F121" s="22">
         <v>1</v>
       </c>
       <c r="G121" s="3">
@@ -5192,10 +5201,10 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="3">
+      <c r="E122" s="20">
+        <v>1</v>
+      </c>
+      <c r="F122" s="20">
         <v>1</v>
       </c>
       <c r="G122" s="3">
@@ -5218,10 +5227,10 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123" s="2">
-        <v>1</v>
-      </c>
-      <c r="F123" s="3">
+      <c r="E123" s="20">
+        <v>1</v>
+      </c>
+      <c r="F123" s="22">
         <v>1</v>
       </c>
       <c r="G123" s="3">
@@ -5244,10 +5253,10 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="2">
-        <v>1</v>
-      </c>
-      <c r="F124" s="3">
+      <c r="E124" s="20">
+        <v>1</v>
+      </c>
+      <c r="F124" s="22">
         <v>1</v>
       </c>
       <c r="G124" s="3">
@@ -5270,10 +5279,10 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="2">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3">
+      <c r="E125" s="20">
+        <v>1</v>
+      </c>
+      <c r="F125" s="22">
         <v>1</v>
       </c>
       <c r="G125" s="3">
@@ -5296,10 +5305,10 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="2">
-        <v>1</v>
-      </c>
-      <c r="F126" s="3">
+      <c r="E126" s="20">
+        <v>1</v>
+      </c>
+      <c r="F126" s="22">
         <v>1</v>
       </c>
       <c r="G126" s="3">
@@ -5322,10 +5331,10 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="2">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3">
+      <c r="E127" s="20">
+        <v>1</v>
+      </c>
+      <c r="F127" s="22">
         <v>1</v>
       </c>
       <c r="G127" s="3">
@@ -5348,10 +5357,10 @@
       <c r="D128" s="2">
         <v>0</v>
       </c>
-      <c r="E128" s="2">
-        <v>1</v>
-      </c>
-      <c r="F128" s="3">
+      <c r="E128" s="20">
+        <v>1</v>
+      </c>
+      <c r="F128" s="20">
         <v>1</v>
       </c>
       <c r="G128" s="3">
@@ -5374,10 +5383,10 @@
       <c r="D129" s="2">
         <v>0</v>
       </c>
-      <c r="E129" s="2">
-        <v>1</v>
-      </c>
-      <c r="F129" s="3">
+      <c r="E129" s="20">
+        <v>1</v>
+      </c>
+      <c r="F129" s="22">
         <v>1</v>
       </c>
       <c r="G129" s="3">
@@ -5400,10 +5409,10 @@
       <c r="D130" s="2">
         <v>0</v>
       </c>
-      <c r="E130" s="2">
-        <v>1</v>
-      </c>
-      <c r="F130" s="3">
+      <c r="E130" s="20">
+        <v>1</v>
+      </c>
+      <c r="F130" s="22">
         <v>1</v>
       </c>
       <c r="G130" s="3">
@@ -5426,10 +5435,10 @@
       <c r="D131" s="2">
         <v>0</v>
       </c>
-      <c r="E131" s="2">
-        <v>1</v>
-      </c>
-      <c r="F131" s="3">
+      <c r="E131" s="20">
+        <v>1</v>
+      </c>
+      <c r="F131" s="22">
         <v>1</v>
       </c>
       <c r="G131" s="3">
@@ -5452,10 +5461,10 @@
       <c r="D132" s="2">
         <v>0</v>
       </c>
-      <c r="E132" s="2">
-        <v>1</v>
-      </c>
-      <c r="F132" s="3">
+      <c r="E132" s="20">
+        <v>1</v>
+      </c>
+      <c r="F132" s="22">
         <v>1</v>
       </c>
       <c r="G132" s="3">
@@ -5478,10 +5487,10 @@
       <c r="D133" s="2">
         <v>0</v>
       </c>
-      <c r="E133" s="2">
-        <v>1</v>
-      </c>
-      <c r="F133" s="3">
+      <c r="E133" s="20">
+        <v>1</v>
+      </c>
+      <c r="F133" s="22">
         <v>1</v>
       </c>
       <c r="G133" s="3">
@@ -5504,10 +5513,10 @@
       <c r="D134" s="2">
         <v>0</v>
       </c>
-      <c r="E134" s="2">
-        <v>1</v>
-      </c>
-      <c r="F134" s="3">
+      <c r="E134" s="20">
+        <v>1</v>
+      </c>
+      <c r="F134" s="22">
         <v>1</v>
       </c>
       <c r="G134" s="3">
@@ -5530,10 +5539,10 @@
       <c r="D135" s="2">
         <v>0</v>
       </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-      <c r="F135" s="3">
+      <c r="E135" s="20">
+        <v>1</v>
+      </c>
+      <c r="F135" s="22">
         <v>1</v>
       </c>
       <c r="G135" s="3">
@@ -5556,10 +5565,10 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-      <c r="E136" s="2">
-        <v>1</v>
-      </c>
-      <c r="F136" s="3">
+      <c r="E136" s="20">
+        <v>1</v>
+      </c>
+      <c r="F136" s="22">
         <v>1</v>
       </c>
       <c r="G136" s="3">
@@ -5582,10 +5591,10 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-      <c r="E137" s="2">
-        <v>1</v>
-      </c>
-      <c r="F137" s="3">
+      <c r="E137" s="20">
+        <v>1</v>
+      </c>
+      <c r="F137" s="22">
         <v>1</v>
       </c>
       <c r="G137" s="3">
@@ -5608,10 +5617,10 @@
       <c r="D138" s="2">
         <v>0</v>
       </c>
-      <c r="E138" s="2">
-        <v>1</v>
-      </c>
-      <c r="F138" s="3">
+      <c r="E138" s="20">
+        <v>1</v>
+      </c>
+      <c r="F138" s="22">
         <v>1</v>
       </c>
       <c r="G138" s="3">
@@ -5634,10 +5643,10 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="E139" s="2">
-        <v>1</v>
-      </c>
-      <c r="F139" s="3">
+      <c r="E139" s="20">
+        <v>1</v>
+      </c>
+      <c r="F139" s="22">
         <v>1</v>
       </c>
       <c r="G139" s="3">
@@ -5660,10 +5669,10 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="2">
-        <v>1</v>
-      </c>
-      <c r="F140" s="3">
+      <c r="E140" s="20">
+        <v>1</v>
+      </c>
+      <c r="F140" s="20">
         <v>1</v>
       </c>
       <c r="G140" s="3">
@@ -5686,10 +5695,10 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="E141" s="2">
-        <v>1</v>
-      </c>
-      <c r="F141" s="3">
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="22">
         <v>1</v>
       </c>
       <c r="G141" s="3">
@@ -5712,10 +5721,10 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="2">
-        <v>1</v>
-      </c>
-      <c r="F142" s="3">
+      <c r="E142" s="20">
+        <v>1</v>
+      </c>
+      <c r="F142" s="22">
         <v>1</v>
       </c>
       <c r="G142" s="3">
@@ -5738,10 +5747,10 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="2">
-        <v>1</v>
-      </c>
-      <c r="F143" s="3">
+      <c r="E143" s="20">
+        <v>1</v>
+      </c>
+      <c r="F143" s="22">
         <v>1</v>
       </c>
       <c r="G143" s="3">
@@ -5764,10 +5773,10 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="2">
-        <v>1</v>
-      </c>
-      <c r="F144" s="3">
+      <c r="E144" s="20">
+        <v>1</v>
+      </c>
+      <c r="F144" s="22">
         <v>1</v>
       </c>
       <c r="G144" s="3">
@@ -5790,10 +5799,10 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="2">
-        <v>1</v>
-      </c>
-      <c r="F145" s="3">
+      <c r="E145" s="20">
+        <v>1</v>
+      </c>
+      <c r="F145" s="22">
         <v>1</v>
       </c>
       <c r="G145" s="3">
@@ -5816,10 +5825,10 @@
       <c r="D146" s="2">
         <v>0</v>
       </c>
-      <c r="E146" s="2">
-        <v>1</v>
-      </c>
-      <c r="F146" s="3">
+      <c r="E146" s="20">
+        <v>1</v>
+      </c>
+      <c r="F146" s="22">
         <v>1</v>
       </c>
       <c r="G146" s="3">
@@ -5842,10 +5851,10 @@
       <c r="D147" s="2">
         <v>0</v>
       </c>
-      <c r="E147" s="2">
-        <v>1</v>
-      </c>
-      <c r="F147" s="3">
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="22">
         <v>1</v>
       </c>
       <c r="G147" s="3">
@@ -5868,10 +5877,10 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="2">
-        <v>1</v>
-      </c>
-      <c r="F148" s="3">
+      <c r="E148" s="20">
+        <v>1</v>
+      </c>
+      <c r="F148" s="22">
         <v>1</v>
       </c>
       <c r="G148" s="3">
@@ -5894,10 +5903,10 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="2">
-        <v>1</v>
-      </c>
-      <c r="F149" s="3">
+      <c r="E149" s="20">
+        <v>1</v>
+      </c>
+      <c r="F149" s="22">
         <v>1</v>
       </c>
       <c r="G149" s="3">
@@ -5920,10 +5929,10 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="2">
-        <v>1</v>
-      </c>
-      <c r="F150" s="3">
+      <c r="E150" s="20">
+        <v>1</v>
+      </c>
+      <c r="F150" s="22">
         <v>1</v>
       </c>
       <c r="G150" s="3">
@@ -5946,10 +5955,10 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="2">
-        <v>1</v>
-      </c>
-      <c r="F151" s="3">
+      <c r="E151" s="20">
+        <v>1</v>
+      </c>
+      <c r="F151" s="22">
         <v>1</v>
       </c>
       <c r="G151" s="3">
@@ -5972,10 +5981,10 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="2">
-        <v>1</v>
-      </c>
-      <c r="F152" s="3">
+      <c r="E152" s="20">
+        <v>1</v>
+      </c>
+      <c r="F152" s="22">
         <v>1</v>
       </c>
       <c r="G152" s="3">
@@ -5998,10 +6007,10 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="2">
-        <v>1</v>
-      </c>
-      <c r="F153" s="3">
+      <c r="E153" s="20">
+        <v>1</v>
+      </c>
+      <c r="F153" s="22">
         <v>1</v>
       </c>
       <c r="G153" s="3">
@@ -6024,10 +6033,10 @@
       <c r="D154" s="2">
         <v>0</v>
       </c>
-      <c r="E154" s="2">
-        <v>1</v>
-      </c>
-      <c r="F154" s="3">
+      <c r="E154" s="20">
+        <v>1</v>
+      </c>
+      <c r="F154" s="22">
         <v>1</v>
       </c>
       <c r="G154" s="3">
@@ -6050,10 +6059,10 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-      <c r="E155" s="2">
-        <v>1</v>
-      </c>
-      <c r="F155" s="3">
+      <c r="E155" s="20">
+        <v>1</v>
+      </c>
+      <c r="F155" s="22">
         <v>1</v>
       </c>
       <c r="G155" s="3">
@@ -6076,10 +6085,10 @@
       <c r="D156" s="2">
         <v>0</v>
       </c>
-      <c r="E156" s="2">
-        <v>1</v>
-      </c>
-      <c r="F156" s="3">
+      <c r="E156" s="20">
+        <v>1</v>
+      </c>
+      <c r="F156" s="22">
         <v>1</v>
       </c>
       <c r="G156" s="3">
@@ -6102,10 +6111,10 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-      <c r="E157" s="2">
-        <v>1</v>
-      </c>
-      <c r="F157" s="3">
+      <c r="E157" s="20">
+        <v>1</v>
+      </c>
+      <c r="F157" s="22">
         <v>1</v>
       </c>
       <c r="G157" s="3">
@@ -6128,10 +6137,10 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="E158" s="2">
-        <v>1</v>
-      </c>
-      <c r="F158" s="3">
+      <c r="E158" s="20">
+        <v>1</v>
+      </c>
+      <c r="F158" s="22">
         <v>1</v>
       </c>
       <c r="G158" s="3">
@@ -6154,10 +6163,10 @@
       <c r="D159" s="2">
         <v>0</v>
       </c>
-      <c r="E159" s="2">
-        <v>1</v>
-      </c>
-      <c r="F159" s="3">
+      <c r="E159" s="20">
+        <v>1</v>
+      </c>
+      <c r="F159" s="22">
         <v>1</v>
       </c>
       <c r="G159" s="3">
@@ -6180,10 +6189,10 @@
       <c r="D160" s="2">
         <v>0</v>
       </c>
-      <c r="E160" s="2">
-        <v>1</v>
-      </c>
-      <c r="F160" s="3">
+      <c r="E160" s="20">
+        <v>1</v>
+      </c>
+      <c r="F160" s="22">
         <v>1</v>
       </c>
       <c r="G160" s="3">
@@ -6206,10 +6215,10 @@
       <c r="D161" s="2">
         <v>0</v>
       </c>
-      <c r="E161" s="2">
-        <v>1</v>
-      </c>
-      <c r="F161" s="3">
+      <c r="E161" s="20">
+        <v>1</v>
+      </c>
+      <c r="F161" s="22">
         <v>1</v>
       </c>
       <c r="G161" s="3">
@@ -6232,10 +6241,10 @@
       <c r="D162" s="2">
         <v>0</v>
       </c>
-      <c r="E162" s="2">
-        <v>1</v>
-      </c>
-      <c r="F162" s="3">
+      <c r="E162" s="20">
+        <v>1</v>
+      </c>
+      <c r="F162" s="20">
         <v>1</v>
       </c>
       <c r="G162" s="3">
@@ -6258,10 +6267,10 @@
       <c r="D163" s="2">
         <v>0</v>
       </c>
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-      <c r="F163" s="3">
+      <c r="E163" s="20">
+        <v>1</v>
+      </c>
+      <c r="F163" s="22">
         <v>1</v>
       </c>
       <c r="G163" s="3">
@@ -6284,10 +6293,10 @@
       <c r="D164" s="2">
         <v>0</v>
       </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-      <c r="F164" s="3">
+      <c r="E164" s="20">
+        <v>1</v>
+      </c>
+      <c r="F164" s="22">
         <v>1</v>
       </c>
       <c r="G164" s="3">
@@ -6310,10 +6319,10 @@
       <c r="D165" s="2">
         <v>0</v>
       </c>
-      <c r="E165" s="2">
-        <v>1</v>
-      </c>
-      <c r="F165" s="3">
+      <c r="E165" s="20">
+        <v>1</v>
+      </c>
+      <c r="F165" s="22">
         <v>1</v>
       </c>
       <c r="G165" s="3">
@@ -6336,10 +6345,10 @@
       <c r="D166" s="2">
         <v>0</v>
       </c>
-      <c r="E166" s="2">
-        <v>1</v>
-      </c>
-      <c r="F166" s="3">
+      <c r="E166" s="20">
+        <v>1</v>
+      </c>
+      <c r="F166" s="22">
         <v>1</v>
       </c>
       <c r="G166" s="3">
@@ -6362,10 +6371,10 @@
       <c r="D167" s="2">
         <v>0</v>
       </c>
-      <c r="E167" s="2">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3">
+      <c r="E167" s="20">
+        <v>1</v>
+      </c>
+      <c r="F167" s="22">
         <v>1</v>
       </c>
       <c r="G167" s="3">
@@ -6388,10 +6397,10 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3">
+      <c r="E168" s="20">
+        <v>1</v>
+      </c>
+      <c r="F168" s="22">
         <v>1</v>
       </c>
       <c r="G168" s="3">
@@ -6414,10 +6423,10 @@
       <c r="D169" s="2">
         <v>0</v>
       </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3">
+      <c r="E169" s="20">
+        <v>1</v>
+      </c>
+      <c r="F169" s="22">
         <v>1</v>
       </c>
       <c r="G169" s="3">
@@ -6440,10 +6449,10 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="E170" s="2">
-        <v>1</v>
-      </c>
-      <c r="F170" s="3">
+      <c r="E170" s="20">
+        <v>1</v>
+      </c>
+      <c r="F170" s="22">
         <v>1</v>
       </c>
       <c r="G170" s="3">
@@ -6466,10 +6475,10 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="E171" s="2">
-        <v>1</v>
-      </c>
-      <c r="F171" s="3">
+      <c r="E171" s="20">
+        <v>1</v>
+      </c>
+      <c r="F171" s="22">
         <v>1</v>
       </c>
       <c r="G171" s="3">
@@ -6492,10 +6501,10 @@
       <c r="D172" s="2">
         <v>0</v>
       </c>
-      <c r="E172" s="2">
-        <v>1</v>
-      </c>
-      <c r="F172" s="3">
+      <c r="E172" s="20">
+        <v>1</v>
+      </c>
+      <c r="F172" s="22">
         <v>1</v>
       </c>
       <c r="G172" s="3">
@@ -6518,10 +6527,10 @@
       <c r="D173" s="2">
         <v>0</v>
       </c>
-      <c r="E173" s="2">
-        <v>1</v>
-      </c>
-      <c r="F173" s="3">
+      <c r="E173" s="20">
+        <v>1</v>
+      </c>
+      <c r="F173" s="22">
         <v>1</v>
       </c>
       <c r="G173" s="3">
@@ -6544,10 +6553,10 @@
       <c r="D174" s="2">
         <v>0</v>
       </c>
-      <c r="E174" s="2">
-        <v>1</v>
-      </c>
-      <c r="F174" s="3">
+      <c r="E174" s="20">
+        <v>1</v>
+      </c>
+      <c r="F174" s="22">
         <v>1</v>
       </c>
       <c r="G174" s="3">
@@ -6570,10 +6579,10 @@
       <c r="D175" s="2">
         <v>0</v>
       </c>
-      <c r="E175" s="2">
-        <v>1</v>
-      </c>
-      <c r="F175" s="3">
+      <c r="E175" s="20">
+        <v>1</v>
+      </c>
+      <c r="F175" s="22">
         <v>1</v>
       </c>
       <c r="G175" s="3">
@@ -6596,10 +6605,10 @@
       <c r="D176" s="2">
         <v>0</v>
       </c>
-      <c r="E176" s="2">
-        <v>1</v>
-      </c>
-      <c r="F176" s="3">
+      <c r="E176" s="20">
+        <v>1</v>
+      </c>
+      <c r="F176" s="22">
         <v>1</v>
       </c>
       <c r="G176" s="3">
@@ -6622,10 +6631,10 @@
       <c r="D177" s="2">
         <v>0</v>
       </c>
-      <c r="E177" s="2">
-        <v>1</v>
-      </c>
-      <c r="F177" s="3">
+      <c r="E177" s="20">
+        <v>1</v>
+      </c>
+      <c r="F177" s="22">
         <v>1</v>
       </c>
       <c r="G177" s="3">
@@ -6648,10 +6657,10 @@
       <c r="D178" s="2">
         <v>0</v>
       </c>
-      <c r="E178" s="2">
-        <v>1</v>
-      </c>
-      <c r="F178" s="3">
+      <c r="E178" s="20">
+        <v>1</v>
+      </c>
+      <c r="F178" s="22">
         <v>1</v>
       </c>
       <c r="G178" s="3">
@@ -6674,10 +6683,10 @@
       <c r="D179" s="2">
         <v>0</v>
       </c>
-      <c r="E179" s="2">
-        <v>1</v>
-      </c>
-      <c r="F179" s="3">
+      <c r="E179" s="20">
+        <v>1</v>
+      </c>
+      <c r="F179" s="20">
         <v>1</v>
       </c>
       <c r="G179" s="3">

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="600">
   <si>
     <t>old</t>
   </si>
@@ -1608,6 +1608,222 @@
   </si>
   <si>
     <t>qual</t>
+  </si>
+  <si>
+    <t>rxsevere</t>
+  </si>
+  <si>
+    <t>rxpneumonia</t>
+  </si>
+  <si>
+    <t>rxpneumoniaseverity</t>
+  </si>
+  <si>
+    <t>rxdiarrhoea</t>
+  </si>
+  <si>
+    <t>rxdiarrhoeaseverity</t>
+  </si>
+  <si>
+    <t>rxdiarrhoeaduration</t>
+  </si>
+  <si>
+    <t>rxdehydration</t>
+  </si>
+  <si>
+    <t>rxdehydrationseverity</t>
+  </si>
+  <si>
+    <t>rxmalaria</t>
+  </si>
+  <si>
+    <t>rxmalariaseverity</t>
+  </si>
+  <si>
+    <t>rxearinfection</t>
+  </si>
+  <si>
+    <t>rxearinfectionduration</t>
+  </si>
+  <si>
+    <t>rxmalnutrition</t>
+  </si>
+  <si>
+    <t>rxmalnuseverity</t>
+  </si>
+  <si>
+    <t>rxanaemia</t>
+  </si>
+  <si>
+    <t>rxanaemiaseverity</t>
+  </si>
+  <si>
+    <t>rxothermain</t>
+  </si>
+  <si>
+    <t>rxother</t>
+  </si>
+  <si>
+    <t>dx_severe</t>
+  </si>
+  <si>
+    <t>dx_pneumonia</t>
+  </si>
+  <si>
+    <t>dx_diarrhoea</t>
+  </si>
+  <si>
+    <t>dx_dehydration</t>
+  </si>
+  <si>
+    <t>dx_malaria</t>
+  </si>
+  <si>
+    <t>dx_malnutrition</t>
+  </si>
+  <si>
+    <t>dx_anaemia</t>
+  </si>
+  <si>
+    <t>dx_pneumonia_severity</t>
+  </si>
+  <si>
+    <t>dx_diarrhoea_severity</t>
+  </si>
+  <si>
+    <t>dx_diarrhoea_duration</t>
+  </si>
+  <si>
+    <t>dx_dehydration_severity</t>
+  </si>
+  <si>
+    <t>dx_malaria_severity</t>
+  </si>
+  <si>
+    <t>dx_ear_infection</t>
+  </si>
+  <si>
+    <t>dx_ear_infection_duration</t>
+  </si>
+  <si>
+    <t>dx_malnutrition_severity</t>
+  </si>
+  <si>
+    <t>dx_anaeamia_severity</t>
+  </si>
+  <si>
+    <t>dx_oth_yn</t>
+  </si>
+  <si>
+    <t>dx_mlist</t>
+  </si>
+  <si>
+    <t>paracetamol_route</t>
+  </si>
+  <si>
+    <t>artesunate_route</t>
+  </si>
+  <si>
+    <t>ciprofloxacin_route</t>
+  </si>
+  <si>
+    <t>metronidazol_route</t>
+  </si>
+  <si>
+    <t>quinine_route</t>
+  </si>
+  <si>
+    <t>salbutamol_route</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxsevere</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxpneumonia</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxpneumoniaseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxdiarrhoea</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxdiarrhoeaseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxdiarrhoeaduration</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxdehydration</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxdehydrationseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxmalaria</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxmalariaseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxearinfection</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxearinfectionduration</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxmalnutrition</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxmalnuseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxanaemia</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxanaemiaseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxothermain</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-rxother</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-paracetamol_route</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-artesunate_route</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-ciprofloxacin_route</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-metronidazol_route</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-quinine_route</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-salbutamol_route</t>
+  </si>
+  <si>
+    <t>rx_paracetamol_route</t>
+  </si>
+  <si>
+    <t>rx_artesunate_route</t>
+  </si>
+  <si>
+    <t>rx_ciprofloxacin_route</t>
+  </si>
+  <si>
+    <t>rx_metronidazol_route</t>
+  </si>
+  <si>
+    <t>rx_quinine_route</t>
+  </si>
+  <si>
+    <t>rx_salbutamol_route</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1744,6 +1960,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2025,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="M195" sqref="M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5449,11 +5668,11 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>123</v>
+      <c r="A132" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>594</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5464,22 +5683,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="20">
         <v>1</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
       </c>
-      <c r="H132" s="17" t="s">
-        <v>288</v>
+      <c r="H132" s="18" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>124</v>
+      <c r="A133" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>595</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5490,22 +5709,22 @@
       <c r="E133" s="20">
         <v>1</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="20">
         <v>1</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
       </c>
-      <c r="H133" s="17" t="s">
-        <v>289</v>
+      <c r="H133" s="18" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>125</v>
+      <c r="A134" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>596</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5516,22 +5735,22 @@
       <c r="E134" s="20">
         <v>1</v>
       </c>
-      <c r="F134" s="22">
+      <c r="F134" s="20">
         <v>1</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
       </c>
-      <c r="H134" s="17" t="s">
-        <v>290</v>
+      <c r="H134" s="18" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>126</v>
+      <c r="A135" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>597</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5542,22 +5761,22 @@
       <c r="E135" s="20">
         <v>1</v>
       </c>
-      <c r="F135" s="22">
+      <c r="F135" s="20">
         <v>1</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
-      </c>
-      <c r="H135" s="17" t="s">
-        <v>291</v>
+        <v>0</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>127</v>
+      <c r="A136" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>598</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5568,22 +5787,22 @@
       <c r="E136" s="20">
         <v>1</v>
       </c>
-      <c r="F136" s="22">
+      <c r="F136" s="20">
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="17" t="s">
-        <v>292</v>
+        <v>0</v>
+      </c>
+      <c r="H136" s="18" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>128</v>
+      <c r="A137" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>599</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5594,22 +5813,22 @@
       <c r="E137" s="20">
         <v>1</v>
       </c>
-      <c r="F137" s="22">
+      <c r="F137" s="20">
         <v>1</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
       </c>
-      <c r="H137" s="17" t="s">
-        <v>293</v>
+      <c r="H137" s="18" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>129</v>
+        <v>451</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5627,15 +5846,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>130</v>
+        <v>570</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>546</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5643,7 +5862,7 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="E139" s="20">
+      <c r="E139" s="4">
         <v>1</v>
       </c>
       <c r="F139" s="22">
@@ -5653,15 +5872,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>295</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>131</v>
+        <v>571</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>547</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5669,25 +5888,25 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="20">
-        <v>1</v>
-      </c>
-      <c r="F140" s="20">
+      <c r="E140" s="4">
+        <v>1</v>
+      </c>
+      <c r="F140" s="22">
         <v>1</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>296</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>132</v>
+        <v>572</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>553</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5695,7 +5914,7 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="E141" s="20">
+      <c r="E141" s="4">
         <v>1</v>
       </c>
       <c r="F141" s="22">
@@ -5705,15 +5924,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>297</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>133</v>
+        <v>573</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5721,7 +5940,7 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="20">
+      <c r="E142" s="4">
         <v>1</v>
       </c>
       <c r="F142" s="22">
@@ -5731,15 +5950,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>298</v>
+        <v>531</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>134</v>
+        <v>574</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>554</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5747,7 +5966,7 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="20">
+      <c r="E143" s="4">
         <v>1</v>
       </c>
       <c r="F143" s="22">
@@ -5757,15 +5976,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>299</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>135</v>
+        <v>575</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>555</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5773,7 +5992,7 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="20">
+      <c r="E144" s="4">
         <v>1</v>
       </c>
       <c r="F144" s="22">
@@ -5783,15 +6002,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>300</v>
+        <v>533</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>136</v>
+        <v>576</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>549</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5799,7 +6018,7 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="20">
+      <c r="E145" s="4">
         <v>1</v>
       </c>
       <c r="F145" s="22">
@@ -5809,15 +6028,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>301</v>
+        <v>534</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>137</v>
+        <v>577</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>556</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5825,7 +6044,7 @@
       <c r="D146" s="2">
         <v>0</v>
       </c>
-      <c r="E146" s="20">
+      <c r="E146" s="4">
         <v>1</v>
       </c>
       <c r="F146" s="22">
@@ -5835,15 +6054,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>302</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>138</v>
+        <v>578</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>550</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5851,7 +6070,7 @@
       <c r="D147" s="2">
         <v>0</v>
       </c>
-      <c r="E147" s="20">
+      <c r="E147" s="4">
         <v>1</v>
       </c>
       <c r="F147" s="22">
@@ -5861,15 +6080,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>303</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>139</v>
+        <v>579</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5877,7 +6096,7 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="20">
+      <c r="E148" s="4">
         <v>1</v>
       </c>
       <c r="F148" s="22">
@@ -5887,15 +6106,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>304</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>140</v>
+        <v>580</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>558</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5903,7 +6122,7 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="20">
+      <c r="E149" s="4">
         <v>1</v>
       </c>
       <c r="F149" s="22">
@@ -5913,15 +6132,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>305</v>
+        <v>538</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>141</v>
+        <v>581</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>559</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5929,7 +6148,7 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="20">
+      <c r="E150" s="4">
         <v>1</v>
       </c>
       <c r="F150" s="22">
@@ -5939,15 +6158,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>306</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>142</v>
+        <v>582</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>551</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5955,7 +6174,7 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="20">
+      <c r="E151" s="4">
         <v>1</v>
       </c>
       <c r="F151" s="22">
@@ -5965,15 +6184,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>307</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>143</v>
+        <v>583</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>560</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5981,7 +6200,7 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="20">
+      <c r="E152" s="4">
         <v>1</v>
       </c>
       <c r="F152" s="22">
@@ -5991,15 +6210,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>308</v>
+        <v>541</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>144</v>
+        <v>584</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>552</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6007,7 +6226,7 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="20">
+      <c r="E153" s="4">
         <v>1</v>
       </c>
       <c r="F153" s="22">
@@ -6017,15 +6236,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>309</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>145</v>
+        <v>585</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>561</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6033,7 +6252,7 @@
       <c r="D154" s="2">
         <v>0</v>
       </c>
-      <c r="E154" s="20">
+      <c r="E154" s="4">
         <v>1</v>
       </c>
       <c r="F154" s="22">
@@ -6043,15 +6262,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>310</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>146</v>
+        <v>586</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>563</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6059,7 +6278,7 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-      <c r="E155" s="20">
+      <c r="E155" s="4">
         <v>1</v>
       </c>
       <c r="F155" s="22">
@@ -6069,15 +6288,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>311</v>
+        <v>544</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>147</v>
+        <v>587</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>562</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6085,7 +6304,7 @@
       <c r="D156" s="2">
         <v>0</v>
       </c>
-      <c r="E156" s="20">
+      <c r="E156" s="4">
         <v>1</v>
       </c>
       <c r="F156" s="22">
@@ -6095,15 +6314,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>312</v>
+        <v>545</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6121,15 +6340,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6147,15 +6366,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6170,18 +6389,18 @@
         <v>1</v>
       </c>
       <c r="G159" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6196,18 +6415,18 @@
         <v>1</v>
       </c>
       <c r="G160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>152</v>
+        <v>455</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6225,15 +6444,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>153</v>
+        <v>456</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6244,22 +6463,22 @@
       <c r="E162" s="20">
         <v>1</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="22">
         <v>1</v>
       </c>
       <c r="G162" s="3">
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6277,15 +6496,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6296,22 +6515,22 @@
       <c r="E164" s="20">
         <v>1</v>
       </c>
-      <c r="F164" s="22">
+      <c r="F164" s="20">
         <v>1</v>
       </c>
       <c r="G164" s="3">
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6329,15 +6548,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6355,15 +6574,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6381,15 +6600,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6407,15 +6626,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6433,15 +6652,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6459,240 +6678,864 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="20">
+        <v>1</v>
+      </c>
+      <c r="F171" s="22">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="20">
+        <v>1</v>
+      </c>
+      <c r="F172" s="22">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="20">
+        <v>1</v>
+      </c>
+      <c r="F173" s="22">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="20">
+        <v>1</v>
+      </c>
+      <c r="F174" s="22">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="20">
+        <v>1</v>
+      </c>
+      <c r="F175" s="22">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="20">
+        <v>1</v>
+      </c>
+      <c r="F176" s="22">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="20">
+        <v>1</v>
+      </c>
+      <c r="F177" s="22">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="20">
+        <v>1</v>
+      </c>
+      <c r="F178" s="22">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="20">
+        <v>1</v>
+      </c>
+      <c r="F179" s="22">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="20">
+        <v>1</v>
+      </c>
+      <c r="F180" s="22">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="20">
+        <v>1</v>
+      </c>
+      <c r="F181" s="22">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="20">
+        <v>1</v>
+      </c>
+      <c r="F182" s="22">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="20">
+        <v>1</v>
+      </c>
+      <c r="F183" s="22">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="20">
+        <v>1</v>
+      </c>
+      <c r="F184" s="22">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="20">
+        <v>1</v>
+      </c>
+      <c r="F185" s="22">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="20">
+        <v>1</v>
+      </c>
+      <c r="F186" s="20">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0</v>
+      </c>
+      <c r="E187" s="20">
+        <v>1</v>
+      </c>
+      <c r="F187" s="22">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0</v>
+      </c>
+      <c r="E188" s="20">
+        <v>1</v>
+      </c>
+      <c r="F188" s="22">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0</v>
+      </c>
+      <c r="E189" s="20">
+        <v>1</v>
+      </c>
+      <c r="F189" s="22">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
+      </c>
+      <c r="E190" s="20">
+        <v>1</v>
+      </c>
+      <c r="F190" s="22">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+      <c r="E191" s="20">
+        <v>1</v>
+      </c>
+      <c r="F191" s="22">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0</v>
+      </c>
+      <c r="E192" s="20">
+        <v>1</v>
+      </c>
+      <c r="F192" s="22">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0</v>
+      </c>
+      <c r="E193" s="20">
+        <v>1</v>
+      </c>
+      <c r="F193" s="22">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0</v>
+      </c>
+      <c r="E194" s="20">
+        <v>1</v>
+      </c>
+      <c r="F194" s="22">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H194" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B195" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="20">
-        <v>1</v>
-      </c>
-      <c r="F171" s="22">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="17" t="s">
+      <c r="C195" s="2">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+      <c r="E195" s="20">
+        <v>1</v>
+      </c>
+      <c r="F195" s="22">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="18" t="s">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B196" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="20">
-        <v>1</v>
-      </c>
-      <c r="F172" s="22">
-        <v>1</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="18" t="s">
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+      <c r="E196" s="20">
+        <v>1</v>
+      </c>
+      <c r="F196" s="22">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="18" t="s">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B197" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C173" s="2">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-      <c r="E173" s="20">
-        <v>1</v>
-      </c>
-      <c r="F173" s="22">
-        <v>1</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="18" t="s">
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
+      <c r="E197" s="20">
+        <v>1</v>
+      </c>
+      <c r="F197" s="22">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="18" t="s">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B198" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-      <c r="E174" s="20">
-        <v>1</v>
-      </c>
-      <c r="F174" s="22">
-        <v>1</v>
-      </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="18" t="s">
+      <c r="C198" s="2">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+      <c r="E198" s="20">
+        <v>1</v>
+      </c>
+      <c r="F198" s="22">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="18" t="s">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B199" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="20">
-        <v>1</v>
-      </c>
-      <c r="F175" s="22">
-        <v>1</v>
-      </c>
-      <c r="G175" s="3">
-        <v>0</v>
-      </c>
-      <c r="H175" s="18" t="s">
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+      <c r="E199" s="20">
+        <v>1</v>
+      </c>
+      <c r="F199" s="22">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="18" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="B200" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="20">
-        <v>1</v>
-      </c>
-      <c r="F176" s="22">
-        <v>1</v>
-      </c>
-      <c r="G176" s="3">
-        <v>0</v>
-      </c>
-      <c r="H176" s="18" t="s">
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="20">
+        <v>1</v>
+      </c>
+      <c r="F200" s="22">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="18" t="s">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B201" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="20">
-        <v>1</v>
-      </c>
-      <c r="F177" s="22">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="18" t="s">
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+      <c r="E201" s="20">
+        <v>1</v>
+      </c>
+      <c r="F201" s="22">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="18" t="s">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B202" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="20">
-        <v>1</v>
-      </c>
-      <c r="F178" s="22">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="18" t="s">
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+      <c r="E202" s="20">
+        <v>1</v>
+      </c>
+      <c r="F202" s="22">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="18" t="s">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B203" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="20">
-        <v>1</v>
-      </c>
-      <c r="F179" s="20">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="18" t="s">
+      <c r="C203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0</v>
+      </c>
+      <c r="E203" s="20">
+        <v>1</v>
+      </c>
+      <c r="F203" s="20">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -1277,9 +1277,6 @@
     <t>crfs-t05a-ttt05a-c1_a_2</t>
   </si>
   <si>
-    <t>crfs-t09a2_g3_1o</t>
-  </si>
-  <si>
     <t>crfs-t05a-ttt05a-c1_a_3</t>
   </si>
   <si>
@@ -1824,6 +1821,9 @@
   </si>
   <si>
     <t>rx_salbutamol_route</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-g3_1o</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="M195" sqref="M195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2281,7 +2281,7 @@
         <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>194</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>173</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2445,10 +2445,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2549,28 +2549,28 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3043,37 +3043,37 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>526</v>
-      </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3563,10 +3563,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3584,15 +3584,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3610,33 +3610,33 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3745,11 +3745,11 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>518</v>
-      </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
@@ -3766,16 +3766,16 @@
         <v>1</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>520</v>
-      </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
@@ -3792,33 +3792,33 @@
         <v>1</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>514</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4811,7 +4811,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>90</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>91</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>92</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>93</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>94</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>95</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>96</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>97</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>98</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>99</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>100</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>101</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>102</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>103</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>104</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>105</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>106</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>107</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>108</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>109</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>110</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>111</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>112</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>113</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>114</v>
@@ -5461,7 +5461,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>115</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>116</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>117</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>118</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>119</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>120</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>121</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>122</v>
@@ -5669,10 +5669,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5690,15 +5690,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5716,15 +5716,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5742,15 +5742,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5768,15 +5768,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5794,15 +5794,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5820,12 +5820,12 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B138" s="14" t="s">
         <v>123</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5872,15 +5872,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5898,15 +5898,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5924,15 +5924,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5950,15 +5950,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5976,15 +5976,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6002,15 +6002,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6028,15 +6028,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6054,15 +6054,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6080,15 +6080,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6106,15 +6106,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6132,15 +6132,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6158,15 +6158,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6184,15 +6184,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6210,15 +6210,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6236,15 +6236,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6262,15 +6262,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6288,15 +6288,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6314,12 +6314,12 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>124</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>417</v>
+        <v>599</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>125</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>126</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>127</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B161" s="15" t="s">
         <v>128</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B162" s="15" t="s">
         <v>129</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>130</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B164" s="14" t="s">
         <v>131</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B165" s="14" t="s">
         <v>132</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>133</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>134</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>135</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>136</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>137</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>138</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>139</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>140</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>141</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>142</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>143</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>144</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>145</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>146</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>147</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>148</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>149</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>150</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>151</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>152</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>153</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>154</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B188" s="14" t="s">
         <v>155</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>156</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>157</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>158</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>159</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>160</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>161</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>162</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B196" s="16" t="s">
         <v>163</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B197" s="16" t="s">
         <v>164</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>165</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B199" s="16" t="s">
         <v>166</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B200" s="16" t="s">
         <v>167</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>168</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B202" s="16" t="s">
         <v>169</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>170</v>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="610">
   <si>
     <t>old</t>
   </si>
@@ -1824,6 +1824,36 @@
   </si>
   <si>
     <t>crfs-t09a2-g3_1o</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_4a</t>
+  </si>
+  <si>
+    <t>location_lvl2</t>
+  </si>
+  <si>
+    <t>a4_c_4a</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_4b</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_4c</t>
+  </si>
+  <si>
+    <t>location_lvl3</t>
+  </si>
+  <si>
+    <t>location_lvl4</t>
+  </si>
+  <si>
+    <t>a4_c_4b</t>
+  </si>
+  <si>
+    <t>a4_c_4c</t>
   </si>
 </sst>
 </file>
@@ -2244,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2392,95 +2422,95 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>498</v>
+        <v>336</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>498</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>498</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>337</v>
+        <v>498</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>498</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2492,67 +2522,67 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>176</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>506</v>
+        <v>339</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>508</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2567,18 +2597,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>507</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>340</v>
+        <v>506</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>29</v>
+        <v>508</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2596,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>178</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2619,24 +2649,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2648,15 +2678,15 @@
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>505</v>
+        <v>342</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>504</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2671,18 +2701,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>504</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>343</v>
+        <v>505</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>504</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2700,15 +2730,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2726,15 +2756,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2749,44 +2779,44 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -2794,83 +2824,83 @@
       <c r="D21" s="20">
         <v>0</v>
       </c>
-      <c r="E21" s="20">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20">
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22">
         <v>1</v>
       </c>
       <c r="G21" s="22">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
       </c>
       <c r="D22" s="20">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="20">
         <v>1</v>
       </c>
       <c r="G22" s="22">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22">
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2879,24 +2909,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2905,70 +2935,70 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -2983,18 +3013,18 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3012,15 +3042,15 @@
         <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3038,15 +3068,15 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>520</v>
+        <v>356</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>521</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -3061,122 +3091,122 @@
         <v>1</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>522</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3194,15 +3224,15 @@
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3220,15 +3250,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3243,18 +3273,18 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3272,15 +3302,15 @@
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3298,24 +3328,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -3324,223 +3354,223 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="11" t="s">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3558,15 +3588,15 @@
         <v>0</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>499</v>
+        <v>374</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>503</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3584,15 +3614,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3610,15 +3640,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3636,15 +3666,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>375</v>
+        <v>510</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>41</v>
+        <v>511</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3662,15 +3692,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>212</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3688,15 +3718,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3714,231 +3744,231 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B60" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="20">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20">
-        <v>0</v>
-      </c>
-      <c r="E62" s="21">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="A62" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
         <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>219</v>
+      <c r="H62" s="11" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="20">
-        <v>0</v>
-      </c>
-      <c r="D63" s="20">
-        <v>0</v>
-      </c>
-      <c r="E63" s="20">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="A63" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
         <v>0</v>
       </c>
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>220</v>
+      <c r="H63" s="11" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="20">
-        <v>0</v>
-      </c>
-      <c r="D64" s="20">
-        <v>0</v>
-      </c>
-      <c r="E64" s="21">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="A64" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
         <v>0</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>221</v>
+      <c r="H64" s="11" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="20">
-        <v>0</v>
-      </c>
-      <c r="D65" s="20">
-        <v>0</v>
-      </c>
-      <c r="E65" s="21">
+        <v>52</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
         <v>1</v>
       </c>
       <c r="F65" s="3">
@@ -3948,23 +3978,23 @@
         <v>1</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="4">
+        <v>53</v>
+      </c>
+      <c r="C66" s="20">
+        <v>0</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+      <c r="E66" s="21">
         <v>1</v>
       </c>
       <c r="F66" s="3">
@@ -3974,23 +4004,23 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
+        <v>54</v>
+      </c>
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="20">
         <v>1</v>
       </c>
       <c r="F67" s="3">
@@ -4000,23 +4030,23 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="4">
+        <v>55</v>
+      </c>
+      <c r="C68" s="20">
+        <v>0</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+      <c r="E68" s="21">
         <v>1</v>
       </c>
       <c r="F68" s="3">
@@ -4026,23 +4056,23 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
+        <v>56</v>
+      </c>
+      <c r="C69" s="20">
+        <v>0</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0</v>
+      </c>
+      <c r="E69" s="21">
         <v>1</v>
       </c>
       <c r="F69" s="3">
@@ -4052,15 +4082,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4078,15 +4108,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4104,15 +4134,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4130,15 +4160,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4156,15 +4186,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4182,15 +4212,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4208,15 +4238,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4234,15 +4264,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4260,15 +4290,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4286,15 +4316,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4312,15 +4342,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4338,23 +4368,23 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="20">
+        <v>68</v>
+      </c>
+      <c r="C81" s="2">
         <v>0</v>
       </c>
       <c r="D81" s="2">
         <v>0</v>
       </c>
-      <c r="E81" s="21">
+      <c r="E81" s="4">
         <v>1</v>
       </c>
       <c r="F81" s="3">
@@ -4364,23 +4394,23 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="20">
+        <v>69</v>
+      </c>
+      <c r="C82" s="2">
         <v>0</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="4">
         <v>1</v>
       </c>
       <c r="F82" s="3">
@@ -4390,23 +4420,23 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="20">
+        <v>70</v>
+      </c>
+      <c r="C83" s="2">
         <v>0</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="4">
         <v>1</v>
       </c>
       <c r="F83" s="3">
@@ -4416,23 +4446,23 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="20">
+        <v>71</v>
+      </c>
+      <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="4">
         <v>1</v>
       </c>
       <c r="F84" s="3">
@@ -4442,15 +4472,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C85" s="20">
         <v>0</v>
@@ -4458,7 +4488,7 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="21">
         <v>1</v>
       </c>
       <c r="F85" s="3">
@@ -4468,15 +4498,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="20">
         <v>0</v>
@@ -4484,7 +4514,7 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="20">
         <v>1</v>
       </c>
       <c r="F86" s="3">
@@ -4494,15 +4524,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4510,7 +4540,7 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="21">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4520,23 +4550,23 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="2">
+        <v>75</v>
+      </c>
+      <c r="C88" s="20">
         <v>0</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="21">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4546,145 +4576,145 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="20">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="20">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="20">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13" t="s">
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92" s="3">
-        <v>0</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4699,18 +4729,18 @@
         <v>1</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4728,15 +4758,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4754,15 +4784,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4780,15 +4810,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4806,15 +4836,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4832,15 +4862,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4858,15 +4888,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4884,15 +4914,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4910,15 +4940,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4936,15 +4966,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4962,15 +4992,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4988,15 +5018,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5014,15 +5044,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5037,18 +5067,18 @@
         <v>1</v>
       </c>
       <c r="G107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>99</v>
+        <v>422</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5063,18 +5093,18 @@
         <v>1</v>
       </c>
       <c r="G108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>100</v>
+        <v>423</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5089,18 +5119,18 @@
         <v>1</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>101</v>
+        <v>424</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5115,18 +5145,18 @@
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>102</v>
+        <v>425</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5144,15 +5174,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5170,15 +5200,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5196,15 +5226,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5222,15 +5252,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5238,25 +5268,25 @@
       <c r="D115" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="20">
-        <v>1</v>
-      </c>
-      <c r="F115" s="22">
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
         <v>1</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5264,25 +5294,25 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="20">
-        <v>1</v>
-      </c>
-      <c r="F116" s="22">
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5290,25 +5320,25 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-      <c r="E117" s="20">
-        <v>1</v>
-      </c>
-      <c r="F117" s="22">
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
         <v>1</v>
       </c>
       <c r="G117" s="3">
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5316,25 +5346,25 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="20">
-        <v>1</v>
-      </c>
-      <c r="F118" s="20">
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5352,15 +5382,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5378,15 +5408,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5404,15 +5434,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5430,15 +5460,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>114</v>
+        <v>437</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5456,15 +5486,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>115</v>
+        <v>438</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5479,18 +5509,18 @@
         <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>116</v>
+        <v>439</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5505,18 +5535,18 @@
         <v>1</v>
       </c>
       <c r="G125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>117</v>
+        <v>440</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5527,22 +5557,22 @@
       <c r="E126" s="20">
         <v>1</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="20">
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5557,18 +5587,18 @@
         <v>1</v>
       </c>
       <c r="G127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5579,22 +5609,22 @@
       <c r="E128" s="20">
         <v>1</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="22">
         <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>0</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>284</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5612,15 +5642,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5638,145 +5668,145 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="20">
+        <v>1</v>
+      </c>
+      <c r="F131" s="22">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="20">
+        <v>1</v>
+      </c>
+      <c r="F132" s="20">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="20">
+        <v>1</v>
+      </c>
+      <c r="F133" s="22">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="20">
+        <v>1</v>
+      </c>
+      <c r="F134" s="22">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B135" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="20">
-        <v>1</v>
-      </c>
-      <c r="F131" s="22">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>0</v>
-      </c>
-      <c r="H131" s="17" t="s">
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="20">
+        <v>1</v>
+      </c>
+      <c r="F135" s="22">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="17" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="20">
-        <v>1</v>
-      </c>
-      <c r="F132" s="20">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="20">
-        <v>1</v>
-      </c>
-      <c r="F133" s="20">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="20">
-        <v>1</v>
-      </c>
-      <c r="F134" s="20">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>0</v>
-      </c>
-      <c r="H134" s="18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="20">
-        <v>1</v>
-      </c>
-      <c r="F135" s="20">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="18" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5794,145 +5824,145 @@
         <v>0</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="20">
+        <v>1</v>
+      </c>
+      <c r="F137" s="20">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="20">
+        <v>1</v>
+      </c>
+      <c r="F138" s="20">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="20">
+        <v>1</v>
+      </c>
+      <c r="F139" s="20">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0</v>
+      </c>
+      <c r="H139" s="18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="20">
+        <v>1</v>
+      </c>
+      <c r="F140" s="20">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B141" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="20">
-        <v>1</v>
-      </c>
-      <c r="F137" s="20">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>0</v>
-      </c>
-      <c r="H137" s="18" t="s">
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="20">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="18" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="20">
-        <v>1</v>
-      </c>
-      <c r="F138" s="22">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-      <c r="H138" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="4">
-        <v>1</v>
-      </c>
-      <c r="F139" s="22">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="4">
-        <v>1</v>
-      </c>
-      <c r="F140" s="22">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="17" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="4">
-        <v>1</v>
-      </c>
-      <c r="F141" s="22">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="17" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="B142" s="23" t="s">
-        <v>547</v>
+        <v>450</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5940,7 +5970,7 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="20">
         <v>1</v>
       </c>
       <c r="F142" s="22">
@@ -5950,15 +5980,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>530</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5976,15 +6006,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6002,15 +6032,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6028,15 +6058,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6054,15 +6084,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6080,15 +6110,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6106,15 +6136,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6132,15 +6162,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6158,15 +6188,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6184,15 +6214,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6210,15 +6240,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6236,15 +6266,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6262,15 +6292,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6288,15 +6318,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6314,15 +6344,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>124</v>
+        <v>583</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>551</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6330,7 +6360,7 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-      <c r="E157" s="20">
+      <c r="E157" s="4">
         <v>1</v>
       </c>
       <c r="F157" s="22">
@@ -6340,15 +6370,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>289</v>
+        <v>541</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>125</v>
+        <v>584</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>560</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6356,7 +6386,7 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="E158" s="20">
+      <c r="E158" s="4">
         <v>1</v>
       </c>
       <c r="F158" s="22">
@@ -6366,15 +6396,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>290</v>
+        <v>542</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>126</v>
+        <v>585</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>562</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6382,25 +6412,25 @@
       <c r="D159" s="2">
         <v>0</v>
       </c>
-      <c r="E159" s="20">
+      <c r="E159" s="4">
         <v>1</v>
       </c>
       <c r="F159" s="22">
         <v>1</v>
       </c>
       <c r="G159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>291</v>
+        <v>543</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>127</v>
+        <v>586</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>561</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6408,25 +6438,25 @@
       <c r="D160" s="2">
         <v>0</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E160" s="4">
         <v>1</v>
       </c>
       <c r="F160" s="22">
         <v>1</v>
       </c>
       <c r="G160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>292</v>
+        <v>544</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>128</v>
+        <v>451</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6444,15 +6474,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>129</v>
+        <v>599</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6470,15 +6500,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6493,18 +6523,18 @@
         <v>1</v>
       </c>
       <c r="G163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6515,22 +6545,22 @@
       <c r="E164" s="20">
         <v>1</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="22">
         <v>1</v>
       </c>
       <c r="G164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>132</v>
+        <v>454</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6548,15 +6578,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>133</v>
+        <v>455</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6574,15 +6604,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6600,15 +6630,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6619,22 +6649,22 @@
       <c r="E168" s="20">
         <v>1</v>
       </c>
-      <c r="F168" s="22">
+      <c r="F168" s="20">
         <v>1</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6652,15 +6682,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6678,15 +6708,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6704,15 +6734,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6730,15 +6760,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6756,15 +6786,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6782,15 +6812,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6808,15 +6838,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6834,15 +6864,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6860,15 +6890,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6886,15 +6916,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6912,15 +6942,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6938,15 +6968,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -6964,15 +6994,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -6990,15 +7020,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7016,15 +7046,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7042,15 +7072,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7068,15 +7098,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7087,22 +7117,22 @@
       <c r="E186" s="20">
         <v>1</v>
       </c>
-      <c r="F186" s="20">
+      <c r="F186" s="22">
         <v>1</v>
       </c>
       <c r="G186" s="3">
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7120,15 +7150,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7146,15 +7176,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7172,15 +7202,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7191,22 +7221,22 @@
       <c r="E190" s="20">
         <v>1</v>
       </c>
-      <c r="F190" s="22">
+      <c r="F190" s="20">
         <v>1</v>
       </c>
       <c r="G190" s="3">
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7224,15 +7254,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7250,15 +7280,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7276,15 +7306,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7302,145 +7332,145 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C195" s="2">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+      <c r="E195" s="20">
+        <v>1</v>
+      </c>
+      <c r="F195" s="22">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+      <c r="E196" s="20">
+        <v>1</v>
+      </c>
+      <c r="F196" s="22">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
+      <c r="E197" s="20">
+        <v>1</v>
+      </c>
+      <c r="F197" s="22">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+      <c r="E198" s="20">
+        <v>1</v>
+      </c>
+      <c r="F198" s="22">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B199" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C195" s="2">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2">
-        <v>0</v>
-      </c>
-      <c r="E195" s="20">
-        <v>1</v>
-      </c>
-      <c r="F195" s="22">
-        <v>1</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0</v>
-      </c>
-      <c r="H195" s="17" t="s">
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+      <c r="E199" s="20">
+        <v>1</v>
+      </c>
+      <c r="F199" s="22">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="B196" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2">
-        <v>0</v>
-      </c>
-      <c r="E196" s="20">
-        <v>1</v>
-      </c>
-      <c r="F196" s="22">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3">
-        <v>0</v>
-      </c>
-      <c r="H196" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2">
-        <v>0</v>
-      </c>
-      <c r="E197" s="20">
-        <v>1</v>
-      </c>
-      <c r="F197" s="22">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3">
-        <v>0</v>
-      </c>
-      <c r="H197" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C198" s="2">
-        <v>0</v>
-      </c>
-      <c r="D198" s="2">
-        <v>0</v>
-      </c>
-      <c r="E198" s="20">
-        <v>1</v>
-      </c>
-      <c r="F198" s="22">
-        <v>1</v>
-      </c>
-      <c r="G198" s="3">
-        <v>0</v>
-      </c>
-      <c r="H198" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="20">
-        <v>1</v>
-      </c>
-      <c r="F199" s="22">
-        <v>1</v>
-      </c>
-      <c r="G199" s="3">
-        <v>0</v>
-      </c>
-      <c r="H199" s="18" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7458,15 +7488,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7484,15 +7514,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7510,32 +7540,136 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0</v>
+      </c>
+      <c r="E203" s="20">
+        <v>1</v>
+      </c>
+      <c r="F203" s="22">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
+      <c r="E204" s="20">
+        <v>1</v>
+      </c>
+      <c r="F204" s="22">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="20">
+        <v>1</v>
+      </c>
+      <c r="F205" s="22">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+      <c r="E206" s="20">
+        <v>1</v>
+      </c>
+      <c r="F206" s="22">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B203" s="16" t="s">
+      <c r="B207" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C203" s="2">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2">
-        <v>0</v>
-      </c>
-      <c r="E203" s="20">
-        <v>1</v>
-      </c>
-      <c r="F203" s="20">
-        <v>1</v>
-      </c>
-      <c r="G203" s="3">
-        <v>0</v>
-      </c>
-      <c r="H203" s="18" t="s">
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="20">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="613">
   <si>
     <t>old</t>
   </si>
@@ -1854,6 +1854,15 @@
   </si>
   <si>
     <t>a4_c_4c</t>
+  </si>
+  <si>
+    <t>phone_nb_avail</t>
+  </si>
+  <si>
+    <t>a4_a_10a</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_a_10a</t>
   </si>
 </sst>
 </file>
@@ -2274,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3566,11 +3575,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>39</v>
+      <c r="A50" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3579,24 +3588,24 @@
         <v>1</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>210</v>
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3614,15 +3623,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>499</v>
+        <v>374</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>503</v>
+        <v>40</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3640,15 +3649,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3666,15 +3675,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3692,15 +3701,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>375</v>
+        <v>510</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>41</v>
+        <v>511</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3718,15 +3727,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>212</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3744,15 +3753,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3770,119 +3779,119 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B61" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>601</v>
+        <v>513</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -3900,15 +3909,15 @@
         <v>1</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>603</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -3926,75 +3935,75 @@
         <v>1</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="11" t="s">
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="20">
-        <v>0</v>
-      </c>
-      <c r="D66" s="20">
-        <v>0</v>
-      </c>
-      <c r="E66" s="21">
+        <v>52</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
         <v>1</v>
       </c>
       <c r="F66" s="3">
@@ -4004,15 +4013,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="20">
         <v>0</v>
@@ -4020,7 +4029,7 @@
       <c r="D67" s="20">
         <v>0</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="21">
         <v>1</v>
       </c>
       <c r="F67" s="3">
@@ -4030,15 +4039,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="20">
         <v>0</v>
@@ -4046,7 +4055,7 @@
       <c r="D68" s="20">
         <v>0</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="20">
         <v>1</v>
       </c>
       <c r="F68" s="3">
@@ -4056,15 +4065,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="20">
         <v>0</v>
@@ -4082,23 +4091,23 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="4">
+        <v>56</v>
+      </c>
+      <c r="C70" s="20">
+        <v>0</v>
+      </c>
+      <c r="D70" s="20">
+        <v>0</v>
+      </c>
+      <c r="E70" s="21">
         <v>1</v>
       </c>
       <c r="F70" s="3">
@@ -4108,15 +4117,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4134,15 +4143,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4160,15 +4169,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4186,15 +4195,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4212,15 +4221,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4238,15 +4247,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4264,15 +4273,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4290,15 +4299,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4316,15 +4325,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4342,15 +4351,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4368,15 +4377,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4394,15 +4403,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4420,15 +4429,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4446,15 +4455,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4472,23 +4481,23 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="20">
+        <v>71</v>
+      </c>
+      <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="4">
         <v>1</v>
       </c>
       <c r="F85" s="3">
@@ -4498,15 +4507,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="20">
         <v>0</v>
@@ -4514,7 +4523,7 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="21">
         <v>1</v>
       </c>
       <c r="F86" s="3">
@@ -4524,15 +4533,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4540,7 +4549,7 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="20">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4550,15 +4559,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="20">
         <v>0</v>
@@ -4576,15 +4585,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="20">
         <v>0</v>
@@ -4592,7 +4601,7 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="21">
         <v>1</v>
       </c>
       <c r="F89" s="3">
@@ -4602,15 +4611,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="20">
         <v>0</v>
@@ -4618,7 +4627,7 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="20">
         <v>1</v>
       </c>
       <c r="F90" s="3">
@@ -4628,15 +4637,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" s="20">
         <v>0</v>
@@ -4654,17 +4663,17 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="2">
+        <v>78</v>
+      </c>
+      <c r="C92" s="20">
         <v>0</v>
       </c>
       <c r="D92" s="2">
@@ -4680,67 +4689,67 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B94" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="4">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
-      <c r="H93" s="13" t="s">
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="13" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4755,18 +4764,18 @@
         <v>1</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4784,15 +4793,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4810,15 +4819,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4836,15 +4845,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4862,15 +4871,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4888,15 +4897,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4914,15 +4923,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4940,15 +4949,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4966,15 +4975,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4992,15 +5001,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5018,15 +5027,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5044,15 +5053,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5070,15 +5079,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5096,15 +5105,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5122,15 +5131,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5148,15 +5157,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5171,18 +5180,18 @@
         <v>1</v>
       </c>
       <c r="G111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>99</v>
+        <v>425</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5200,15 +5209,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5226,15 +5235,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5252,15 +5261,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5278,15 +5287,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5304,15 +5313,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5330,15 +5339,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5356,15 +5365,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5372,25 +5381,25 @@
       <c r="D119" s="2">
         <v>0</v>
       </c>
-      <c r="E119" s="20">
-        <v>1</v>
-      </c>
-      <c r="F119" s="22">
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
         <v>1</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5408,15 +5417,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5434,15 +5443,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5453,22 +5462,22 @@
       <c r="E122" s="20">
         <v>1</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F122" s="22">
         <v>1</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5479,22 +5488,22 @@
       <c r="E123" s="20">
         <v>1</v>
       </c>
-      <c r="F123" s="22">
+      <c r="F123" s="20">
         <v>1</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5512,15 +5521,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5538,15 +5547,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5557,22 +5566,22 @@
       <c r="E126" s="20">
         <v>1</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="22">
         <v>1</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>114</v>
+        <v>440</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5583,22 +5592,22 @@
       <c r="E127" s="20">
         <v>1</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="20">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5613,18 +5622,18 @@
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5642,15 +5651,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>281</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5668,15 +5677,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5694,15 +5703,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5713,22 +5722,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="22">
         <v>1</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5739,22 +5748,22 @@
       <c r="E133" s="20">
         <v>1</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="20">
         <v>1</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5772,67 +5781,67 @@
         <v>0</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="20">
+        <v>1</v>
+      </c>
+      <c r="F135" s="22">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B136" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="20">
-        <v>1</v>
-      </c>
-      <c r="F135" s="22">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>0</v>
-      </c>
-      <c r="H135" s="17" t="s">
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="20">
+        <v>1</v>
+      </c>
+      <c r="F136" s="22">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="17" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="20">
-        <v>1</v>
-      </c>
-      <c r="F136" s="20">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
-        <v>0</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5850,15 +5859,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5876,15 +5885,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5902,15 +5911,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5928,67 +5937,67 @@
         <v>0</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="20">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B142" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1</v>
-      </c>
-      <c r="F141" s="20">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="18" t="s">
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0</v>
+      </c>
+      <c r="E142" s="20">
+        <v>1</v>
+      </c>
+      <c r="F142" s="20">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="18" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="20">
-        <v>1</v>
-      </c>
-      <c r="F142" s="22">
-        <v>1</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="17" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>545</v>
+        <v>450</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5996,7 +6005,7 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="20">
         <v>1</v>
       </c>
       <c r="F143" s="22">
@@ -6006,15 +6015,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>527</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6032,15 +6041,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6058,15 +6067,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6084,15 +6093,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6110,15 +6119,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6136,15 +6145,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6162,15 +6171,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6188,15 +6197,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6214,15 +6223,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6240,15 +6249,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6266,15 +6275,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6292,15 +6301,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6318,15 +6327,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6344,15 +6353,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6370,15 +6379,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6396,15 +6405,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6422,15 +6431,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6448,15 +6457,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>124</v>
+        <v>586</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>561</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6464,7 +6473,7 @@
       <c r="D161" s="2">
         <v>0</v>
       </c>
-      <c r="E161" s="20">
+      <c r="E161" s="4">
         <v>1</v>
       </c>
       <c r="F161" s="22">
@@ -6474,15 +6483,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>289</v>
+        <v>544</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>599</v>
+        <v>451</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6500,15 +6509,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>452</v>
+        <v>599</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6523,18 +6532,18 @@
         <v>1</v>
       </c>
       <c r="G163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6552,15 +6561,15 @@
         <v>1</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>128</v>
+        <v>453</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6575,18 +6584,18 @@
         <v>1</v>
       </c>
       <c r="G165" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6604,15 +6613,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>130</v>
+        <v>455</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6630,15 +6639,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6649,22 +6658,22 @@
       <c r="E168" s="20">
         <v>1</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="22">
         <v>1</v>
       </c>
       <c r="G168" s="3">
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6675,22 +6684,22 @@
       <c r="E169" s="20">
         <v>1</v>
       </c>
-      <c r="F169" s="22">
+      <c r="F169" s="20">
         <v>1</v>
       </c>
       <c r="G169" s="3">
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6708,15 +6717,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6734,15 +6743,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6757,18 +6766,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6783,18 +6792,18 @@
         <v>1</v>
       </c>
       <c r="G173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6812,15 +6821,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6838,15 +6847,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6864,15 +6873,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6890,15 +6899,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6916,15 +6925,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6942,15 +6951,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6968,15 +6977,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -6994,15 +7003,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7020,15 +7029,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7046,15 +7055,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7072,15 +7081,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7098,15 +7107,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7124,15 +7133,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7150,15 +7159,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7176,15 +7185,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7202,15 +7211,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7221,22 +7230,22 @@
       <c r="E190" s="20">
         <v>1</v>
       </c>
-      <c r="F190" s="20">
+      <c r="F190" s="22">
         <v>1</v>
       </c>
       <c r="G190" s="3">
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7247,22 +7256,22 @@
       <c r="E191" s="20">
         <v>1</v>
       </c>
-      <c r="F191" s="22">
+      <c r="F191" s="20">
         <v>1</v>
       </c>
       <c r="G191" s="3">
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7280,15 +7289,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7306,15 +7315,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7332,15 +7341,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7358,15 +7367,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7384,15 +7393,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7410,15 +7419,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7436,67 +7445,67 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+      <c r="E199" s="20">
+        <v>1</v>
+      </c>
+      <c r="F199" s="22">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B200" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="20">
-        <v>1</v>
-      </c>
-      <c r="F199" s="22">
-        <v>1</v>
-      </c>
-      <c r="G199" s="3">
-        <v>0</v>
-      </c>
-      <c r="H199" s="17" t="s">
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="20">
+        <v>1</v>
+      </c>
+      <c r="F200" s="22">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C200" s="2">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="20">
-        <v>1</v>
-      </c>
-      <c r="F200" s="22">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3">
-        <v>0</v>
-      </c>
-      <c r="H200" s="18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7514,15 +7523,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7540,15 +7549,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7566,15 +7575,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7592,15 +7601,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7618,15 +7627,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7644,32 +7653,58 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="22">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B207" s="16" t="s">
+      <c r="B208" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C207" s="2">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="20">
-        <v>1</v>
-      </c>
-      <c r="F207" s="20">
-        <v>1</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="18" t="s">
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+      <c r="E208" s="20">
+        <v>1</v>
+      </c>
+      <c r="F208" s="20">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -2285,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="619">
   <si>
     <t>old</t>
   </si>
@@ -1863,6 +1863,24 @@
   </si>
   <si>
     <t>crfs-t02b-a4_a_10a</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1b</t>
+  </si>
+  <si>
+    <t>ref_facility</t>
+  </si>
+  <si>
+    <t>i2_1b</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-i2_1o</t>
+  </si>
+  <si>
+    <t>ref_facility_oth</t>
+  </si>
+  <si>
+    <t>i2_1o</t>
   </si>
 </sst>
 </file>
@@ -2283,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6592,10 +6610,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>128</v>
+        <v>613</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>614</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6610,18 +6628,18 @@
         <v>1</v>
       </c>
       <c r="G166" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>293</v>
+        <v>615</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>129</v>
+        <v>616</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>617</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6636,18 +6654,18 @@
         <v>1</v>
       </c>
       <c r="G167" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>294</v>
+        <v>618</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>130</v>
+        <v>454</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6665,15 +6683,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>131</v>
+        <v>455</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6684,22 +6702,22 @@
       <c r="E169" s="20">
         <v>1</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="22">
         <v>1</v>
       </c>
       <c r="G169" s="3">
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6717,15 +6735,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6736,22 +6754,22 @@
       <c r="E171" s="20">
         <v>1</v>
       </c>
-      <c r="F171" s="22">
+      <c r="F171" s="20">
         <v>1</v>
       </c>
       <c r="G171" s="3">
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6766,18 +6784,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6792,18 +6810,18 @@
         <v>1</v>
       </c>
       <c r="G173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6818,18 +6836,18 @@
         <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6844,18 +6862,18 @@
         <v>1</v>
       </c>
       <c r="G175" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6873,15 +6891,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6899,15 +6917,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6925,15 +6943,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6951,15 +6969,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6977,15 +6995,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7003,15 +7021,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7029,15 +7047,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7055,15 +7073,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7081,15 +7099,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7107,15 +7125,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7133,15 +7151,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7159,15 +7177,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7185,15 +7203,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7211,15 +7229,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7237,15 +7255,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7256,22 +7274,22 @@
       <c r="E191" s="20">
         <v>1</v>
       </c>
-      <c r="F191" s="20">
+      <c r="F191" s="22">
         <v>1</v>
       </c>
       <c r="G191" s="3">
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7289,15 +7307,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7308,22 +7326,22 @@
       <c r="E193" s="20">
         <v>1</v>
       </c>
-      <c r="F193" s="22">
+      <c r="F193" s="20">
         <v>1</v>
       </c>
       <c r="G193" s="3">
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7341,15 +7359,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7367,15 +7385,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7393,15 +7411,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7419,15 +7437,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7445,15 +7463,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7471,93 +7489,93 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="20">
+        <v>1</v>
+      </c>
+      <c r="F200" s="22">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+      <c r="E201" s="20">
+        <v>1</v>
+      </c>
+      <c r="F201" s="22">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B202" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C200" s="2">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="20">
-        <v>1</v>
-      </c>
-      <c r="F200" s="22">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3">
-        <v>0</v>
-      </c>
-      <c r="H200" s="17" t="s">
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+      <c r="E202" s="20">
+        <v>1</v>
+      </c>
+      <c r="F202" s="22">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="17" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C201" s="2">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2">
-        <v>0</v>
-      </c>
-      <c r="E201" s="20">
-        <v>1</v>
-      </c>
-      <c r="F201" s="22">
-        <v>1</v>
-      </c>
-      <c r="G201" s="3">
-        <v>0</v>
-      </c>
-      <c r="H201" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="E202" s="20">
-        <v>1</v>
-      </c>
-      <c r="F202" s="22">
-        <v>1</v>
-      </c>
-      <c r="G202" s="3">
-        <v>0</v>
-      </c>
-      <c r="H202" s="18" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7575,15 +7593,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7601,15 +7619,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7627,15 +7645,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7653,15 +7671,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7679,32 +7697,84 @@
         <v>0</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+      <c r="E208" s="20">
+        <v>1</v>
+      </c>
+      <c r="F208" s="22">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="20">
+        <v>1</v>
+      </c>
+      <c r="F209" s="22">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B210" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C208" s="2">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2">
-        <v>0</v>
-      </c>
-      <c r="E208" s="20">
-        <v>1</v>
-      </c>
-      <c r="F208" s="20">
-        <v>1</v>
-      </c>
-      <c r="G208" s="3">
-        <v>0</v>
-      </c>
-      <c r="H208" s="18" t="s">
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="20">
+        <v>1</v>
+      </c>
+      <c r="F210" s="20">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="622">
   <si>
     <t>old</t>
   </si>
@@ -872,9 +872,6 @@
     <t>fu</t>
   </si>
   <si>
-    <t>injection</t>
-  </si>
-  <si>
     <t>injection_types</t>
   </si>
   <si>
@@ -1358,9 +1355,6 @@
     <t>crfs-t09a1-fu</t>
   </si>
   <si>
-    <t>crfs-t09a1-injection</t>
-  </si>
-  <si>
     <t>crfs-t09a1-injection_types</t>
   </si>
   <si>
@@ -1376,9 +1370,6 @@
     <t>crfs-t09a1-h2_2o</t>
   </si>
   <si>
-    <t>crfs-t09a2-b1_9</t>
-  </si>
-  <si>
     <t>crfs-t09a2-g3_1</t>
   </si>
   <si>
@@ -1715,114 +1706,6 @@
     <t>dx_mlist</t>
   </si>
   <si>
-    <t>paracetamol_route</t>
-  </si>
-  <si>
-    <t>artesunate_route</t>
-  </si>
-  <si>
-    <t>ciprofloxacin_route</t>
-  </si>
-  <si>
-    <t>metronidazol_route</t>
-  </si>
-  <si>
-    <t>quinine_route</t>
-  </si>
-  <si>
-    <t>salbutamol_route</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxsevere</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxpneumonia</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxpneumoniaseverity</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxdiarrhoea</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxdiarrhoeaseverity</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxdiarrhoeaduration</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxdehydration</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxdehydrationseverity</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxmalaria</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxmalariaseverity</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxearinfection</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxearinfectionduration</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxmalnutrition</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxmalnuseverity</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxanaemia</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxanaemiaseverity</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxothermain</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-rxother</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-paracetamol_route</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-artesunate_route</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-ciprofloxacin_route</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-metronidazol_route</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-quinine_route</t>
-  </si>
-  <si>
-    <t>crfs-t09a1-salbutamol_route</t>
-  </si>
-  <si>
-    <t>rx_paracetamol_route</t>
-  </si>
-  <si>
-    <t>rx_artesunate_route</t>
-  </si>
-  <si>
-    <t>rx_ciprofloxacin_route</t>
-  </si>
-  <si>
-    <t>rx_metronidazol_route</t>
-  </si>
-  <si>
-    <t>rx_quinine_route</t>
-  </si>
-  <si>
-    <t>rx_salbutamol_route</t>
-  </si>
-  <si>
     <t>crfs-t09a2-g3_1o</t>
   </si>
   <si>
@@ -1881,6 +1764,132 @@
   </si>
   <si>
     <t>i2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxsevere</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxpneumonia</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxpneumoniaseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxdiarrhoea</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxdiarrhoeaseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxdiarrhoeaduration</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxdehydration</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxdehydrationseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxmalaria</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxmalariaseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxearinfection</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxearinfectionduration</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxmalnutrition</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxmalnuseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxanaemia</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxanaemiaseverity</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxothermain</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-rxother</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-paracetamol_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-artesunate_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-ciprofloxacin_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-metronidazol_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-quinine_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-salbutamol_route_hf</t>
+  </si>
+  <si>
+    <t>rx_paracetamol_route_hf</t>
+  </si>
+  <si>
+    <t>rx_artesunate_route_hf</t>
+  </si>
+  <si>
+    <t>rx_ciprofloxacin_route_hf</t>
+  </si>
+  <si>
+    <t>rx_metronidazol_route_hf</t>
+  </si>
+  <si>
+    <t>rx_quinine_route_hf</t>
+  </si>
+  <si>
+    <t>rx_salbutamol_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-medication_injection</t>
+  </si>
+  <si>
+    <t>inj_vacc</t>
+  </si>
+  <si>
+    <t>vaccination_injection</t>
+  </si>
+  <si>
+    <t>medication_injection</t>
+  </si>
+  <si>
+    <t>paracetamol_route_hf</t>
+  </si>
+  <si>
+    <t>artesunate_route_hf</t>
+  </si>
+  <si>
+    <t>ciprofloxacin_route_hf</t>
+  </si>
+  <si>
+    <t>metronidazol_route_hf</t>
+  </si>
+  <si>
+    <t>quinine_route_hf</t>
+  </si>
+  <si>
+    <t>salbutamol_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-b1_9</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-vaccine_injection</t>
   </si>
 </sst>
 </file>
@@ -2301,15 +2310,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
@@ -2338,7 +2347,7 @@
         <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>194</v>
@@ -2424,7 +2433,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>173</v>
@@ -2445,15 +2454,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2471,12 +2480,12 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>21</v>
@@ -2502,7 +2511,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>35</v>
@@ -2528,10 +2537,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2549,12 +2558,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>36</v>
@@ -2580,7 +2589,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>37</v>
@@ -2606,7 +2615,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>9</v>
@@ -2632,10 +2641,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2653,12 +2662,12 @@
         <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>29</v>
@@ -2684,7 +2693,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>2</v>
@@ -2710,7 +2719,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>14</v>
@@ -2736,10 +2745,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2757,12 +2766,12 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>11</v>
@@ -2788,7 +2797,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>12</v>
@@ -2814,7 +2823,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>10</v>
@@ -2840,7 +2849,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>23</v>
@@ -2866,7 +2875,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>24</v>
@@ -2892,7 +2901,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>8</v>
@@ -2918,7 +2927,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>38</v>
@@ -2944,7 +2953,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>22</v>
@@ -2970,7 +2979,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>13</v>
@@ -2996,7 +3005,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>15</v>
@@ -3022,7 +3031,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>4</v>
@@ -3048,7 +3057,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>6</v>
@@ -3074,7 +3083,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>16</v>
@@ -3100,7 +3109,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>5</v>
@@ -3126,10 +3135,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3147,15 +3156,15 @@
         <v>1</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -3173,12 +3182,12 @@
         <v>0</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>17</v>
@@ -3204,7 +3213,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>46</v>
@@ -3230,7 +3239,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>47</v>
@@ -3256,7 +3265,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>48</v>
@@ -3282,7 +3291,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>49</v>
@@ -3308,7 +3317,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>50</v>
@@ -3334,7 +3343,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>18</v>
@@ -3360,7 +3369,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>19</v>
@@ -3386,7 +3395,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>20</v>
@@ -3412,7 +3421,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>3</v>
@@ -3438,7 +3447,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>30</v>
@@ -3464,7 +3473,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>32</v>
@@ -3490,10 +3499,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3511,12 +3520,12 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>33</v>
@@ -3542,7 +3551,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>34</v>
@@ -3568,7 +3577,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>43</v>
@@ -3594,10 +3603,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -3615,12 +3624,12 @@
         <v>1</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>39</v>
@@ -3646,7 +3655,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>40</v>
@@ -3672,10 +3681,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3693,15 +3702,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3719,15 +3728,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3745,12 +3754,12 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>41</v>
@@ -3776,7 +3785,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>42</v>
@@ -3802,7 +3811,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>44</v>
@@ -3828,7 +3837,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>45</v>
@@ -3854,10 +3863,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -3875,15 +3884,15 @@
         <v>1</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -3901,15 +3910,15 @@
         <v>1</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -3927,15 +3936,15 @@
         <v>1</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -3953,15 +3962,15 @@
         <v>1</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -3979,15 +3988,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -4005,12 +4014,12 @@
         <v>1</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>52</v>
@@ -4036,7 +4045,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>53</v>
@@ -4062,7 +4071,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>54</v>
@@ -4088,7 +4097,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>55</v>
@@ -4114,7 +4123,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>56</v>
@@ -4140,7 +4149,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>57</v>
@@ -4166,7 +4175,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>58</v>
@@ -4192,7 +4201,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>59</v>
@@ -4218,7 +4227,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>60</v>
@@ -4244,7 +4253,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>61</v>
@@ -4270,7 +4279,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>62</v>
@@ -4296,7 +4305,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>63</v>
@@ -4322,7 +4331,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>64</v>
@@ -4348,7 +4357,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>65</v>
@@ -4374,7 +4383,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>66</v>
@@ -4400,7 +4409,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>67</v>
@@ -4426,7 +4435,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>68</v>
@@ -4452,7 +4461,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>69</v>
@@ -4478,7 +4487,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>70</v>
@@ -4504,7 +4513,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>71</v>
@@ -4530,7 +4539,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>72</v>
@@ -4556,7 +4565,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>73</v>
@@ -4582,7 +4591,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>74</v>
@@ -4608,7 +4617,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>75</v>
@@ -4634,7 +4643,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>76</v>
@@ -4660,7 +4669,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>77</v>
@@ -4686,7 +4695,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>78</v>
@@ -4712,7 +4721,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>79</v>
@@ -4738,7 +4747,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>80</v>
@@ -4764,7 +4773,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>81</v>
@@ -4790,7 +4799,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>82</v>
@@ -4816,7 +4825,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>83</v>
@@ -4842,7 +4851,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>84</v>
@@ -4868,7 +4877,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>85</v>
@@ -4894,7 +4903,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>86</v>
@@ -4920,7 +4929,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>87</v>
@@ -4946,7 +4955,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>88</v>
@@ -4972,7 +4981,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>89</v>
@@ -4998,7 +5007,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>90</v>
@@ -5024,7 +5033,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>91</v>
@@ -5050,7 +5059,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>92</v>
@@ -5076,7 +5085,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>93</v>
@@ -5102,7 +5111,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>94</v>
@@ -5128,7 +5137,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>95</v>
@@ -5154,7 +5163,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>96</v>
@@ -5180,7 +5189,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>97</v>
@@ -5206,7 +5215,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>98</v>
@@ -5232,7 +5241,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>99</v>
@@ -5258,7 +5267,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>100</v>
@@ -5284,7 +5293,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>101</v>
@@ -5310,7 +5319,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>102</v>
@@ -5336,7 +5345,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>103</v>
@@ -5362,7 +5371,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>104</v>
@@ -5388,7 +5397,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>105</v>
@@ -5414,7 +5423,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>106</v>
@@ -5440,7 +5449,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>107</v>
@@ -5466,7 +5475,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>108</v>
@@ -5492,7 +5501,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>109</v>
@@ -5518,7 +5527,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>110</v>
@@ -5544,7 +5553,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B125" s="15" t="s">
         <v>111</v>
@@ -5570,7 +5579,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>112</v>
@@ -5596,7 +5605,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>113</v>
@@ -5622,7 +5631,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>114</v>
@@ -5648,7 +5657,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>115</v>
@@ -5674,7 +5683,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>116</v>
@@ -5700,7 +5709,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>444</v>
+        <v>610</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>117</v>
@@ -5721,12 +5730,12 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>282</v>
+        <v>613</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>118</v>
@@ -5747,12 +5756,12 @@
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>119</v>
@@ -5773,15 +5782,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>447</v>
+        <v>621</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>120</v>
+        <v>611</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5799,15 +5808,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>285</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5825,42 +5834,42 @@
         <v>0</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B136" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="20">
+        <v>1</v>
+      </c>
+      <c r="F136" s="22">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B137" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="20">
-        <v>1</v>
-      </c>
-      <c r="F136" s="22">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
-        <v>0</v>
-      </c>
-      <c r="H136" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>593</v>
-      </c>
       <c r="C137" s="2">
         <v>0</v>
       </c>
@@ -5870,22 +5879,22 @@
       <c r="E137" s="20">
         <v>1</v>
       </c>
-      <c r="F137" s="20">
+      <c r="F137" s="22">
         <v>1</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
       </c>
-      <c r="H137" s="18" t="s">
-        <v>563</v>
+      <c r="H137" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5903,15 +5912,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5929,15 +5938,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>565</v>
+        <v>615</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5955,15 +5964,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5981,15 +5990,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6007,15 +6016,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>123</v>
+      <c r="A143" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>609</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6026,22 +6035,22 @@
       <c r="E143" s="20">
         <v>1</v>
       </c>
-      <c r="F143" s="22">
+      <c r="F143" s="20">
         <v>1</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
       </c>
-      <c r="H143" s="17" t="s">
-        <v>288</v>
+      <c r="H143" s="18" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>545</v>
+        <v>620</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6049,7 +6058,7 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="20">
         <v>1</v>
       </c>
       <c r="F144" s="22">
@@ -6059,15 +6068,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>527</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6085,15 +6094,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6111,15 +6120,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6137,15 +6146,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6163,15 +6172,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6189,15 +6198,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6215,15 +6224,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6241,15 +6250,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6267,15 +6276,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6293,15 +6302,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6319,15 +6328,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6345,15 +6354,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6371,15 +6380,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6397,15 +6406,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6423,15 +6432,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6449,15 +6458,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6475,15 +6484,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6501,15 +6510,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>124</v>
+        <v>597</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>558</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6517,7 +6526,7 @@
       <c r="D162" s="2">
         <v>0</v>
       </c>
-      <c r="E162" s="20">
+      <c r="E162" s="4">
         <v>1</v>
       </c>
       <c r="F162" s="22">
@@ -6527,15 +6536,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>289</v>
+        <v>541</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>599</v>
+        <v>448</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6553,15 +6562,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>452</v>
+        <v>560</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6576,18 +6585,18 @@
         <v>1</v>
       </c>
       <c r="G164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6605,15 +6614,15 @@
         <v>1</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>613</v>
+        <v>450</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>614</v>
+        <v>127</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6631,15 +6640,15 @@
         <v>1</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>615</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6657,15 +6666,15 @@
         <v>1</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>128</v>
+        <v>577</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>578</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6680,18 +6689,18 @@
         <v>1</v>
       </c>
       <c r="G168" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>293</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6709,15 +6718,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>130</v>
+        <v>452</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6735,15 +6744,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6754,22 +6763,22 @@
       <c r="E171" s="20">
         <v>1</v>
       </c>
-      <c r="F171" s="20">
+      <c r="F171" s="22">
         <v>1</v>
       </c>
       <c r="G171" s="3">
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6780,22 +6789,22 @@
       <c r="E172" s="20">
         <v>1</v>
       </c>
-      <c r="F172" s="22">
+      <c r="F172" s="20">
         <v>1</v>
       </c>
       <c r="G172" s="3">
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6813,15 +6822,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6836,18 +6845,18 @@
         <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6865,15 +6874,15 @@
         <v>1</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6888,18 +6897,18 @@
         <v>1</v>
       </c>
       <c r="G176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6917,15 +6926,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6943,15 +6952,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6969,15 +6978,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -6995,15 +7004,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7021,15 +7030,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7047,15 +7056,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7073,15 +7082,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7099,15 +7108,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7125,15 +7134,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7151,15 +7160,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7177,15 +7186,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7203,15 +7212,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7229,15 +7238,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7255,15 +7264,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7281,15 +7290,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7307,15 +7316,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7326,22 +7335,22 @@
       <c r="E193" s="20">
         <v>1</v>
       </c>
-      <c r="F193" s="20">
+      <c r="F193" s="22">
         <v>1</v>
       </c>
       <c r="G193" s="3">
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7352,22 +7361,22 @@
       <c r="E194" s="20">
         <v>1</v>
       </c>
-      <c r="F194" s="22">
+      <c r="F194" s="20">
         <v>1</v>
       </c>
       <c r="G194" s="3">
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7385,15 +7394,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7411,15 +7420,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7437,15 +7446,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7463,15 +7472,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7489,15 +7498,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7515,15 +7524,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7541,42 +7550,42 @@
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B202" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+      <c r="E202" s="20">
+        <v>1</v>
+      </c>
+      <c r="F202" s="22">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B203" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="E202" s="20">
-        <v>1</v>
-      </c>
-      <c r="F202" s="22">
-        <v>1</v>
-      </c>
-      <c r="G202" s="3">
-        <v>0</v>
-      </c>
-      <c r="H202" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="B203" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="C203" s="2">
         <v>0</v>
       </c>
@@ -7592,16 +7601,16 @@
       <c r="G203" s="3">
         <v>0</v>
       </c>
-      <c r="H203" s="18" t="s">
-        <v>328</v>
+      <c r="H203" s="17" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7619,15 +7628,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7645,15 +7654,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7671,15 +7680,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7697,15 +7706,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7723,15 +7732,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7749,32 +7758,58 @@
         <v>0</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B210" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="20">
+        <v>1</v>
+      </c>
+      <c r="F210" s="22">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B211" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C210" s="2">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="20">
-        <v>1</v>
-      </c>
-      <c r="F210" s="20">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="18" t="s">
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="20">
+        <v>1</v>
+      </c>
+      <c r="F211" s="20">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="18" t="s">
         <v>213</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -68,9 +68,6 @@
     <t>cg_age_yr</t>
   </si>
   <si>
-    <t>yg_age_ctg</t>
-  </si>
-  <si>
     <t>cg_age_ctg</t>
   </si>
   <si>
@@ -1890,6 +1887,9 @@
   </si>
   <si>
     <t>crfs-t09a1-vaccine_injection</t>
+  </si>
+  <si>
+    <t>yg_infant_ctg</t>
   </si>
 </sst>
 </file>
@@ -2312,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2335,22 +2335,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -2428,15 +2428,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2454,15 +2454,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2480,15 +2480,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2506,15 +2506,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -2532,15 +2532,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2558,15 +2558,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2584,15 +2584,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2610,15 +2610,15 @@
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>338</v>
+        <v>502</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>504</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2633,18 +2633,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>177</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>503</v>
+        <v>337</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>505</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2659,18 +2659,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>504</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2688,12 +2688,12 @@
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>2</v>
@@ -2714,15 +2714,15 @@
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>341</v>
+        <v>501</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2737,18 +2737,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>502</v>
+        <v>341</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>501</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>342</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2800,13 +2800,13 @@
         <v>343</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>182</v>
@@ -2823,16 +2823,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>10</v>
+        <v>621</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2844,15 +2844,15 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -2870,15 +2870,15 @@
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -2896,12 +2896,12 @@
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>8</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -2948,15 +2948,15 @@
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2974,12 +2974,12 @@
         <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>13</v>
@@ -3000,15 +3000,15 @@
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -3026,12 +3026,12 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>4</v>
@@ -3052,12 +3052,12 @@
         <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>6</v>
@@ -3078,15 +3078,15 @@
         <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3104,12 +3104,12 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>5</v>
@@ -3130,42 +3130,42 @@
         <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>518</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>522</v>
-      </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
@@ -3182,15 +3182,15 @@
         <v>0</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -3208,15 +3208,15 @@
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -3234,15 +3234,15 @@
         <v>1</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3260,15 +3260,15 @@
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3286,15 +3286,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3312,15 +3312,15 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3338,15 +3338,15 @@
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3364,15 +3364,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3390,15 +3390,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -3416,12 +3416,12 @@
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>3</v>
@@ -3442,15 +3442,15 @@
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3468,15 +3468,15 @@
         <v>0</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -3494,15 +3494,15 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3520,15 +3520,15 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -3546,15 +3546,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -3572,15 +3572,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -3598,41 +3598,41 @@
         <v>1</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>571</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -3650,15 +3650,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3676,15 +3676,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3702,15 +3702,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3728,41 +3728,41 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3780,15 +3780,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3806,15 +3806,15 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3832,15 +3832,15 @@
         <v>0</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3858,16 +3858,16 @@
         <v>0</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>514</v>
-      </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
@@ -3884,16 +3884,16 @@
         <v>1</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>516</v>
-      </c>
       <c r="C61" s="2">
         <v>1</v>
       </c>
@@ -3910,67 +3910,67 @@
         <v>1</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>510</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="11" t="s">
         <v>563</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -3988,15 +3988,15 @@
         <v>1</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -4014,15 +4014,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4040,15 +4040,15 @@
         <v>1</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="20">
         <v>0</v>
@@ -4066,15 +4066,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="20">
         <v>0</v>
@@ -4092,15 +4092,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="20">
         <v>0</v>
@@ -4118,15 +4118,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="20">
         <v>0</v>
@@ -4144,15 +4144,15 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4170,15 +4170,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4196,15 +4196,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4222,15 +4222,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4248,15 +4248,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4274,15 +4274,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4300,15 +4300,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4326,15 +4326,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4352,15 +4352,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4378,15 +4378,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4404,15 +4404,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4430,15 +4430,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4456,15 +4456,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4482,15 +4482,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4508,15 +4508,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4534,15 +4534,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C86" s="20">
         <v>0</v>
@@ -4560,15 +4560,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4586,15 +4586,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C88" s="20">
         <v>0</v>
@@ -4612,15 +4612,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="20">
         <v>0</v>
@@ -4638,15 +4638,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" s="20">
         <v>0</v>
@@ -4664,15 +4664,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" s="20">
         <v>0</v>
@@ -4690,15 +4690,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" s="20">
         <v>0</v>
@@ -4716,15 +4716,15 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4742,15 +4742,15 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4768,15 +4768,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4794,15 +4794,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4820,15 +4820,15 @@
         <v>0</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4846,15 +4846,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4872,15 +4872,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4898,15 +4898,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4924,15 +4924,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4950,15 +4950,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4976,15 +4976,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5002,15 +5002,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5028,15 +5028,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5054,15 +5054,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5080,15 +5080,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5106,15 +5106,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5132,15 +5132,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5158,15 +5158,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5184,15 +5184,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5210,15 +5210,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5236,15 +5236,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5262,15 +5262,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5288,15 +5288,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5314,15 +5314,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5340,15 +5340,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5366,15 +5366,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5392,15 +5392,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5418,15 +5418,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5444,15 +5444,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5470,15 +5470,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5496,15 +5496,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5522,15 +5522,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5548,15 +5548,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5574,15 +5574,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5600,15 +5600,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5626,15 +5626,15 @@
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5652,15 +5652,15 @@
         <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5678,15 +5678,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5704,15 +5704,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5730,15 +5730,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5756,15 +5756,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5782,41 +5782,41 @@
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B134" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="20">
+        <v>1</v>
+      </c>
+      <c r="F134" s="22">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="17" t="s">
         <v>611</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="20">
-        <v>1</v>
-      </c>
-      <c r="F134" s="22">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>0</v>
-      </c>
-      <c r="H134" s="17" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5834,15 +5834,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5860,15 +5860,15 @@
         <v>0</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5886,15 +5886,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5912,15 +5912,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5938,15 +5938,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5964,15 +5964,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5990,15 +5990,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6016,15 +6016,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6042,15 +6042,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6068,15 +6068,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6094,15 +6094,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6120,15 +6120,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6146,15 +6146,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6172,15 +6172,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6198,15 +6198,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6224,15 +6224,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6250,15 +6250,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6276,15 +6276,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6302,15 +6302,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6328,15 +6328,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6354,15 +6354,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6380,15 +6380,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6406,15 +6406,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6432,15 +6432,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6458,15 +6458,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6484,15 +6484,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6510,15 +6510,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6536,15 +6536,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6562,15 +6562,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6588,15 +6588,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6614,15 +6614,15 @@
         <v>1</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6640,67 +6640,67 @@
         <v>1</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B167" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="20">
+        <v>1</v>
+      </c>
+      <c r="F167" s="22">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>1</v>
+      </c>
+      <c r="H167" s="17" t="s">
         <v>575</v>
-      </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="20">
-        <v>1</v>
-      </c>
-      <c r="F167" s="22">
-        <v>1</v>
-      </c>
-      <c r="G167" s="3">
-        <v>1</v>
-      </c>
-      <c r="H167" s="17" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B168" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="20">
+        <v>1</v>
+      </c>
+      <c r="F168" s="22">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>1</v>
+      </c>
+      <c r="H168" s="17" t="s">
         <v>578</v>
-      </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="20">
-        <v>1</v>
-      </c>
-      <c r="F168" s="22">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>1</v>
-      </c>
-      <c r="H168" s="17" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6718,15 +6718,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6744,15 +6744,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6770,15 +6770,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6796,15 +6796,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6822,15 +6822,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6848,15 +6848,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6874,15 +6874,15 @@
         <v>1</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6900,15 +6900,15 @@
         <v>1</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6926,15 +6926,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6952,15 +6952,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6978,15 +6978,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7004,15 +7004,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7030,15 +7030,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7056,15 +7056,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7082,15 +7082,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7108,15 +7108,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7134,15 +7134,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7160,15 +7160,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7186,15 +7186,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7212,15 +7212,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7238,15 +7238,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7264,15 +7264,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7290,15 +7290,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7316,15 +7316,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7342,15 +7342,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7368,15 +7368,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7394,15 +7394,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7420,15 +7420,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7446,15 +7446,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7472,15 +7472,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7498,15 +7498,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7524,15 +7524,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7550,15 +7550,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7576,15 +7576,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7602,15 +7602,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7628,15 +7628,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7654,15 +7654,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7680,15 +7680,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7706,15 +7706,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7732,15 +7732,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7758,15 +7758,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7784,15 +7784,15 @@
         <v>0</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="623">
   <si>
     <t>old</t>
   </si>
@@ -1890,6 +1890,9 @@
   </si>
   <si>
     <t>yg_infant_ctg</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -2310,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2484,95 +2487,95 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>494</v>
+        <v>334</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>494</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>494</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>335</v>
+        <v>494</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>494</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2584,67 +2587,67 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>175</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>337</v>
+        <v>502</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>504</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2659,18 +2662,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>176</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2685,24 +2688,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2711,24 +2714,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>501</v>
+        <v>339</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2737,18 +2740,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>500</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>341</v>
+        <v>501</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -2766,15 +2769,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2792,21 +2795,21 @@
         <v>0</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2815,18 +2818,18 @@
         <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>621</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -2844,41 +2847,41 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22">
+        <v>621</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -2886,83 +2889,83 @@
       <c r="D22" s="20">
         <v>0</v>
       </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="F22" s="20">
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22">
         <v>1</v>
       </c>
       <c r="G22" s="22">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
       </c>
       <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20">
         <v>1</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2971,24 +2974,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -2997,70 +3000,70 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3075,18 +3078,18 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3104,15 +3107,15 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -3130,15 +3133,15 @@
         <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>516</v>
+        <v>354</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3153,122 +3156,122 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>518</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3286,15 +3289,15 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3312,15 +3315,15 @@
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3335,18 +3338,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3364,15 +3367,15 @@
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3390,24 +3393,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -3416,249 +3419,249 @@
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9" t="s">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11" t="s">
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -3676,15 +3679,15 @@
         <v>0</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>495</v>
+        <v>372</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>499</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -3702,15 +3705,15 @@
         <v>0</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>497</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3728,15 +3731,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -3754,15 +3757,15 @@
         <v>0</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>373</v>
+        <v>506</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>40</v>
+        <v>507</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3780,15 +3783,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>211</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3806,15 +3809,15 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3832,119 +3835,119 @@
         <v>0</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9" t="s">
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B62" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -3962,15 +3965,15 @@
         <v>1</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -3988,75 +3991,75 @@
         <v>1</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B66" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="11" t="s">
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="20">
-        <v>0</v>
-      </c>
-      <c r="D67" s="20">
-        <v>0</v>
-      </c>
-      <c r="E67" s="21">
+        <v>51</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
         <v>1</v>
       </c>
       <c r="F67" s="3">
@@ -4066,15 +4069,15 @@
         <v>1</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="20">
         <v>0</v>
@@ -4082,7 +4085,7 @@
       <c r="D68" s="20">
         <v>0</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="21">
         <v>1</v>
       </c>
       <c r="F68" s="3">
@@ -4092,15 +4095,15 @@
         <v>1</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="20">
         <v>0</v>
@@ -4108,7 +4111,7 @@
       <c r="D69" s="20">
         <v>0</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E69" s="20">
         <v>1</v>
       </c>
       <c r="F69" s="3">
@@ -4118,15 +4121,15 @@
         <v>1</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="20">
         <v>0</v>
@@ -4144,23 +4147,23 @@
         <v>1</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0</v>
-      </c>
-      <c r="E71" s="4">
+        <v>55</v>
+      </c>
+      <c r="C71" s="20">
+        <v>0</v>
+      </c>
+      <c r="D71" s="20">
+        <v>0</v>
+      </c>
+      <c r="E71" s="21">
         <v>1</v>
       </c>
       <c r="F71" s="3">
@@ -4170,15 +4173,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4196,15 +4199,15 @@
         <v>1</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4222,15 +4225,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4248,15 +4251,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4274,15 +4277,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4300,15 +4303,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4326,15 +4329,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4352,15 +4355,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4378,15 +4381,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4404,15 +4407,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4430,15 +4433,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4456,15 +4459,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4482,15 +4485,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4508,15 +4511,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4534,23 +4537,23 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="20">
+        <v>70</v>
+      </c>
+      <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="4">
         <v>1</v>
       </c>
       <c r="F86" s="3">
@@ -4560,15 +4563,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C87" s="20">
         <v>0</v>
@@ -4576,7 +4579,7 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="21">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4586,15 +4589,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="20">
         <v>0</v>
@@ -4602,7 +4605,7 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="20">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4612,15 +4615,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89" s="20">
         <v>0</v>
@@ -4638,15 +4641,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" s="20">
         <v>0</v>
@@ -4654,7 +4657,7 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="21">
         <v>1</v>
       </c>
       <c r="F90" s="3">
@@ -4664,15 +4667,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91" s="20">
         <v>0</v>
@@ -4680,7 +4683,7 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="20">
         <v>1</v>
       </c>
       <c r="F91" s="3">
@@ -4690,15 +4693,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" s="20">
         <v>0</v>
@@ -4716,17 +4719,17 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" s="2">
+        <v>77</v>
+      </c>
+      <c r="C93" s="20">
         <v>0</v>
       </c>
       <c r="D93" s="2">
@@ -4742,67 +4745,67 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B95" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
-      <c r="H94" s="13" t="s">
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="2">
-        <v>0</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4817,18 +4820,18 @@
         <v>1</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4846,15 +4849,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4872,15 +4875,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4898,15 +4901,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4924,15 +4927,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4950,15 +4953,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4976,15 +4979,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5002,15 +5005,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5028,15 +5031,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5054,15 +5057,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5080,15 +5083,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5106,15 +5109,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5132,15 +5135,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5158,15 +5161,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5184,15 +5187,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5210,15 +5213,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5233,18 +5236,18 @@
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>98</v>
+        <v>423</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5262,15 +5265,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5288,15 +5291,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5314,15 +5317,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5340,15 +5343,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5366,15 +5369,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5392,15 +5395,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5418,15 +5421,15 @@
         <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5434,25 +5437,25 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="20">
-        <v>1</v>
-      </c>
-      <c r="F120" s="22">
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
         <v>1</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5470,15 +5473,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5496,15 +5499,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5515,22 +5518,22 @@
       <c r="E123" s="20">
         <v>1</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="22">
         <v>1</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5541,22 +5544,22 @@
       <c r="E124" s="20">
         <v>1</v>
       </c>
-      <c r="F124" s="22">
+      <c r="F124" s="20">
         <v>1</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5574,15 +5577,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5600,15 +5603,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5619,22 +5622,22 @@
       <c r="E127" s="20">
         <v>1</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F127" s="22">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>113</v>
+        <v>438</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5645,22 +5648,22 @@
       <c r="E128" s="20">
         <v>1</v>
       </c>
-      <c r="F128" s="22">
+      <c r="F128" s="20">
         <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5675,18 +5678,18 @@
         <v>1</v>
       </c>
       <c r="G129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5704,15 +5707,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>609</v>
+        <v>441</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5730,15 +5733,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>612</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>442</v>
+        <v>609</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5756,15 +5759,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>281</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5775,22 +5778,22 @@
       <c r="E133" s="20">
         <v>1</v>
       </c>
-      <c r="F133" s="20">
+      <c r="F133" s="22">
         <v>1</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>620</v>
+        <v>443</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>610</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5801,22 +5804,22 @@
       <c r="E134" s="20">
         <v>1</v>
       </c>
-      <c r="F134" s="22">
+      <c r="F134" s="20">
         <v>1</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>611</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>444</v>
+        <v>620</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>119</v>
+        <v>610</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5834,15 +5837,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>283</v>
+        <v>611</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5860,67 +5863,67 @@
         <v>0</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="20">
+        <v>1</v>
+      </c>
+      <c r="F137" s="22">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B138" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="20">
-        <v>1</v>
-      </c>
-      <c r="F137" s="22">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>0</v>
-      </c>
-      <c r="H137" s="17" t="s">
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="20">
+        <v>1</v>
+      </c>
+      <c r="F138" s="22">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="17" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="20">
-        <v>1</v>
-      </c>
-      <c r="F138" s="20">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-      <c r="H138" s="18" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5938,15 +5941,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5964,15 +5967,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5990,15 +5993,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6016,67 +6019,67 @@
         <v>0</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+      <c r="E143" s="20">
+        <v>1</v>
+      </c>
+      <c r="F143" s="20">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="18" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B144" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="20">
-        <v>1</v>
-      </c>
-      <c r="F143" s="20">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="18" t="s">
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="20">
+        <v>1</v>
+      </c>
+      <c r="F144" s="20">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="18" t="s">
         <v>618</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="20">
-        <v>1</v>
-      </c>
-      <c r="F144" s="22">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="17" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="B145" s="23" t="s">
-        <v>541</v>
+        <v>619</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6084,7 +6087,7 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="20">
         <v>1</v>
       </c>
       <c r="F145" s="22">
@@ -6094,15 +6097,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>523</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6120,15 +6123,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6146,15 +6149,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6172,15 +6175,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6198,15 +6201,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6224,15 +6227,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6250,15 +6253,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6276,15 +6279,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6302,15 +6305,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6328,15 +6331,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6354,15 +6357,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6380,15 +6383,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6406,15 +6409,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6432,15 +6435,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6458,15 +6461,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6484,15 +6487,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6510,15 +6513,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6536,15 +6539,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>123</v>
+        <v>596</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6552,7 +6555,7 @@
       <c r="D163" s="2">
         <v>0</v>
       </c>
-      <c r="E163" s="20">
+      <c r="E163" s="4">
         <v>1</v>
       </c>
       <c r="F163" s="22">
@@ -6562,15 +6565,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>287</v>
+        <v>540</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
-        <v>559</v>
+        <v>447</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6588,15 +6591,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
-        <v>448</v>
+        <v>559</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6611,18 +6614,18 @@
         <v>1</v>
       </c>
       <c r="G165" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6640,15 +6643,15 @@
         <v>1</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="17" t="s">
-        <v>573</v>
+        <v>449</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>574</v>
+        <v>126</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6666,15 +6669,15 @@
         <v>1</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>575</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="17" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6692,15 +6695,15 @@
         <v>1</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>127</v>
+        <v>576</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>577</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6715,18 +6718,18 @@
         <v>1</v>
       </c>
       <c r="G169" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>291</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6744,15 +6747,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>129</v>
+        <v>451</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6770,15 +6773,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6789,22 +6792,22 @@
       <c r="E172" s="20">
         <v>1</v>
       </c>
-      <c r="F172" s="20">
+      <c r="F172" s="22">
         <v>1</v>
       </c>
       <c r="G172" s="3">
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6815,22 +6818,22 @@
       <c r="E173" s="20">
         <v>1</v>
       </c>
-      <c r="F173" s="22">
+      <c r="F173" s="20">
         <v>1</v>
       </c>
       <c r="G173" s="3">
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6848,15 +6851,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6871,18 +6874,18 @@
         <v>1</v>
       </c>
       <c r="G175" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6900,15 +6903,15 @@
         <v>1</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6923,18 +6926,18 @@
         <v>1</v>
       </c>
       <c r="G177" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6952,15 +6955,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6978,15 +6981,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7004,15 +7007,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7030,15 +7033,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7056,15 +7059,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7082,15 +7085,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7108,15 +7111,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7134,15 +7137,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7160,15 +7163,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7186,15 +7189,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7212,15 +7215,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7238,15 +7241,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7264,15 +7267,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7290,15 +7293,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7316,15 +7319,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7342,15 +7345,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7361,22 +7364,22 @@
       <c r="E194" s="20">
         <v>1</v>
       </c>
-      <c r="F194" s="20">
+      <c r="F194" s="22">
         <v>1</v>
       </c>
       <c r="G194" s="3">
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7387,22 +7390,22 @@
       <c r="E195" s="20">
         <v>1</v>
       </c>
-      <c r="F195" s="22">
+      <c r="F195" s="20">
         <v>1</v>
       </c>
       <c r="G195" s="3">
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7420,15 +7423,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7446,15 +7449,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7472,15 +7475,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7498,15 +7501,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7524,15 +7527,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7550,15 +7553,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7576,67 +7579,67 @@
         <v>0</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0</v>
+      </c>
+      <c r="E203" s="20">
+        <v>1</v>
+      </c>
+      <c r="F203" s="22">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B204" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C203" s="2">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2">
-        <v>0</v>
-      </c>
-      <c r="E203" s="20">
-        <v>1</v>
-      </c>
-      <c r="F203" s="22">
-        <v>1</v>
-      </c>
-      <c r="G203" s="3">
-        <v>0</v>
-      </c>
-      <c r="H203" s="17" t="s">
+      <c r="C204" s="2">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
+      <c r="E204" s="20">
+        <v>1</v>
+      </c>
+      <c r="F204" s="22">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="17" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C204" s="2">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2">
-        <v>0</v>
-      </c>
-      <c r="E204" s="20">
-        <v>1</v>
-      </c>
-      <c r="F204" s="22">
-        <v>1</v>
-      </c>
-      <c r="G204" s="3">
-        <v>0</v>
-      </c>
-      <c r="H204" s="18" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7654,15 +7657,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7680,15 +7683,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7706,15 +7709,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7732,15 +7735,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7758,15 +7761,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7784,32 +7787,58 @@
         <v>0</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="20">
+        <v>1</v>
+      </c>
+      <c r="F211" s="22">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B211" s="16" t="s">
+      <c r="B212" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="20">
-        <v>1</v>
-      </c>
-      <c r="F211" s="20">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="18" t="s">
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="20">
+        <v>1</v>
+      </c>
+      <c r="F212" s="20">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="636">
   <si>
     <t>old</t>
   </si>
@@ -1926,6 +1926,12 @@
   </si>
   <si>
     <t>t_screening_start</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
   </si>
 </sst>
 </file>
@@ -2349,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2524,62 +2530,62 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>626</v>
+      <c r="A9" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2594,18 +2600,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>625</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2623,249 +2629,249 @@
         <v>1</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>338</v>
+        <v>502</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>28</v>
+        <v>504</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -2883,21 +2889,21 @@
         <v>0</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>177</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -2909,15 +2915,15 @@
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>501</v>
+        <v>338</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -2935,21 +2941,21 @@
         <v>0</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>500</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -2958,18 +2964,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>342</v>
+        <v>501</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -2987,21 +2993,21 @@
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>181</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -3010,24 +3016,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>621</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -3036,76 +3042,76 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22">
-        <v>1</v>
-      </c>
-      <c r="G27" s="22">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="20">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20">
-        <v>1</v>
-      </c>
-      <c r="G28" s="22">
+        <v>621</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C29" s="20">
         <v>1</v>
       </c>
       <c r="D29" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="21">
         <v>1</v>
@@ -3117,67 +3123,67 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -3195,93 +3201,93 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -3296,18 +3302,18 @@
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3325,15 +3331,15 @@
         <v>0</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>516</v>
+        <v>353</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3348,96 +3354,96 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>518</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -3455,15 +3461,15 @@
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>47</v>
+      <c r="A43" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3480,16 +3486,16 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>197</v>
+      <c r="H43" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3507,15 +3513,15 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -3530,18 +3536,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3556,18 +3562,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -3585,24 +3591,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -3611,15 +3617,15 @@
         <v>0</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -3637,24 +3643,24 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>29</v>
+      <c r="A50" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -3662,224 +3668,224 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>204</v>
+      <c r="H50" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9" t="s">
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11" t="s">
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="11" t="s">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>495</v>
+        <v>371</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>499</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3897,15 +3903,15 @@
         <v>0</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>497</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>496</v>
+        <v>372</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>505</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3923,15 +3929,15 @@
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>498</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3949,15 +3955,15 @@
         <v>0</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>373</v>
+        <v>496</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>40</v>
+        <v>505</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3975,15 +3981,15 @@
         <v>0</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>211</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>374</v>
+        <v>506</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>41</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -4001,15 +4007,15 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>214</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4027,145 +4033,145 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B68" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="11" t="s">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B69" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="11" t="s">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -4183,101 +4189,101 @@
         <v>1</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B73" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="11" t="s">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="20">
-        <v>0</v>
-      </c>
-      <c r="D73" s="20">
-        <v>0</v>
-      </c>
-      <c r="E73" s="21">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="20">
-        <v>0</v>
-      </c>
-      <c r="D74" s="20">
-        <v>0</v>
-      </c>
-      <c r="E74" s="20">
+        <v>51</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
         <v>1</v>
       </c>
       <c r="F74" s="3">
@@ -4287,15 +4293,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C75" s="20">
         <v>0</v>
@@ -4313,15 +4319,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C76" s="20">
         <v>0</v>
@@ -4329,7 +4335,7 @@
       <c r="D76" s="20">
         <v>0</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="20">
         <v>1</v>
       </c>
       <c r="F76" s="3">
@@ -4339,23 +4345,23 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="2">
-        <v>0</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
-      <c r="E77" s="4">
+        <v>54</v>
+      </c>
+      <c r="C77" s="20">
+        <v>0</v>
+      </c>
+      <c r="D77" s="20">
+        <v>0</v>
+      </c>
+      <c r="E77" s="21">
         <v>1</v>
       </c>
       <c r="F77" s="3">
@@ -4365,23 +4371,23 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
+        <v>55</v>
+      </c>
+      <c r="C78" s="20">
+        <v>0</v>
+      </c>
+      <c r="D78" s="20">
+        <v>0</v>
+      </c>
+      <c r="E78" s="21">
         <v>1</v>
       </c>
       <c r="F78" s="3">
@@ -4391,15 +4397,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4417,15 +4423,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4443,15 +4449,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4469,15 +4475,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4495,15 +4501,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4521,15 +4527,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4547,15 +4553,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4573,15 +4579,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4599,15 +4605,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4625,15 +4631,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4651,15 +4657,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4677,15 +4683,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4703,15 +4709,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4729,23 +4735,23 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="20">
+        <v>69</v>
+      </c>
+      <c r="C92" s="2">
         <v>0</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="21">
+      <c r="E92" s="4">
         <v>1</v>
       </c>
       <c r="F92" s="3">
@@ -4755,23 +4761,23 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="20">
+        <v>70</v>
+      </c>
+      <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="4">
         <v>1</v>
       </c>
       <c r="F93" s="3">
@@ -4781,15 +4787,15 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C94" s="20">
         <v>0</v>
@@ -4807,15 +4813,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C95" s="20">
         <v>0</v>
@@ -4823,7 +4829,7 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="21">
+      <c r="E95" s="20">
         <v>1</v>
       </c>
       <c r="F95" s="3">
@@ -4833,15 +4839,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C96" s="20">
         <v>0</v>
@@ -4849,7 +4855,7 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="21">
         <v>1</v>
       </c>
       <c r="F96" s="3">
@@ -4859,15 +4865,15 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C97" s="20">
         <v>0</v>
@@ -4875,7 +4881,7 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="21">
         <v>1</v>
       </c>
       <c r="F97" s="3">
@@ -4885,15 +4891,15 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C98" s="20">
         <v>0</v>
@@ -4901,7 +4907,7 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="20">
         <v>1</v>
       </c>
       <c r="F98" s="3">
@@ -4911,17 +4917,17 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" s="2">
+        <v>76</v>
+      </c>
+      <c r="C99" s="20">
         <v>0</v>
       </c>
       <c r="D99" s="2">
@@ -4937,93 +4943,93 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="20">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B102" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C100" s="2">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="4">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
-      <c r="H100" s="13" t="s">
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="13" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5038,18 +5044,18 @@
         <v>1</v>
       </c>
       <c r="G103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5067,15 +5073,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5093,15 +5099,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5119,15 +5125,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5145,15 +5151,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5171,15 +5177,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5197,15 +5203,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5223,15 +5229,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5249,15 +5255,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5275,15 +5281,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5301,15 +5307,15 @@
         <v>0</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5327,15 +5333,15 @@
         <v>0</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5353,15 +5359,15 @@
         <v>0</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5379,15 +5385,15 @@
         <v>0</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5405,15 +5411,15 @@
         <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5428,18 +5434,18 @@
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>98</v>
+        <v>422</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5454,18 +5460,18 @@
         <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>99</v>
+        <v>423</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5483,15 +5489,15 @@
         <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5509,15 +5515,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5535,15 +5541,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5561,15 +5567,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5587,15 +5593,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5613,15 +5619,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5629,25 +5635,25 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="20">
-        <v>1</v>
-      </c>
-      <c r="F126" s="22">
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5655,25 +5661,25 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="20">
-        <v>1</v>
-      </c>
-      <c r="F127" s="22">
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5691,15 +5697,15 @@
         <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5710,22 +5716,22 @@
       <c r="E129" s="20">
         <v>1</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="22">
         <v>1</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5743,15 +5749,15 @@
         <v>1</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5762,22 +5768,22 @@
       <c r="E131" s="20">
         <v>1</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="20">
         <v>1</v>
       </c>
       <c r="G131" s="3">
         <v>1</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5795,15 +5801,15 @@
         <v>1</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5814,22 +5820,22 @@
       <c r="E133" s="20">
         <v>1</v>
       </c>
-      <c r="F133" s="20">
+      <c r="F133" s="22">
         <v>1</v>
       </c>
       <c r="G133" s="3">
         <v>1</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>113</v>
+        <v>437</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5847,15 +5853,15 @@
         <v>1</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>114</v>
+        <v>438</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5866,22 +5872,22 @@
       <c r="E135" s="20">
         <v>1</v>
       </c>
-      <c r="F135" s="22">
+      <c r="F135" s="20">
         <v>1</v>
       </c>
       <c r="G135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5896,18 +5902,18 @@
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
-        <v>609</v>
+        <v>440</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5925,15 +5931,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>612</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5951,15 +5957,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
-        <v>443</v>
+        <v>609</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5970,22 +5976,22 @@
       <c r="E139" s="20">
         <v>1</v>
       </c>
-      <c r="F139" s="20">
+      <c r="F139" s="22">
         <v>1</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>282</v>
+        <v>612</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
-        <v>620</v>
+        <v>442</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>610</v>
+        <v>117</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6003,15 +6009,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>611</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6022,22 +6028,22 @@
       <c r="E141" s="20">
         <v>1</v>
       </c>
-      <c r="F141" s="22">
+      <c r="F141" s="20">
         <v>1</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
-        <v>445</v>
+        <v>620</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>120</v>
+        <v>610</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6055,93 +6061,93 @@
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>284</v>
+        <v>611</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+      <c r="E143" s="20">
+        <v>1</v>
+      </c>
+      <c r="F143" s="22">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="20">
+        <v>1</v>
+      </c>
+      <c r="F144" s="22">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B145" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="20">
-        <v>1</v>
-      </c>
-      <c r="F143" s="22">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="17" t="s">
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="20">
+        <v>1</v>
+      </c>
+      <c r="F145" s="22">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="17" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="20">
-        <v>1</v>
-      </c>
-      <c r="F144" s="20">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="20">
-        <v>1</v>
-      </c>
-      <c r="F145" s="20">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="18" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6159,15 +6165,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6185,15 +6191,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6211,93 +6217,93 @@
         <v>0</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="20">
+        <v>1</v>
+      </c>
+      <c r="F149" s="20">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="20">
+        <v>1</v>
+      </c>
+      <c r="F150" s="20">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="18" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B151" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="20">
-        <v>1</v>
-      </c>
-      <c r="F149" s="20">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="18" t="s">
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="20">
+        <v>1</v>
+      </c>
+      <c r="F151" s="20">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="18" t="s">
         <v>618</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="20">
-        <v>1</v>
-      </c>
-      <c r="F150" s="22">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
-      <c r="H150" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="4">
-        <v>1</v>
-      </c>
-      <c r="F151" s="22">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="17" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>542</v>
+        <v>619</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6305,7 +6311,7 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="20">
         <v>1</v>
       </c>
       <c r="F152" s="22">
@@ -6315,15 +6321,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>524</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6341,15 +6347,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6367,15 +6373,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6393,15 +6399,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6419,15 +6425,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6445,15 +6451,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6471,15 +6477,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6497,15 +6503,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6523,15 +6529,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6549,15 +6555,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6575,15 +6581,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6601,15 +6607,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6627,15 +6633,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6653,15 +6659,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6679,15 +6685,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6705,15 +6711,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6731,15 +6737,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>123</v>
+        <v>595</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>558</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6747,7 +6753,7 @@
       <c r="D169" s="2">
         <v>0</v>
       </c>
-      <c r="E169" s="20">
+      <c r="E169" s="4">
         <v>1</v>
       </c>
       <c r="F169" s="22">
@@ -6757,15 +6763,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>287</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>124</v>
+        <v>596</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6773,7 +6779,7 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="4">
         <v>1</v>
       </c>
       <c r="F170" s="22">
@@ -6783,15 +6789,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>288</v>
+        <v>540</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6806,18 +6812,18 @@
         <v>1</v>
       </c>
       <c r="G171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
-        <v>449</v>
+        <v>559</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6832,18 +6838,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>573</v>
+        <v>448</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>574</v>
+        <v>125</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6861,15 +6867,15 @@
         <v>1</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>575</v>
+        <v>289</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
-        <v>576</v>
+        <v>449</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>577</v>
+        <v>126</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6887,15 +6893,15 @@
         <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>578</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>127</v>
+        <v>573</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>574</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6910,18 +6916,18 @@
         <v>1</v>
       </c>
       <c r="G175" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>291</v>
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>128</v>
+        <v>576</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>577</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6936,18 +6942,18 @@
         <v>1</v>
       </c>
       <c r="G176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>292</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>129</v>
+        <v>450</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6965,15 +6971,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>130</v>
+        <v>451</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6984,22 +6990,22 @@
       <c r="E178" s="20">
         <v>1</v>
       </c>
-      <c r="F178" s="20">
+      <c r="F178" s="22">
         <v>1</v>
       </c>
       <c r="G178" s="3">
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7017,15 +7023,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7036,22 +7042,22 @@
       <c r="E180" s="20">
         <v>1</v>
       </c>
-      <c r="F180" s="22">
+      <c r="F180" s="20">
         <v>1</v>
       </c>
       <c r="G180" s="3">
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7066,18 +7072,18 @@
         <v>1</v>
       </c>
       <c r="G181" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7092,18 +7098,18 @@
         <v>1</v>
       </c>
       <c r="G182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7118,18 +7124,18 @@
         <v>1</v>
       </c>
       <c r="G183" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7144,18 +7150,18 @@
         <v>1</v>
       </c>
       <c r="G184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7173,15 +7179,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7199,15 +7205,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7225,15 +7231,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7251,15 +7257,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7277,15 +7283,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7303,15 +7309,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7329,15 +7335,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7355,15 +7361,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7381,15 +7387,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7407,15 +7413,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7433,15 +7439,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7459,15 +7465,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7485,15 +7491,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7511,15 +7517,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7537,15 +7543,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7556,22 +7562,22 @@
       <c r="E200" s="20">
         <v>1</v>
       </c>
-      <c r="F200" s="20">
+      <c r="F200" s="22">
         <v>1</v>
       </c>
       <c r="G200" s="3">
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7589,15 +7595,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7608,22 +7614,22 @@
       <c r="E202" s="20">
         <v>1</v>
       </c>
-      <c r="F202" s="22">
+      <c r="F202" s="20">
         <v>1</v>
       </c>
       <c r="G202" s="3">
         <v>0</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7641,15 +7647,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7667,15 +7673,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7693,15 +7699,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7719,15 +7725,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7745,15 +7751,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7771,93 +7777,93 @@
         <v>0</v>
       </c>
       <c r="H208" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="20">
+        <v>1</v>
+      </c>
+      <c r="F209" s="22">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="20">
+        <v>1</v>
+      </c>
+      <c r="F210" s="22">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B211" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C209" s="2">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
-        <v>0</v>
-      </c>
-      <c r="E209" s="20">
-        <v>1</v>
-      </c>
-      <c r="F209" s="22">
-        <v>1</v>
-      </c>
-      <c r="G209" s="3">
-        <v>0</v>
-      </c>
-      <c r="H209" s="17" t="s">
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="20">
+        <v>1</v>
+      </c>
+      <c r="F211" s="22">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="17" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="B210" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C210" s="2">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="20">
-        <v>1</v>
-      </c>
-      <c r="F210" s="22">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="20">
-        <v>1</v>
-      </c>
-      <c r="F211" s="22">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -7875,15 +7881,15 @@
         <v>0</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -7901,15 +7907,15 @@
         <v>0</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -7927,15 +7933,15 @@
         <v>0</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -7953,15 +7959,15 @@
         <v>0</v>
       </c>
       <c r="H215" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -7979,32 +7985,84 @@
         <v>0</v>
       </c>
       <c r="H216" s="18" t="s">
-        <v>213</v>
+        <v>330</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0</v>
+      </c>
+      <c r="E217" s="20">
+        <v>1</v>
+      </c>
+      <c r="F217" s="22">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0</v>
+      </c>
+      <c r="E218" s="20">
+        <v>1</v>
+      </c>
+      <c r="F218" s="22">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B217" s="16" t="s">
+      <c r="B219" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C217" s="2">
-        <v>0</v>
-      </c>
-      <c r="D217" s="2">
-        <v>0</v>
-      </c>
-      <c r="E217" s="20">
-        <v>1</v>
-      </c>
-      <c r="F217" s="20">
-        <v>1</v>
-      </c>
-      <c r="G217" s="3">
-        <v>0</v>
-      </c>
-      <c r="H217" s="18" t="s">
+      <c r="C219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0</v>
+      </c>
+      <c r="E219" s="20">
+        <v>1</v>
+      </c>
+      <c r="F219" s="20">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="641">
   <si>
     <t>old</t>
   </si>
@@ -1938,6 +1938,15 @@
   </si>
   <si>
     <t>submission_date</t>
+  </si>
+  <si>
+    <t>meta-instanceID</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>instanceID</t>
   </si>
 </sst>
 </file>
@@ -2361,24 +2370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221:XFD221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2430,7 +2439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>493</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>636</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>560</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>634</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>622</v>
       </c>
@@ -2612,7 +2621,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>635</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>623</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>625</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>627</v>
       </c>
@@ -2716,7 +2725,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>629</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>631</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>333</v>
       </c>
@@ -2794,7 +2803,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>334</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>494</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>335</v>
       </c>
@@ -2872,7 +2881,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>336</v>
       </c>
@@ -2898,7 +2907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>502</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>337</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>338</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>339</v>
       </c>
@@ -3002,7 +3011,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>501</v>
       </c>
@@ -3028,7 +3037,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>341</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>342</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>343</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>340</v>
       </c>
@@ -3132,7 +3141,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>344</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>345</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>346</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>347</v>
       </c>
@@ -3236,7 +3245,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>348</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>349</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>350</v>
       </c>
@@ -3314,7 +3323,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>351</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>352</v>
       </c>
@@ -3366,7 +3375,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>353</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>354</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>516</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>520</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>355</v>
       </c>
@@ -3496,7 +3505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>356</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>357</v>
       </c>
@@ -3548,7 +3557,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>358</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>359</v>
       </c>
@@ -3600,7 +3609,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>360</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>361</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>362</v>
       </c>
@@ -3678,7 +3687,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>363</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>364</v>
       </c>
@@ -3730,7 +3739,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>365</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>366</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>367</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>368</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>369</v>
       </c>
@@ -3860,7 +3869,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>370</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>572</v>
       </c>
@@ -3912,7 +3921,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>371</v>
       </c>
@@ -3938,7 +3947,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>372</v>
       </c>
@@ -3964,7 +3973,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>495</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>496</v>
       </c>
@@ -4016,7 +4025,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>506</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>373</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>374</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>375</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>376</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>512</v>
       </c>
@@ -4172,7 +4181,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>514</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>509</v>
       </c>
@@ -4224,7 +4233,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>561</v>
       </c>
@@ -4250,7 +4259,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>564</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>565</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>377</v>
       </c>
@@ -4328,7 +4337,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>378</v>
       </c>
@@ -4354,7 +4363,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>379</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>380</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>381</v>
       </c>
@@ -4432,7 +4441,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>382</v>
       </c>
@@ -4458,7 +4467,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>383</v>
       </c>
@@ -4484,7 +4493,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>384</v>
       </c>
@@ -4510,7 +4519,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>385</v>
       </c>
@@ -4536,7 +4545,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>386</v>
       </c>
@@ -4562,7 +4571,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>387</v>
       </c>
@@ -4588,7 +4597,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>388</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>389</v>
       </c>
@@ -4640,7 +4649,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>390</v>
       </c>
@@ -4666,7 +4675,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>391</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>392</v>
       </c>
@@ -4718,7 +4727,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>393</v>
       </c>
@@ -4744,7 +4753,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>394</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>395</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>396</v>
       </c>
@@ -4822,7 +4831,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>397</v>
       </c>
@@ -4848,7 +4857,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>398</v>
       </c>
@@ -4874,7 +4883,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>399</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>400</v>
       </c>
@@ -4926,7 +4935,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>401</v>
       </c>
@@ -4952,7 +4961,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>402</v>
       </c>
@@ -4978,7 +4987,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>403</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>404</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>405</v>
       </c>
@@ -5056,7 +5065,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
         <v>406</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>407</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>408</v>
       </c>
@@ -5134,7 +5143,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
         <v>409</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
         <v>410</v>
       </c>
@@ -5186,7 +5195,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
         <v>411</v>
       </c>
@@ -5212,7 +5221,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
         <v>412</v>
       </c>
@@ -5238,7 +5247,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
         <v>413</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
         <v>414</v>
       </c>
@@ -5290,7 +5299,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
         <v>415</v>
       </c>
@@ -5316,7 +5325,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
         <v>416</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
         <v>417</v>
       </c>
@@ -5368,7 +5377,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
         <v>418</v>
       </c>
@@ -5394,7 +5403,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
         <v>419</v>
       </c>
@@ -5420,7 +5429,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
         <v>420</v>
       </c>
@@ -5446,7 +5455,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
         <v>421</v>
       </c>
@@ -5472,7 +5481,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>422</v>
       </c>
@@ -5498,7 +5507,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
         <v>423</v>
       </c>
@@ -5524,7 +5533,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
         <v>424</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
         <v>425</v>
       </c>
@@ -5576,7 +5585,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
         <v>426</v>
       </c>
@@ -5602,7 +5611,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
         <v>427</v>
       </c>
@@ -5628,7 +5637,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
         <v>428</v>
       </c>
@@ -5654,7 +5663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>429</v>
       </c>
@@ -5680,7 +5689,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>430</v>
       </c>
@@ -5706,7 +5715,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
         <v>431</v>
       </c>
@@ -5732,7 +5741,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>432</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
         <v>433</v>
       </c>
@@ -5784,7 +5793,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
         <v>434</v>
       </c>
@@ -5810,7 +5819,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
         <v>435</v>
       </c>
@@ -5836,7 +5845,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
         <v>436</v>
       </c>
@@ -5862,7 +5871,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
         <v>437</v>
       </c>
@@ -5888,7 +5897,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
         <v>438</v>
       </c>
@@ -5914,7 +5923,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
         <v>439</v>
       </c>
@@ -5940,7 +5949,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
         <v>440</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
         <v>441</v>
       </c>
@@ -5992,7 +6001,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
         <v>609</v>
       </c>
@@ -6018,7 +6027,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
         <v>442</v>
       </c>
@@ -6044,7 +6053,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>443</v>
       </c>
@@ -6070,7 +6079,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
         <v>620</v>
       </c>
@@ -6096,7 +6105,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>444</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>445</v>
       </c>
@@ -6148,7 +6157,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
         <v>446</v>
       </c>
@@ -6174,7 +6183,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="18" t="s">
         <v>597</v>
       </c>
@@ -6200,7 +6209,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
         <v>598</v>
       </c>
@@ -6226,7 +6235,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="18" t="s">
         <v>599</v>
       </c>
@@ -6252,7 +6261,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="18" t="s">
         <v>600</v>
       </c>
@@ -6278,7 +6287,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="18" t="s">
         <v>601</v>
       </c>
@@ -6304,7 +6313,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="18" t="s">
         <v>602</v>
       </c>
@@ -6330,7 +6339,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
         <v>619</v>
       </c>
@@ -6356,7 +6365,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
         <v>579</v>
       </c>
@@ -6382,7 +6391,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
         <v>580</v>
       </c>
@@ -6408,7 +6417,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
         <v>581</v>
       </c>
@@ -6434,7 +6443,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
         <v>582</v>
       </c>
@@ -6460,7 +6469,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
         <v>583</v>
       </c>
@@ -6486,7 +6495,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
         <v>584</v>
       </c>
@@ -6512,7 +6521,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
         <v>585</v>
       </c>
@@ -6538,7 +6547,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
         <v>586</v>
       </c>
@@ -6564,7 +6573,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
         <v>587</v>
       </c>
@@ -6590,7 +6599,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
         <v>588</v>
       </c>
@@ -6616,7 +6625,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
         <v>589</v>
       </c>
@@ -6642,7 +6651,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
         <v>590</v>
       </c>
@@ -6668,7 +6677,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
         <v>591</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
         <v>592</v>
       </c>
@@ -6720,7 +6729,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
         <v>593</v>
       </c>
@@ -6746,7 +6755,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
         <v>594</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
         <v>595</v>
       </c>
@@ -6798,7 +6807,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
         <v>596</v>
       </c>
@@ -6824,7 +6833,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
         <v>447</v>
       </c>
@@ -6850,7 +6859,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
         <v>559</v>
       </c>
@@ -6876,7 +6885,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
         <v>448</v>
       </c>
@@ -6902,7 +6911,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
         <v>449</v>
       </c>
@@ -6928,7 +6937,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
         <v>573</v>
       </c>
@@ -6954,7 +6963,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
         <v>576</v>
       </c>
@@ -6980,7 +6989,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
         <v>450</v>
       </c>
@@ -7006,7 +7015,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
         <v>451</v>
       </c>
@@ -7032,7 +7041,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
         <v>452</v>
       </c>
@@ -7058,7 +7067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
         <v>453</v>
       </c>
@@ -7084,7 +7093,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
         <v>454</v>
       </c>
@@ -7110,7 +7119,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
         <v>455</v>
       </c>
@@ -7136,7 +7145,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
         <v>456</v>
       </c>
@@ -7162,7 +7171,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
         <v>457</v>
       </c>
@@ -7188,7 +7197,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
         <v>458</v>
       </c>
@@ -7214,7 +7223,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
         <v>459</v>
       </c>
@@ -7240,7 +7249,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
         <v>460</v>
       </c>
@@ -7266,7 +7275,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
         <v>461</v>
       </c>
@@ -7292,7 +7301,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
         <v>462</v>
       </c>
@@ -7318,7 +7327,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
         <v>463</v>
       </c>
@@ -7344,7 +7353,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
         <v>464</v>
       </c>
@@ -7370,7 +7379,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
         <v>465</v>
       </c>
@@ -7396,7 +7405,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
         <v>466</v>
       </c>
@@ -7422,7 +7431,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
         <v>467</v>
       </c>
@@ -7448,7 +7457,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
         <v>468</v>
       </c>
@@ -7474,7 +7483,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
         <v>469</v>
       </c>
@@ -7500,7 +7509,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
         <v>470</v>
       </c>
@@ -7526,7 +7535,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
         <v>471</v>
       </c>
@@ -7552,7 +7561,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
         <v>472</v>
       </c>
@@ -7578,7 +7587,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
         <v>473</v>
       </c>
@@ -7604,7 +7613,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
         <v>474</v>
       </c>
@@ -7630,7 +7639,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
         <v>475</v>
       </c>
@@ -7656,7 +7665,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
         <v>476</v>
       </c>
@@ -7682,7 +7691,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
         <v>477</v>
       </c>
@@ -7708,7 +7717,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
         <v>478</v>
       </c>
@@ -7734,7 +7743,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
         <v>479</v>
       </c>
@@ -7760,7 +7769,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
         <v>480</v>
       </c>
@@ -7786,7 +7795,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
         <v>481</v>
       </c>
@@ -7812,7 +7821,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
         <v>482</v>
       </c>
@@ -7838,7 +7847,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
         <v>483</v>
       </c>
@@ -7864,7 +7873,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
         <v>484</v>
       </c>
@@ -7890,7 +7899,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="18" t="s">
         <v>485</v>
       </c>
@@ -7916,7 +7925,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="18" t="s">
         <v>486</v>
       </c>
@@ -7942,7 +7951,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="18" t="s">
         <v>487</v>
       </c>
@@ -7968,7 +7977,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
         <v>488</v>
       </c>
@@ -7994,7 +8003,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="18" t="s">
         <v>489</v>
       </c>
@@ -8020,7 +8029,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="18" t="s">
         <v>490</v>
       </c>
@@ -8046,7 +8055,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="18" t="s">
         <v>491</v>
       </c>
@@ -8072,7 +8081,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="18" t="s">
         <v>492</v>
       </c>
@@ -8096,6 +8105,32 @@
       </c>
       <c r="H220" s="18" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1</v>
+      </c>
+      <c r="D221" s="2">
+        <v>1</v>
+      </c>
+      <c r="E221" s="4">
+        <v>1</v>
+      </c>
+      <c r="F221" s="3">
+        <v>1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="647">
   <si>
     <t>old</t>
   </si>
@@ -1947,6 +1947,24 @@
   </si>
   <si>
     <t>instanceID</t>
+  </si>
+  <si>
+    <t>consent-a1_a_4</t>
+  </si>
+  <si>
+    <t>consent-a1_a_4a</t>
+  </si>
+  <si>
+    <t>child_id_scan</t>
+  </si>
+  <si>
+    <t>a1_a_4</t>
+  </si>
+  <si>
+    <t>a1_a_4a</t>
+  </si>
+  <si>
+    <t>child_id_manual</t>
   </si>
 </sst>
 </file>
@@ -2370,24 +2388,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221:XFD221"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2431,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2465,7 +2483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2491,7 +2509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>493</v>
       </c>
@@ -2517,7 +2535,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>636</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>560</v>
       </c>
@@ -2569,7 +2587,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>634</v>
       </c>
@@ -2595,7 +2613,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>622</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>635</v>
       </c>
@@ -2647,7 +2665,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>623</v>
       </c>
@@ -2673,7 +2691,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>625</v>
       </c>
@@ -2699,7 +2717,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>627</v>
       </c>
@@ -2725,7 +2743,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>629</v>
       </c>
@@ -2751,7 +2769,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>631</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>333</v>
       </c>
@@ -2803,7 +2821,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>334</v>
       </c>
@@ -2829,7 +2847,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>494</v>
       </c>
@@ -2855,7 +2873,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>335</v>
       </c>
@@ -2881,7 +2899,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>336</v>
       </c>
@@ -2907,7 +2925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>502</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>337</v>
       </c>
@@ -2959,7 +2977,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>338</v>
       </c>
@@ -2985,7 +3003,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>339</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>501</v>
       </c>
@@ -3037,7 +3055,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>341</v>
       </c>
@@ -3063,7 +3081,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>342</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>343</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>340</v>
       </c>
@@ -3141,7 +3159,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>344</v>
       </c>
@@ -3167,7 +3185,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>345</v>
       </c>
@@ -3193,7 +3211,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>346</v>
       </c>
@@ -3219,7 +3237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>347</v>
       </c>
@@ -3245,7 +3263,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>348</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>349</v>
       </c>
@@ -3297,7 +3315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>350</v>
       </c>
@@ -3323,7 +3341,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>351</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>352</v>
       </c>
@@ -3375,7 +3393,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>353</v>
       </c>
@@ -3401,7 +3419,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>354</v>
       </c>
@@ -3427,7 +3445,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>516</v>
       </c>
@@ -3453,7 +3471,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>520</v>
       </c>
@@ -3479,7 +3497,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>355</v>
       </c>
@@ -3505,7 +3523,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>356</v>
       </c>
@@ -3531,7 +3549,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>357</v>
       </c>
@@ -3557,7 +3575,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>358</v>
       </c>
@@ -3583,7 +3601,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>359</v>
       </c>
@@ -3609,7 +3627,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>360</v>
       </c>
@@ -3635,7 +3653,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>361</v>
       </c>
@@ -3661,7 +3679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>362</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>363</v>
       </c>
@@ -3713,7 +3731,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>364</v>
       </c>
@@ -3739,7 +3757,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>365</v>
       </c>
@@ -3765,4371 +3783,4423 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7" t="s">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9" t="s">
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="11" t="s">
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9" t="s">
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="s">
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9" t="s">
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9" t="s">
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B67" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B68" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9" t="s">
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B69" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9" t="s">
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9" t="s">
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B71" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B72" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B73" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="11" t="s">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="11" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="C73" s="2">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="11" t="s">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B76" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="11" t="s">
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="11" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B77" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="13" t="s">
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B78" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="20">
-        <v>0</v>
-      </c>
-      <c r="D76" s="20">
-        <v>0</v>
-      </c>
-      <c r="E76" s="21">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1</v>
-      </c>
-      <c r="H76" s="13" t="s">
+      <c r="C78" s="20">
+        <v>0</v>
+      </c>
+      <c r="D78" s="20">
+        <v>0</v>
+      </c>
+      <c r="E78" s="21">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B79" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="20">
-        <v>0</v>
-      </c>
-      <c r="D77" s="20">
-        <v>0</v>
-      </c>
-      <c r="E77" s="20">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="13" t="s">
+      <c r="C79" s="20">
+        <v>0</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0</v>
+      </c>
+      <c r="E79" s="20">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="20">
-        <v>0</v>
-      </c>
-      <c r="D78" s="20">
-        <v>0</v>
-      </c>
-      <c r="E78" s="21">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="13" t="s">
+      <c r="C80" s="20">
+        <v>0</v>
+      </c>
+      <c r="D80" s="20">
+        <v>0</v>
+      </c>
+      <c r="E80" s="21">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="13" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B81" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="20">
-        <v>0</v>
-      </c>
-      <c r="D79" s="20">
-        <v>0</v>
-      </c>
-      <c r="E79" s="21">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
-      <c r="H79" s="13" t="s">
+      <c r="C81" s="20">
+        <v>0</v>
+      </c>
+      <c r="D81" s="20">
+        <v>0</v>
+      </c>
+      <c r="E81" s="21">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B82" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="2">
-        <v>0</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="13" t="s">
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="13" t="s">
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="13" t="s">
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B85" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="13" t="s">
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B86" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="2">
-        <v>0</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>1</v>
-      </c>
-      <c r="H84" s="13" t="s">
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B87" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="13" t="s">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B88" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="13" t="s">
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B89" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="13" t="s">
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B90" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="13" t="s">
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B91" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-      <c r="H89" s="13" t="s">
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B92" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="13" t="s">
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="13" t="s">
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B94" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="4">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-      <c r="H92" s="13" t="s">
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B95" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="4">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
-      <c r="H93" s="13" t="s">
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B96" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
-      <c r="H94" s="13" t="s">
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="H96" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B97" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C95" s="20">
-        <v>0</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="21">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
-      <c r="H95" s="13" t="s">
+      <c r="C97" s="20">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="21">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+      <c r="H97" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B98" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C96" s="20">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="20">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
-      <c r="H96" s="13" t="s">
+      <c r="C98" s="20">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="20">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B99" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C97" s="20">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="21">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
-        <v>1</v>
-      </c>
-      <c r="H97" s="13" t="s">
+      <c r="C99" s="20">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="21">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B100" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C98" s="20">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="21">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3">
-        <v>1</v>
-      </c>
-      <c r="H98" s="13" t="s">
+      <c r="C100" s="20">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="21">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B101" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C99" s="20">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="20">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3">
-        <v>0</v>
-      </c>
-      <c r="G99" s="3">
-        <v>1</v>
-      </c>
-      <c r="H99" s="13" t="s">
+      <c r="C101" s="20">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B102" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C100" s="20">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="4">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
-      <c r="H100" s="13" t="s">
+      <c r="C102" s="20">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B103" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C101" s="20">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="13" t="s">
+      <c r="C103" s="20">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B104" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1</v>
-      </c>
-      <c r="H102" s="13" t="s">
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
+      <c r="H104" s="13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B105" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1</v>
-      </c>
-      <c r="F103" s="3">
-        <v>0</v>
-      </c>
-      <c r="G103" s="3">
-        <v>1</v>
-      </c>
-      <c r="H103" s="13" t="s">
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+      <c r="H105" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="17" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B106" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="2">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3">
-        <v>1</v>
-      </c>
-      <c r="H104" s="17" t="s">
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3">
+        <v>1</v>
+      </c>
+      <c r="H106" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="17" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B107" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C105" s="2">
-        <v>0</v>
-      </c>
-      <c r="D105" s="2">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105" s="3">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3">
-        <v>0</v>
-      </c>
-      <c r="H105" s="17" t="s">
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B108" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3">
-        <v>0</v>
-      </c>
-      <c r="H106" s="17" t="s">
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B109" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="2">
-        <v>0</v>
-      </c>
-      <c r="D107" s="2">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="3">
-        <v>1</v>
-      </c>
-      <c r="G107" s="3">
-        <v>0</v>
-      </c>
-      <c r="H107" s="17" t="s">
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="17" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B110" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C108" s="2">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1</v>
-      </c>
-      <c r="G108" s="3">
-        <v>0</v>
-      </c>
-      <c r="H108" s="17" t="s">
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="17" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B111" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="2">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109" s="3">
-        <v>1</v>
-      </c>
-      <c r="G109" s="3">
-        <v>0</v>
-      </c>
-      <c r="H109" s="17" t="s">
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="17" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B112" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="2">
-        <v>0</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3">
-        <v>0</v>
-      </c>
-      <c r="H110" s="17" t="s">
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="17" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B113" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C111" s="2">
-        <v>0</v>
-      </c>
-      <c r="D111" s="2">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3">
-        <v>1</v>
-      </c>
-      <c r="G111" s="3">
-        <v>0</v>
-      </c>
-      <c r="H111" s="17" t="s">
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="17" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="17" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B114" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="2">
-        <v>0</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3">
-        <v>0</v>
-      </c>
-      <c r="H112" s="17" t="s">
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="17" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="17" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B115" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="2">
-        <v>0</v>
-      </c>
-      <c r="D113" s="2">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3">
-        <v>1</v>
-      </c>
-      <c r="G113" s="3">
-        <v>0</v>
-      </c>
-      <c r="H113" s="17" t="s">
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="17" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B116" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="2">
-        <v>0</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="3">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3">
-        <v>0</v>
-      </c>
-      <c r="H114" s="17" t="s">
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="17" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B117" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3">
-        <v>0</v>
-      </c>
-      <c r="H115" s="17" t="s">
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="17" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="17" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B118" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C116" s="2">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3">
-        <v>0</v>
-      </c>
-      <c r="H116" s="17" t="s">
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="17" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B119" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C117" s="2">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3">
-        <v>1</v>
-      </c>
-      <c r="G117" s="3">
-        <v>0</v>
-      </c>
-      <c r="H117" s="17" t="s">
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="17" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="17" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B120" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C118" s="2">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="17" t="s">
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="17" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B121" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3">
-        <v>0</v>
-      </c>
-      <c r="H119" s="17" t="s">
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B122" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="2">
-        <v>0</v>
-      </c>
-      <c r="D120" s="2">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3">
-        <v>0</v>
-      </c>
-      <c r="H120" s="17" t="s">
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B123" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3">
-        <v>1</v>
-      </c>
-      <c r="G121" s="3">
-        <v>1</v>
-      </c>
-      <c r="H121" s="17" t="s">
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+      <c r="H123" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B124" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C122" s="2">
-        <v>0</v>
-      </c>
-      <c r="D122" s="2">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="3">
-        <v>1</v>
-      </c>
-      <c r="G122" s="3">
-        <v>1</v>
-      </c>
-      <c r="H122" s="17" t="s">
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="17" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B125" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C123" s="2">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2">
-        <v>1</v>
-      </c>
-      <c r="F123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3">
-        <v>1</v>
-      </c>
-      <c r="H123" s="17" t="s">
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1</v>
+      </c>
+      <c r="H125" s="17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B126" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="2">
-        <v>0</v>
-      </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1</v>
-      </c>
-      <c r="F124" s="3">
-        <v>1</v>
-      </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="17" t="s">
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+      <c r="H126" s="17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="17" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B127" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="2">
-        <v>0</v>
-      </c>
-      <c r="D125" s="2">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3">
-        <v>1</v>
-      </c>
-      <c r="H125" s="17" t="s">
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>1</v>
+      </c>
+      <c r="H127" s="17" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B128" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C126" s="2">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2">
-        <v>1</v>
-      </c>
-      <c r="F126" s="3">
-        <v>1</v>
-      </c>
-      <c r="G126" s="3">
-        <v>1</v>
-      </c>
-      <c r="H126" s="17" t="s">
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+      <c r="H128" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B129" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-      <c r="E127" s="2">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3">
-        <v>1</v>
-      </c>
-      <c r="H127" s="17" t="s">
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B130" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C128" s="2">
-        <v>0</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2">
-        <v>1</v>
-      </c>
-      <c r="F128" s="3">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3">
-        <v>1</v>
-      </c>
-      <c r="H128" s="17" t="s">
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+      <c r="H130" s="17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="17" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B131" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="20">
-        <v>1</v>
-      </c>
-      <c r="F129" s="22">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
-      <c r="H129" s="17" t="s">
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="20">
+        <v>1</v>
+      </c>
+      <c r="F131" s="22">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B132" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="20">
-        <v>1</v>
-      </c>
-      <c r="F130" s="22">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3">
-        <v>1</v>
-      </c>
-      <c r="H130" s="17" t="s">
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="20">
+        <v>1</v>
+      </c>
+      <c r="F132" s="22">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+      <c r="H132" s="17" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B133" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="20">
-        <v>1</v>
-      </c>
-      <c r="F131" s="22">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>1</v>
-      </c>
-      <c r="H131" s="17" t="s">
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="20">
+        <v>1</v>
+      </c>
+      <c r="F133" s="22">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+      <c r="H133" s="17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="17" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B134" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="20">
-        <v>1</v>
-      </c>
-      <c r="F132" s="20">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>1</v>
-      </c>
-      <c r="H132" s="17" t="s">
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="20">
+        <v>1</v>
+      </c>
+      <c r="F134" s="20">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+      <c r="H134" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="17" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B135" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="20">
-        <v>1</v>
-      </c>
-      <c r="F133" s="22">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>1</v>
-      </c>
-      <c r="H133" s="17" t="s">
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="20">
+        <v>1</v>
+      </c>
+      <c r="F135" s="22">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B136" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C134" s="2">
-        <v>0</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="20">
-        <v>1</v>
-      </c>
-      <c r="F134" s="22">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3">
-        <v>1</v>
-      </c>
-      <c r="H134" s="17" t="s">
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="20">
+        <v>1</v>
+      </c>
+      <c r="F136" s="22">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="17" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B137" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C135" s="2">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="20">
-        <v>1</v>
-      </c>
-      <c r="F135" s="22">
-        <v>1</v>
-      </c>
-      <c r="G135" s="3">
-        <v>1</v>
-      </c>
-      <c r="H135" s="17" t="s">
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="20">
+        <v>1</v>
+      </c>
+      <c r="F137" s="22">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+      <c r="H137" s="17" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="17" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B138" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="20">
-        <v>1</v>
-      </c>
-      <c r="F136" s="20">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="17" t="s">
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="20">
+        <v>1</v>
+      </c>
+      <c r="F138" s="20">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1</v>
+      </c>
+      <c r="H138" s="17" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="17" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B139" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="20">
-        <v>1</v>
-      </c>
-      <c r="F137" s="22">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>1</v>
-      </c>
-      <c r="H137" s="17" t="s">
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="20">
+        <v>1</v>
+      </c>
+      <c r="F139" s="22">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+      <c r="H139" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B140" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C138" s="2">
-        <v>0</v>
-      </c>
-      <c r="D138" s="2">
-        <v>0</v>
-      </c>
-      <c r="E138" s="20">
-        <v>1</v>
-      </c>
-      <c r="F138" s="22">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3">
-        <v>0</v>
-      </c>
-      <c r="H138" s="17" t="s">
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="20">
+        <v>1</v>
+      </c>
+      <c r="F140" s="22">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B141" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="20">
-        <v>1</v>
-      </c>
-      <c r="F139" s="22">
-        <v>1</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="17" t="s">
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="20">
+        <v>1</v>
+      </c>
+      <c r="F141" s="22">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0</v>
+      </c>
+      <c r="H141" s="17" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B142" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="20">
-        <v>1</v>
-      </c>
-      <c r="F140" s="22">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3">
-        <v>0</v>
-      </c>
-      <c r="H140" s="17" t="s">
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0</v>
+      </c>
+      <c r="E142" s="20">
+        <v>1</v>
+      </c>
+      <c r="F142" s="22">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="17" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="17" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B143" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C141" s="2">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>0</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1</v>
-      </c>
-      <c r="F141" s="22">
-        <v>1</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="17" t="s">
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+      <c r="E143" s="20">
+        <v>1</v>
+      </c>
+      <c r="F143" s="22">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0</v>
+      </c>
+      <c r="H143" s="17" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B144" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0</v>
-      </c>
-      <c r="E142" s="20">
-        <v>1</v>
-      </c>
-      <c r="F142" s="20">
-        <v>1</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="17" t="s">
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="20">
+        <v>1</v>
+      </c>
+      <c r="F144" s="20">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="17" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B145" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C143" s="2">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0</v>
-      </c>
-      <c r="E143" s="20">
-        <v>1</v>
-      </c>
-      <c r="F143" s="22">
-        <v>1</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="17" t="s">
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="20">
+        <v>1</v>
+      </c>
+      <c r="F145" s="22">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="17" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="17" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B146" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="20">
-        <v>1</v>
-      </c>
-      <c r="F144" s="22">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="17" t="s">
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="20">
+        <v>1</v>
+      </c>
+      <c r="F146" s="22">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B147" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="20">
-        <v>1</v>
-      </c>
-      <c r="F145" s="22">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="17" t="s">
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="22">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0</v>
+      </c>
+      <c r="H147" s="17" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B148" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="20">
-        <v>1</v>
-      </c>
-      <c r="F146" s="22">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="17" t="s">
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="20">
+        <v>1</v>
+      </c>
+      <c r="F148" s="22">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="18" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B149" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="C147" s="2">
-        <v>0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="20">
-        <v>1</v>
-      </c>
-      <c r="F147" s="20">
-        <v>1</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="18" t="s">
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="20">
+        <v>1</v>
+      </c>
+      <c r="F149" s="20">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="18" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="18" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B150" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="20">
-        <v>1</v>
-      </c>
-      <c r="F148" s="20">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3">
-        <v>0</v>
-      </c>
-      <c r="H148" s="18" t="s">
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="20">
+        <v>1</v>
+      </c>
+      <c r="F150" s="20">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="18" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="18" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B151" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="20">
-        <v>1</v>
-      </c>
-      <c r="F149" s="20">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="18" t="s">
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="20">
+        <v>1</v>
+      </c>
+      <c r="F151" s="20">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="18" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="18" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B152" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="20">
-        <v>1</v>
-      </c>
-      <c r="F150" s="20">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
-      <c r="H150" s="18" t="s">
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="20">
+        <v>1</v>
+      </c>
+      <c r="F152" s="20">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="18" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="18" t="s">
         <v>601</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B153" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="20">
-        <v>1</v>
-      </c>
-      <c r="F151" s="20">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="18" t="s">
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="20">
+        <v>1</v>
+      </c>
+      <c r="F153" s="20">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="18" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B154" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="20">
-        <v>1</v>
-      </c>
-      <c r="F152" s="20">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="18" t="s">
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+      <c r="E154" s="20">
+        <v>1</v>
+      </c>
+      <c r="F154" s="20">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0</v>
+      </c>
+      <c r="H154" s="18" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="17" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B155" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="20">
-        <v>1</v>
-      </c>
-      <c r="F153" s="22">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3">
-        <v>0</v>
-      </c>
-      <c r="H153" s="17" t="s">
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="20">
+        <v>1</v>
+      </c>
+      <c r="F155" s="22">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B156" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-      <c r="E154" s="4">
-        <v>1</v>
-      </c>
-      <c r="F154" s="22">
-        <v>1</v>
-      </c>
-      <c r="G154" s="3">
-        <v>0</v>
-      </c>
-      <c r="H154" s="17" t="s">
+      <c r="C156" s="2">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1</v>
+      </c>
+      <c r="F156" s="22">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="17" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B157" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="C155" s="2">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2">
-        <v>0</v>
-      </c>
-      <c r="E155" s="4">
-        <v>1</v>
-      </c>
-      <c r="F155" s="22">
-        <v>1</v>
-      </c>
-      <c r="G155" s="3">
-        <v>0</v>
-      </c>
-      <c r="H155" s="17" t="s">
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1</v>
+      </c>
+      <c r="F157" s="22">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="17" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B158" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="C156" s="2">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0</v>
-      </c>
-      <c r="E156" s="4">
-        <v>1</v>
-      </c>
-      <c r="F156" s="22">
-        <v>1</v>
-      </c>
-      <c r="G156" s="3">
-        <v>0</v>
-      </c>
-      <c r="H156" s="17" t="s">
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1</v>
+      </c>
+      <c r="F158" s="22">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="17" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="B159" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="C157" s="2">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>0</v>
-      </c>
-      <c r="E157" s="4">
-        <v>1</v>
-      </c>
-      <c r="F157" s="22">
-        <v>1</v>
-      </c>
-      <c r="G157" s="3">
-        <v>0</v>
-      </c>
-      <c r="H157" s="17" t="s">
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1</v>
+      </c>
+      <c r="F159" s="22">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="17" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="17" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="B160" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="C158" s="2">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-      <c r="E158" s="4">
-        <v>1</v>
-      </c>
-      <c r="F158" s="22">
-        <v>1</v>
-      </c>
-      <c r="G158" s="3">
-        <v>0</v>
-      </c>
-      <c r="H158" s="17" t="s">
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1</v>
+      </c>
+      <c r="F160" s="22">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="17" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="17" t="s">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="B159" s="23" t="s">
+      <c r="B161" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-      <c r="E159" s="4">
-        <v>1</v>
-      </c>
-      <c r="F159" s="22">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3">
-        <v>0</v>
-      </c>
-      <c r="H159" s="17" t="s">
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1</v>
+      </c>
+      <c r="F161" s="22">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="17" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="B162" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="4">
-        <v>1</v>
-      </c>
-      <c r="F160" s="22">
-        <v>1</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="17" t="s">
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
+      <c r="F162" s="22">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="17" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="17" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B163" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>0</v>
-      </c>
-      <c r="E161" s="4">
-        <v>1</v>
-      </c>
-      <c r="F161" s="22">
-        <v>1</v>
-      </c>
-      <c r="G161" s="3">
-        <v>0</v>
-      </c>
-      <c r="H161" s="17" t="s">
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="22">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="17" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="17" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B164" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C162" s="2">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-      <c r="E162" s="4">
-        <v>1</v>
-      </c>
-      <c r="F162" s="22">
-        <v>1</v>
-      </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="17" t="s">
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1</v>
+      </c>
+      <c r="F164" s="22">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="17" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="17" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="B163" s="23" t="s">
+      <c r="B165" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="4">
-        <v>1</v>
-      </c>
-      <c r="F163" s="22">
-        <v>1</v>
-      </c>
-      <c r="G163" s="3">
-        <v>0</v>
-      </c>
-      <c r="H163" s="17" t="s">
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F165" s="22">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="17" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="17" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="B164" s="23" t="s">
+      <c r="B166" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="4">
-        <v>1</v>
-      </c>
-      <c r="F164" s="22">
-        <v>1</v>
-      </c>
-      <c r="G164" s="3">
-        <v>0</v>
-      </c>
-      <c r="H164" s="17" t="s">
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1</v>
+      </c>
+      <c r="F166" s="22">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="17" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="17" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B167" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-      <c r="E165" s="4">
-        <v>1</v>
-      </c>
-      <c r="F165" s="22">
-        <v>1</v>
-      </c>
-      <c r="G165" s="3">
-        <v>0</v>
-      </c>
-      <c r="H165" s="17" t="s">
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1</v>
+      </c>
+      <c r="F167" s="22">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B168" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C166" s="2">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="4">
-        <v>1</v>
-      </c>
-      <c r="F166" s="22">
-        <v>1</v>
-      </c>
-      <c r="G166" s="3">
-        <v>0</v>
-      </c>
-      <c r="H166" s="17" t="s">
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1</v>
+      </c>
+      <c r="F168" s="22">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="17" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="17" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B169" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="4">
-        <v>1</v>
-      </c>
-      <c r="F167" s="22">
-        <v>1</v>
-      </c>
-      <c r="G167" s="3">
-        <v>0</v>
-      </c>
-      <c r="H167" s="17" t="s">
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F169" s="22">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="17" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="17" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="B170" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="4">
-        <v>1</v>
-      </c>
-      <c r="F168" s="22">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="17" t="s">
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170" s="22">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="17" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="17" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="B169" s="23" t="s">
+      <c r="B171" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="4">
-        <v>1</v>
-      </c>
-      <c r="F169" s="22">
-        <v>1</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="17" t="s">
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1</v>
+      </c>
+      <c r="F171" s="22">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="17" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="17" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B172" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="4">
-        <v>1</v>
-      </c>
-      <c r="F170" s="22">
-        <v>1</v>
-      </c>
-      <c r="G170" s="3">
-        <v>0</v>
-      </c>
-      <c r="H170" s="17" t="s">
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1</v>
+      </c>
+      <c r="F172" s="22">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="17" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="17" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="B171" s="23" t="s">
+      <c r="B173" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="4">
-        <v>1</v>
-      </c>
-      <c r="F171" s="22">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="17" t="s">
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1</v>
+      </c>
+      <c r="F173" s="22">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="17" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="17" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B174" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="20">
-        <v>1</v>
-      </c>
-      <c r="F172" s="22">
-        <v>1</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="17" t="s">
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="20">
+        <v>1</v>
+      </c>
+      <c r="F174" s="22">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="17" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B175" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C173" s="2">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-      <c r="E173" s="20">
-        <v>1</v>
-      </c>
-      <c r="F173" s="22">
-        <v>1</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="17" t="s">
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="20">
+        <v>1</v>
+      </c>
+      <c r="F175" s="22">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="17" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="17" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B176" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-      <c r="E174" s="20">
-        <v>1</v>
-      </c>
-      <c r="F174" s="22">
-        <v>1</v>
-      </c>
-      <c r="G174" s="3">
-        <v>1</v>
-      </c>
-      <c r="H174" s="17" t="s">
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="20">
+        <v>1</v>
+      </c>
+      <c r="F176" s="22">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>1</v>
+      </c>
+      <c r="H176" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="17" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B177" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="20">
-        <v>1</v>
-      </c>
-      <c r="F175" s="22">
-        <v>1</v>
-      </c>
-      <c r="G175" s="3">
-        <v>1</v>
-      </c>
-      <c r="H175" s="17" t="s">
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="20">
+        <v>1</v>
+      </c>
+      <c r="F177" s="22">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="17" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="17" t="s">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B178" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="20">
-        <v>1</v>
-      </c>
-      <c r="F176" s="22">
-        <v>1</v>
-      </c>
-      <c r="G176" s="3">
-        <v>1</v>
-      </c>
-      <c r="H176" s="17" t="s">
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="20">
+        <v>1</v>
+      </c>
+      <c r="F178" s="22">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="17" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="17" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B179" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="20">
-        <v>1</v>
-      </c>
-      <c r="F177" s="22">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>1</v>
-      </c>
-      <c r="H177" s="17" t="s">
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="20">
+        <v>1</v>
+      </c>
+      <c r="F179" s="22">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+      <c r="H179" s="17" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="17" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B180" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="20">
-        <v>1</v>
-      </c>
-      <c r="F178" s="22">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="17" t="s">
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="20">
+        <v>1</v>
+      </c>
+      <c r="F180" s="22">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="17" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="B181" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="20">
-        <v>1</v>
-      </c>
-      <c r="F179" s="22">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="17" t="s">
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="20">
+        <v>1</v>
+      </c>
+      <c r="F181" s="22">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="17" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="17" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B182" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C180" s="2">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="20">
-        <v>1</v>
-      </c>
-      <c r="F180" s="22">
-        <v>1</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="17" t="s">
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="20">
+        <v>1</v>
+      </c>
+      <c r="F182" s="22">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="17" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B183" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="20">
-        <v>1</v>
-      </c>
-      <c r="F181" s="20">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="17" t="s">
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="20">
+        <v>1</v>
+      </c>
+      <c r="F183" s="20">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="17" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B184" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="20">
-        <v>1</v>
-      </c>
-      <c r="F182" s="22">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="17" t="s">
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="20">
+        <v>1</v>
+      </c>
+      <c r="F184" s="22">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="17" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B185" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="20">
-        <v>1</v>
-      </c>
-      <c r="F183" s="22">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="17" t="s">
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="20">
+        <v>1</v>
+      </c>
+      <c r="F185" s="22">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="17" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="17" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B186" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="20">
-        <v>1</v>
-      </c>
-      <c r="F184" s="22">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>1</v>
-      </c>
-      <c r="H184" s="17" t="s">
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="20">
+        <v>1</v>
+      </c>
+      <c r="F186" s="22">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>1</v>
+      </c>
+      <c r="H186" s="17" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="17" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B187" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="20">
-        <v>1</v>
-      </c>
-      <c r="F185" s="22">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3">
-        <v>1</v>
-      </c>
-      <c r="H185" s="17" t="s">
+      <c r="C187" s="2">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0</v>
+      </c>
+      <c r="E187" s="20">
+        <v>1</v>
+      </c>
+      <c r="F187" s="22">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>1</v>
+      </c>
+      <c r="H187" s="17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="17" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B188" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="20">
-        <v>1</v>
-      </c>
-      <c r="F186" s="22">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="17" t="s">
+      <c r="C188" s="2">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0</v>
+      </c>
+      <c r="E188" s="20">
+        <v>1</v>
+      </c>
+      <c r="F188" s="22">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="17" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="17" t="s">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B189" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C187" s="2">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2">
-        <v>0</v>
-      </c>
-      <c r="E187" s="20">
-        <v>1</v>
-      </c>
-      <c r="F187" s="22">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3">
-        <v>0</v>
-      </c>
-      <c r="H187" s="17" t="s">
+      <c r="C189" s="2">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0</v>
+      </c>
+      <c r="E189" s="20">
+        <v>1</v>
+      </c>
+      <c r="F189" s="22">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="17" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="17" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="B190" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C188" s="2">
-        <v>0</v>
-      </c>
-      <c r="D188" s="2">
-        <v>0</v>
-      </c>
-      <c r="E188" s="20">
-        <v>1</v>
-      </c>
-      <c r="F188" s="22">
-        <v>1</v>
-      </c>
-      <c r="G188" s="3">
-        <v>0</v>
-      </c>
-      <c r="H188" s="17" t="s">
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
+      </c>
+      <c r="E190" s="20">
+        <v>1</v>
+      </c>
+      <c r="F190" s="22">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="17" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="17" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B191" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C189" s="2">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2">
-        <v>0</v>
-      </c>
-      <c r="E189" s="20">
-        <v>1</v>
-      </c>
-      <c r="F189" s="22">
-        <v>1</v>
-      </c>
-      <c r="G189" s="3">
-        <v>0</v>
-      </c>
-      <c r="H189" s="17" t="s">
+      <c r="C191" s="2">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+      <c r="E191" s="20">
+        <v>1</v>
+      </c>
+      <c r="F191" s="22">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="17" t="s">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B192" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2">
-        <v>0</v>
-      </c>
-      <c r="E190" s="20">
-        <v>1</v>
-      </c>
-      <c r="F190" s="22">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3">
-        <v>0</v>
-      </c>
-      <c r="H190" s="17" t="s">
+      <c r="C192" s="2">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0</v>
+      </c>
+      <c r="E192" s="20">
+        <v>1</v>
+      </c>
+      <c r="F192" s="22">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="17" t="s">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B193" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C191" s="2">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2">
-        <v>0</v>
-      </c>
-      <c r="E191" s="20">
-        <v>1</v>
-      </c>
-      <c r="F191" s="22">
-        <v>1</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="17" t="s">
+      <c r="C193" s="2">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0</v>
+      </c>
+      <c r="E193" s="20">
+        <v>1</v>
+      </c>
+      <c r="F193" s="22">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="17" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="17" t="s">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="B192" s="14" t="s">
+      <c r="B194" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C192" s="2">
-        <v>0</v>
-      </c>
-      <c r="D192" s="2">
-        <v>0</v>
-      </c>
-      <c r="E192" s="20">
-        <v>1</v>
-      </c>
-      <c r="F192" s="22">
-        <v>1</v>
-      </c>
-      <c r="G192" s="3">
-        <v>0</v>
-      </c>
-      <c r="H192" s="17" t="s">
+      <c r="C194" s="2">
+        <v>0</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0</v>
+      </c>
+      <c r="E194" s="20">
+        <v>1</v>
+      </c>
+      <c r="F194" s="22">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H194" s="17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="17" t="s">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="B193" s="14" t="s">
+      <c r="B195" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C193" s="2">
-        <v>0</v>
-      </c>
-      <c r="D193" s="2">
-        <v>0</v>
-      </c>
-      <c r="E193" s="20">
-        <v>1</v>
-      </c>
-      <c r="F193" s="22">
-        <v>1</v>
-      </c>
-      <c r="G193" s="3">
-        <v>0</v>
-      </c>
-      <c r="H193" s="17" t="s">
+      <c r="C195" s="2">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0</v>
+      </c>
+      <c r="E195" s="20">
+        <v>1</v>
+      </c>
+      <c r="F195" s="22">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="17" t="s">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B194" s="14" t="s">
+      <c r="B196" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C194" s="2">
-        <v>0</v>
-      </c>
-      <c r="D194" s="2">
-        <v>0</v>
-      </c>
-      <c r="E194" s="20">
-        <v>1</v>
-      </c>
-      <c r="F194" s="22">
-        <v>1</v>
-      </c>
-      <c r="G194" s="3">
-        <v>0</v>
-      </c>
-      <c r="H194" s="17" t="s">
+      <c r="C196" s="2">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0</v>
+      </c>
+      <c r="E196" s="20">
+        <v>1</v>
+      </c>
+      <c r="F196" s="22">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="17" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="17" t="s">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B197" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C195" s="2">
-        <v>0</v>
-      </c>
-      <c r="D195" s="2">
-        <v>0</v>
-      </c>
-      <c r="E195" s="20">
-        <v>1</v>
-      </c>
-      <c r="F195" s="22">
-        <v>1</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0</v>
-      </c>
-      <c r="H195" s="17" t="s">
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0</v>
+      </c>
+      <c r="E197" s="20">
+        <v>1</v>
+      </c>
+      <c r="F197" s="22">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="17" t="s">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B198" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
-      <c r="D196" s="2">
-        <v>0</v>
-      </c>
-      <c r="E196" s="20">
-        <v>1</v>
-      </c>
-      <c r="F196" s="22">
-        <v>1</v>
-      </c>
-      <c r="G196" s="3">
-        <v>0</v>
-      </c>
-      <c r="H196" s="17" t="s">
+      <c r="C198" s="2">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+      <c r="E198" s="20">
+        <v>1</v>
+      </c>
+      <c r="F198" s="22">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="17" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="17" t="s">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B199" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C197" s="2">
-        <v>0</v>
-      </c>
-      <c r="D197" s="2">
-        <v>0</v>
-      </c>
-      <c r="E197" s="20">
-        <v>1</v>
-      </c>
-      <c r="F197" s="22">
-        <v>1</v>
-      </c>
-      <c r="G197" s="3">
-        <v>0</v>
-      </c>
-      <c r="H197" s="17" t="s">
+      <c r="C199" s="2">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0</v>
+      </c>
+      <c r="E199" s="20">
+        <v>1</v>
+      </c>
+      <c r="F199" s="22">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="17" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="17" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="B198" s="14" t="s">
+      <c r="B200" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C198" s="2">
-        <v>0</v>
-      </c>
-      <c r="D198" s="2">
-        <v>0</v>
-      </c>
-      <c r="E198" s="20">
-        <v>1</v>
-      </c>
-      <c r="F198" s="22">
-        <v>1</v>
-      </c>
-      <c r="G198" s="3">
-        <v>0</v>
-      </c>
-      <c r="H198" s="17" t="s">
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="20">
+        <v>1</v>
+      </c>
+      <c r="F200" s="22">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+      <c r="H200" s="17" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="17" t="s">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B201" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
-      <c r="D199" s="2">
-        <v>0</v>
-      </c>
-      <c r="E199" s="20">
-        <v>1</v>
-      </c>
-      <c r="F199" s="22">
-        <v>1</v>
-      </c>
-      <c r="G199" s="3">
-        <v>0</v>
-      </c>
-      <c r="H199" s="17" t="s">
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+      <c r="E201" s="20">
+        <v>1</v>
+      </c>
+      <c r="F201" s="22">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+      <c r="H201" s="17" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="17" t="s">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B202" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C200" s="2">
-        <v>0</v>
-      </c>
-      <c r="D200" s="2">
-        <v>0</v>
-      </c>
-      <c r="E200" s="20">
-        <v>1</v>
-      </c>
-      <c r="F200" s="22">
-        <v>1</v>
-      </c>
-      <c r="G200" s="3">
-        <v>0</v>
-      </c>
-      <c r="H200" s="17" t="s">
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0</v>
+      </c>
+      <c r="E202" s="20">
+        <v>1</v>
+      </c>
+      <c r="F202" s="22">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="17" t="s">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B203" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C201" s="2">
-        <v>0</v>
-      </c>
-      <c r="D201" s="2">
-        <v>0</v>
-      </c>
-      <c r="E201" s="20">
-        <v>1</v>
-      </c>
-      <c r="F201" s="22">
-        <v>1</v>
-      </c>
-      <c r="G201" s="3">
-        <v>0</v>
-      </c>
-      <c r="H201" s="17" t="s">
+      <c r="C203" s="2">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0</v>
+      </c>
+      <c r="E203" s="20">
+        <v>1</v>
+      </c>
+      <c r="F203" s="22">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0</v>
+      </c>
+      <c r="H203" s="17" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="17" t="s">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B204" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C202" s="2">
-        <v>0</v>
-      </c>
-      <c r="D202" s="2">
-        <v>0</v>
-      </c>
-      <c r="E202" s="20">
-        <v>1</v>
-      </c>
-      <c r="F202" s="22">
-        <v>1</v>
-      </c>
-      <c r="G202" s="3">
-        <v>0</v>
-      </c>
-      <c r="H202" s="17" t="s">
+      <c r="C204" s="2">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
+      <c r="E204" s="20">
+        <v>1</v>
+      </c>
+      <c r="F204" s="22">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="17" t="s">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B205" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C203" s="2">
-        <v>0</v>
-      </c>
-      <c r="D203" s="2">
-        <v>0</v>
-      </c>
-      <c r="E203" s="20">
-        <v>1</v>
-      </c>
-      <c r="F203" s="20">
-        <v>1</v>
-      </c>
-      <c r="G203" s="3">
-        <v>0</v>
-      </c>
-      <c r="H203" s="17" t="s">
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="20">
+        <v>1</v>
+      </c>
+      <c r="F205" s="20">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="17" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="17" t="s">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="B204" s="14" t="s">
+      <c r="B206" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C204" s="2">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2">
-        <v>0</v>
-      </c>
-      <c r="E204" s="20">
-        <v>1</v>
-      </c>
-      <c r="F204" s="22">
-        <v>1</v>
-      </c>
-      <c r="G204" s="3">
-        <v>0</v>
-      </c>
-      <c r="H204" s="17" t="s">
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+      <c r="E206" s="20">
+        <v>1</v>
+      </c>
+      <c r="F206" s="22">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="17" t="s">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="B207" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
-        <v>0</v>
-      </c>
-      <c r="E205" s="20">
-        <v>1</v>
-      </c>
-      <c r="F205" s="22">
-        <v>1</v>
-      </c>
-      <c r="G205" s="3">
-        <v>0</v>
-      </c>
-      <c r="H205" s="17" t="s">
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="22">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="17" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="17" t="s">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B208" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C206" s="2">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2">
-        <v>0</v>
-      </c>
-      <c r="E206" s="20">
-        <v>1</v>
-      </c>
-      <c r="F206" s="22">
-        <v>1</v>
-      </c>
-      <c r="G206" s="3">
-        <v>0</v>
-      </c>
-      <c r="H206" s="17" t="s">
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+      <c r="E208" s="20">
+        <v>1</v>
+      </c>
+      <c r="F208" s="22">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="17" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="17" t="s">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B209" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C207" s="2">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="20">
-        <v>1</v>
-      </c>
-      <c r="F207" s="22">
-        <v>1</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="17" t="s">
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="20">
+        <v>1</v>
+      </c>
+      <c r="F209" s="22">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="17" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="17" t="s">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="B208" s="14" t="s">
+      <c r="B210" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C208" s="2">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2">
-        <v>0</v>
-      </c>
-      <c r="E208" s="20">
-        <v>1</v>
-      </c>
-      <c r="F208" s="22">
-        <v>1</v>
-      </c>
-      <c r="G208" s="3">
-        <v>0</v>
-      </c>
-      <c r="H208" s="17" t="s">
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="20">
+        <v>1</v>
+      </c>
+      <c r="F210" s="22">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="17" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="17" t="s">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B211" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C209" s="2">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
-        <v>0</v>
-      </c>
-      <c r="E209" s="20">
-        <v>1</v>
-      </c>
-      <c r="F209" s="22">
-        <v>1</v>
-      </c>
-      <c r="G209" s="3">
-        <v>0</v>
-      </c>
-      <c r="H209" s="17" t="s">
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="20">
+        <v>1</v>
+      </c>
+      <c r="F211" s="22">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="17" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="17" t="s">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B212" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C210" s="2">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="20">
-        <v>1</v>
-      </c>
-      <c r="F210" s="22">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="17" t="s">
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="20">
+        <v>1</v>
+      </c>
+      <c r="F212" s="22">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="17" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="17" t="s">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B213" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="20">
-        <v>1</v>
-      </c>
-      <c r="F211" s="22">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="17" t="s">
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0</v>
+      </c>
+      <c r="E213" s="20">
+        <v>1</v>
+      </c>
+      <c r="F213" s="22">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="17" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="17" t="s">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B214" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C212" s="2">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
-        <v>0</v>
-      </c>
-      <c r="E212" s="20">
-        <v>1</v>
-      </c>
-      <c r="F212" s="22">
-        <v>1</v>
-      </c>
-      <c r="G212" s="3">
-        <v>0</v>
-      </c>
-      <c r="H212" s="17" t="s">
+      <c r="C214" s="2">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0</v>
+      </c>
+      <c r="E214" s="20">
+        <v>1</v>
+      </c>
+      <c r="F214" s="22">
+        <v>1</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="18" t="s">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="B215" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C213" s="2">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2">
-        <v>0</v>
-      </c>
-      <c r="E213" s="20">
-        <v>1</v>
-      </c>
-      <c r="F213" s="22">
-        <v>1</v>
-      </c>
-      <c r="G213" s="3">
-        <v>0</v>
-      </c>
-      <c r="H213" s="18" t="s">
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0</v>
+      </c>
+      <c r="E215" s="20">
+        <v>1</v>
+      </c>
+      <c r="F215" s="22">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="18" t="s">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="B214" s="16" t="s">
+      <c r="B216" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C214" s="2">
-        <v>0</v>
-      </c>
-      <c r="D214" s="2">
-        <v>0</v>
-      </c>
-      <c r="E214" s="20">
-        <v>1</v>
-      </c>
-      <c r="F214" s="22">
-        <v>1</v>
-      </c>
-      <c r="G214" s="3">
-        <v>0</v>
-      </c>
-      <c r="H214" s="18" t="s">
+      <c r="C216" s="2">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0</v>
+      </c>
+      <c r="E216" s="20">
+        <v>1</v>
+      </c>
+      <c r="F216" s="22">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="18" t="s">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="B215" s="16" t="s">
+      <c r="B217" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C215" s="2">
-        <v>0</v>
-      </c>
-      <c r="D215" s="2">
-        <v>0</v>
-      </c>
-      <c r="E215" s="20">
-        <v>1</v>
-      </c>
-      <c r="F215" s="22">
-        <v>1</v>
-      </c>
-      <c r="G215" s="3">
-        <v>0</v>
-      </c>
-      <c r="H215" s="18" t="s">
+      <c r="C217" s="2">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0</v>
+      </c>
+      <c r="E217" s="20">
+        <v>1</v>
+      </c>
+      <c r="F217" s="22">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="18" t="s">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B216" s="16" t="s">
+      <c r="B218" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C216" s="2">
-        <v>0</v>
-      </c>
-      <c r="D216" s="2">
-        <v>0</v>
-      </c>
-      <c r="E216" s="20">
-        <v>1</v>
-      </c>
-      <c r="F216" s="22">
-        <v>1</v>
-      </c>
-      <c r="G216" s="3">
-        <v>0</v>
-      </c>
-      <c r="H216" s="18" t="s">
+      <c r="C218" s="2">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0</v>
+      </c>
+      <c r="E218" s="20">
+        <v>1</v>
+      </c>
+      <c r="F218" s="22">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="18" t="s">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B217" s="16" t="s">
+      <c r="B219" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C217" s="2">
-        <v>0</v>
-      </c>
-      <c r="D217" s="2">
-        <v>0</v>
-      </c>
-      <c r="E217" s="20">
-        <v>1</v>
-      </c>
-      <c r="F217" s="22">
-        <v>1</v>
-      </c>
-      <c r="G217" s="3">
-        <v>0</v>
-      </c>
-      <c r="H217" s="18" t="s">
+      <c r="C219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0</v>
+      </c>
+      <c r="E219" s="20">
+        <v>1</v>
+      </c>
+      <c r="F219" s="22">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="18" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="B218" s="16" t="s">
+      <c r="B220" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C218" s="2">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2">
-        <v>0</v>
-      </c>
-      <c r="E218" s="20">
-        <v>1</v>
-      </c>
-      <c r="F218" s="22">
-        <v>1</v>
-      </c>
-      <c r="G218" s="3">
-        <v>0</v>
-      </c>
-      <c r="H218" s="18" t="s">
+      <c r="C220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0</v>
+      </c>
+      <c r="E220" s="20">
+        <v>1</v>
+      </c>
+      <c r="F220" s="22">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
+      <c r="H220" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="18" t="s">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B219" s="16" t="s">
+      <c r="B221" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C219" s="2">
-        <v>0</v>
-      </c>
-      <c r="D219" s="2">
-        <v>0</v>
-      </c>
-      <c r="E219" s="20">
-        <v>1</v>
-      </c>
-      <c r="F219" s="22">
-        <v>1</v>
-      </c>
-      <c r="G219" s="3">
-        <v>0</v>
-      </c>
-      <c r="H219" s="18" t="s">
+      <c r="C221" s="2">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0</v>
+      </c>
+      <c r="E221" s="20">
+        <v>1</v>
+      </c>
+      <c r="F221" s="22">
+        <v>1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
+      <c r="H221" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="18" t="s">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B220" s="16" t="s">
+      <c r="B222" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C220" s="2">
-        <v>0</v>
-      </c>
-      <c r="D220" s="2">
-        <v>0</v>
-      </c>
-      <c r="E220" s="20">
-        <v>1</v>
-      </c>
-      <c r="F220" s="20">
-        <v>1</v>
-      </c>
-      <c r="G220" s="3">
-        <v>0</v>
-      </c>
-      <c r="H220" s="18" t="s">
+      <c r="C222" s="2">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0</v>
+      </c>
+      <c r="E222" s="20">
+        <v>1</v>
+      </c>
+      <c r="F222" s="20">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B223" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C221" s="2">
-        <v>1</v>
-      </c>
-      <c r="D221" s="2">
-        <v>1</v>
-      </c>
-      <c r="E221" s="4">
-        <v>1</v>
-      </c>
-      <c r="F221" s="3">
-        <v>1</v>
-      </c>
-      <c r="G221" s="3">
-        <v>0</v>
-      </c>
-      <c r="H221" s="5" t="s">
+      <c r="C223" s="2">
+        <v>1</v>
+      </c>
+      <c r="D223" s="2">
+        <v>1</v>
+      </c>
+      <c r="E223" s="4">
+        <v>1</v>
+      </c>
+      <c r="F223" s="3">
+        <v>1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+      <c r="H223" s="5" t="s">
         <v>640</v>
       </c>
     </row>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="690">
   <si>
     <t>old</t>
   </si>
@@ -431,18 +431,6 @@
     <t>spo2_meas1</t>
   </si>
   <si>
-    <t>spo2_rpt2</t>
-  </si>
-  <si>
-    <t>spo2_meas2</t>
-  </si>
-  <si>
-    <t>spo2_rept3</t>
-  </si>
-  <si>
-    <t>spo2_meas3</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
@@ -923,18 +911,6 @@
     <t>e2_2a</t>
   </si>
   <si>
-    <t>e2_3</t>
-  </si>
-  <si>
-    <t>e2_3a</t>
-  </si>
-  <si>
-    <t>e2_4</t>
-  </si>
-  <si>
-    <t>e2_4a</t>
-  </si>
-  <si>
     <t>d2_6</t>
   </si>
   <si>
@@ -1388,123 +1364,6 @@
     <t>crfs-t09a2-h2_2ao</t>
   </si>
   <si>
-    <t>crfs-t07a-tt07a-e2_1</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_1a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_2</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_2a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_3</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_3a</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_4</t>
-  </si>
-  <si>
-    <t>crfs-t07a-tt07a-e2_4a</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_6</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_6b</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_1</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_1a</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_4</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_4a</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_5</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_5a</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_2</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_2b</t>
-  </si>
-  <si>
-    <t>crfs-t06a-tt06a-d2_3</t>
-  </si>
-  <si>
-    <t>crfs-t06a-d2_3b</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_1</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_1o</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_2</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_3</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_4</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_5</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_10a</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_6</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_7</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_8</t>
-  </si>
-  <si>
-    <t>crfs-t08a-f2_9</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_1</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_2</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_3</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_3a</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_4</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6a</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6</t>
-  </si>
-  <si>
-    <t>crfs-t05b-c3_6o</t>
-  </si>
-  <si>
     <t>SubmitterID</t>
   </si>
   <si>
@@ -2130,6 +1989,111 @@
   </si>
   <si>
     <t>ra_name</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t07a-e2_2a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t07a-e2_2</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t07a-e2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t07a-e2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_6</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_6b</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_1a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_4</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_4a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_5</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_5a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_2</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_2b</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_3</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t06a-d2_3b</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_2</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_3</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_4</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_5</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_6</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_7</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_8</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_9</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t08a-f2_10a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t05b-c3_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t05b-c3_2</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t05b-c3_3</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t05b-c3_3a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t05b-c3_4</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t05b-c3_6a</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t05b-c3_6</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t05b-c3_6o</t>
   </si>
 </sst>
 </file>
@@ -2553,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2584,16 +2548,16 @@
         <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2676,10 +2640,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -2697,15 +2661,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2723,15 +2687,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2749,15 +2713,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>636</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2775,15 +2739,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2801,15 +2765,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2827,15 +2791,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2853,15 +2817,15 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>624</v>
+        <v>577</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2879,15 +2843,15 @@
         <v>1</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2905,15 +2869,15 @@
         <v>1</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2931,15 +2895,15 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>627</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2957,15 +2921,15 @@
         <v>1</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2983,12 +2947,12 @@
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>632</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
@@ -3009,12 +2973,12 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -3035,15 +2999,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -3061,12 +3025,12 @@
         <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>35</v>
@@ -3087,12 +3051,12 @@
         <v>0</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>36</v>
@@ -3118,10 +3082,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -3139,12 +3103,12 @@
         <v>0</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
@@ -3165,12 +3129,12 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>28</v>
@@ -3191,12 +3155,12 @@
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>2</v>
@@ -3217,15 +3181,15 @@
         <v>1</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -3243,12 +3207,12 @@
         <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>11</v>
@@ -3269,12 +3233,12 @@
         <v>0</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>12</v>
@@ -3295,12 +3259,12 @@
         <v>0</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>10</v>
@@ -3321,15 +3285,15 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3347,12 +3311,12 @@
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>22</v>
@@ -3373,12 +3337,12 @@
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>23</v>
@@ -3399,12 +3363,12 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>8</v>
@@ -3430,7 +3394,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>37</v>
@@ -3451,12 +3415,12 @@
         <v>1</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>21</v>
@@ -3477,12 +3441,12 @@
         <v>0</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>13</v>
@@ -3503,12 +3467,12 @@
         <v>1</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>14</v>
@@ -3529,12 +3493,12 @@
         <v>1</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -3555,12 +3519,12 @@
         <v>1</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>6</v>
@@ -3581,12 +3545,12 @@
         <v>0</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>15</v>
@@ -3607,12 +3571,12 @@
         <v>0</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>5</v>
@@ -3633,15 +3597,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -3659,15 +3623,15 @@
         <v>1</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3685,12 +3649,12 @@
         <v>0</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>16</v>
@@ -3711,12 +3675,12 @@
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>45</v>
@@ -3737,12 +3701,12 @@
         <v>1</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>46</v>
@@ -3763,12 +3727,12 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>47</v>
@@ -3789,12 +3753,12 @@
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>48</v>
@@ -3815,12 +3779,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>49</v>
@@ -3841,12 +3805,12 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>17</v>
@@ -3867,12 +3831,12 @@
         <v>0</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>18</v>
@@ -3893,12 +3857,12 @@
         <v>0</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>19</v>
@@ -3919,12 +3883,12 @@
         <v>0</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>3</v>
@@ -3945,12 +3909,12 @@
         <v>0</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>29</v>
@@ -3971,15 +3935,15 @@
         <v>0</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>643</v>
+        <v>596</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -3997,15 +3961,15 @@
         <v>1</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>644</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>646</v>
+        <v>599</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -4023,12 +3987,12 @@
         <v>1</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>645</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>31</v>
@@ -4049,15 +4013,15 @@
         <v>1</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -4075,12 +4039,12 @@
         <v>1</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>32</v>
@@ -4101,12 +4065,12 @@
         <v>0</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>33</v>
@@ -4127,12 +4091,12 @@
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>42</v>
@@ -4153,15 +4117,15 @@
         <v>1</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -4179,12 +4143,12 @@
         <v>1</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>38</v>
@@ -4205,12 +4169,12 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>39</v>
@@ -4231,15 +4195,15 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -4257,15 +4221,15 @@
         <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4283,15 +4247,15 @@
         <v>0</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -4309,12 +4273,12 @@
         <v>0</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>40</v>
@@ -4335,15 +4299,15 @@
         <v>0</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4361,12 +4325,12 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>41</v>
@@ -4387,12 +4351,12 @@
         <v>0</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>43</v>
@@ -4413,12 +4377,12 @@
         <v>0</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>44</v>
@@ -4439,15 +4403,15 @@
         <v>0</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -4465,15 +4429,15 @@
         <v>1</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -4491,15 +4455,15 @@
         <v>1</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -4517,15 +4481,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -4543,15 +4507,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -4569,15 +4533,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -4595,15 +4559,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -4621,15 +4585,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -4647,12 +4611,12 @@
         <v>0</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>51</v>
@@ -4673,12 +4637,12 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>52</v>
@@ -4699,12 +4663,12 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>53</v>
@@ -4725,12 +4689,12 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>54</v>
@@ -4751,12 +4715,12 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>55</v>
@@ -4777,12 +4741,12 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>56</v>
@@ -4803,12 +4767,12 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>57</v>
@@ -4829,12 +4793,12 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>58</v>
@@ -4855,12 +4819,12 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>59</v>
@@ -4881,12 +4845,12 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>60</v>
@@ -4907,12 +4871,12 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>61</v>
@@ -4933,12 +4897,12 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>62</v>
@@ -4959,12 +4923,12 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>63</v>
@@ -4985,12 +4949,12 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>64</v>
@@ -5011,12 +4975,12 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>65</v>
@@ -5037,12 +5001,12 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>66</v>
@@ -5063,12 +5027,12 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>67</v>
@@ -5089,12 +5053,12 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>68</v>
@@ -5115,12 +5079,12 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>69</v>
@@ -5141,12 +5105,12 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>70</v>
@@ -5167,12 +5131,12 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>71</v>
@@ -5193,12 +5157,12 @@
         <v>1</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>72</v>
@@ -5219,12 +5183,12 @@
         <v>1</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>73</v>
@@ -5245,12 +5209,12 @@
         <v>1</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>74</v>
@@ -5271,12 +5235,12 @@
         <v>1</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>75</v>
@@ -5297,12 +5261,12 @@
         <v>1</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>76</v>
@@ -5323,12 +5287,12 @@
         <v>1</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>77</v>
@@ -5349,12 +5313,12 @@
         <v>1</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>78</v>
@@ -5375,12 +5339,12 @@
         <v>1</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>79</v>
@@ -5401,15 +5365,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5427,15 +5391,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5453,12 +5417,12 @@
         <v>0</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>80</v>
@@ -5479,12 +5443,12 @@
         <v>1</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>81</v>
@@ -5505,12 +5469,12 @@
         <v>0</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>82</v>
@@ -5531,12 +5495,12 @@
         <v>0</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>83</v>
@@ -5557,12 +5521,12 @@
         <v>0</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>84</v>
@@ -5583,12 +5547,12 @@
         <v>0</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>85</v>
@@ -5609,12 +5573,12 @@
         <v>0</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>86</v>
@@ -5635,12 +5599,12 @@
         <v>0</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>87</v>
@@ -5661,12 +5625,12 @@
         <v>0</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>88</v>
@@ -5687,12 +5651,12 @@
         <v>0</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>89</v>
@@ -5713,12 +5677,12 @@
         <v>0</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>90</v>
@@ -5739,12 +5703,12 @@
         <v>0</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>91</v>
@@ -5765,12 +5729,12 @@
         <v>0</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>92</v>
@@ -5791,12 +5755,12 @@
         <v>0</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>93</v>
@@ -5817,12 +5781,12 @@
         <v>0</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>94</v>
@@ -5843,12 +5807,12 @@
         <v>0</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>95</v>
@@ -5869,12 +5833,12 @@
         <v>0</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>96</v>
@@ -5895,12 +5859,12 @@
         <v>0</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>97</v>
@@ -5921,12 +5885,12 @@
         <v>1</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B130" s="22" t="s">
         <v>98</v>
@@ -5947,12 +5911,12 @@
         <v>1</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B131" s="22" t="s">
         <v>99</v>
@@ -5973,12 +5937,12 @@
         <v>1</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B132" s="22" t="s">
         <v>100</v>
@@ -5999,12 +5963,12 @@
         <v>1</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B133" s="22" t="s">
         <v>101</v>
@@ -6025,12 +5989,12 @@
         <v>1</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B134" s="22" t="s">
         <v>102</v>
@@ -6051,12 +6015,12 @@
         <v>1</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B135" s="22" t="s">
         <v>103</v>
@@ -6077,12 +6041,12 @@
         <v>1</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B136" s="22" t="s">
         <v>104</v>
@@ -6103,12 +6067,12 @@
         <v>1</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B137" s="22" t="s">
         <v>105</v>
@@ -6129,12 +6093,12 @@
         <v>1</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B138" s="22" t="s">
         <v>106</v>
@@ -6155,12 +6119,12 @@
         <v>1</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B139" s="22" t="s">
         <v>107</v>
@@ -6181,12 +6145,12 @@
         <v>1</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B140" s="22" t="s">
         <v>108</v>
@@ -6207,12 +6171,12 @@
         <v>1</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B141" s="22" t="s">
         <v>109</v>
@@ -6233,12 +6197,12 @@
         <v>1</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B142" s="22" t="s">
         <v>110</v>
@@ -6259,12 +6223,12 @@
         <v>1</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B143" s="22" t="s">
         <v>111</v>
@@ -6285,12 +6249,12 @@
         <v>1</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B144" s="22" t="s">
         <v>112</v>
@@ -6311,12 +6275,12 @@
         <v>1</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>113</v>
@@ -6337,12 +6301,12 @@
         <v>1</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>114</v>
@@ -6368,7 +6332,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>115</v>
@@ -6389,12 +6353,12 @@
         <v>0</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>116</v>
@@ -6415,12 +6379,12 @@
         <v>0</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>117</v>
@@ -6441,12 +6405,12 @@
         <v>0</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>118</v>
@@ -6467,15 +6431,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6493,12 +6457,12 @@
         <v>0</v>
       </c>
       <c r="H151" s="14" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>119</v>
@@ -6519,15 +6483,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6545,15 +6509,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6571,15 +6535,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6597,15 +6561,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6623,15 +6587,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6649,15 +6613,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6675,15 +6639,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6701,15 +6665,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6727,15 +6691,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>684</v>
+        <v>637</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6753,15 +6717,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>687</v>
+        <v>640</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6779,15 +6743,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6805,15 +6769,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6831,15 +6795,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>696</v>
+        <v>649</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6857,12 +6821,12 @@
         <v>0</v>
       </c>
       <c r="H165" s="15" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>120</v>
@@ -6883,12 +6847,12 @@
         <v>0</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>121</v>
@@ -6909,15 +6873,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
-        <v>597</v>
+        <v>550</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6935,15 +6899,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6961,15 +6925,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
-        <v>599</v>
+        <v>552</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6987,15 +6951,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
-        <v>600</v>
+        <v>553</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -7013,15 +6977,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
-        <v>601</v>
+        <v>554</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>607</v>
+        <v>560</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -7039,15 +7003,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="15" t="s">
-        <v>617</v>
+        <v>570</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -7065,12 +7029,12 @@
         <v>0</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>122</v>
@@ -7091,15 +7055,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -7117,15 +7081,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>542</v>
+        <v>495</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -7143,15 +7107,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -7169,15 +7133,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>543</v>
+        <v>496</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7195,15 +7159,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="14" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7221,15 +7185,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="14" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7247,15 +7211,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="14" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7273,15 +7237,15 @@
         <v>0</v>
       </c>
       <c r="H181" s="14" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>586</v>
+        <v>539</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7299,15 +7263,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="14" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7325,15 +7289,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="14" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>552</v>
+        <v>505</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7351,15 +7315,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="14" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>553</v>
+        <v>506</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7377,15 +7341,15 @@
         <v>0</v>
       </c>
       <c r="H185" s="14" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>590</v>
+        <v>543</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>554</v>
+        <v>507</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7403,15 +7367,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="14" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>591</v>
+        <v>544</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7429,15 +7393,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="14" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>592</v>
+        <v>545</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7455,15 +7419,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7481,15 +7445,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7507,15 +7471,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7533,15 +7497,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>596</v>
+        <v>549</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>557</v>
+        <v>510</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7559,12 +7523,12 @@
         <v>0</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>540</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B193" s="14" t="s">
         <v>123</v>
@@ -7585,12 +7549,12 @@
         <v>0</v>
       </c>
       <c r="H193" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>124</v>
@@ -7611,12 +7575,12 @@
         <v>0</v>
       </c>
       <c r="H194" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>125</v>
@@ -7637,12 +7601,12 @@
         <v>1</v>
       </c>
       <c r="H195" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>126</v>
@@ -7663,15 +7627,15 @@
         <v>1</v>
       </c>
       <c r="H196" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7689,15 +7653,15 @@
         <v>1</v>
       </c>
       <c r="H197" s="14" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7715,12 +7679,12 @@
         <v>1</v>
       </c>
       <c r="H198" s="14" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B199" s="22" t="s">
         <v>127</v>
@@ -7741,12 +7705,12 @@
         <v>0</v>
       </c>
       <c r="H199" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B200" s="22" t="s">
         <v>128</v>
@@ -7767,12 +7731,12 @@
         <v>0</v>
       </c>
       <c r="H200" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>129</v>
@@ -7793,12 +7757,12 @@
         <v>0</v>
       </c>
       <c r="H201" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>130</v>
@@ -7819,12 +7783,12 @@
         <v>0</v>
       </c>
       <c r="H202" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>454</v>
+        <v>657</v>
       </c>
       <c r="B203" s="14" t="s">
         <v>131</v>
@@ -7845,12 +7809,12 @@
         <v>0</v>
       </c>
       <c r="H203" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>455</v>
+        <v>658</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>132</v>
@@ -7871,12 +7835,12 @@
         <v>0</v>
       </c>
       <c r="H204" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>456</v>
+        <v>656</v>
       </c>
       <c r="B205" s="14" t="s">
         <v>133</v>
@@ -7897,12 +7861,12 @@
         <v>1</v>
       </c>
       <c r="H205" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>457</v>
+        <v>655</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>134</v>
@@ -7923,12 +7887,12 @@
         <v>1</v>
       </c>
       <c r="H206" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>458</v>
+        <v>659</v>
       </c>
       <c r="B207" s="14" t="s">
         <v>135</v>
@@ -7949,12 +7913,12 @@
         <v>0</v>
       </c>
       <c r="H207" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>459</v>
+        <v>660</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>136</v>
@@ -7975,12 +7939,12 @@
         <v>0</v>
       </c>
       <c r="H208" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>460</v>
+        <v>661</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>137</v>
@@ -8001,12 +7965,12 @@
         <v>0</v>
       </c>
       <c r="H209" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>461</v>
+        <v>662</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>138</v>
@@ -8027,12 +7991,12 @@
         <v>0</v>
       </c>
       <c r="H210" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>462</v>
+        <v>663</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>139</v>
@@ -8053,12 +8017,12 @@
         <v>0</v>
       </c>
       <c r="H211" s="14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
-        <v>463</v>
+        <v>664</v>
       </c>
       <c r="B212" s="14" t="s">
         <v>140</v>
@@ -8079,12 +8043,12 @@
         <v>0</v>
       </c>
       <c r="H212" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
-        <v>464</v>
+        <v>665</v>
       </c>
       <c r="B213" s="14" t="s">
         <v>141</v>
@@ -8105,12 +8069,12 @@
         <v>0</v>
       </c>
       <c r="H213" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
-        <v>465</v>
+        <v>666</v>
       </c>
       <c r="B214" s="14" t="s">
         <v>142</v>
@@ -8131,12 +8095,12 @@
         <v>0</v>
       </c>
       <c r="H214" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
-        <v>466</v>
+        <v>667</v>
       </c>
       <c r="B215" s="14" t="s">
         <v>143</v>
@@ -8157,12 +8121,12 @@
         <v>0</v>
       </c>
       <c r="H215" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
-        <v>467</v>
+        <v>668</v>
       </c>
       <c r="B216" s="14" t="s">
         <v>144</v>
@@ -8183,12 +8147,12 @@
         <v>0</v>
       </c>
       <c r="H216" s="14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
-        <v>468</v>
+        <v>669</v>
       </c>
       <c r="B217" s="14" t="s">
         <v>145</v>
@@ -8209,12 +8173,12 @@
         <v>0</v>
       </c>
       <c r="H217" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
-        <v>469</v>
+        <v>670</v>
       </c>
       <c r="B218" s="14" t="s">
         <v>146</v>
@@ -8235,12 +8199,12 @@
         <v>0</v>
       </c>
       <c r="H218" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
-        <v>470</v>
+        <v>671</v>
       </c>
       <c r="B219" s="14" t="s">
         <v>147</v>
@@ -8261,12 +8225,12 @@
         <v>0</v>
       </c>
       <c r="H219" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
-        <v>471</v>
+        <v>672</v>
       </c>
       <c r="B220" s="14" t="s">
         <v>148</v>
@@ -8280,19 +8244,19 @@
       <c r="E220" s="17">
         <v>1</v>
       </c>
-      <c r="F220" s="19">
+      <c r="F220" s="17">
         <v>1</v>
       </c>
       <c r="G220" s="3">
         <v>0</v>
       </c>
       <c r="H220" s="14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="B221" s="14" t="s">
         <v>149</v>
@@ -8313,12 +8277,12 @@
         <v>0</v>
       </c>
       <c r="H221" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="14" t="s">
-        <v>473</v>
+        <v>674</v>
       </c>
       <c r="B222" s="14" t="s">
         <v>150</v>
@@ -8339,12 +8303,12 @@
         <v>0</v>
       </c>
       <c r="H222" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="14" t="s">
-        <v>474</v>
+        <v>675</v>
       </c>
       <c r="B223" s="14" t="s">
         <v>151</v>
@@ -8365,12 +8329,12 @@
         <v>0</v>
       </c>
       <c r="H223" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="14" t="s">
-        <v>475</v>
+        <v>676</v>
       </c>
       <c r="B224" s="14" t="s">
         <v>152</v>
@@ -8384,19 +8348,19 @@
       <c r="E224" s="17">
         <v>1</v>
       </c>
-      <c r="F224" s="17">
+      <c r="F224" s="19">
         <v>1</v>
       </c>
       <c r="G224" s="3">
         <v>0</v>
       </c>
       <c r="H224" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="14" t="s">
-        <v>476</v>
+        <v>681</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>153</v>
@@ -8417,12 +8381,12 @@
         <v>0</v>
       </c>
       <c r="H225" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
-        <v>477</v>
+        <v>677</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>154</v>
@@ -8443,12 +8407,12 @@
         <v>0</v>
       </c>
       <c r="H226" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="14" t="s">
-        <v>478</v>
+        <v>678</v>
       </c>
       <c r="B227" s="14" t="s">
         <v>155</v>
@@ -8469,12 +8433,12 @@
         <v>0</v>
       </c>
       <c r="H227" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="14" t="s">
-        <v>479</v>
+        <v>679</v>
       </c>
       <c r="B228" s="14" t="s">
         <v>156</v>
@@ -8495,12 +8459,12 @@
         <v>0</v>
       </c>
       <c r="H228" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="14" t="s">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="B229" s="14" t="s">
         <v>157</v>
@@ -8521,116 +8485,116 @@
         <v>0</v>
       </c>
       <c r="H229" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0</v>
+      </c>
+      <c r="E230" s="17">
+        <v>1</v>
+      </c>
+      <c r="F230" s="19">
+        <v>1</v>
+      </c>
+      <c r="G230" s="3">
+        <v>0</v>
+      </c>
+      <c r="H230" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0</v>
+      </c>
+      <c r="E231" s="17">
+        <v>1</v>
+      </c>
+      <c r="F231" s="19">
+        <v>1</v>
+      </c>
+      <c r="G231" s="3">
+        <v>0</v>
+      </c>
+      <c r="H231" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C232" s="2">
+        <v>0</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0</v>
+      </c>
+      <c r="E232" s="17">
+        <v>1</v>
+      </c>
+      <c r="F232" s="19">
+        <v>1</v>
+      </c>
+      <c r="G232" s="3">
+        <v>0</v>
+      </c>
+      <c r="H232" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C233" s="2">
+        <v>0</v>
+      </c>
+      <c r="D233" s="2">
+        <v>0</v>
+      </c>
+      <c r="E233" s="17">
+        <v>1</v>
+      </c>
+      <c r="F233" s="19">
+        <v>1</v>
+      </c>
+      <c r="G233" s="3">
+        <v>0</v>
+      </c>
+      <c r="H233" s="15" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C230" s="2">
-        <v>0</v>
-      </c>
-      <c r="D230" s="2">
-        <v>0</v>
-      </c>
-      <c r="E230" s="17">
-        <v>1</v>
-      </c>
-      <c r="F230" s="19">
-        <v>1</v>
-      </c>
-      <c r="G230" s="3">
-        <v>0</v>
-      </c>
-      <c r="H230" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="B231" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C231" s="2">
-        <v>0</v>
-      </c>
-      <c r="D231" s="2">
-        <v>0</v>
-      </c>
-      <c r="E231" s="17">
-        <v>1</v>
-      </c>
-      <c r="F231" s="19">
-        <v>1</v>
-      </c>
-      <c r="G231" s="3">
-        <v>0</v>
-      </c>
-      <c r="H231" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="B232" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C232" s="2">
-        <v>0</v>
-      </c>
-      <c r="D232" s="2">
-        <v>0</v>
-      </c>
-      <c r="E232" s="17">
-        <v>1</v>
-      </c>
-      <c r="F232" s="19">
-        <v>1</v>
-      </c>
-      <c r="G232" s="3">
-        <v>0</v>
-      </c>
-      <c r="H232" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C233" s="2">
-        <v>0</v>
-      </c>
-      <c r="D233" s="2">
-        <v>0</v>
-      </c>
-      <c r="E233" s="17">
-        <v>1</v>
-      </c>
-      <c r="F233" s="19">
-        <v>1</v>
-      </c>
-      <c r="G233" s="3">
-        <v>0</v>
-      </c>
-      <c r="H233" s="14" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
-        <v>485</v>
+        <v>686</v>
       </c>
       <c r="B234" s="15" t="s">
         <v>162</v>
@@ -8651,12 +8615,12 @@
         <v>0</v>
       </c>
       <c r="H234" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="15" t="s">
-        <v>486</v>
+        <v>687</v>
       </c>
       <c r="B235" s="15" t="s">
         <v>163</v>
@@ -8677,12 +8641,12 @@
         <v>0</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
-        <v>487</v>
+        <v>688</v>
       </c>
       <c r="B236" s="15" t="s">
         <v>164</v>
@@ -8703,12 +8667,12 @@
         <v>0</v>
       </c>
       <c r="H236" s="15" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
-        <v>488</v>
+        <v>689</v>
       </c>
       <c r="B237" s="15" t="s">
         <v>165</v>
@@ -8722,144 +8686,40 @@
       <c r="E237" s="17">
         <v>1</v>
       </c>
-      <c r="F237" s="19">
+      <c r="F237" s="17">
         <v>1</v>
       </c>
       <c r="G237" s="3">
         <v>0</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>329</v>
+        <v>208</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B238" s="15" t="s">
-        <v>166</v>
+      <c r="A238" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>592</v>
       </c>
       <c r="C238" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" s="2">
-        <v>0</v>
-      </c>
-      <c r="E238" s="17">
-        <v>1</v>
-      </c>
-      <c r="F238" s="19">
+        <v>1</v>
+      </c>
+      <c r="E238" s="4">
+        <v>1</v>
+      </c>
+      <c r="F238" s="3">
         <v>1</v>
       </c>
       <c r="G238" s="3">
         <v>0</v>
       </c>
-      <c r="H238" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C239" s="2">
-        <v>0</v>
-      </c>
-      <c r="D239" s="2">
-        <v>0</v>
-      </c>
-      <c r="E239" s="17">
-        <v>1</v>
-      </c>
-      <c r="F239" s="19">
-        <v>1</v>
-      </c>
-      <c r="G239" s="3">
-        <v>0</v>
-      </c>
-      <c r="H239" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B240" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C240" s="2">
-        <v>0</v>
-      </c>
-      <c r="D240" s="2">
-        <v>0</v>
-      </c>
-      <c r="E240" s="17">
-        <v>1</v>
-      </c>
-      <c r="F240" s="19">
-        <v>1</v>
-      </c>
-      <c r="G240" s="3">
-        <v>0</v>
-      </c>
-      <c r="H240" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="B241" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C241" s="2">
-        <v>0</v>
-      </c>
-      <c r="D241" s="2">
-        <v>0</v>
-      </c>
-      <c r="E241" s="17">
-        <v>1</v>
-      </c>
-      <c r="F241" s="17">
-        <v>1</v>
-      </c>
-      <c r="G241" s="3">
-        <v>0</v>
-      </c>
-      <c r="H241" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="C242" s="2">
-        <v>1</v>
-      </c>
-      <c r="D242" s="2">
-        <v>1</v>
-      </c>
-      <c r="E242" s="4">
-        <v>1</v>
-      </c>
-      <c r="F242" s="3">
-        <v>1</v>
-      </c>
-      <c r="G242" s="3">
-        <v>0</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>640</v>
+      <c r="H238" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict.xlsx
+++ b/inst/extdata/main_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="984">
   <si>
     <t>old</t>
   </si>
@@ -2850,6 +2850,132 @@
   </si>
   <si>
     <t>is_india_pilot</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-ampicillin_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-penig_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-benzathine_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-cef_antibiotics_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-gentamicin_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-gentamicin_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-antimicrobials_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-antimalarials_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-imcirx_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-creams_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-paracetamol_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a2-salbutamol_route_hf</t>
+  </si>
+  <si>
+    <t>rx_ampicillin_hf</t>
+  </si>
+  <si>
+    <t>rx_cef_antibiotics_hf</t>
+  </si>
+  <si>
+    <t>rx_gentamicin_hf</t>
+  </si>
+  <si>
+    <t>rx_gentamicin_route_hf</t>
+  </si>
+  <si>
+    <t>rx_antimicrobials_hf</t>
+  </si>
+  <si>
+    <t>rx_antimalarials_hf</t>
+  </si>
+  <si>
+    <t>rx_imcirx_hf</t>
+  </si>
+  <si>
+    <t>rx_creams_hf</t>
+  </si>
+  <si>
+    <t>rx_paracetamol_route_hf</t>
+  </si>
+  <si>
+    <t>ampicillin_hf</t>
+  </si>
+  <si>
+    <t>penig_hf</t>
+  </si>
+  <si>
+    <t>benzathine_hf</t>
+  </si>
+  <si>
+    <t>cef_antibiotics_hf</t>
+  </si>
+  <si>
+    <t>gentamicin_hf</t>
+  </si>
+  <si>
+    <t>gentamicin_route_hf</t>
+  </si>
+  <si>
+    <t>antimicrobials_hf</t>
+  </si>
+  <si>
+    <t>antimalarials_hf</t>
+  </si>
+  <si>
+    <t>imcirx_hf</t>
+  </si>
+  <si>
+    <t>creams_hf</t>
+  </si>
+  <si>
+    <t>paracetamol_route_hf</t>
+  </si>
+  <si>
+    <t>salbutamol_route_hf</t>
+  </si>
+  <si>
+    <t>rx_penicillinG_hf</t>
+  </si>
+  <si>
+    <t>rx_salbutamol_route_hf</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-cef_antibiotics</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-antimicrobials</t>
+  </si>
+  <si>
+    <t>rx_benzathinepeniG_hf</t>
+  </si>
+  <si>
+    <t>rx_cef_antibiotics</t>
+  </si>
+  <si>
+    <t>cef_antibiotics</t>
+  </si>
+  <si>
+    <t>rx_antimicrobials</t>
+  </si>
+  <si>
+    <t>antimicrobials</t>
   </si>
 </sst>
 </file>
@@ -4787,10 +4913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N389"/>
+  <dimension ref="A1:N403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD93"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5373,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
@@ -5417,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -5461,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
@@ -5505,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
@@ -12730,7 +12856,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
         <v>503</v>
       </c>
@@ -13557,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="L199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M199" s="2">
         <v>1</v>
@@ -13601,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="L200" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M200" s="2">
         <v>1</v>
@@ -13645,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="L201" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M201" s="2">
         <v>1</v>
@@ -13655,11 +13781,11 @@
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A202" s="14" t="s">
-        <v>621</v>
+      <c r="A202" s="20" t="s">
+        <v>977</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>622</v>
+        <v>980</v>
       </c>
       <c r="C202" s="1">
         <v>0</v>
@@ -13677,10 +13803,10 @@
         <v>0</v>
       </c>
       <c r="H202" s="14" t="s">
-        <v>623</v>
+        <v>981</v>
       </c>
       <c r="I202" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" s="2">
         <v>0</v>
@@ -13689,21 +13815,21 @@
         <v>0</v>
       </c>
       <c r="L202" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C203" s="1">
         <v>0</v>
@@ -13721,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I203" s="2">
         <v>1</v>
@@ -13744,10 +13870,10 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C204" s="1">
         <v>0</v>
@@ -13765,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I204" s="2">
         <v>1</v>
@@ -13777,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="L204" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M204" s="2">
         <v>1</v>
@@ -13788,10 +13914,10 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C205" s="1">
         <v>0</v>
@@ -13809,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I205" s="2">
         <v>1</v>
@@ -13821,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="L205" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" s="2">
         <v>1</v>
@@ -13832,10 +13958,10 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C206" s="1">
         <v>0</v>
@@ -13853,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I206" s="2">
         <v>1</v>
@@ -13865,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="L206" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206" s="2">
         <v>1</v>
@@ -13876,10 +14002,10 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C207" s="1">
         <v>0</v>
@@ -13897,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I207" s="2">
         <v>1</v>
@@ -13920,10 +14046,10 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C208" s="1">
         <v>0</v>
@@ -13941,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="H208" s="14" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I208" s="2">
         <v>1</v>
@@ -13953,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="L208" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M208" s="2">
         <v>1</v>
@@ -13964,10 +14090,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C209" s="1">
         <v>0</v>
@@ -13985,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="14" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I209" s="2">
         <v>1</v>
@@ -13997,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="L209" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M209" s="2">
         <v>1</v>
@@ -14008,10 +14134,10 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C210" s="1">
         <v>0</v>
@@ -14029,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="14" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I210" s="2">
         <v>1</v>
@@ -14041,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="L210" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210" s="2">
         <v>1</v>
@@ -14052,10 +14178,10 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C211" s="1">
         <v>0</v>
@@ -14073,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I211" s="2">
         <v>1</v>
@@ -14085,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="L211" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211" s="2">
         <v>1</v>
@@ -14096,10 +14222,10 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C212" s="1">
         <v>0</v>
@@ -14117,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="14" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I212" s="2">
         <v>1</v>
@@ -14129,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="L212" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M212" s="2">
         <v>1</v>
@@ -14140,73 +14266,73 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0</v>
+      </c>
+      <c r="D213" s="1">
+        <v>0</v>
+      </c>
+      <c r="E213" s="16">
+        <v>1</v>
+      </c>
+      <c r="F213" s="16">
+        <v>1</v>
+      </c>
+      <c r="G213" s="2">
+        <v>0</v>
+      </c>
+      <c r="H213" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="I213" s="2">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2">
+        <v>0</v>
+      </c>
+      <c r="K213" s="2">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2">
+        <v>1</v>
+      </c>
+      <c r="M213" s="2">
+        <v>1</v>
+      </c>
+      <c r="N213" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A214" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="B213" s="14" t="s">
+      <c r="B214" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C213" s="1">
-        <v>0</v>
-      </c>
-      <c r="D213" s="1">
-        <v>0</v>
-      </c>
-      <c r="E213" s="16">
-        <v>1</v>
-      </c>
-      <c r="F213" s="16">
-        <v>1</v>
-      </c>
-      <c r="G213" s="2">
-        <v>0</v>
-      </c>
-      <c r="H213" s="14" t="s">
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1">
+        <v>0</v>
+      </c>
+      <c r="E214" s="16">
+        <v>1</v>
+      </c>
+      <c r="F214" s="16">
+        <v>1</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0</v>
+      </c>
+      <c r="H214" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="I213" s="2">
-        <v>1</v>
-      </c>
-      <c r="J213" s="2">
-        <v>0</v>
-      </c>
-      <c r="K213" s="2">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2">
-        <v>0</v>
-      </c>
-      <c r="M213" s="2">
-        <v>1</v>
-      </c>
-      <c r="N213" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A214" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="C214" s="1">
-        <v>0</v>
-      </c>
-      <c r="D214" s="1">
-        <v>0</v>
-      </c>
-      <c r="E214" s="16">
-        <v>1</v>
-      </c>
-      <c r="F214" s="18">
-        <v>1</v>
-      </c>
-      <c r="G214" s="2">
-        <v>0</v>
-      </c>
-      <c r="H214" s="13" t="s">
-        <v>659</v>
-      </c>
       <c r="I214" s="2">
         <v>1</v>
       </c>
@@ -14217,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="L214" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M214" s="2">
         <v>1</v>
@@ -14228,116 +14354,116 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+      <c r="D215" s="1">
+        <v>0</v>
+      </c>
+      <c r="E215" s="16">
+        <v>1</v>
+      </c>
+      <c r="F215" s="18">
+        <v>1</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0</v>
+      </c>
+      <c r="H215" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="I215" s="2">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2">
+        <v>0</v>
+      </c>
+      <c r="K215" s="2">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2">
+        <v>0</v>
+      </c>
+      <c r="M215" s="2">
+        <v>1</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A216" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+      <c r="D216" s="1">
+        <v>0</v>
+      </c>
+      <c r="E216" s="16">
+        <v>1</v>
+      </c>
+      <c r="F216" s="18">
+        <v>1</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0</v>
+      </c>
+      <c r="H216" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="I216" s="2">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2">
+        <v>0</v>
+      </c>
+      <c r="K216" s="2">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2">
+        <v>1</v>
+      </c>
+      <c r="M216" s="2">
+        <v>0</v>
+      </c>
+      <c r="N216" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A217" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="B217" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="C215" s="1">
-        <v>0</v>
-      </c>
-      <c r="D215" s="1">
-        <v>0</v>
-      </c>
-      <c r="E215" s="16">
-        <v>1</v>
-      </c>
-      <c r="F215" s="18">
-        <v>1</v>
-      </c>
-      <c r="G215" s="2">
-        <v>0</v>
-      </c>
-      <c r="H215" s="13" t="s">
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0</v>
+      </c>
+      <c r="E217" s="16">
+        <v>1</v>
+      </c>
+      <c r="F217" s="18">
+        <v>1</v>
+      </c>
+      <c r="G217" s="2">
+        <v>0</v>
+      </c>
+      <c r="H217" s="13" t="s">
         <v>662</v>
-      </c>
-      <c r="I215" s="2">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2">
-        <v>0</v>
-      </c>
-      <c r="K215" s="2">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2">
-        <v>0</v>
-      </c>
-      <c r="M215" s="2">
-        <v>1</v>
-      </c>
-      <c r="N215" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A216" s="14" t="s">
-        <v>663</v>
-      </c>
-      <c r="B216" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="C216" s="1">
-        <v>0</v>
-      </c>
-      <c r="D216" s="1">
-        <v>0</v>
-      </c>
-      <c r="E216" s="16">
-        <v>1</v>
-      </c>
-      <c r="F216" s="16">
-        <v>1</v>
-      </c>
-      <c r="G216" s="2">
-        <v>0</v>
-      </c>
-      <c r="H216" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="I216" s="2">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2">
-        <v>0</v>
-      </c>
-      <c r="K216" s="2">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2">
-        <v>1</v>
-      </c>
-      <c r="M216" s="2">
-        <v>1</v>
-      </c>
-      <c r="N216" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A217" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="B217" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="C217" s="1">
-        <v>0</v>
-      </c>
-      <c r="D217" s="1">
-        <v>0</v>
-      </c>
-      <c r="E217" s="16">
-        <v>1</v>
-      </c>
-      <c r="F217" s="16">
-        <v>1</v>
-      </c>
-      <c r="G217" s="2">
-        <v>0</v>
-      </c>
-      <c r="H217" s="14" t="s">
-        <v>668</v>
       </c>
       <c r="I217" s="2">
         <v>1</v>
@@ -14360,10 +14486,10 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
-        <v>735</v>
+        <v>663</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>736</v>
+        <v>664</v>
       </c>
       <c r="C218" s="1">
         <v>0</v>
@@ -14381,10 +14507,10 @@
         <v>0</v>
       </c>
       <c r="H218" s="14" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="I218" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2">
         <v>0</v>
@@ -14404,10 +14530,10 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
-        <v>738</v>
+        <v>666</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>739</v>
+        <v>667</v>
       </c>
       <c r="C219" s="1">
         <v>0</v>
@@ -14425,10 +14551,10 @@
         <v>0</v>
       </c>
       <c r="H219" s="14" t="s">
-        <v>740</v>
+        <v>668</v>
       </c>
       <c r="I219" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2">
         <v>0</v>
@@ -14481,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="L220" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M220" s="2">
         <v>0</v>
@@ -14525,7 +14651,7 @@
         <v>0</v>
       </c>
       <c r="L221" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M221" s="2">
         <v>0</v>
@@ -14569,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="L222" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M222" s="2">
         <v>0</v>
@@ -14755,11 +14881,11 @@
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A227" s="33" t="s">
-        <v>901</v>
-      </c>
-      <c r="B227" s="33" t="s">
-        <v>915</v>
+      <c r="A227" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>736</v>
       </c>
       <c r="C227" s="1">
         <v>0</v>
@@ -14770,40 +14896,40 @@
       <c r="E227" s="16">
         <v>1</v>
       </c>
-      <c r="F227" s="18">
+      <c r="F227" s="16">
         <v>1</v>
       </c>
       <c r="G227" s="2">
         <v>0</v>
       </c>
-      <c r="H227" s="33" t="s">
-        <v>916</v>
+      <c r="H227" s="14" t="s">
+        <v>737</v>
       </c>
       <c r="I227" s="2">
         <v>0</v>
       </c>
       <c r="J227" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" s="2">
         <v>0</v>
       </c>
       <c r="L227" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M227" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227" s="2" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A228" s="33" t="s">
-        <v>902</v>
-      </c>
-      <c r="B228" s="33" t="s">
-        <v>917</v>
+      <c r="A228" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>739</v>
       </c>
       <c r="C228" s="1">
         <v>0</v>
@@ -14814,29 +14940,29 @@
       <c r="E228" s="16">
         <v>1</v>
       </c>
-      <c r="F228" s="18">
+      <c r="F228" s="16">
         <v>1</v>
       </c>
       <c r="G228" s="2">
         <v>0</v>
       </c>
-      <c r="H228" s="33" t="s">
-        <v>928</v>
+      <c r="H228" s="14" t="s">
+        <v>740</v>
       </c>
       <c r="I228" s="2">
         <v>0</v>
       </c>
       <c r="J228" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228" s="2">
         <v>0</v>
       </c>
       <c r="L228" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M228" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228" s="2" t="s">
         <v>686</v>
@@ -14844,10 +14970,10 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="33" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C229" s="1">
         <v>0</v>
@@ -14865,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="H229" s="33" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="I229" s="2">
         <v>0</v>
@@ -14877,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="L229" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M229" s="2">
         <v>0</v>
@@ -14888,10 +15014,10 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="33" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B230" s="33" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C230" s="1">
         <v>0</v>
@@ -14909,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="33" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I230" s="2">
         <v>0</v>
@@ -14921,7 +15047,7 @@
         <v>0</v>
       </c>
       <c r="L230" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230" s="2">
         <v>0</v>
@@ -14932,10 +15058,10 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="33" t="s">
-        <v>905</v>
+        <v>942</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>920</v>
+        <v>954</v>
       </c>
       <c r="C231" s="1">
         <v>0</v>
@@ -14946,26 +15072,26 @@
       <c r="E231" s="16">
         <v>1</v>
       </c>
-      <c r="F231" s="18">
+      <c r="F231" s="16">
         <v>1</v>
       </c>
       <c r="G231" s="2">
         <v>0</v>
       </c>
       <c r="H231" s="33" t="s">
-        <v>931</v>
+        <v>963</v>
       </c>
       <c r="I231" s="2">
         <v>0</v>
       </c>
       <c r="J231" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" s="2">
         <v>0</v>
       </c>
       <c r="L231" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M231" s="2">
         <v>0</v>
@@ -14976,10 +15102,10 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C232" s="1">
         <v>0</v>
@@ -14997,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="H232" s="33" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I232" s="2">
         <v>0</v>
@@ -15009,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="L232" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M232" s="2">
         <v>0</v>
@@ -15020,10 +15146,10 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="33" t="s">
-        <v>907</v>
+        <v>943</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>922</v>
+        <v>975</v>
       </c>
       <c r="C233" s="1">
         <v>0</v>
@@ -15034,26 +15160,26 @@
       <c r="E233" s="16">
         <v>1</v>
       </c>
-      <c r="F233" s="18">
+      <c r="F233" s="16">
         <v>1</v>
       </c>
       <c r="G233" s="2">
         <v>0</v>
       </c>
       <c r="H233" s="33" t="s">
-        <v>933</v>
+        <v>964</v>
       </c>
       <c r="I233" s="2">
         <v>0</v>
       </c>
       <c r="J233" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233" s="2">
         <v>0</v>
       </c>
       <c r="L233" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M233" s="2">
         <v>0</v>
@@ -15064,10 +15190,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="33" t="s">
-        <v>908</v>
+        <v>944</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>923</v>
+        <v>979</v>
       </c>
       <c r="C234" s="1">
         <v>0</v>
@@ -15078,26 +15204,26 @@
       <c r="E234" s="16">
         <v>1</v>
       </c>
-      <c r="F234" s="18">
+      <c r="F234" s="16">
         <v>1</v>
       </c>
       <c r="G234" s="2">
         <v>0</v>
       </c>
       <c r="H234" s="33" t="s">
-        <v>934</v>
+        <v>965</v>
       </c>
       <c r="I234" s="2">
         <v>0</v>
       </c>
       <c r="J234" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K234" s="2">
         <v>0</v>
       </c>
       <c r="L234" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M234" s="2">
         <v>0</v>
@@ -15108,10 +15234,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="33" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C235" s="1">
         <v>0</v>
@@ -15129,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="H235" s="33" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="I235" s="2">
         <v>0</v>
@@ -15141,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="L235" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M235" s="2">
         <v>0</v>
@@ -15152,10 +15278,10 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="33" t="s">
-        <v>910</v>
+        <v>945</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>925</v>
+        <v>955</v>
       </c>
       <c r="C236" s="1">
         <v>0</v>
@@ -15166,26 +15292,26 @@
       <c r="E236" s="16">
         <v>1</v>
       </c>
-      <c r="F236" s="18">
+      <c r="F236" s="16">
         <v>1</v>
       </c>
       <c r="G236" s="2">
         <v>0</v>
       </c>
       <c r="H236" s="33" t="s">
-        <v>936</v>
+        <v>966</v>
       </c>
       <c r="I236" s="2">
         <v>0</v>
       </c>
       <c r="J236" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K236" s="2">
         <v>0</v>
       </c>
       <c r="L236" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M236" s="2">
         <v>0</v>
@@ -15196,10 +15322,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="33" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C237" s="1">
         <v>0</v>
@@ -15217,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="H237" s="33" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="I237" s="2">
         <v>0</v>
@@ -15229,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="L237" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M237" s="2">
         <v>0</v>
@@ -15240,10 +15366,10 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="33" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B238" s="33" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="C238" s="1">
         <v>0</v>
@@ -15261,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="H238" s="33" t="s">
-        <v>665</v>
+        <v>932</v>
       </c>
       <c r="I238" s="2">
         <v>0</v>
@@ -15273,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="L238" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M238" s="2">
         <v>0</v>
@@ -15284,10 +15410,10 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="33" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>940</v>
+        <v>922</v>
       </c>
       <c r="C239" s="1">
         <v>0</v>
@@ -15305,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="H239" s="33" t="s">
-        <v>668</v>
+        <v>933</v>
       </c>
       <c r="I239" s="2">
         <v>0</v>
@@ -15317,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="L239" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M239" s="2">
         <v>0</v>
@@ -15328,10 +15454,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="33" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
@@ -15349,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="H240" s="33" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="I240" s="2">
         <v>0</v>
@@ -15361,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="L240" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M240" s="2">
         <v>0</v>
@@ -15372,10 +15498,10 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="33" t="s">
-        <v>392</v>
+        <v>909</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>111</v>
+        <v>924</v>
       </c>
       <c r="C241" s="1">
         <v>0</v>
@@ -15393,7 +15519,7 @@
         <v>0</v>
       </c>
       <c r="H241" s="33" t="s">
-        <v>256</v>
+        <v>935</v>
       </c>
       <c r="I241" s="2">
         <v>0</v>
@@ -15402,13 +15528,13 @@
         <v>1</v>
       </c>
       <c r="K241" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L241" s="2">
         <v>1</v>
       </c>
       <c r="M241" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N241" s="2" t="s">
         <v>686</v>
@@ -15416,653 +15542,653 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="B242" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0</v>
+      </c>
+      <c r="D242" s="1">
+        <v>0</v>
+      </c>
+      <c r="E242" s="16">
+        <v>1</v>
+      </c>
+      <c r="F242" s="16">
+        <v>1</v>
+      </c>
+      <c r="G242" s="2">
+        <v>0</v>
+      </c>
+      <c r="H242" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="I242" s="2">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2">
+        <v>0</v>
+      </c>
+      <c r="K242" s="2">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2">
+        <v>1</v>
+      </c>
+      <c r="M242" s="2">
+        <v>0</v>
+      </c>
+      <c r="N242" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A243" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="B243" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0</v>
+      </c>
+      <c r="E243" s="16">
+        <v>1</v>
+      </c>
+      <c r="F243" s="16">
+        <v>1</v>
+      </c>
+      <c r="G243" s="2">
+        <v>0</v>
+      </c>
+      <c r="H243" s="33" t="s">
+        <v>968</v>
+      </c>
+      <c r="I243" s="2">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2">
+        <v>0</v>
+      </c>
+      <c r="K243" s="2">
+        <v>0</v>
+      </c>
+      <c r="L243" s="2">
+        <v>1</v>
+      </c>
+      <c r="M243" s="2">
+        <v>0</v>
+      </c>
+      <c r="N243" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A244" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="B244" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+      <c r="D244" s="1">
+        <v>0</v>
+      </c>
+      <c r="E244" s="16">
+        <v>1</v>
+      </c>
+      <c r="F244" s="18">
+        <v>1</v>
+      </c>
+      <c r="G244" s="2">
+        <v>0</v>
+      </c>
+      <c r="H244" s="33" t="s">
+        <v>936</v>
+      </c>
+      <c r="I244" s="2">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2">
+        <v>1</v>
+      </c>
+      <c r="K244" s="2">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2">
+        <v>0</v>
+      </c>
+      <c r="M244" s="2">
+        <v>0</v>
+      </c>
+      <c r="N244" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A245" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="B245" s="33" t="s">
+        <v>926</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0</v>
+      </c>
+      <c r="D245" s="1">
+        <v>0</v>
+      </c>
+      <c r="E245" s="16">
+        <v>1</v>
+      </c>
+      <c r="F245" s="18">
+        <v>1</v>
+      </c>
+      <c r="G245" s="2">
+        <v>0</v>
+      </c>
+      <c r="H245" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="I245" s="2">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2">
+        <v>1</v>
+      </c>
+      <c r="K245" s="2">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2">
+        <v>1</v>
+      </c>
+      <c r="M245" s="2">
+        <v>0</v>
+      </c>
+      <c r="N245" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A246" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="B246" s="33" t="s">
+        <v>958</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0</v>
+      </c>
+      <c r="D246" s="1">
+        <v>0</v>
+      </c>
+      <c r="E246" s="16">
+        <v>1</v>
+      </c>
+      <c r="F246" s="16">
+        <v>1</v>
+      </c>
+      <c r="G246" s="2">
+        <v>0</v>
+      </c>
+      <c r="H246" s="33" t="s">
+        <v>969</v>
+      </c>
+      <c r="I246" s="2">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2">
+        <v>0</v>
+      </c>
+      <c r="K246" s="2">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2">
+        <v>1</v>
+      </c>
+      <c r="M246" s="2">
+        <v>0</v>
+      </c>
+      <c r="N246" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A247" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="B247" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+      <c r="D247" s="1">
+        <v>0</v>
+      </c>
+      <c r="E247" s="16">
+        <v>1</v>
+      </c>
+      <c r="F247" s="16">
+        <v>1</v>
+      </c>
+      <c r="G247" s="2">
+        <v>0</v>
+      </c>
+      <c r="H247" s="33" t="s">
+        <v>970</v>
+      </c>
+      <c r="I247" s="2">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2">
+        <v>0</v>
+      </c>
+      <c r="K247" s="2">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2">
+        <v>1</v>
+      </c>
+      <c r="M247" s="2">
+        <v>0</v>
+      </c>
+      <c r="N247" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A248" s="33" t="s">
+        <v>912</v>
+      </c>
+      <c r="B248" s="33" t="s">
+        <v>939</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0</v>
+      </c>
+      <c r="D248" s="1">
+        <v>0</v>
+      </c>
+      <c r="E248" s="16">
+        <v>1</v>
+      </c>
+      <c r="F248" s="18">
+        <v>1</v>
+      </c>
+      <c r="G248" s="2">
+        <v>0</v>
+      </c>
+      <c r="H248" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="I248" s="2">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2">
+        <v>1</v>
+      </c>
+      <c r="K248" s="2">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2">
+        <v>1</v>
+      </c>
+      <c r="M248" s="2">
+        <v>0</v>
+      </c>
+      <c r="N248" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A249" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="B249" s="33" t="s">
+        <v>940</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0</v>
+      </c>
+      <c r="D249" s="1">
+        <v>0</v>
+      </c>
+      <c r="E249" s="16">
+        <v>1</v>
+      </c>
+      <c r="F249" s="18">
+        <v>1</v>
+      </c>
+      <c r="G249" s="2">
+        <v>0</v>
+      </c>
+      <c r="H249" s="33" t="s">
+        <v>668</v>
+      </c>
+      <c r="I249" s="2">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2">
+        <v>1</v>
+      </c>
+      <c r="K249" s="2">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2">
+        <v>1</v>
+      </c>
+      <c r="M249" s="2">
+        <v>0</v>
+      </c>
+      <c r="N249" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A250" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="B250" s="33" t="s">
+        <v>960</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0</v>
+      </c>
+      <c r="D250" s="1">
+        <v>0</v>
+      </c>
+      <c r="E250" s="16">
+        <v>1</v>
+      </c>
+      <c r="F250" s="16">
+        <v>1</v>
+      </c>
+      <c r="G250" s="2">
+        <v>0</v>
+      </c>
+      <c r="H250" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="I250" s="2">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2">
+        <v>0</v>
+      </c>
+      <c r="K250" s="2">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2">
+        <v>1</v>
+      </c>
+      <c r="M250" s="2">
+        <v>0</v>
+      </c>
+      <c r="N250" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A251" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="B251" s="33" t="s">
+        <v>961</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0</v>
+      </c>
+      <c r="D251" s="1">
+        <v>0</v>
+      </c>
+      <c r="E251" s="16">
+        <v>1</v>
+      </c>
+      <c r="F251" s="16">
+        <v>1</v>
+      </c>
+      <c r="G251" s="2">
+        <v>0</v>
+      </c>
+      <c r="H251" s="33" t="s">
+        <v>972</v>
+      </c>
+      <c r="I251" s="2">
+        <v>0</v>
+      </c>
+      <c r="J251" s="2">
+        <v>0</v>
+      </c>
+      <c r="K251" s="2">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2">
+        <v>1</v>
+      </c>
+      <c r="M251" s="2">
+        <v>0</v>
+      </c>
+      <c r="N251" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A252" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="B252" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0</v>
+      </c>
+      <c r="D252" s="1">
+        <v>0</v>
+      </c>
+      <c r="E252" s="16">
+        <v>1</v>
+      </c>
+      <c r="F252" s="18">
+        <v>1</v>
+      </c>
+      <c r="G252" s="2">
+        <v>0</v>
+      </c>
+      <c r="H252" s="33" t="s">
+        <v>938</v>
+      </c>
+      <c r="I252" s="2">
+        <v>0</v>
+      </c>
+      <c r="J252" s="2">
+        <v>1</v>
+      </c>
+      <c r="K252" s="2">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2">
+        <v>1</v>
+      </c>
+      <c r="M252" s="2">
+        <v>0</v>
+      </c>
+      <c r="N252" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A253" s="33" t="s">
+        <v>952</v>
+      </c>
+      <c r="B253" s="33" t="s">
+        <v>962</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0</v>
+      </c>
+      <c r="D253" s="1">
+        <v>0</v>
+      </c>
+      <c r="E253" s="16">
+        <v>1</v>
+      </c>
+      <c r="F253" s="16">
+        <v>1</v>
+      </c>
+      <c r="G253" s="2">
+        <v>0</v>
+      </c>
+      <c r="H253" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="I253" s="2">
+        <v>0</v>
+      </c>
+      <c r="J253" s="2">
+        <v>0</v>
+      </c>
+      <c r="K253" s="2">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2">
+        <v>1</v>
+      </c>
+      <c r="M253" s="2">
+        <v>0</v>
+      </c>
+      <c r="N253" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A254" s="33" t="s">
+        <v>953</v>
+      </c>
+      <c r="B254" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+      <c r="D254" s="1">
+        <v>0</v>
+      </c>
+      <c r="E254" s="16">
+        <v>1</v>
+      </c>
+      <c r="F254" s="16">
+        <v>1</v>
+      </c>
+      <c r="G254" s="2">
+        <v>0</v>
+      </c>
+      <c r="H254" s="33" t="s">
+        <v>974</v>
+      </c>
+      <c r="I254" s="2">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2">
+        <v>0</v>
+      </c>
+      <c r="K254" s="2">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2">
+        <v>1</v>
+      </c>
+      <c r="M254" s="2">
+        <v>0</v>
+      </c>
+      <c r="N254" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A255" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B255" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0</v>
+      </c>
+      <c r="D255" s="1">
+        <v>0</v>
+      </c>
+      <c r="E255" s="16">
+        <v>1</v>
+      </c>
+      <c r="F255" s="18">
+        <v>1</v>
+      </c>
+      <c r="G255" s="2">
+        <v>0</v>
+      </c>
+      <c r="H255" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="I255" s="2">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2">
+        <v>1</v>
+      </c>
+      <c r="K255" s="2">
+        <v>1</v>
+      </c>
+      <c r="L255" s="2">
+        <v>1</v>
+      </c>
+      <c r="M255" s="2">
+        <v>1</v>
+      </c>
+      <c r="N255" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A256" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="B242" s="33" t="s">
+      <c r="B256" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C242" s="1">
-        <v>0</v>
-      </c>
-      <c r="D242" s="1">
-        <v>0</v>
-      </c>
-      <c r="E242" s="16">
-        <v>1</v>
-      </c>
-      <c r="F242" s="16">
-        <v>1</v>
-      </c>
-      <c r="G242" s="2">
-        <v>0</v>
-      </c>
-      <c r="H242" s="33" t="s">
+      <c r="C256" s="1">
+        <v>0</v>
+      </c>
+      <c r="D256" s="1">
+        <v>0</v>
+      </c>
+      <c r="E256" s="16">
+        <v>1</v>
+      </c>
+      <c r="F256" s="16">
+        <v>1</v>
+      </c>
+      <c r="G256" s="2">
+        <v>0</v>
+      </c>
+      <c r="H256" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="I242" s="2">
-        <v>0</v>
-      </c>
-      <c r="J242" s="2">
-        <v>1</v>
-      </c>
-      <c r="K242" s="2">
-        <v>1</v>
-      </c>
-      <c r="L242" s="2">
-        <v>1</v>
-      </c>
-      <c r="M242" s="2">
-        <v>1</v>
-      </c>
-      <c r="N242" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A243" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="B243" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="C243" s="1">
-        <v>0</v>
-      </c>
-      <c r="D243" s="1">
-        <v>0</v>
-      </c>
-      <c r="E243" s="3">
-        <v>1</v>
-      </c>
-      <c r="F243" s="18">
-        <v>1</v>
-      </c>
-      <c r="G243" s="2">
-        <v>0</v>
-      </c>
-      <c r="H243" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="I243" s="2">
-        <v>1</v>
-      </c>
-      <c r="J243" s="2">
-        <v>0</v>
-      </c>
-      <c r="K243" s="2">
-        <v>0</v>
-      </c>
-      <c r="L243" s="2">
-        <v>0</v>
-      </c>
-      <c r="M243" s="2">
-        <v>0</v>
-      </c>
-      <c r="N243" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A244" s="23" t="s">
-        <v>743</v>
-      </c>
-      <c r="B244" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="C244" s="1">
-        <v>0</v>
-      </c>
-      <c r="D244" s="1">
-        <v>0</v>
-      </c>
-      <c r="E244" s="3">
-        <v>1</v>
-      </c>
-      <c r="F244" s="18">
-        <v>1</v>
-      </c>
-      <c r="G244" s="2">
-        <v>0</v>
-      </c>
-      <c r="H244" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="I244" s="2">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2">
-        <v>0</v>
-      </c>
-      <c r="K244" s="2">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2">
-        <v>1</v>
-      </c>
-      <c r="M244" s="2">
-        <v>1</v>
-      </c>
-      <c r="N244" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A245" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="B245" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="C245" s="1">
-        <v>0</v>
-      </c>
-      <c r="D245" s="1">
-        <v>0</v>
-      </c>
-      <c r="E245" s="3">
-        <v>1</v>
-      </c>
-      <c r="F245" s="18">
-        <v>1</v>
-      </c>
-      <c r="G245" s="2">
-        <v>0</v>
-      </c>
-      <c r="H245" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="I245" s="2">
-        <v>1</v>
-      </c>
-      <c r="J245" s="2">
-        <v>0</v>
-      </c>
-      <c r="K245" s="2">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2">
-        <v>0</v>
-      </c>
-      <c r="M245" s="2">
-        <v>0</v>
-      </c>
-      <c r="N245" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A246" s="23" t="s">
-        <v>744</v>
-      </c>
-      <c r="B246" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="C246" s="1">
-        <v>0</v>
-      </c>
-      <c r="D246" s="1">
-        <v>0</v>
-      </c>
-      <c r="E246" s="3">
-        <v>1</v>
-      </c>
-      <c r="F246" s="18">
-        <v>1</v>
-      </c>
-      <c r="G246" s="2">
-        <v>0</v>
-      </c>
-      <c r="H246" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="I246" s="2">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2">
-        <v>0</v>
-      </c>
-      <c r="K246" s="2">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2">
-        <v>1</v>
-      </c>
-      <c r="M246" s="2">
-        <v>1</v>
-      </c>
-      <c r="N246" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A247" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="B247" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="C247" s="1">
-        <v>0</v>
-      </c>
-      <c r="D247" s="1">
-        <v>0</v>
-      </c>
-      <c r="E247" s="3">
-        <v>1</v>
-      </c>
-      <c r="F247" s="18">
-        <v>1</v>
-      </c>
-      <c r="G247" s="2">
-        <v>0</v>
-      </c>
-      <c r="H247" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="I247" s="2">
-        <v>1</v>
-      </c>
-      <c r="J247" s="2">
-        <v>0</v>
-      </c>
-      <c r="K247" s="2">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2">
-        <v>0</v>
-      </c>
-      <c r="M247" s="2">
-        <v>0</v>
-      </c>
-      <c r="N247" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A248" s="23" t="s">
-        <v>745</v>
-      </c>
-      <c r="B248" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="C248" s="1">
-        <v>0</v>
-      </c>
-      <c r="D248" s="1">
-        <v>0</v>
-      </c>
-      <c r="E248" s="3">
-        <v>1</v>
-      </c>
-      <c r="F248" s="18">
-        <v>1</v>
-      </c>
-      <c r="G248" s="2">
-        <v>0</v>
-      </c>
-      <c r="H248" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="I248" s="2">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2">
-        <v>0</v>
-      </c>
-      <c r="K248" s="2">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2">
-        <v>1</v>
-      </c>
-      <c r="M248" s="2">
-        <v>1</v>
-      </c>
-      <c r="N248" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A249" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="B249" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="C249" s="1">
-        <v>0</v>
-      </c>
-      <c r="D249" s="1">
-        <v>0</v>
-      </c>
-      <c r="E249" s="3">
-        <v>1</v>
-      </c>
-      <c r="F249" s="18">
-        <v>1</v>
-      </c>
-      <c r="G249" s="2">
-        <v>0</v>
-      </c>
-      <c r="H249" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="I249" s="2">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2">
-        <v>0</v>
-      </c>
-      <c r="K249" s="2">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2">
-        <v>0</v>
-      </c>
-      <c r="M249" s="2">
-        <v>0</v>
-      </c>
-      <c r="N249" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A250" s="23" t="s">
-        <v>746</v>
-      </c>
-      <c r="B250" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="C250" s="1">
-        <v>0</v>
-      </c>
-      <c r="D250" s="1">
-        <v>0</v>
-      </c>
-      <c r="E250" s="3">
-        <v>1</v>
-      </c>
-      <c r="F250" s="18">
-        <v>1</v>
-      </c>
-      <c r="G250" s="2">
-        <v>0</v>
-      </c>
-      <c r="H250" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="I250" s="2">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2">
-        <v>0</v>
-      </c>
-      <c r="K250" s="2">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2">
-        <v>1</v>
-      </c>
-      <c r="M250" s="2">
-        <v>1</v>
-      </c>
-      <c r="N250" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A251" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="B251" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="C251" s="1">
-        <v>0</v>
-      </c>
-      <c r="D251" s="1">
-        <v>0</v>
-      </c>
-      <c r="E251" s="3">
-        <v>1</v>
-      </c>
-      <c r="F251" s="18">
-        <v>1</v>
-      </c>
-      <c r="G251" s="2">
-        <v>0</v>
-      </c>
-      <c r="H251" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="I251" s="2">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2">
-        <v>0</v>
-      </c>
-      <c r="K251" s="2">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2">
-        <v>0</v>
-      </c>
-      <c r="M251" s="2">
-        <v>0</v>
-      </c>
-      <c r="N251" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A252" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="B252" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="C252" s="1">
-        <v>0</v>
-      </c>
-      <c r="D252" s="1">
-        <v>0</v>
-      </c>
-      <c r="E252" s="3">
-        <v>1</v>
-      </c>
-      <c r="F252" s="18">
-        <v>1</v>
-      </c>
-      <c r="G252" s="2">
-        <v>0</v>
-      </c>
-      <c r="H252" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="I252" s="2">
-        <v>0</v>
-      </c>
-      <c r="J252" s="2">
-        <v>0</v>
-      </c>
-      <c r="K252" s="2">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2">
-        <v>1</v>
-      </c>
-      <c r="M252" s="2">
-        <v>1</v>
-      </c>
-      <c r="N252" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A253" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="B253" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="C253" s="1">
-        <v>0</v>
-      </c>
-      <c r="D253" s="1">
-        <v>0</v>
-      </c>
-      <c r="E253" s="3">
-        <v>1</v>
-      </c>
-      <c r="F253" s="18">
-        <v>1</v>
-      </c>
-      <c r="G253" s="2">
-        <v>0</v>
-      </c>
-      <c r="H253" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="I253" s="2">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2">
-        <v>0</v>
-      </c>
-      <c r="K253" s="2">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2">
-        <v>0</v>
-      </c>
-      <c r="M253" s="2">
-        <v>0</v>
-      </c>
-      <c r="N253" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A254" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="B254" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="C254" s="1">
-        <v>0</v>
-      </c>
-      <c r="D254" s="1">
-        <v>0</v>
-      </c>
-      <c r="E254" s="3">
-        <v>1</v>
-      </c>
-      <c r="F254" s="18">
-        <v>1</v>
-      </c>
-      <c r="G254" s="2">
-        <v>0</v>
-      </c>
-      <c r="H254" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="I254" s="2">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2">
-        <v>0</v>
-      </c>
-      <c r="K254" s="2">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2">
-        <v>1</v>
-      </c>
-      <c r="M254" s="2">
-        <v>1</v>
-      </c>
-      <c r="N254" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A255" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="B255" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="C255" s="1">
-        <v>0</v>
-      </c>
-      <c r="D255" s="1">
-        <v>0</v>
-      </c>
-      <c r="E255" s="3">
-        <v>1</v>
-      </c>
-      <c r="F255" s="18">
-        <v>1</v>
-      </c>
-      <c r="G255" s="2">
-        <v>0</v>
-      </c>
-      <c r="H255" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="I255" s="2">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2">
-        <v>0</v>
-      </c>
-      <c r="K255" s="2">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2">
-        <v>0</v>
-      </c>
-      <c r="M255" s="2">
-        <v>0</v>
-      </c>
-      <c r="N255" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A256" s="23" t="s">
-        <v>749</v>
-      </c>
-      <c r="B256" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="C256" s="1">
-        <v>0</v>
-      </c>
-      <c r="D256" s="1">
-        <v>0</v>
-      </c>
-      <c r="E256" s="3">
-        <v>1</v>
-      </c>
-      <c r="F256" s="18">
-        <v>1</v>
-      </c>
-      <c r="G256" s="2">
-        <v>0</v>
-      </c>
-      <c r="H256" s="23" t="s">
-        <v>560</v>
-      </c>
       <c r="I256" s="2">
         <v>0</v>
       </c>
       <c r="J256" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K256" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256" s="2">
         <v>1</v>
@@ -16071,15 +16197,15 @@
         <v>1</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" s="23" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="C257" s="1">
         <v>0</v>
@@ -16087,17 +16213,17 @@
       <c r="D257" s="1">
         <v>0</v>
       </c>
-      <c r="E257" s="3">
-        <v>1</v>
-      </c>
-      <c r="F257" s="18">
+      <c r="E257" s="16">
+        <v>1</v>
+      </c>
+      <c r="F257" s="16">
         <v>1</v>
       </c>
       <c r="G257" s="2">
         <v>0</v>
       </c>
       <c r="H257" s="23" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="I257" s="2">
         <v>1</v>
@@ -16120,10 +16246,10 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="23" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="C258" s="1">
         <v>0</v>
@@ -16141,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="H258" s="23" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="I258" s="2">
         <v>0</v>
@@ -16164,10 +16290,10 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="23" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="C259" s="1">
         <v>0</v>
@@ -16185,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="23" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="I259" s="2">
         <v>1</v>
@@ -16208,10 +16334,10 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="23" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="C260" s="1">
         <v>0</v>
@@ -16229,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="H260" s="23" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="I260" s="2">
         <v>0</v>
@@ -16252,10 +16378,10 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="23" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C261" s="1">
         <v>0</v>
@@ -16273,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="H261" s="23" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="I261" s="2">
         <v>1</v>
@@ -16296,10 +16422,10 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" s="23" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C262" s="1">
         <v>0</v>
@@ -16317,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="H262" s="23" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="I262" s="2">
         <v>0</v>
@@ -16340,10 +16466,10 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="23" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="C263" s="1">
         <v>0</v>
@@ -16361,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="H263" s="23" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="I263" s="2">
         <v>1</v>
@@ -16379,15 +16505,15 @@
         <v>0</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="23" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="C264" s="1">
         <v>0</v>
@@ -16405,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="H264" s="23" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="I264" s="2">
         <v>0</v>
@@ -16428,10 +16554,10 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="23" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="C265" s="1">
         <v>0</v>
@@ -16449,7 +16575,7 @@
         <v>0</v>
       </c>
       <c r="H265" s="23" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="I265" s="2">
         <v>1</v>
@@ -16472,10 +16598,10 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="23" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="C266" s="1">
         <v>0</v>
@@ -16493,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="H266" s="23" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="I266" s="2">
         <v>0</v>
@@ -16516,10 +16642,10 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" s="23" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C267" s="1">
         <v>0</v>
@@ -16537,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="H267" s="23" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="I267" s="2">
         <v>1</v>
@@ -16560,10 +16686,10 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="23" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C268" s="1">
         <v>0</v>
@@ -16581,7 +16707,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="23" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="I268" s="2">
         <v>0</v>
@@ -16604,10 +16730,10 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="23" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C269" s="1">
         <v>0</v>
@@ -16625,7 +16751,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="23" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="I269" s="2">
         <v>1</v>
@@ -16648,10 +16774,10 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="23" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C270" s="1">
         <v>0</v>
@@ -16669,7 +16795,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="23" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="I270" s="2">
         <v>0</v>
@@ -16692,10 +16818,10 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" s="23" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="C271" s="1">
         <v>0</v>
@@ -16713,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="H271" s="23" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="I271" s="2">
         <v>1</v>
@@ -16736,10 +16862,10 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" s="23" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="C272" s="1">
         <v>0</v>
@@ -16757,7 +16883,7 @@
         <v>0</v>
       </c>
       <c r="H272" s="23" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="I272" s="2">
         <v>0</v>
@@ -16780,10 +16906,10 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="23" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="C273" s="1">
         <v>0</v>
@@ -16801,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="H273" s="23" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="I273" s="2">
         <v>1</v>
@@ -16824,10 +16950,10 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" s="23" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="C274" s="1">
         <v>0</v>
@@ -16845,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="23" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="I274" s="2">
         <v>0</v>
@@ -16868,10 +16994,10 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" s="23" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="C275" s="1">
         <v>0</v>
@@ -16889,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="H275" s="23" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="I275" s="2">
         <v>1</v>
@@ -16912,10 +17038,10 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" s="23" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="C276" s="1">
         <v>0</v>
@@ -16933,7 +17059,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="23" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="I276" s="2">
         <v>0</v>
@@ -16956,10 +17082,10 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" s="23" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="C277" s="1">
         <v>0</v>
@@ -16977,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="23" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="I277" s="2">
         <v>1</v>
@@ -17000,10 +17126,10 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" s="23" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="C278" s="1">
         <v>0</v>
@@ -17021,7 +17147,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="23" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="I278" s="2">
         <v>0</v>
@@ -17044,10 +17170,10 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" s="23" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>105</v>
+        <v>574</v>
       </c>
       <c r="C279" s="1">
         <v>0</v>
@@ -17055,7 +17181,7 @@
       <c r="D279" s="1">
         <v>0</v>
       </c>
-      <c r="E279" s="16">
+      <c r="E279" s="3">
         <v>1</v>
       </c>
       <c r="F279" s="18">
@@ -17065,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="23" t="s">
-        <v>250</v>
+        <v>575</v>
       </c>
       <c r="I279" s="2">
         <v>1</v>
@@ -17088,10 +17214,10 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" s="23" t="s">
-        <v>387</v>
+        <v>754</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>105</v>
+        <v>574</v>
       </c>
       <c r="C280" s="1">
         <v>0</v>
@@ -17099,7 +17225,7 @@
       <c r="D280" s="1">
         <v>0</v>
       </c>
-      <c r="E280" s="16">
+      <c r="E280" s="3">
         <v>1</v>
       </c>
       <c r="F280" s="18">
@@ -17109,16 +17235,16 @@
         <v>0</v>
       </c>
       <c r="H280" s="23" t="s">
-        <v>250</v>
+        <v>575</v>
       </c>
       <c r="I280" s="2">
         <v>0</v>
       </c>
       <c r="J280" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K280" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L280" s="2">
         <v>1</v>
@@ -17127,15 +17253,15 @@
         <v>1</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" s="23" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>106</v>
+        <v>577</v>
       </c>
       <c r="C281" s="1">
         <v>0</v>
@@ -17143,7 +17269,7 @@
       <c r="D281" s="1">
         <v>0</v>
       </c>
-      <c r="E281" s="16">
+      <c r="E281" s="3">
         <v>1</v>
       </c>
       <c r="F281" s="18">
@@ -17153,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="23" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I281" s="2">
         <v>1</v>
@@ -17176,600 +17302,600 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" s="23" t="s">
-        <v>455</v>
+        <v>755</v>
       </c>
       <c r="B282" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="C282" s="1">
+        <v>0</v>
+      </c>
+      <c r="D282" s="1">
+        <v>0</v>
+      </c>
+      <c r="E282" s="3">
+        <v>1</v>
+      </c>
+      <c r="F282" s="18">
+        <v>1</v>
+      </c>
+      <c r="G282" s="2">
+        <v>0</v>
+      </c>
+      <c r="H282" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="I282" s="2">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2">
+        <v>0</v>
+      </c>
+      <c r="K282" s="2">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2">
+        <v>1</v>
+      </c>
+      <c r="M282" s="2">
+        <v>1</v>
+      </c>
+      <c r="N282" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A283" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="C283" s="1">
+        <v>0</v>
+      </c>
+      <c r="D283" s="1">
+        <v>0</v>
+      </c>
+      <c r="E283" s="3">
+        <v>1</v>
+      </c>
+      <c r="F283" s="18">
+        <v>1</v>
+      </c>
+      <c r="G283" s="2">
+        <v>0</v>
+      </c>
+      <c r="H283" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="I283" s="2">
+        <v>1</v>
+      </c>
+      <c r="J283" s="2">
+        <v>0</v>
+      </c>
+      <c r="K283" s="2">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2">
+        <v>0</v>
+      </c>
+      <c r="M283" s="2">
+        <v>0</v>
+      </c>
+      <c r="N283" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A284" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="B284" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="C284" s="1">
+        <v>0</v>
+      </c>
+      <c r="D284" s="1">
+        <v>0</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1</v>
+      </c>
+      <c r="F284" s="18">
+        <v>1</v>
+      </c>
+      <c r="G284" s="2">
+        <v>0</v>
+      </c>
+      <c r="H284" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="I284" s="2">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2">
+        <v>0</v>
+      </c>
+      <c r="K284" s="2">
+        <v>0</v>
+      </c>
+      <c r="L284" s="2">
+        <v>1</v>
+      </c>
+      <c r="M284" s="2">
+        <v>1</v>
+      </c>
+      <c r="N284" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A285" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="B285" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="C285" s="1">
+        <v>0</v>
+      </c>
+      <c r="D285" s="1">
+        <v>0</v>
+      </c>
+      <c r="E285" s="3">
+        <v>1</v>
+      </c>
+      <c r="F285" s="18">
+        <v>1</v>
+      </c>
+      <c r="G285" s="2">
+        <v>0</v>
+      </c>
+      <c r="H285" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="I285" s="2">
+        <v>1</v>
+      </c>
+      <c r="J285" s="2">
+        <v>0</v>
+      </c>
+      <c r="K285" s="2">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2">
+        <v>0</v>
+      </c>
+      <c r="M285" s="2">
+        <v>0</v>
+      </c>
+      <c r="N285" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A286" s="23" t="s">
+        <v>757</v>
+      </c>
+      <c r="B286" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="C286" s="1">
+        <v>0</v>
+      </c>
+      <c r="D286" s="1">
+        <v>0</v>
+      </c>
+      <c r="E286" s="3">
+        <v>1</v>
+      </c>
+      <c r="F286" s="18">
+        <v>1</v>
+      </c>
+      <c r="G286" s="2">
+        <v>0</v>
+      </c>
+      <c r="H286" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="I286" s="2">
+        <v>0</v>
+      </c>
+      <c r="J286" s="2">
+        <v>0</v>
+      </c>
+      <c r="K286" s="2">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2">
+        <v>1</v>
+      </c>
+      <c r="M286" s="2">
+        <v>1</v>
+      </c>
+      <c r="N286" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A287" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="B287" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="C287" s="1">
+        <v>0</v>
+      </c>
+      <c r="D287" s="1">
+        <v>0</v>
+      </c>
+      <c r="E287" s="3">
+        <v>1</v>
+      </c>
+      <c r="F287" s="18">
+        <v>1</v>
+      </c>
+      <c r="G287" s="2">
+        <v>0</v>
+      </c>
+      <c r="H287" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="I287" s="2">
+        <v>1</v>
+      </c>
+      <c r="J287" s="2">
+        <v>0</v>
+      </c>
+      <c r="K287" s="2">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2">
+        <v>0</v>
+      </c>
+      <c r="M287" s="2">
+        <v>0</v>
+      </c>
+      <c r="N287" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A288" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="B288" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="C288" s="1">
+        <v>0</v>
+      </c>
+      <c r="D288" s="1">
+        <v>0</v>
+      </c>
+      <c r="E288" s="3">
+        <v>1</v>
+      </c>
+      <c r="F288" s="18">
+        <v>1</v>
+      </c>
+      <c r="G288" s="2">
+        <v>0</v>
+      </c>
+      <c r="H288" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="I288" s="2">
+        <v>0</v>
+      </c>
+      <c r="J288" s="2">
+        <v>0</v>
+      </c>
+      <c r="K288" s="2">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2">
+        <v>1</v>
+      </c>
+      <c r="M288" s="2">
+        <v>1</v>
+      </c>
+      <c r="N288" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A289" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="B289" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="C289" s="1">
+        <v>0</v>
+      </c>
+      <c r="D289" s="1">
+        <v>0</v>
+      </c>
+      <c r="E289" s="3">
+        <v>1</v>
+      </c>
+      <c r="F289" s="18">
+        <v>1</v>
+      </c>
+      <c r="G289" s="2">
+        <v>0</v>
+      </c>
+      <c r="H289" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="I289" s="2">
+        <v>1</v>
+      </c>
+      <c r="J289" s="2">
+        <v>0</v>
+      </c>
+      <c r="K289" s="2">
+        <v>0</v>
+      </c>
+      <c r="L289" s="2">
+        <v>0</v>
+      </c>
+      <c r="M289" s="2">
+        <v>0</v>
+      </c>
+      <c r="N289" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A290" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="B290" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="C290" s="1">
+        <v>0</v>
+      </c>
+      <c r="D290" s="1">
+        <v>0</v>
+      </c>
+      <c r="E290" s="3">
+        <v>1</v>
+      </c>
+      <c r="F290" s="18">
+        <v>1</v>
+      </c>
+      <c r="G290" s="2">
+        <v>0</v>
+      </c>
+      <c r="H290" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="I290" s="2">
+        <v>0</v>
+      </c>
+      <c r="J290" s="2">
+        <v>0</v>
+      </c>
+      <c r="K290" s="2">
+        <v>0</v>
+      </c>
+      <c r="L290" s="2">
+        <v>1</v>
+      </c>
+      <c r="M290" s="2">
+        <v>1</v>
+      </c>
+      <c r="N290" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A291" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B291" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C291" s="1">
+        <v>0</v>
+      </c>
+      <c r="D291" s="1">
+        <v>0</v>
+      </c>
+      <c r="E291" s="3">
+        <v>1</v>
+      </c>
+      <c r="F291" s="18">
+        <v>1</v>
+      </c>
+      <c r="G291" s="2">
+        <v>0</v>
+      </c>
+      <c r="H291" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="I291" s="2">
+        <v>1</v>
+      </c>
+      <c r="J291" s="2">
+        <v>0</v>
+      </c>
+      <c r="K291" s="2">
+        <v>0</v>
+      </c>
+      <c r="L291" s="2">
+        <v>0</v>
+      </c>
+      <c r="M291" s="2">
+        <v>0</v>
+      </c>
+      <c r="N291" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A292" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="B292" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C292" s="1">
+        <v>0</v>
+      </c>
+      <c r="D292" s="1">
+        <v>0</v>
+      </c>
+      <c r="E292" s="3">
+        <v>1</v>
+      </c>
+      <c r="F292" s="18">
+        <v>1</v>
+      </c>
+      <c r="G292" s="2">
+        <v>0</v>
+      </c>
+      <c r="H292" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="I292" s="2">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2">
+        <v>0</v>
+      </c>
+      <c r="K292" s="2">
+        <v>0</v>
+      </c>
+      <c r="L292" s="2">
+        <v>1</v>
+      </c>
+      <c r="M292" s="2">
+        <v>1</v>
+      </c>
+      <c r="N292" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A293" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="B293" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C293" s="1">
+        <v>0</v>
+      </c>
+      <c r="D293" s="1">
+        <v>0</v>
+      </c>
+      <c r="E293" s="16">
+        <v>1</v>
+      </c>
+      <c r="F293" s="18">
+        <v>1</v>
+      </c>
+      <c r="G293" s="2">
+        <v>0</v>
+      </c>
+      <c r="H293" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I293" s="2">
+        <v>1</v>
+      </c>
+      <c r="J293" s="2">
+        <v>0</v>
+      </c>
+      <c r="K293" s="2">
+        <v>0</v>
+      </c>
+      <c r="L293" s="2">
+        <v>0</v>
+      </c>
+      <c r="M293" s="2">
+        <v>0</v>
+      </c>
+      <c r="N293" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A294" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B294" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C294" s="1">
+        <v>0</v>
+      </c>
+      <c r="D294" s="1">
+        <v>0</v>
+      </c>
+      <c r="E294" s="16">
+        <v>1</v>
+      </c>
+      <c r="F294" s="18">
+        <v>1</v>
+      </c>
+      <c r="G294" s="2">
+        <v>0</v>
+      </c>
+      <c r="H294" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I294" s="2">
+        <v>0</v>
+      </c>
+      <c r="J294" s="2">
+        <v>1</v>
+      </c>
+      <c r="K294" s="2">
+        <v>1</v>
+      </c>
+      <c r="L294" s="2">
+        <v>1</v>
+      </c>
+      <c r="M294" s="2">
+        <v>1</v>
+      </c>
+      <c r="N294" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A295" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B295" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C282" s="1">
-        <v>0</v>
-      </c>
-      <c r="D282" s="1">
-        <v>0</v>
-      </c>
-      <c r="E282" s="16">
-        <v>1</v>
-      </c>
-      <c r="F282" s="18">
-        <v>1</v>
-      </c>
-      <c r="G282" s="2">
-        <v>0</v>
-      </c>
-      <c r="H282" s="23" t="s">
+      <c r="C295" s="1">
+        <v>0</v>
+      </c>
+      <c r="D295" s="1">
+        <v>0</v>
+      </c>
+      <c r="E295" s="16">
+        <v>1</v>
+      </c>
+      <c r="F295" s="18">
+        <v>1</v>
+      </c>
+      <c r="G295" s="2">
+        <v>0</v>
+      </c>
+      <c r="H295" s="23" t="s">
         <v>251</v>
-      </c>
-      <c r="I282" s="2">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2">
-        <v>1</v>
-      </c>
-      <c r="K282" s="2">
-        <v>1</v>
-      </c>
-      <c r="L282" s="2">
-        <v>1</v>
-      </c>
-      <c r="M282" s="2">
-        <v>1</v>
-      </c>
-      <c r="N282" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A283" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="B283" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C283" s="1">
-        <v>0</v>
-      </c>
-      <c r="D283" s="1">
-        <v>0</v>
-      </c>
-      <c r="E283" s="16">
-        <v>1</v>
-      </c>
-      <c r="F283" s="18">
-        <v>1</v>
-      </c>
-      <c r="G283" s="2">
-        <v>0</v>
-      </c>
-      <c r="H283" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="I283" s="2">
-        <v>1</v>
-      </c>
-      <c r="J283" s="2">
-        <v>0</v>
-      </c>
-      <c r="K283" s="2">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2">
-        <v>0</v>
-      </c>
-      <c r="M283" s="2">
-        <v>0</v>
-      </c>
-      <c r="N283" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A284" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C284" s="1">
-        <v>0</v>
-      </c>
-      <c r="D284" s="1">
-        <v>0</v>
-      </c>
-      <c r="E284" s="16">
-        <v>1</v>
-      </c>
-      <c r="F284" s="18">
-        <v>1</v>
-      </c>
-      <c r="G284" s="2">
-        <v>0</v>
-      </c>
-      <c r="H284" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="I284" s="2">
-        <v>0</v>
-      </c>
-      <c r="J284" s="2">
-        <v>1</v>
-      </c>
-      <c r="K284" s="2">
-        <v>1</v>
-      </c>
-      <c r="L284" s="2">
-        <v>1</v>
-      </c>
-      <c r="M284" s="2">
-        <v>1</v>
-      </c>
-      <c r="N284" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A285" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="B285" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C285" s="1">
-        <v>0</v>
-      </c>
-      <c r="D285" s="1">
-        <v>0</v>
-      </c>
-      <c r="E285" s="16">
-        <v>1</v>
-      </c>
-      <c r="F285" s="18">
-        <v>1</v>
-      </c>
-      <c r="G285" s="2">
-        <v>0</v>
-      </c>
-      <c r="H285" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="I285" s="2">
-        <v>1</v>
-      </c>
-      <c r="J285" s="2">
-        <v>0</v>
-      </c>
-      <c r="K285" s="2">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2">
-        <v>0</v>
-      </c>
-      <c r="M285" s="2">
-        <v>0</v>
-      </c>
-      <c r="N285" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A286" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="B286" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C286" s="1">
-        <v>0</v>
-      </c>
-      <c r="D286" s="1">
-        <v>0</v>
-      </c>
-      <c r="E286" s="16">
-        <v>1</v>
-      </c>
-      <c r="F286" s="18">
-        <v>1</v>
-      </c>
-      <c r="G286" s="2">
-        <v>0</v>
-      </c>
-      <c r="H286" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="I286" s="2">
-        <v>0</v>
-      </c>
-      <c r="J286" s="2">
-        <v>1</v>
-      </c>
-      <c r="K286" s="2">
-        <v>1</v>
-      </c>
-      <c r="L286" s="2">
-        <v>1</v>
-      </c>
-      <c r="M286" s="2">
-        <v>1</v>
-      </c>
-      <c r="N286" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A287" s="24" t="s">
-        <v>846</v>
-      </c>
-      <c r="B287" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C287" s="1">
-        <v>0</v>
-      </c>
-      <c r="D287" s="1">
-        <v>0</v>
-      </c>
-      <c r="E287" s="16">
-        <v>1</v>
-      </c>
-      <c r="F287" s="18">
-        <v>1</v>
-      </c>
-      <c r="G287" s="2">
-        <v>1</v>
-      </c>
-      <c r="H287" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="I287" s="2">
-        <v>1</v>
-      </c>
-      <c r="J287" s="2">
-        <v>0</v>
-      </c>
-      <c r="K287" s="2">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2">
-        <v>0</v>
-      </c>
-      <c r="M287" s="2">
-        <v>0</v>
-      </c>
-      <c r="N287" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A288" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="B288" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C288" s="1">
-        <v>0</v>
-      </c>
-      <c r="D288" s="1">
-        <v>0</v>
-      </c>
-      <c r="E288" s="16">
-        <v>1</v>
-      </c>
-      <c r="F288" s="18">
-        <v>1</v>
-      </c>
-      <c r="G288" s="2">
-        <v>1</v>
-      </c>
-      <c r="H288" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="I288" s="2">
-        <v>0</v>
-      </c>
-      <c r="J288" s="2">
-        <v>1</v>
-      </c>
-      <c r="K288" s="2">
-        <v>1</v>
-      </c>
-      <c r="L288" s="2">
-        <v>1</v>
-      </c>
-      <c r="M288" s="2">
-        <v>1</v>
-      </c>
-      <c r="N288" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A289" s="24" t="s">
-        <v>847</v>
-      </c>
-      <c r="B289" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C289" s="1">
-        <v>0</v>
-      </c>
-      <c r="D289" s="1">
-        <v>0</v>
-      </c>
-      <c r="E289" s="16">
-        <v>1</v>
-      </c>
-      <c r="F289" s="18">
-        <v>1</v>
-      </c>
-      <c r="G289" s="2">
-        <v>1</v>
-      </c>
-      <c r="H289" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="I289" s="2">
-        <v>1</v>
-      </c>
-      <c r="J289" s="2">
-        <v>0</v>
-      </c>
-      <c r="K289" s="2">
-        <v>0</v>
-      </c>
-      <c r="L289" s="2">
-        <v>0</v>
-      </c>
-      <c r="M289" s="2">
-        <v>0</v>
-      </c>
-      <c r="N289" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A290" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="B290" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C290" s="1">
-        <v>0</v>
-      </c>
-      <c r="D290" s="1">
-        <v>0</v>
-      </c>
-      <c r="E290" s="16">
-        <v>1</v>
-      </c>
-      <c r="F290" s="18">
-        <v>1</v>
-      </c>
-      <c r="G290" s="2">
-        <v>1</v>
-      </c>
-      <c r="H290" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="I290" s="2">
-        <v>0</v>
-      </c>
-      <c r="J290" s="2">
-        <v>1</v>
-      </c>
-      <c r="K290" s="2">
-        <v>1</v>
-      </c>
-      <c r="L290" s="2">
-        <v>1</v>
-      </c>
-      <c r="M290" s="2">
-        <v>1</v>
-      </c>
-      <c r="N290" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A291" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="B291" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C291" s="1">
-        <v>0</v>
-      </c>
-      <c r="D291" s="1">
-        <v>0</v>
-      </c>
-      <c r="E291" s="16">
-        <v>1</v>
-      </c>
-      <c r="F291" s="18">
-        <v>1</v>
-      </c>
-      <c r="G291" s="2">
-        <v>0</v>
-      </c>
-      <c r="H291" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="I291" s="2">
-        <v>0</v>
-      </c>
-      <c r="J291" s="2">
-        <v>1</v>
-      </c>
-      <c r="K291" s="2">
-        <v>1</v>
-      </c>
-      <c r="L291" s="2">
-        <v>0</v>
-      </c>
-      <c r="M291" s="2">
-        <v>0</v>
-      </c>
-      <c r="N291" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A292" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="B292" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C292" s="1">
-        <v>0</v>
-      </c>
-      <c r="D292" s="1">
-        <v>0</v>
-      </c>
-      <c r="E292" s="16">
-        <v>1</v>
-      </c>
-      <c r="F292" s="18">
-        <v>1</v>
-      </c>
-      <c r="G292" s="2">
-        <v>0</v>
-      </c>
-      <c r="H292" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="I292" s="2">
-        <v>0</v>
-      </c>
-      <c r="J292" s="2">
-        <v>1</v>
-      </c>
-      <c r="K292" s="2">
-        <v>1</v>
-      </c>
-      <c r="L292" s="2">
-        <v>0</v>
-      </c>
-      <c r="M292" s="2">
-        <v>0</v>
-      </c>
-      <c r="N292" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A293" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C293" s="1">
-        <v>0</v>
-      </c>
-      <c r="D293" s="1">
-        <v>0</v>
-      </c>
-      <c r="E293" s="16">
-        <v>1</v>
-      </c>
-      <c r="F293" s="18">
-        <v>1</v>
-      </c>
-      <c r="G293" s="2">
-        <v>0</v>
-      </c>
-      <c r="H293" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="I293" s="2">
-        <v>0</v>
-      </c>
-      <c r="J293" s="2">
-        <v>1</v>
-      </c>
-      <c r="K293" s="2">
-        <v>1</v>
-      </c>
-      <c r="L293" s="2">
-        <v>0</v>
-      </c>
-      <c r="M293" s="2">
-        <v>0</v>
-      </c>
-      <c r="N293" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A294" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C294" s="1">
-        <v>0</v>
-      </c>
-      <c r="D294" s="1">
-        <v>0</v>
-      </c>
-      <c r="E294" s="16">
-        <v>1</v>
-      </c>
-      <c r="F294" s="18">
-        <v>1</v>
-      </c>
-      <c r="G294" s="2">
-        <v>0</v>
-      </c>
-      <c r="H294" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="I294" s="2">
-        <v>0</v>
-      </c>
-      <c r="J294" s="2">
-        <v>1</v>
-      </c>
-      <c r="K294" s="2">
-        <v>1</v>
-      </c>
-      <c r="L294" s="2">
-        <v>0</v>
-      </c>
-      <c r="M294" s="2">
-        <v>0</v>
-      </c>
-      <c r="N294" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A295" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="B295" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C295" s="1">
-        <v>0</v>
-      </c>
-      <c r="D295" s="1">
-        <v>0</v>
-      </c>
-      <c r="E295" s="16">
-        <v>1</v>
-      </c>
-      <c r="F295" s="18">
-        <v>1</v>
-      </c>
-      <c r="G295" s="2">
-        <v>0</v>
-      </c>
-      <c r="H295" s="24" t="s">
-        <v>266</v>
       </c>
       <c r="I295" s="2">
         <v>1</v>
@@ -17791,11 +17917,11 @@
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A296" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="B296" s="24" t="s">
-        <v>121</v>
+      <c r="A296" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="B296" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="C296" s="1">
         <v>0</v>
@@ -17812,8 +17938,8 @@
       <c r="G296" s="2">
         <v>0</v>
       </c>
-      <c r="H296" s="24" t="s">
-        <v>266</v>
+      <c r="H296" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="I296" s="2">
         <v>0</v>
@@ -17828,7 +17954,7 @@
         <v>1</v>
       </c>
       <c r="M296" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N296" s="2" t="s">
         <v>686</v>
@@ -17836,10 +17962,10 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" s="24" t="s">
-        <v>895</v>
+        <v>596</v>
       </c>
       <c r="B297" s="24" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C297" s="1">
         <v>0</v>
@@ -17857,10 +17983,10 @@
         <v>0</v>
       </c>
       <c r="H297" s="24" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I297" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" s="2">
         <v>0</v>
@@ -17872,18 +17998,18 @@
         <v>0</v>
       </c>
       <c r="M297" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N297" s="2" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A298" s="24" t="s">
-        <v>849</v>
-      </c>
-      <c r="B298" s="24" t="s">
-        <v>780</v>
+      <c r="A298" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="C298" s="1">
         <v>0</v>
@@ -17901,33 +18027,33 @@
         <v>0</v>
       </c>
       <c r="H298" s="24" t="s">
-        <v>781</v>
+        <v>258</v>
       </c>
       <c r="I298" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K298" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L298" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M298" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="B299" s="24" t="s">
-        <v>499</v>
+        <v>597</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="C299" s="1">
         <v>0</v>
@@ -17945,16 +18071,16 @@
         <v>0</v>
       </c>
       <c r="H299" s="24" t="s">
-        <v>515</v>
+        <v>259</v>
       </c>
       <c r="I299" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K299" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L299" s="2">
         <v>0</v>
@@ -17967,11 +18093,11 @@
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A300" s="24" t="s">
-        <v>779</v>
-      </c>
-      <c r="B300" s="24" t="s">
-        <v>780</v>
+      <c r="A300" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="C300" s="1">
         <v>0</v>
@@ -17989,22 +18115,22 @@
         <v>0</v>
       </c>
       <c r="H300" s="24" t="s">
-        <v>781</v>
+        <v>259</v>
       </c>
       <c r="I300" s="2">
         <v>0</v>
       </c>
       <c r="J300" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K300" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L300" s="2">
         <v>1</v>
       </c>
       <c r="M300" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N300" s="2" t="s">
         <v>685</v>
@@ -18012,10 +18138,10 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="24" t="s">
-        <v>878</v>
+        <v>846</v>
       </c>
       <c r="B301" s="24" t="s">
-        <v>780</v>
+        <v>115</v>
       </c>
       <c r="C301" s="1">
         <v>0</v>
@@ -18030,13 +18156,13 @@
         <v>1</v>
       </c>
       <c r="G301" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301" s="24" t="s">
-        <v>781</v>
+        <v>260</v>
       </c>
       <c r="I301" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" s="2">
         <v>0</v>
@@ -18048,18 +18174,18 @@
         <v>0</v>
       </c>
       <c r="M301" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A302" s="24" t="s">
-        <v>850</v>
-      </c>
-      <c r="B302" s="24" t="s">
-        <v>122</v>
+      <c r="A302" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B302" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C302" s="1">
         <v>0</v>
@@ -18074,36 +18200,36 @@
         <v>1</v>
       </c>
       <c r="G302" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H302" s="24" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I302" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K302" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L302" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M302" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" s="24" t="s">
-        <v>403</v>
+        <v>847</v>
       </c>
       <c r="B303" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C303" s="1">
         <v>0</v>
@@ -18118,36 +18244,36 @@
         <v>1</v>
       </c>
       <c r="G303" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303" s="24" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I303" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L303" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M303" s="2">
         <v>0</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A304" s="24" t="s">
-        <v>894</v>
-      </c>
-      <c r="B304" s="24" t="s">
-        <v>122</v>
+      <c r="A304" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="C304" s="1">
         <v>0</v>
@@ -18162,36 +18288,36 @@
         <v>1</v>
       </c>
       <c r="G304" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304" s="24" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I304" s="2">
         <v>0</v>
       </c>
       <c r="J304" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L304" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M304" s="2">
         <v>1</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A305" s="24" t="s">
-        <v>851</v>
-      </c>
-      <c r="B305" s="24" t="s">
-        <v>123</v>
+      <c r="A305" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B305" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="C305" s="1">
         <v>0</v>
@@ -18209,16 +18335,16 @@
         <v>0</v>
       </c>
       <c r="H305" s="24" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I305" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L305" s="2">
         <v>0</v>
@@ -18227,15 +18353,15 @@
         <v>0</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A306" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="B306" s="24" t="s">
-        <v>123</v>
+      <c r="A306" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="B306" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="C306" s="1">
         <v>0</v>
@@ -18253,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="H306" s="24" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I306" s="2">
         <v>0</v>
@@ -18265,7 +18391,7 @@
         <v>1</v>
       </c>
       <c r="L306" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M306" s="2">
         <v>0</v>
@@ -18275,11 +18401,11 @@
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A307" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="B307" s="24" t="s">
-        <v>123</v>
+      <c r="A307" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B307" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="C307" s="1">
         <v>0</v>
@@ -18297,77 +18423,77 @@
         <v>0</v>
       </c>
       <c r="H307" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I307" s="2">
         <v>0</v>
       </c>
       <c r="J307" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K307" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L307" s="2">
         <v>0</v>
       </c>
       <c r="M307" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N307" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A308" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B308" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0</v>
+      </c>
+      <c r="D308" s="1">
+        <v>0</v>
+      </c>
+      <c r="E308" s="16">
+        <v>1</v>
+      </c>
+      <c r="F308" s="18">
+        <v>1</v>
+      </c>
+      <c r="G308" s="2">
+        <v>0</v>
+      </c>
+      <c r="H308" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I308" s="2">
+        <v>0</v>
+      </c>
+      <c r="J308" s="2">
+        <v>1</v>
+      </c>
+      <c r="K308" s="2">
+        <v>1</v>
+      </c>
+      <c r="L308" s="2">
+        <v>0</v>
+      </c>
+      <c r="M308" s="2">
+        <v>0</v>
+      </c>
+      <c r="N308" s="2" t="s">
         <v>685</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A308" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="B308" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C308" s="1">
-        <v>0</v>
-      </c>
-      <c r="D308" s="1">
-        <v>0</v>
-      </c>
-      <c r="E308" s="16">
-        <v>1</v>
-      </c>
-      <c r="F308" s="18">
-        <v>1</v>
-      </c>
-      <c r="G308" s="2">
-        <v>0</v>
-      </c>
-      <c r="H308" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="I308" s="2">
-        <v>1</v>
-      </c>
-      <c r="J308" s="2">
-        <v>0</v>
-      </c>
-      <c r="K308" s="2">
-        <v>0</v>
-      </c>
-      <c r="L308" s="2">
-        <v>0</v>
-      </c>
-      <c r="M308" s="2">
-        <v>0</v>
-      </c>
-      <c r="N308" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" s="24" t="s">
-        <v>405</v>
+        <v>848</v>
       </c>
       <c r="B309" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C309" s="1">
         <v>0</v>
@@ -18385,33 +18511,33 @@
         <v>0</v>
       </c>
       <c r="H309" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I309" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K309" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L309" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M309" s="2">
         <v>0</v>
       </c>
       <c r="N309" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" s="24" t="s">
-        <v>884</v>
+        <v>402</v>
       </c>
       <c r="B310" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C310" s="1">
         <v>0</v>
@@ -18429,22 +18555,22 @@
         <v>0</v>
       </c>
       <c r="H310" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I310" s="2">
         <v>0</v>
       </c>
       <c r="J310" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K310" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L310" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M310" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N310" s="2" t="s">
         <v>686</v>
@@ -18452,10 +18578,10 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" s="24" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="B311" s="24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C311" s="1">
         <v>0</v>
@@ -18473,10 +18599,10 @@
         <v>0</v>
       </c>
       <c r="H311" s="24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I311" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" s="2">
         <v>0</v>
@@ -18488,18 +18614,18 @@
         <v>0</v>
       </c>
       <c r="M311" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N311" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" s="24" t="s">
-        <v>406</v>
+        <v>849</v>
       </c>
       <c r="B312" s="24" t="s">
-        <v>125</v>
+        <v>780</v>
       </c>
       <c r="C312" s="1">
         <v>0</v>
@@ -18517,19 +18643,19 @@
         <v>0</v>
       </c>
       <c r="H312" s="24" t="s">
-        <v>270</v>
+        <v>781</v>
       </c>
       <c r="I312" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L312" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M312" s="2">
         <v>0</v>
@@ -18540,10 +18666,10 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" s="24" t="s">
-        <v>881</v>
+        <v>500</v>
       </c>
       <c r="B313" s="24" t="s">
-        <v>125</v>
+        <v>499</v>
       </c>
       <c r="C313" s="1">
         <v>0</v>
@@ -18561,33 +18687,33 @@
         <v>0</v>
       </c>
       <c r="H313" s="24" t="s">
-        <v>270</v>
+        <v>515</v>
       </c>
       <c r="I313" s="2">
         <v>0</v>
       </c>
       <c r="J313" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K313" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L313" s="2">
         <v>0</v>
       </c>
       <c r="M313" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N313" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" s="24" t="s">
-        <v>854</v>
+        <v>779</v>
       </c>
       <c r="B314" s="24" t="s">
-        <v>126</v>
+        <v>780</v>
       </c>
       <c r="C314" s="1">
         <v>0</v>
@@ -18605,10 +18731,10 @@
         <v>0</v>
       </c>
       <c r="H314" s="24" t="s">
-        <v>271</v>
+        <v>781</v>
       </c>
       <c r="I314" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" s="2">
         <v>0</v>
@@ -18617,21 +18743,21 @@
         <v>0</v>
       </c>
       <c r="L314" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M314" s="2">
         <v>0</v>
       </c>
       <c r="N314" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" s="24" t="s">
-        <v>407</v>
+        <v>878</v>
       </c>
       <c r="B315" s="24" t="s">
-        <v>126</v>
+        <v>780</v>
       </c>
       <c r="C315" s="1">
         <v>0</v>
@@ -18649,33 +18775,33 @@
         <v>0</v>
       </c>
       <c r="H315" s="24" t="s">
-        <v>271</v>
+        <v>781</v>
       </c>
       <c r="I315" s="2">
         <v>0</v>
       </c>
       <c r="J315" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K315" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L315" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M315" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N315" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" s="24" t="s">
-        <v>893</v>
+        <v>850</v>
       </c>
       <c r="B316" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C316" s="1">
         <v>0</v>
@@ -18693,10 +18819,10 @@
         <v>0</v>
       </c>
       <c r="H316" s="24" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I316" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" s="2">
         <v>0</v>
@@ -18708,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="M316" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N316" s="2" t="s">
         <v>689</v>
@@ -18716,10 +18842,10 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" s="24" t="s">
-        <v>855</v>
+        <v>403</v>
       </c>
       <c r="B317" s="24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C317" s="1">
         <v>0</v>
@@ -18737,33 +18863,33 @@
         <v>0</v>
       </c>
       <c r="H317" s="24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I317" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K317" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L317" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M317" s="2">
         <v>0</v>
       </c>
       <c r="N317" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" s="24" t="s">
-        <v>408</v>
+        <v>894</v>
       </c>
       <c r="B318" s="24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C318" s="1">
         <v>0</v>
@@ -18781,33 +18907,33 @@
         <v>0</v>
       </c>
       <c r="H318" s="24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I318" s="2">
         <v>0</v>
       </c>
       <c r="J318" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K318" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L318" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M318" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" s="24" t="s">
-        <v>882</v>
+        <v>851</v>
       </c>
       <c r="B319" s="24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C319" s="1">
         <v>0</v>
@@ -18825,10 +18951,10 @@
         <v>0</v>
       </c>
       <c r="H319" s="24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I319" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" s="2">
         <v>0</v>
@@ -18840,18 +18966,18 @@
         <v>0</v>
       </c>
       <c r="M319" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" s="24" t="s">
-        <v>856</v>
+        <v>404</v>
       </c>
       <c r="B320" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>
@@ -18869,33 +18995,33 @@
         <v>0</v>
       </c>
       <c r="H320" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I320" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K320" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L320" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M320" s="2">
         <v>0</v>
       </c>
       <c r="N320" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" s="24" t="s">
-        <v>409</v>
+        <v>879</v>
       </c>
       <c r="B321" s="24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C321" s="1">
         <v>0</v>
@@ -18913,33 +19039,33 @@
         <v>0</v>
       </c>
       <c r="H321" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I321" s="2">
         <v>0</v>
       </c>
       <c r="J321" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K321" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L321" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M321" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N321" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" s="24" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
       <c r="B322" s="24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C322" s="1">
         <v>0</v>
@@ -18957,10 +19083,10 @@
         <v>0</v>
       </c>
       <c r="H322" s="24" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I322" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" s="2">
         <v>0</v>
@@ -18972,7 +19098,7 @@
         <v>0</v>
       </c>
       <c r="M322" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N322" s="2" t="s">
         <v>689</v>
@@ -18980,10 +19106,10 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" s="24" t="s">
-        <v>857</v>
+        <v>405</v>
       </c>
       <c r="B323" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C323" s="1">
         <v>0</v>
@@ -19001,33 +19127,33 @@
         <v>0</v>
       </c>
       <c r="H323" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I323" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K323" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L323" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M323" s="2">
         <v>0</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" s="24" t="s">
-        <v>410</v>
+        <v>884</v>
       </c>
       <c r="B324" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C324" s="1">
         <v>0</v>
@@ -19045,33 +19171,33 @@
         <v>0</v>
       </c>
       <c r="H324" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I324" s="2">
         <v>0</v>
       </c>
       <c r="J324" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K324" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L324" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M324" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N324" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" s="24" t="s">
-        <v>883</v>
+        <v>853</v>
       </c>
       <c r="B325" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C325" s="1">
         <v>0</v>
@@ -19089,10 +19215,10 @@
         <v>0</v>
       </c>
       <c r="H325" s="24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I325" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" s="2">
         <v>0</v>
@@ -19104,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="M325" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N325" s="2" t="s">
         <v>689</v>
@@ -19112,10 +19238,10 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" s="24" t="s">
-        <v>858</v>
+        <v>406</v>
       </c>
       <c r="B326" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C326" s="1">
         <v>0</v>
@@ -19133,19 +19259,19 @@
         <v>0</v>
       </c>
       <c r="H326" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I326" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K326" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L326" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M326" s="2">
         <v>0</v>
@@ -19156,10 +19282,10 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" s="24" t="s">
-        <v>411</v>
+        <v>881</v>
       </c>
       <c r="B327" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
@@ -19177,22 +19303,22 @@
         <v>0</v>
       </c>
       <c r="H327" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I327" s="2">
         <v>0</v>
       </c>
       <c r="J327" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K327" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L327" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M327" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N327" s="2" t="s">
         <v>689</v>
@@ -19200,10 +19326,10 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" s="24" t="s">
-        <v>885</v>
+        <v>854</v>
       </c>
       <c r="B328" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
@@ -19221,10 +19347,10 @@
         <v>0</v>
       </c>
       <c r="H328" s="24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I328" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" s="2">
         <v>0</v>
@@ -19236,7 +19362,7 @@
         <v>0</v>
       </c>
       <c r="M328" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N328" s="2" t="s">
         <v>689</v>
@@ -19244,10 +19370,10 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" s="24" t="s">
-        <v>859</v>
+        <v>407</v>
       </c>
       <c r="B329" s="24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C329" s="1">
         <v>0</v>
@@ -19265,19 +19391,19 @@
         <v>0</v>
       </c>
       <c r="H329" s="24" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I329" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L329" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M329" s="2">
         <v>0</v>
@@ -19288,10 +19414,10 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" s="24" t="s">
-        <v>412</v>
+        <v>893</v>
       </c>
       <c r="B330" s="24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C330" s="1">
         <v>0</v>
@@ -19309,22 +19435,22 @@
         <v>0</v>
       </c>
       <c r="H330" s="24" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I330" s="2">
         <v>0</v>
       </c>
       <c r="J330" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K330" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L330" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M330" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N330" s="2" t="s">
         <v>689</v>
@@ -19332,10 +19458,10 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" s="24" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="B331" s="24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C331" s="1">
         <v>0</v>
@@ -19353,10 +19479,10 @@
         <v>0</v>
       </c>
       <c r="H331" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I331" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2">
         <v>0</v>
@@ -19368,18 +19494,18 @@
         <v>0</v>
       </c>
       <c r="M331" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N331" s="2" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A332" s="13" t="s">
-        <v>821</v>
-      </c>
-      <c r="B332" s="13" t="s">
-        <v>132</v>
+      <c r="A332" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B332" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="C332" s="1">
         <v>0</v>
@@ -19396,20 +19522,20 @@
       <c r="G332" s="2">
         <v>0</v>
       </c>
-      <c r="H332" s="13" t="s">
-        <v>277</v>
+      <c r="H332" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="I332" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K332" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L332" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M332" s="2">
         <v>0</v>
@@ -19419,11 +19545,11 @@
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A333" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="B333" s="13" t="s">
-        <v>132</v>
+      <c r="A333" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="B333" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="C333" s="1">
         <v>0</v>
@@ -19440,34 +19566,34 @@
       <c r="G333" s="2">
         <v>0</v>
       </c>
-      <c r="H333" s="13" t="s">
-        <v>277</v>
+      <c r="H333" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="I333" s="2">
         <v>0</v>
       </c>
       <c r="J333" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K333" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L333" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M333" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N333" s="2" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A334" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="B334" s="13" t="s">
-        <v>132</v>
+      <c r="A334" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="B334" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="C334" s="1">
         <v>0</v>
@@ -19484,11 +19610,11 @@
       <c r="G334" s="2">
         <v>0</v>
       </c>
-      <c r="H334" s="13" t="s">
-        <v>277</v>
+      <c r="H334" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="I334" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" s="2">
         <v>0</v>
@@ -19500,18 +19626,18 @@
         <v>0</v>
       </c>
       <c r="M334" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N334" s="2" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A335" s="13" t="s">
-        <v>822</v>
-      </c>
-      <c r="B335" s="13" t="s">
-        <v>133</v>
+      <c r="A335" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B335" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="C335" s="1">
         <v>0</v>
@@ -19522,26 +19648,26 @@
       <c r="E335" s="16">
         <v>1</v>
       </c>
-      <c r="F335" s="16">
+      <c r="F335" s="18">
         <v>1</v>
       </c>
       <c r="G335" s="2">
         <v>0</v>
       </c>
-      <c r="H335" s="13" t="s">
-        <v>278</v>
+      <c r="H335" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="I335" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L335" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M335" s="2">
         <v>0</v>
@@ -19551,11 +19677,11 @@
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A336" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="B336" s="13" t="s">
-        <v>133</v>
+      <c r="A336" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="B336" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="C336" s="1">
         <v>0</v>
@@ -19566,40 +19692,40 @@
       <c r="E336" s="16">
         <v>1</v>
       </c>
-      <c r="F336" s="16">
+      <c r="F336" s="18">
         <v>1</v>
       </c>
       <c r="G336" s="2">
         <v>0</v>
       </c>
-      <c r="H336" s="13" t="s">
-        <v>278</v>
+      <c r="H336" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="I336" s="2">
         <v>0</v>
       </c>
       <c r="J336" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K336" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L336" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M336" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N336" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="337" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="B337" s="13" t="s">
-        <v>133</v>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A337" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="B337" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="C337" s="1">
         <v>0</v>
@@ -19610,17 +19736,17 @@
       <c r="E337" s="16">
         <v>1</v>
       </c>
-      <c r="F337" s="16">
+      <c r="F337" s="18">
         <v>1</v>
       </c>
       <c r="G337" s="2">
         <v>0</v>
       </c>
-      <c r="H337" s="13" t="s">
-        <v>278</v>
+      <c r="H337" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="I337" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" s="2">
         <v>0</v>
@@ -19632,18 +19758,18 @@
         <v>0</v>
       </c>
       <c r="M337" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N337" s="2" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A338" s="13" t="s">
-        <v>823</v>
-      </c>
-      <c r="B338" s="13" t="s">
-        <v>134</v>
+      <c r="A338" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="B338" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="C338" s="1">
         <v>0</v>
@@ -19660,20 +19786,20 @@
       <c r="G338" s="2">
         <v>0</v>
       </c>
-      <c r="H338" s="13" t="s">
-        <v>279</v>
+      <c r="H338" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="I338" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K338" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L338" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M338" s="2">
         <v>0</v>
@@ -19683,11 +19809,11 @@
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A339" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="B339" s="13" t="s">
-        <v>134</v>
+      <c r="A339" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="B339" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="C339" s="1">
         <v>0</v>
@@ -19704,34 +19830,34 @@
       <c r="G339" s="2">
         <v>0</v>
       </c>
-      <c r="H339" s="13" t="s">
-        <v>279</v>
+      <c r="H339" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="I339" s="2">
         <v>0</v>
       </c>
       <c r="J339" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K339" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L339" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M339" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N339" s="2" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A340" s="13" t="s">
-        <v>824</v>
-      </c>
-      <c r="B340" s="13" t="s">
-        <v>135</v>
+      <c r="A340" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="B340" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="C340" s="1">
         <v>0</v>
@@ -19748,8 +19874,8 @@
       <c r="G340" s="2">
         <v>0</v>
       </c>
-      <c r="H340" s="13" t="s">
-        <v>280</v>
+      <c r="H340" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="I340" s="2">
         <v>1</v>
@@ -19771,11 +19897,11 @@
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A341" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B341" s="13" t="s">
-        <v>135</v>
+      <c r="A341" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B341" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="C341" s="1">
         <v>0</v>
@@ -19792,8 +19918,8 @@
       <c r="G341" s="2">
         <v>0</v>
       </c>
-      <c r="H341" s="13" t="s">
-        <v>280</v>
+      <c r="H341" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="I341" s="2">
         <v>0</v>
@@ -19815,11 +19941,11 @@
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A342" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="B342" s="13" t="s">
-        <v>135</v>
+      <c r="A342" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="B342" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="C342" s="1">
         <v>0</v>
@@ -19836,8 +19962,8 @@
       <c r="G342" s="2">
         <v>0</v>
       </c>
-      <c r="H342" s="13" t="s">
-        <v>280</v>
+      <c r="H342" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="I342" s="2">
         <v>0</v>
@@ -19859,11 +19985,11 @@
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A343" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="B343" s="13" t="s">
-        <v>136</v>
+      <c r="A343" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="B343" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C343" s="1">
         <v>0</v>
@@ -19880,8 +20006,8 @@
       <c r="G343" s="2">
         <v>0</v>
       </c>
-      <c r="H343" s="13" t="s">
-        <v>281</v>
+      <c r="H343" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="I343" s="2">
         <v>1</v>
@@ -19903,11 +20029,11 @@
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A344" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B344" s="13" t="s">
-        <v>136</v>
+      <c r="A344" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B344" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C344" s="1">
         <v>0</v>
@@ -19924,8 +20050,8 @@
       <c r="G344" s="2">
         <v>0</v>
       </c>
-      <c r="H344" s="13" t="s">
-        <v>281</v>
+      <c r="H344" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="I344" s="2">
         <v>0</v>
@@ -19947,11 +20073,11 @@
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A345" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="B345" s="13" t="s">
-        <v>137</v>
+      <c r="A345" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="B345" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C345" s="1">
         <v>0</v>
@@ -19968,11 +20094,11 @@
       <c r="G345" s="2">
         <v>0</v>
       </c>
-      <c r="H345" s="13" t="s">
-        <v>827</v>
+      <c r="H345" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="I345" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345" s="2">
         <v>0</v>
@@ -19984,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="M345" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N345" s="2" t="s">
         <v>689</v>
@@ -19992,10 +20118,10 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" s="13" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C346" s="1">
         <v>0</v>
@@ -20013,19 +20139,19 @@
         <v>0</v>
       </c>
       <c r="H346" s="13" t="s">
-        <v>516</v>
+        <v>277</v>
       </c>
       <c r="I346" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K346" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L346" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M346" s="2">
         <v>0</v>
@@ -20036,10 +20162,10 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" s="13" t="s">
-        <v>890</v>
+        <v>413</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
@@ -20057,22 +20183,22 @@
         <v>0</v>
       </c>
       <c r="H347" s="13" t="s">
-        <v>516</v>
+        <v>277</v>
       </c>
       <c r="I347" s="2">
         <v>0</v>
       </c>
       <c r="J347" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K347" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L347" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M347" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N347" s="2" t="s">
         <v>689</v>
@@ -20080,10 +20206,10 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" s="13" t="s">
-        <v>828</v>
+        <v>887</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>829</v>
+        <v>132</v>
       </c>
       <c r="C348" s="1">
         <v>0</v>
@@ -20101,10 +20227,10 @@
         <v>0</v>
       </c>
       <c r="H348" s="13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I348" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" s="2">
         <v>0</v>
@@ -20116,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="M348" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N348" s="2" t="s">
         <v>689</v>
@@ -20124,10 +20250,10 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" s="13" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>831</v>
+        <v>133</v>
       </c>
       <c r="C349" s="1">
         <v>0</v>
@@ -20138,14 +20264,14 @@
       <c r="E349" s="16">
         <v>1</v>
       </c>
-      <c r="F349" s="18">
+      <c r="F349" s="16">
         <v>1</v>
       </c>
       <c r="G349" s="2">
         <v>0</v>
       </c>
       <c r="H349" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I349" s="2">
         <v>1</v>
@@ -20168,10 +20294,10 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" s="13" t="s">
-        <v>832</v>
+        <v>414</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>833</v>
+        <v>133</v>
       </c>
       <c r="C350" s="1">
         <v>0</v>
@@ -20182,26 +20308,26 @@
       <c r="E350" s="16">
         <v>1</v>
       </c>
-      <c r="F350" s="18">
+      <c r="F350" s="16">
         <v>1</v>
       </c>
       <c r="G350" s="2">
         <v>0</v>
       </c>
       <c r="H350" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I350" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K350" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L350" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M350" s="2">
         <v>0</v>
@@ -20210,12 +20336,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="13" t="s">
-        <v>418</v>
+        <v>888</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C351" s="1">
         <v>0</v>
@@ -20226,29 +20352,29 @@
       <c r="E351" s="16">
         <v>1</v>
       </c>
-      <c r="F351" s="18">
+      <c r="F351" s="16">
         <v>1</v>
       </c>
       <c r="G351" s="2">
         <v>0</v>
       </c>
       <c r="H351" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I351" s="2">
         <v>0</v>
       </c>
       <c r="J351" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K351" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L351" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M351" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N351" s="2" t="s">
         <v>689</v>
@@ -20256,10 +20382,10 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" s="13" t="s">
-        <v>891</v>
+        <v>823</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C352" s="1">
         <v>0</v>
@@ -20277,10 +20403,10 @@
         <v>0</v>
       </c>
       <c r="H352" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I352" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352" s="2">
         <v>0</v>
@@ -20292,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="M352" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N352" s="2" t="s">
         <v>689</v>
@@ -20300,10 +20426,10 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" s="13" t="s">
-        <v>834</v>
+        <v>415</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C353" s="1">
         <v>0</v>
@@ -20321,19 +20447,19 @@
         <v>0</v>
       </c>
       <c r="H353" s="13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I353" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K353" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L353" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M353" s="2">
         <v>0</v>
@@ -20344,10 +20470,10 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" s="13" t="s">
-        <v>419</v>
+        <v>824</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C354" s="1">
         <v>0</v>
@@ -20365,19 +20491,19 @@
         <v>0</v>
       </c>
       <c r="H354" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I354" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K354" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L354" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M354" s="2">
         <v>0</v>
@@ -20388,10 +20514,10 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" s="13" t="s">
-        <v>835</v>
+        <v>416</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C355" s="1">
         <v>0</v>
@@ -20409,19 +20535,19 @@
         <v>0</v>
       </c>
       <c r="H355" s="13" t="s">
-        <v>284</v>
+     